--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62588E07-E44F-4442-BA8E-37103D28BA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1116004-4F81-43B9-9C4D-F135E0AAE08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="144" windowWidth="15576" windowHeight="12216" activeTab="1" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="732" yWindow="144" windowWidth="15576" windowHeight="12216" activeTab="1" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="609">
   <si>
     <t>PG</t>
   </si>
@@ -875,9 +875,6 @@
     <t>Kenrich Williams</t>
   </si>
   <si>
-    <t>Ty Jerome</t>
-  </si>
-  <si>
     <t>Moses Brown</t>
   </si>
   <si>
@@ -1565,9 +1562,6 @@
     <t>SA @ DEN, Today, 9:00 PM</t>
   </si>
   <si>
-    <t>Joel EmbiidGTD</t>
-  </si>
-  <si>
     <t>IND @ WAS, Today, 7:00 PM</t>
   </si>
   <si>
@@ -1583,9 +1577,6 @@
     <t>PHO @ LAL, Today, 10:00 PM</t>
   </si>
   <si>
-    <t>Bradley BealGTD</t>
-  </si>
-  <si>
     <t>NY @ ORL, Today, 7:00 PM</t>
   </si>
   <si>
@@ -1598,21 +1589,12 @@
     <t>OKC @ HOU, Today, 8:00 PM</t>
   </si>
   <si>
-    <t>Terry RozierGTD</t>
-  </si>
-  <si>
     <t>Jalen Green</t>
   </si>
   <si>
-    <t>Darius GarlandGTD</t>
-  </si>
-  <si>
     <t>Evan Mobley</t>
   </si>
   <si>
-    <t>Marcus SmartGTD</t>
-  </si>
-  <si>
     <t>Spencer Dinwiddie</t>
   </si>
   <si>
@@ -1646,9 +1628,6 @@
     <t>Kendrick NunnINJ</t>
   </si>
   <si>
-    <t>Justin HolidayGTD</t>
-  </si>
-  <si>
     <t>Chris Duarte</t>
   </si>
   <si>
@@ -1682,18 +1661,12 @@
     <t>Aaron Henry</t>
   </si>
   <si>
-    <t>Landry ShametGTD</t>
-  </si>
-  <si>
     <t>Talen Horton-TuckerINJ</t>
   </si>
   <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Sekou DoumbouyaGTD</t>
-  </si>
-  <si>
     <t>Jay Huff</t>
   </si>
   <si>
@@ -1712,9 +1685,6 @@
     <t>Justin Champagnie</t>
   </si>
   <si>
-    <t>Josh RichardsonGTD</t>
-  </si>
-  <si>
     <t>Sam Hauser</t>
   </si>
   <si>
@@ -1757,9 +1727,6 @@
     <t>Dylan WindlerO</t>
   </si>
   <si>
-    <t>Dean WadeGTD</t>
-  </si>
-  <si>
     <t>Kevin Pangos</t>
   </si>
   <si>
@@ -1778,21 +1745,12 @@
     <t>Petr Cornelie</t>
   </si>
   <si>
-    <t>Vlatko CancarGTD</t>
-  </si>
-  <si>
     <t>Bones Hyland</t>
   </si>
   <si>
     <t>Devontae CacokO</t>
   </si>
   <si>
-    <t>Jeremy LambGTD</t>
-  </si>
-  <si>
-    <t>Torrey CraigGTD</t>
-  </si>
-  <si>
     <t>Kelan MartinO</t>
   </si>
   <si>
@@ -1808,9 +1766,6 @@
     <t>Cassius WinstonO</t>
   </si>
   <si>
-    <t>Anthony GillGTD</t>
-  </si>
-  <si>
     <t>Corey Kispert</t>
   </si>
   <si>
@@ -1847,9 +1802,6 @@
     <t>Jared Butler</t>
   </si>
   <si>
-    <t>Moe HarklessGTD</t>
-  </si>
-  <si>
     <t>Neemias Queta</t>
   </si>
   <si>
@@ -1878,6 +1830,42 @@
   </si>
   <si>
     <t>Wayne Selden Jr.</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Bradley Beal</t>
+  </si>
+  <si>
+    <t>Terry Rozier</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Thaddeus YoungO</t>
+  </si>
+  <si>
+    <t>Justin Holiday</t>
+  </si>
+  <si>
+    <t>Sekou Doumbouya</t>
+  </si>
+  <si>
+    <t>Jeremy Lamb</t>
+  </si>
+  <si>
+    <t>Torrey Craig</t>
+  </si>
+  <si>
+    <t>Anthony Gill</t>
+  </si>
+  <si>
+    <t>Ty JeromeO</t>
   </si>
 </sst>
 </file>
@@ -2389,30 +2377,30 @@
   <sheetData>
     <row r="1" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>505</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>186</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="D2" s="6">
         <v>52.1</v>
@@ -2429,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D3" s="6">
         <v>53.8</v>
@@ -2446,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D4" s="6">
         <v>55.1</v>
@@ -2463,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D5" s="6">
         <v>50.7</v>
@@ -2480,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D6" s="6">
         <v>45.5</v>
@@ -2491,13 +2479,13 @@
     </row>
     <row r="7" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D7" s="6">
         <v>46.2</v>
@@ -2508,13 +2496,13 @@
     </row>
     <row r="8" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D8" s="6">
         <v>49.3</v>
@@ -2531,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D9" s="6">
         <v>46.7</v>
@@ -2542,13 +2530,13 @@
     </row>
     <row r="10" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D10" s="6">
         <v>43.2</v>
@@ -2559,13 +2547,13 @@
     </row>
     <row r="11" spans="1:5" s="14" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D11" s="6">
         <v>47.1</v>
@@ -2576,13 +2564,13 @@
     </row>
     <row r="12" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D12" s="6">
         <v>45.6</v>
@@ -2599,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D13" s="6">
         <v>45.8</v>
@@ -2610,13 +2598,13 @@
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D14" s="6">
         <v>43.2</v>
@@ -2627,13 +2615,13 @@
     </row>
     <row r="15" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D15" s="6">
         <v>46.2</v>
@@ -2650,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D16" s="6">
         <v>43.2</v>
@@ -2667,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D17" s="6">
         <v>40.5</v>
@@ -2678,13 +2666,13 @@
     </row>
     <row r="18" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D18" s="6">
         <v>41.5</v>
@@ -2701,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D19" s="6">
         <v>44.2</v>
@@ -2718,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D20" s="6">
         <v>39.200000000000003</v>
@@ -2735,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D21" s="6">
         <v>33.299999999999997</v>
@@ -2746,13 +2734,13 @@
     </row>
     <row r="22" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D22" s="6">
         <v>36.9</v>
@@ -2769,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D23" s="6">
         <v>29.6</v>
@@ -2780,13 +2768,13 @@
     </row>
     <row r="24" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D24" s="6">
         <v>40.6</v>
@@ -2803,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D25" s="6">
         <v>40.5</v>
@@ -2814,13 +2802,13 @@
     </row>
     <row r="26" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D26" s="6">
         <v>41.1</v>
@@ -2837,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D27" s="6">
         <v>31.8</v>
@@ -2854,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D28" s="6">
         <v>35.6</v>
@@ -2865,13 +2853,13 @@
     </row>
     <row r="29" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D29" s="6">
         <v>26.8</v>
@@ -2882,13 +2870,13 @@
     </row>
     <row r="30" spans="1:5" s="14" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D30" s="6">
         <v>37.799999999999997</v>
@@ -2899,13 +2887,13 @@
     </row>
     <row r="31" spans="1:5" s="14" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D31" s="6">
         <v>36.700000000000003</v>
@@ -2916,13 +2904,13 @@
     </row>
     <row r="32" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D32" s="6">
         <v>37.700000000000003</v>
@@ -2939,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D33" s="6">
         <v>29.7</v>
@@ -2950,13 +2938,13 @@
     </row>
     <row r="34" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A34" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D34" s="6">
         <v>32.200000000000003</v>
@@ -2967,13 +2955,13 @@
     </row>
     <row r="35" spans="1:5" s="14" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D35" s="6">
         <v>30.2</v>
@@ -2984,13 +2972,13 @@
     </row>
     <row r="36" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D36" s="6">
         <v>36.4</v>
@@ -3001,13 +2989,13 @@
     </row>
     <row r="37" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A37" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D37" s="6">
         <v>31.3</v>
@@ -3018,13 +3006,13 @@
     </row>
     <row r="38" spans="1:5" s="14" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D38" s="6">
         <v>38.299999999999997</v>
@@ -3035,13 +3023,13 @@
     </row>
     <row r="39" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A39" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D39" s="6">
         <v>32.9</v>
@@ -3052,13 +3040,13 @@
     </row>
     <row r="40" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D40" s="6">
         <v>30.4</v>
@@ -3069,13 +3057,13 @@
     </row>
     <row r="41" spans="1:5" s="14" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A41" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D41" s="6">
         <v>36.9</v>
@@ -3086,13 +3074,13 @@
     </row>
     <row r="42" spans="1:5" s="14" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A42" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D42" s="6">
         <v>28.7</v>
@@ -3103,13 +3091,13 @@
     </row>
     <row r="43" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A43" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D43" s="6">
         <v>35.1</v>
@@ -3126,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D44" s="6">
         <v>31.9</v>
@@ -3143,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D45" s="6">
         <v>28.1</v>
@@ -3154,13 +3142,13 @@
     </row>
     <row r="46" spans="1:5" s="14" customFormat="1" ht="28.2" customHeight="1" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D46" s="6">
         <v>19.899999999999999</v>
@@ -3177,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D47" s="6">
         <v>31.6</v>
@@ -3188,13 +3176,13 @@
     </row>
     <row r="48" spans="1:5" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D48" s="6">
         <v>21.2</v>
@@ -3211,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D49" s="6">
         <v>21.5</v>
@@ -3222,13 +3210,13 @@
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D50" s="6">
         <v>32</v>
@@ -3245,7 +3233,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D51" s="6">
         <v>31.8</v>
@@ -3262,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D52" s="6">
         <v>24.8</v>
@@ -3273,13 +3261,13 @@
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D53" s="6">
         <v>29.6</v>
@@ -3290,13 +3278,13 @@
     </row>
     <row r="54" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D54" s="6">
         <v>21</v>
@@ -3307,13 +3295,13 @@
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D55" s="6">
         <v>21.8</v>
@@ -3324,13 +3312,13 @@
     </row>
     <row r="56" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D56" s="6">
         <v>37</v>
@@ -3341,13 +3329,13 @@
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D57" s="6">
         <v>25.5</v>
@@ -3364,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D58" s="6">
         <v>30</v>
@@ -3381,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D59" s="6">
         <v>24.3</v>
@@ -3398,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D60" s="6">
         <v>27.1</v>
@@ -3415,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D61" s="6">
         <v>25.4</v>
@@ -3426,13 +3414,13 @@
     </row>
     <row r="62" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A62" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D62" s="6">
         <v>14.6</v>
@@ -3449,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D63" s="6">
         <v>27.8</v>
@@ -3460,13 +3448,13 @@
     </row>
     <row r="64" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A64" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D64" s="6">
         <v>26</v>
@@ -3477,13 +3465,13 @@
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1">
       <c r="A65" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D65" s="6">
         <v>23.7</v>
@@ -3500,7 +3488,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D66" s="6">
         <v>25.8</v>
@@ -3517,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D67" s="6">
         <v>24.2</v>
@@ -3528,13 +3516,13 @@
     </row>
     <row r="68" spans="1:5" ht="15" thickBot="1">
       <c r="A68" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D68" s="6">
         <v>25</v>
@@ -3545,13 +3533,13 @@
     </row>
     <row r="69" spans="1:5" ht="15" thickBot="1">
       <c r="A69" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D69" s="6">
         <v>24.6</v>
@@ -3568,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D70" s="6">
         <v>17.2</v>
@@ -3579,13 +3567,13 @@
     </row>
     <row r="71" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A71" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D71" s="6">
         <v>24.8</v>
@@ -3602,7 +3590,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D72" s="6">
         <v>24.1</v>
@@ -3619,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D73" s="6">
         <v>20.8</v>
@@ -3630,13 +3618,13 @@
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D74" s="6">
         <v>22</v>
@@ -3647,13 +3635,13 @@
     </row>
     <row r="75" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A75" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D75" s="6">
         <v>24</v>
@@ -3664,13 +3652,13 @@
     </row>
     <row r="76" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A76" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D76" s="6">
         <v>26.8</v>
@@ -3687,7 +3675,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D77" s="6">
         <v>26.1</v>
@@ -3704,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D78" s="6">
         <v>24.5</v>
@@ -3721,7 +3709,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D79" s="6">
         <v>28.8</v>
@@ -3732,13 +3720,13 @@
     </row>
     <row r="80" spans="1:5" ht="15" thickBot="1">
       <c r="A80" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D80" s="6">
         <v>23.1</v>
@@ -3755,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D81" s="6">
         <v>25.1</v>
@@ -3772,7 +3760,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D82" s="6">
         <v>18.8</v>
@@ -3783,13 +3771,13 @@
     </row>
     <row r="83" spans="1:5" ht="15" thickBot="1">
       <c r="A83" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D83" s="6">
         <v>24.6</v>
@@ -3800,13 +3788,13 @@
     </row>
     <row r="84" spans="1:5" ht="15" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D84" s="6">
         <v>26.9</v>
@@ -3823,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D85" s="6">
         <v>15.5</v>
@@ -3834,13 +3822,13 @@
     </row>
     <row r="86" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A86" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D86" s="6">
         <v>19.600000000000001</v>
@@ -3851,13 +3839,13 @@
     </row>
     <row r="87" spans="1:5" ht="15" thickBot="1">
       <c r="A87" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D87" s="6">
         <v>15.8</v>
@@ -3874,7 +3862,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D88" s="6">
         <v>22.3</v>
@@ -3885,13 +3873,13 @@
     </row>
     <row r="89" spans="1:5" ht="15" thickBot="1">
       <c r="A89" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D89" s="6">
         <v>23</v>
@@ -3902,13 +3890,13 @@
     </row>
     <row r="90" spans="1:5" ht="15" thickBot="1">
       <c r="A90" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D90" s="6">
         <v>26.1</v>
@@ -3919,13 +3907,13 @@
     </row>
     <row r="91" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
       <c r="A91" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D91" s="6">
         <v>22.3</v>
@@ -3942,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D92" s="6">
         <v>24.3</v>
@@ -3959,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D93" s="6">
         <v>24.5</v>
@@ -3976,7 +3964,7 @@
         <v>4</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D94" s="6">
         <v>24.8</v>
@@ -3993,7 +3981,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D95" s="6">
         <v>21.4</v>
@@ -4010,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D96" s="6">
         <v>20</v>
@@ -4021,13 +4009,13 @@
     </row>
     <row r="97" spans="1:5" ht="15" thickBot="1">
       <c r="A97" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D97" s="6">
         <v>23.1</v>
@@ -4038,13 +4026,13 @@
     </row>
     <row r="98" spans="1:5" ht="15" thickBot="1">
       <c r="A98" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D98" s="6">
         <v>22</v>
@@ -4055,13 +4043,13 @@
     </row>
     <row r="99" spans="1:5" ht="15" thickBot="1">
       <c r="A99" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D99" s="6">
         <v>26.7</v>
@@ -4072,13 +4060,13 @@
     </row>
     <row r="100" spans="1:5" ht="15" thickBot="1">
       <c r="A100" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D100" s="6">
         <v>23.5</v>
@@ -4089,13 +4077,13 @@
     </row>
     <row r="101" spans="1:5" ht="15" thickBot="1">
       <c r="A101" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D101" s="6">
         <v>19.100000000000001</v>
@@ -4106,13 +4094,13 @@
     </row>
     <row r="102" spans="1:5" ht="15" thickBot="1">
       <c r="A102" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D102" s="6">
         <v>22</v>
@@ -4129,7 +4117,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D103" s="6">
         <v>28.4</v>
@@ -4140,13 +4128,13 @@
     </row>
     <row r="104" spans="1:5" ht="15" thickBot="1">
       <c r="A104" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D104" s="6">
         <v>24.5</v>
@@ -4157,13 +4145,13 @@
     </row>
     <row r="105" spans="1:5" ht="15" thickBot="1">
       <c r="A105" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D105" s="6">
         <v>24.4</v>
@@ -4174,13 +4162,13 @@
     </row>
     <row r="106" spans="1:5" ht="15" thickBot="1">
       <c r="A106" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D106" s="6">
         <v>20</v>
@@ -4191,13 +4179,13 @@
     </row>
     <row r="107" spans="1:5" ht="15" thickBot="1">
       <c r="A107" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D107" s="6">
         <v>18.7</v>
@@ -4208,13 +4196,13 @@
     </row>
     <row r="108" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A108" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D108" s="6">
         <v>14</v>
@@ -4231,7 +4219,7 @@
         <v>4</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D109" s="6">
         <v>20.8</v>
@@ -4242,13 +4230,13 @@
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1">
       <c r="A110" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D110" s="6">
         <v>26.5</v>
@@ -4265,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D111" s="6">
         <v>25.6</v>
@@ -4276,13 +4264,13 @@
     </row>
     <row r="112" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A112" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D112" s="6">
         <v>18.2</v>
@@ -4293,13 +4281,13 @@
     </row>
     <row r="113" spans="1:5" ht="15" thickBot="1">
       <c r="A113" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D113" s="6">
         <v>20.3</v>
@@ -4316,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D114" s="6">
         <v>14.8</v>
@@ -4333,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D115" s="6">
         <v>22</v>
@@ -4350,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D116" s="6">
         <v>22.4</v>
@@ -4361,13 +4349,13 @@
     </row>
     <row r="117" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A117" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D117" s="6">
         <v>21.5</v>
@@ -4384,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D118" s="6">
         <v>21.4</v>
@@ -4401,7 +4389,7 @@
         <v>3</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D119" s="6">
         <v>14.4</v>
@@ -4418,7 +4406,7 @@
         <v>3</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D120" s="6">
         <v>21.7</v>
@@ -4435,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D121" s="6">
         <v>18.600000000000001</v>
@@ -4452,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D122" s="6">
         <v>23</v>
@@ -4469,7 +4457,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D123" s="6">
         <v>18.2</v>
@@ -4480,13 +4468,13 @@
     </row>
     <row r="124" spans="1:5" ht="15" thickBot="1">
       <c r="A124" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D124" s="6">
         <v>18.5</v>
@@ -4503,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D125" s="6">
         <v>13.6</v>
@@ -4514,13 +4502,13 @@
     </row>
     <row r="126" spans="1:5" ht="15" thickBot="1">
       <c r="A126" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D126" s="6">
         <v>23.1</v>
@@ -4537,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D127" s="6">
         <v>18</v>
@@ -4548,13 +4536,13 @@
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1">
       <c r="A128" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D128" s="6">
         <v>15.7</v>
@@ -4565,13 +4553,13 @@
     </row>
     <row r="129" spans="1:5" ht="15" thickBot="1">
       <c r="A129" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D129" s="6">
         <v>17.100000000000001</v>
@@ -4582,13 +4570,13 @@
     </row>
     <row r="130" spans="1:5" ht="15" thickBot="1">
       <c r="A130" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D130" s="6">
         <v>6.3</v>
@@ -4605,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D131" s="6">
         <v>18.600000000000001</v>
@@ -4616,13 +4604,13 @@
     </row>
     <row r="132" spans="1:5" ht="15" thickBot="1">
       <c r="A132" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D132" s="6">
         <v>19.2</v>
@@ -4639,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D133" s="6">
         <v>15.9</v>
@@ -4656,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D134" s="6">
         <v>18.600000000000001</v>
@@ -4667,13 +4655,13 @@
     </row>
     <row r="135" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A135" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D135" s="6">
         <v>18.600000000000001</v>
@@ -4690,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D136" s="6">
         <v>20.6</v>
@@ -4701,13 +4689,13 @@
     </row>
     <row r="137" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A137" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D137" s="6">
         <v>10.4</v>
@@ -4718,13 +4706,13 @@
     </row>
     <row r="138" spans="1:5" ht="15" thickBot="1">
       <c r="A138" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D138" s="6">
         <v>9</v>
@@ -4741,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D139" s="6">
         <v>14.9</v>
@@ -4752,13 +4740,13 @@
     </row>
     <row r="140" spans="1:5" ht="15" thickBot="1">
       <c r="A140" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D140" s="6">
         <v>21</v>
@@ -4769,13 +4757,13 @@
     </row>
     <row r="141" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A141" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D141" s="6">
         <v>21.1</v>
@@ -4792,7 +4780,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D142" s="6">
         <v>11.8</v>
@@ -4803,13 +4791,13 @@
     </row>
     <row r="143" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A143" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D143" s="6">
         <v>22.5</v>
@@ -4826,7 +4814,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D144" s="6">
         <v>21</v>
@@ -4837,13 +4825,13 @@
     </row>
     <row r="145" spans="1:5" ht="15" thickBot="1">
       <c r="A145" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D145" s="6">
         <v>9.3000000000000007</v>
@@ -4860,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D146" s="6">
         <v>12.4</v>
@@ -4877,7 +4865,7 @@
         <v>4</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D147" s="6">
         <v>27.1</v>
@@ -4894,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D148" s="6">
         <v>19</v>
@@ -4905,13 +4893,13 @@
     </row>
     <row r="149" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A149" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D149" s="6">
         <v>14.5</v>
@@ -4928,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D150" s="6">
         <v>12.3</v>
@@ -4939,13 +4927,13 @@
     </row>
     <row r="151" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A151" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D151" s="6">
         <v>12.9</v>
@@ -4962,7 +4950,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D152" s="6">
         <v>5.6</v>
@@ -4973,13 +4961,13 @@
     </row>
     <row r="153" spans="1:5" ht="15" thickBot="1">
       <c r="A153" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D153" s="6">
         <v>4.8</v>
@@ -4990,13 +4978,13 @@
     </row>
     <row r="154" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A154" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D154" s="6">
         <v>9.6</v>
@@ -5007,13 +4995,13 @@
     </row>
     <row r="155" spans="1:5" ht="15" thickBot="1">
       <c r="A155" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D155" s="6">
         <v>8.3000000000000007</v>
@@ -5030,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D156" s="6">
         <v>21.6</v>
@@ -5047,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D157" s="6">
         <v>17.7</v>
@@ -5058,13 +5046,13 @@
     </row>
     <row r="158" spans="1:5" ht="15" thickBot="1">
       <c r="A158" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D158" s="6">
         <v>10.1</v>
@@ -5075,13 +5063,13 @@
     </row>
     <row r="159" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A159" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D159" s="6">
         <v>12.1</v>
@@ -5092,13 +5080,13 @@
     </row>
     <row r="160" spans="1:5" ht="15" thickBot="1">
       <c r="A160" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D160" s="6">
         <v>15.5</v>
@@ -5115,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D161" s="6">
         <v>15.1</v>
@@ -5126,13 +5114,13 @@
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1">
       <c r="A162" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D162" s="6">
         <v>14.2</v>
@@ -5143,13 +5131,13 @@
     </row>
     <row r="163" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A163" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D163" s="6">
         <v>10.6</v>
@@ -5166,7 +5154,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D164" s="6">
         <v>19.7</v>
@@ -5183,7 +5171,7 @@
         <v>4</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D165" s="6">
         <v>8.3000000000000007</v>
@@ -5200,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D166" s="6">
         <v>5.2</v>
@@ -5217,7 +5205,7 @@
         <v>3</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D167" s="6">
         <v>15.2</v>
@@ -5234,7 +5222,7 @@
         <v>3</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D168" s="6">
         <v>13.4</v>
@@ -5245,13 +5233,13 @@
     </row>
     <row r="169" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A169" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D169" s="6">
         <v>35.5</v>
@@ -5262,13 +5250,13 @@
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1">
       <c r="A170" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D170" s="6">
         <v>16.600000000000001</v>
@@ -5285,7 +5273,7 @@
         <v>2</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D171" s="6">
         <v>5.9</v>
@@ -5302,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D172" s="6">
         <v>8.5</v>
@@ -5313,13 +5301,13 @@
     </row>
     <row r="173" spans="1:5" ht="15" thickBot="1">
       <c r="A173" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D173" s="6">
         <v>8.1999999999999993</v>
@@ -5336,7 +5324,7 @@
         <v>4</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D174" s="6">
         <v>10.9</v>
@@ -5347,13 +5335,13 @@
     </row>
     <row r="175" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A175" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D175" s="6">
         <v>15</v>
@@ -5364,13 +5352,13 @@
     </row>
     <row r="176" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A176" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D176" s="6">
         <v>10.1</v>
@@ -5381,13 +5369,13 @@
     </row>
     <row r="177" spans="1:5" ht="15" thickBot="1">
       <c r="A177" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D177" s="6">
         <v>9.1999999999999993</v>
@@ -5398,13 +5386,13 @@
     </row>
     <row r="178" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A178" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B178" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D178" s="6">
         <v>18.3</v>
@@ -5415,13 +5403,13 @@
     </row>
     <row r="179" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A179" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D179" s="6">
         <v>4.2</v>
@@ -5438,7 +5426,7 @@
         <v>3</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D180" s="6">
         <v>20.399999999999999</v>
@@ -5449,13 +5437,13 @@
     </row>
     <row r="181" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A181" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D181" s="6">
         <v>17.5</v>
@@ -5466,13 +5454,13 @@
     </row>
     <row r="182" spans="1:5" ht="15" thickBot="1">
       <c r="A182" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D182" s="6">
         <v>17.5</v>
@@ -5489,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D183" s="6">
         <v>12.4</v>
@@ -5506,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D184" s="6">
         <v>25.8</v>
@@ -5523,7 +5511,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D185" s="6">
         <v>32.299999999999997</v>
@@ -5534,13 +5522,13 @@
     </row>
     <row r="186" spans="1:5" ht="15" thickBot="1">
       <c r="A186" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D186" s="6">
         <v>5.8</v>
@@ -5551,13 +5539,13 @@
     </row>
     <row r="187" spans="1:5" ht="15" thickBot="1">
       <c r="A187" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D187" s="6">
         <v>19.8</v>
@@ -5574,7 +5562,7 @@
         <v>3</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D188" s="6">
         <v>12.8</v>
@@ -5585,13 +5573,13 @@
     </row>
     <row r="189" spans="1:5" ht="15" thickBot="1">
       <c r="A189" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D189" s="6">
         <v>11.9</v>
@@ -5602,13 +5590,13 @@
     </row>
     <row r="190" spans="1:5" ht="15" thickBot="1">
       <c r="A190" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B190" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D190" s="6">
         <v>14</v>
@@ -5619,13 +5607,13 @@
     </row>
     <row r="191" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A191" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B191" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D191" s="6">
         <v>7.2</v>
@@ -5636,13 +5624,13 @@
     </row>
     <row r="192" spans="1:5" ht="15" thickBot="1">
       <c r="A192" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D192" s="6">
         <v>3.4</v>
@@ -5653,13 +5641,13 @@
     </row>
     <row r="193" spans="1:5" ht="15" thickBot="1">
       <c r="A193" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D193" s="6">
         <v>16.399999999999999</v>
@@ -5676,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D194" s="6">
         <v>9.9</v>
@@ -5693,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D195" s="6">
         <v>16.2</v>
@@ -5704,13 +5692,13 @@
     </row>
     <row r="196" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A196" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B196" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D196" s="6">
         <v>15.3</v>
@@ -5727,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D197" s="6">
         <v>3.5</v>
@@ -5744,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D198" s="6">
         <v>13.6</v>
@@ -5761,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D199" s="6">
         <v>5.9</v>
@@ -5778,7 +5766,7 @@
         <v>2</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D200" s="6">
         <v>7.9</v>
@@ -5789,13 +5777,13 @@
     </row>
     <row r="201" spans="1:5" ht="15" thickBot="1">
       <c r="A201" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D201" s="6">
         <v>9.1</v>
@@ -5812,7 +5800,7 @@
         <v>3</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D202" s="6">
         <v>9.1999999999999993</v>
@@ -5823,13 +5811,13 @@
     </row>
     <row r="203" spans="1:5" ht="15" thickBot="1">
       <c r="A203" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D203" s="6">
         <v>20.9</v>
@@ -5846,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D204" s="6">
         <v>18.100000000000001</v>
@@ -5857,13 +5845,13 @@
     </row>
     <row r="205" spans="1:5" ht="15" thickBot="1">
       <c r="A205" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D205" s="6">
         <v>16.899999999999999</v>
@@ -5874,13 +5862,13 @@
     </row>
     <row r="206" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A206" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D206" s="6">
         <v>35.9</v>
@@ -5891,13 +5879,13 @@
     </row>
     <row r="207" spans="1:5" ht="15" thickBot="1">
       <c r="A207" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D207" s="6">
         <v>6.5</v>
@@ -5914,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D208" s="6">
         <v>4.5999999999999996</v>
@@ -5931,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D209" s="6">
         <v>19.8</v>
@@ -5948,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D210" s="6">
         <v>4.2</v>
@@ -5965,7 +5953,7 @@
         <v>3</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D211" s="6">
         <v>6</v>
@@ -5982,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D212" s="6">
         <v>3.4</v>
@@ -5999,7 +5987,7 @@
         <v>3</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D213" s="6">
         <v>22.2</v>
@@ -6010,13 +5998,13 @@
     </row>
     <row r="214" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A214" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D214" s="6">
         <v>8.5</v>
@@ -6033,7 +6021,7 @@
         <v>2</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D215" s="6">
         <v>16.7</v>
@@ -6050,7 +6038,7 @@
         <v>3</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D216" s="6">
         <v>17</v>
@@ -6061,13 +6049,13 @@
     </row>
     <row r="217" spans="1:5" ht="15" thickBot="1">
       <c r="A217" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B217" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D217" s="6">
         <v>4.2</v>
@@ -6078,13 +6066,13 @@
     </row>
     <row r="218" spans="1:5" ht="15" thickBot="1">
       <c r="A218" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D218" s="6">
         <v>9.3000000000000007</v>
@@ -6101,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D219" s="6">
         <v>13.1</v>
@@ -6118,7 +6106,7 @@
         <v>2</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D220" s="6">
         <v>9.3000000000000007</v>
@@ -6135,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D221" s="6">
         <v>1.8</v>
@@ -6152,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D222" s="6">
         <v>4.8</v>
@@ -6163,13 +6151,13 @@
     </row>
     <row r="223" spans="1:5" ht="15" thickBot="1">
       <c r="A223" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D223" s="6">
         <v>8</v>
@@ -6186,7 +6174,7 @@
         <v>4</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D224" s="6">
         <v>16.8</v>
@@ -6197,13 +6185,13 @@
     </row>
     <row r="225" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A225" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D225" s="6">
         <v>40.700000000000003</v>
@@ -6220,7 +6208,7 @@
         <v>3</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D226" s="6">
         <v>5.0999999999999996</v>
@@ -6237,7 +6225,7 @@
         <v>2</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D227" s="6">
         <v>5.4</v>
@@ -6254,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D228" s="6">
         <v>4.9000000000000004</v>
@@ -6271,7 +6259,7 @@
         <v>3</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D229" s="6">
         <v>3.3</v>
@@ -6282,13 +6270,13 @@
     </row>
     <row r="230" spans="1:5" ht="15" thickBot="1">
       <c r="A230" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D230" s="6">
         <v>2.8</v>
@@ -6305,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D231" s="6">
         <v>2.8</v>
@@ -6322,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D232" s="6">
         <v>7.7</v>
@@ -6333,13 +6321,13 @@
     </row>
     <row r="233" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A233" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D233" s="6">
         <v>19.600000000000001</v>
@@ -6356,7 +6344,7 @@
         <v>2</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D234" s="6">
         <v>30.4</v>
@@ -6373,7 +6361,7 @@
         <v>2</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D235" s="6">
         <v>13.5</v>
@@ -6384,13 +6372,13 @@
     </row>
     <row r="236" spans="1:5" ht="15" thickBot="1">
       <c r="A236" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D236" s="6">
         <v>11.5</v>
@@ -6401,13 +6389,13 @@
     </row>
     <row r="237" spans="1:5" ht="15" thickBot="1">
       <c r="A237" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D237" s="6">
         <v>43.1</v>
@@ -6418,13 +6406,13 @@
     </row>
     <row r="238" spans="1:5" ht="15" thickBot="1">
       <c r="A238" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D238" s="6">
         <v>13</v>
@@ -6441,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D239" s="6">
         <v>5.3</v>
@@ -6458,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D240" s="6">
         <v>5.6</v>
@@ -6469,13 +6457,13 @@
     </row>
     <row r="241" spans="1:5" ht="15" thickBot="1">
       <c r="A241" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D241" s="6">
         <v>15</v>
@@ -6486,13 +6474,13 @@
     </row>
     <row r="242" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A242" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D242" s="6">
         <v>28.4</v>
@@ -6509,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D243" s="6">
         <v>3.3</v>
@@ -6526,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D244" s="6">
         <v>4.9000000000000004</v>
@@ -6537,13 +6525,13 @@
     </row>
     <row r="245" spans="1:5" ht="15" thickBot="1">
       <c r="A245" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D245" s="6">
         <v>3.7</v>
@@ -6554,13 +6542,13 @@
     </row>
     <row r="246" spans="1:5" ht="15" thickBot="1">
       <c r="A246" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D246" s="6">
         <v>16.8</v>
@@ -6577,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D247" s="6">
         <v>10.4</v>
@@ -6588,13 +6576,13 @@
     </row>
     <row r="248" spans="1:5" ht="15" thickBot="1">
       <c r="A248" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D248" s="6">
         <v>14.8</v>
@@ -6605,13 +6593,13 @@
     </row>
     <row r="249" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A249" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D249" s="6">
         <v>12.3</v>
@@ -6622,13 +6610,13 @@
     </row>
     <row r="250" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A250" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D250" s="6">
         <v>16.8</v>
@@ -6639,13 +6627,13 @@
     </row>
     <row r="251" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A251" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D251" s="6">
         <v>5.5</v>
@@ -6662,7 +6650,7 @@
         <v>2</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D252" s="6">
         <v>2.9</v>
@@ -6679,7 +6667,7 @@
         <v>3</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D253" s="6">
         <v>5</v>
@@ -6690,13 +6678,13 @@
     </row>
     <row r="254" spans="1:5" ht="15" thickBot="1">
       <c r="A254" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D254" s="6">
         <v>10.8</v>
@@ -6707,13 +6695,13 @@
     </row>
     <row r="255" spans="1:5" ht="15" thickBot="1">
       <c r="A255" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D255" s="6">
         <v>3.5</v>
@@ -6724,13 +6712,13 @@
     </row>
     <row r="256" spans="1:5" ht="15" thickBot="1">
       <c r="A256" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D256" s="6">
         <v>24.4</v>
@@ -6741,13 +6729,13 @@
     </row>
     <row r="257" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A257" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D257" s="6">
         <v>6.6</v>
@@ -6758,13 +6746,13 @@
     </row>
     <row r="258" spans="1:5" ht="15" thickBot="1">
       <c r="A258" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D258" s="6">
         <v>8.9</v>
@@ -6775,13 +6763,13 @@
     </row>
     <row r="259" spans="1:5" ht="15" thickBot="1">
       <c r="A259" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D259" s="6">
         <v>9.6999999999999993</v>
@@ -6792,13 +6780,13 @@
     </row>
     <row r="260" spans="1:5" ht="15" thickBot="1">
       <c r="A260" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D260" s="6">
         <v>13.2</v>
@@ -6809,13 +6797,13 @@
     </row>
     <row r="261" spans="1:5" ht="15" thickBot="1">
       <c r="A261" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D261" s="6">
         <v>12.8</v>
@@ -6832,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D262" s="6">
         <v>13.1</v>
@@ -6849,7 +6837,7 @@
         <v>2</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D263" s="6">
         <v>7.7</v>
@@ -6866,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D264" s="6">
         <v>16.8</v>
@@ -6877,13 +6865,13 @@
     </row>
     <row r="265" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A265" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D265" s="6">
         <v>5.3</v>
@@ -6900,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D266" s="6">
         <v>13.3</v>
@@ -6917,7 +6905,7 @@
         <v>2</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D267" s="6">
         <v>12.7</v>
@@ -6928,13 +6916,13 @@
     </row>
     <row r="268" spans="1:5" ht="15" thickBot="1">
       <c r="A268" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D268" s="6">
         <v>8.3000000000000007</v>
@@ -6951,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D269" s="6">
         <v>5.4</v>
@@ -6962,13 +6950,13 @@
     </row>
     <row r="270" spans="1:5" ht="15" thickBot="1">
       <c r="A270" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D270" s="6">
         <v>7.5</v>
@@ -6985,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D271" s="6">
         <v>17.100000000000001</v>
@@ -7002,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D272" s="6">
         <v>14.6</v>
@@ -7013,13 +7001,13 @@
     </row>
     <row r="273" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A273" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D273" s="6">
         <v>18.8</v>
@@ -7036,7 +7024,7 @@
         <v>4</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D274" s="6">
         <v>3.4</v>
@@ -7053,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D275" s="6">
         <v>14</v>
@@ -7070,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D276" s="6">
         <v>6.9</v>
@@ -7081,13 +7069,13 @@
     </row>
     <row r="277" spans="1:5" ht="15" thickBot="1">
       <c r="A277" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D277" s="6">
         <v>22.2</v>
@@ -7098,13 +7086,13 @@
     </row>
     <row r="278" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A278" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D278" s="6">
         <v>10.5</v>
@@ -7121,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D279" s="6">
         <v>2.5</v>
@@ -7138,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D280" s="6">
         <v>7.8</v>
@@ -7155,7 +7143,7 @@
         <v>2</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D281" s="6">
         <v>20</v>
@@ -7172,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D282" s="6">
         <v>2.9</v>
@@ -7183,13 +7171,13 @@
     </row>
     <row r="283" spans="1:5" ht="15" thickBot="1">
       <c r="A283" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D283" s="6">
         <v>0</v>
@@ -7206,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D284" s="6">
         <v>18</v>
@@ -7217,13 +7205,13 @@
     </row>
     <row r="285" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
       <c r="A285" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B285" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D285" s="6">
         <v>22.1</v>
@@ -7240,7 +7228,7 @@
         <v>4</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D286" s="6">
         <v>9.6999999999999993</v>
@@ -7251,13 +7239,13 @@
     </row>
     <row r="287" spans="1:5" ht="15" thickBot="1">
       <c r="A287" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B287" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D287" s="6">
         <v>12.1</v>
@@ -7274,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D288" s="6">
         <v>14.3</v>
@@ -7285,13 +7273,13 @@
     </row>
     <row r="289" spans="1:5" ht="15" thickBot="1">
       <c r="A289" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B289" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D289" s="6">
         <v>14.9</v>
@@ -7302,13 +7290,13 @@
     </row>
     <row r="290" spans="1:5" ht="15" thickBot="1">
       <c r="A290" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B290" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D290" s="6">
         <v>5.5</v>
@@ -7319,13 +7307,13 @@
     </row>
     <row r="291" spans="1:5" ht="15" thickBot="1">
       <c r="A291" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D291" s="6">
         <v>4</v>
@@ -7336,13 +7324,13 @@
     </row>
     <row r="292" spans="1:5" ht="15" thickBot="1">
       <c r="A292" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D292" s="6">
         <v>10.8</v>
@@ -7353,13 +7341,13 @@
     </row>
     <row r="293" spans="1:5" ht="15" thickBot="1">
       <c r="A293" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D293" s="6">
         <v>31.6</v>
@@ -7370,13 +7358,13 @@
     </row>
     <row r="294" spans="1:5" ht="15" thickBot="1">
       <c r="A294" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D294" s="6">
         <v>9.8000000000000007</v>
@@ -7387,13 +7375,13 @@
     </row>
     <row r="295" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A295" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B295" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D295" s="6">
         <v>16.399999999999999</v>
@@ -7410,7 +7398,7 @@
         <v>4</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D296" s="6">
         <v>17.600000000000001</v>
@@ -7421,13 +7409,13 @@
     </row>
     <row r="297" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
       <c r="A297" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D297" s="6">
         <v>39.5</v>
@@ -7444,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D298" s="6">
         <v>15.4</v>
@@ -7455,13 +7443,13 @@
     </row>
     <row r="299" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A299" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B299" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D299" s="6">
         <v>20.399999999999999</v>
@@ -7478,7 +7466,7 @@
         <v>3</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D300" s="6">
         <v>20.7</v>
@@ -7489,13 +7477,13 @@
     </row>
     <row r="301" spans="1:5" ht="15" thickBot="1">
       <c r="A301" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D301" s="6">
         <v>13.8</v>
@@ -7506,13 +7494,13 @@
     </row>
     <row r="302" spans="1:5" ht="15" thickBot="1">
       <c r="A302" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D302" s="6">
         <v>5.5</v>
@@ -7523,13 +7511,13 @@
     </row>
     <row r="303" spans="1:5" ht="15" thickBot="1">
       <c r="A303" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D303" s="6">
         <v>8.8000000000000007</v>
@@ -7540,13 +7528,13 @@
     </row>
     <row r="304" spans="1:5" ht="15" thickBot="1">
       <c r="A304" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D304" s="6">
         <v>7.6</v>
@@ -7557,13 +7545,13 @@
     </row>
     <row r="305" spans="1:5" ht="15" thickBot="1">
       <c r="A305" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D305" s="6">
         <v>19.5</v>
@@ -7574,13 +7562,13 @@
     </row>
     <row r="306" spans="1:5" ht="15" thickBot="1">
       <c r="A306" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D306" s="6">
         <v>11.1</v>
@@ -7597,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D307" s="6">
         <v>11.3</v>
@@ -7614,7 +7602,7 @@
         <v>4</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D308" s="6">
         <v>14.9</v>
@@ -7631,7 +7619,7 @@
         <v>4</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D309" s="6">
         <v>10.4</v>
@@ -7642,13 +7630,13 @@
     </row>
     <row r="310" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A310" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D310" s="6">
         <v>18.2</v>
@@ -7659,13 +7647,13 @@
     </row>
     <row r="311" spans="1:5" ht="15" thickBot="1">
       <c r="A311" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B311" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D311" s="6">
         <v>8.4</v>
@@ -7682,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D312" s="6">
         <v>6.9</v>
@@ -7699,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D313" s="6">
         <v>3.7</v>
@@ -7716,7 +7704,7 @@
         <v>2</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D314" s="6">
         <v>2.5</v>
@@ -7733,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D315" s="6">
         <v>4.0999999999999996</v>
@@ -7750,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D316" s="6">
         <v>12.5</v>
@@ -7767,7 +7755,7 @@
         <v>2</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D317" s="6">
         <v>14.1</v>
@@ -7778,13 +7766,13 @@
     </row>
     <row r="318" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A318" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B318" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D318" s="6">
         <v>29.8</v>
@@ -7801,7 +7789,7 @@
         <v>2</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D319" s="6">
         <v>10.5</v>
@@ -7818,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D320" s="6">
         <v>13.5</v>
@@ -7835,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D321" s="6">
         <v>15.6</v>
@@ -7852,7 +7840,7 @@
         <v>2</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D322" s="6">
         <v>11.5</v>
@@ -7869,7 +7857,7 @@
         <v>1</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D323" s="6">
         <v>15.7</v>
@@ -7886,7 +7874,7 @@
         <v>4</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D324" s="6">
         <v>21.9</v>
@@ -7903,7 +7891,7 @@
         <v>3</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D325" s="6">
         <v>16.600000000000001</v>
@@ -7914,13 +7902,13 @@
     </row>
     <row r="326" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A326" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B326" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D326" s="6">
         <v>25.4</v>
@@ -7937,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D327" s="6">
         <v>14.7</v>
@@ -7948,13 +7936,13 @@
     </row>
     <row r="328" spans="1:5" ht="15" thickBot="1">
       <c r="A328" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B328" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D328" s="6">
         <v>36.700000000000003</v>
@@ -7971,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D329" s="6">
         <v>13.2</v>
@@ -7982,13 +7970,13 @@
     </row>
     <row r="330" spans="1:5" ht="15" thickBot="1">
       <c r="A330" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D330" s="6">
         <v>12.3</v>
@@ -7999,13 +7987,13 @@
     </row>
     <row r="331" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A331" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B331" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D331" s="6">
         <v>18.100000000000001</v>
@@ -8016,13 +8004,13 @@
     </row>
     <row r="332" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A332" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B332" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D332" s="6">
         <v>20</v>
@@ -8039,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D333" s="6">
         <v>11.7</v>
@@ -8050,13 +8038,13 @@
     </row>
     <row r="334" spans="1:5" ht="15" thickBot="1">
       <c r="A334" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B334" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D334" s="6">
         <v>17.7</v>
@@ -8067,13 +8055,13 @@
     </row>
     <row r="335" spans="1:5" ht="15" thickBot="1">
       <c r="A335" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B335" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D335" s="6">
         <v>36</v>
@@ -8084,13 +8072,13 @@
     </row>
     <row r="336" spans="1:5" ht="15" thickBot="1">
       <c r="A336" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B336" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D336" s="6">
         <v>9.9</v>
@@ -8101,13 +8089,13 @@
     </row>
     <row r="337" spans="1:5" ht="15" thickBot="1">
       <c r="A337" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D337" s="6">
         <v>10.6</v>
@@ -8124,7 +8112,7 @@
         <v>1</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D338" s="6">
         <v>19.8</v>
@@ -8141,7 +8129,7 @@
         <v>2</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D339" s="6">
         <v>11</v>
@@ -8158,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D340" s="6">
         <v>11.4</v>
@@ -8169,13 +8157,13 @@
     </row>
     <row r="341" spans="1:5" ht="15" thickBot="1">
       <c r="A341" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B341" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D341" s="6">
         <v>6.1</v>
@@ -8186,13 +8174,13 @@
     </row>
     <row r="342" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A342" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B342" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D342" s="6">
         <v>10</v>
@@ -8209,7 +8197,7 @@
         <v>4</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D343" s="6">
         <v>4.0999999999999996</v>
@@ -8226,7 +8214,7 @@
         <v>4</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D344" s="6">
         <v>10.9</v>
@@ -8243,7 +8231,7 @@
         <v>1</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D345" s="6">
         <v>6.7</v>
@@ -8260,7 +8248,7 @@
         <v>4</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D346" s="6">
         <v>7.3</v>
@@ -8271,13 +8259,13 @@
     </row>
     <row r="347" spans="1:5" ht="15" thickBot="1">
       <c r="A347" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B347" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D347" s="6">
         <v>18.899999999999999</v>
@@ -8288,13 +8276,13 @@
     </row>
     <row r="348" spans="1:5" ht="14.4" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B348" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D348" s="6">
         <v>1.8</v>
@@ -8315,7 +8303,7 @@
   <dimension ref="A1:E367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8325,30 +8313,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1">
       <c r="A1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>505</v>
-      </c>
       <c r="C1" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>186</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D2" s="6">
         <v>56.2</v>
@@ -8365,7 +8353,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D3" s="6">
         <v>48.6</v>
@@ -8376,13 +8364,13 @@
     </row>
     <row r="4" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>508</v>
+        <v>597</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D4" s="6">
         <v>41.7</v>
@@ -8399,7 +8387,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D5" s="6">
         <v>48</v>
@@ -8416,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D6" s="6">
         <v>46.6</v>
@@ -8433,7 +8421,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D7" s="6">
         <v>42.2</v>
@@ -8450,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D8" s="6">
         <v>43</v>
@@ -8461,13 +8449,13 @@
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D9" s="6">
         <v>58.2</v>
@@ -8478,13 +8466,13 @@
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D10" s="6">
         <v>56.7</v>
@@ -8501,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D11" s="6">
         <v>16</v>
@@ -8512,13 +8500,13 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>514</v>
+        <v>598</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D12" s="6">
         <v>40.6</v>
@@ -8535,7 +8523,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D13" s="6">
         <v>60.1</v>
@@ -8552,7 +8540,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D14" s="6">
         <v>73.8</v>
@@ -8569,7 +8557,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D15" s="6">
         <v>36</v>
@@ -8586,7 +8574,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D16" s="6">
         <v>33.6</v>
@@ -8603,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D17" s="6">
         <v>27.6</v>
@@ -8620,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D18" s="6">
         <v>56.3</v>
@@ -8637,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D19" s="6">
         <v>52.4</v>
@@ -8654,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D20" s="6">
         <v>24.8</v>
@@ -8665,13 +8653,13 @@
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D21" s="6">
         <v>33.299999999999997</v>
@@ -8688,7 +8676,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D22" s="6">
         <v>40.4</v>
@@ -8705,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D23" s="6">
         <v>51.3</v>
@@ -8716,13 +8704,13 @@
     </row>
     <row r="24" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D24" s="6">
         <v>37.200000000000003</v>
@@ -8739,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D25" s="6">
         <v>22.8</v>
@@ -8750,13 +8738,13 @@
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D26" s="6">
         <v>35.4</v>
@@ -8773,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D27" s="6">
         <v>37.4</v>
@@ -8790,7 +8778,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D28" s="6">
         <v>43.2</v>
@@ -8807,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D29" s="6">
         <v>40.799999999999997</v>
@@ -8818,13 +8806,13 @@
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D30" s="6">
         <v>41.4</v>
@@ -8841,7 +8829,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D31" s="6">
         <v>29.9</v>
@@ -8852,13 +8840,13 @@
     </row>
     <row r="32" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D32" s="6">
         <v>35.1</v>
@@ -8869,13 +8857,13 @@
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D33" s="6">
         <v>43.2</v>
@@ -8892,7 +8880,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D34" s="6">
         <v>26.2</v>
@@ -8909,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D35" s="6">
         <v>18.7</v>
@@ -8920,13 +8908,13 @@
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D36" s="6">
         <v>22.8</v>
@@ -8943,7 +8931,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D37" s="6">
         <v>27.2</v>
@@ -8954,13 +8942,13 @@
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D38" s="6">
         <v>24.2</v>
@@ -8977,7 +8965,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D39" s="6">
         <v>37.5</v>
@@ -8988,13 +8976,13 @@
     </row>
     <row r="40" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D40" s="6">
         <v>30.2</v>
@@ -9005,13 +8993,13 @@
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1">
       <c r="A41" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D41" s="6">
         <v>13.1</v>
@@ -9028,7 +9016,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D42" s="6">
         <v>30.5</v>
@@ -9039,13 +9027,13 @@
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D43" s="6">
         <v>42.8</v>
@@ -9062,7 +9050,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D44" s="6">
         <v>33.700000000000003</v>
@@ -9079,7 +9067,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D45" s="6">
         <v>55.8</v>
@@ -9096,7 +9084,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D46" s="6">
         <v>12.4</v>
@@ -9113,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D47" s="6">
         <v>28.3</v>
@@ -9130,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D48" s="6">
         <v>23.1</v>
@@ -9147,7 +9135,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D49" s="6">
         <v>48.3</v>
@@ -9164,7 +9152,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D50" s="6">
         <v>26.9</v>
@@ -9175,13 +9163,13 @@
     </row>
     <row r="51" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D51" s="6">
         <v>35.6</v>
@@ -9198,7 +9186,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D52" s="6">
         <v>37.6</v>
@@ -9215,7 +9203,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D53" s="6">
         <v>45.2</v>
@@ -9232,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D54" s="6">
         <v>57.7</v>
@@ -9243,13 +9231,13 @@
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D55" s="6">
         <v>23.8</v>
@@ -9266,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D56" s="6">
         <v>21</v>
@@ -9283,7 +9271,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D57" s="6">
         <v>34</v>
@@ -9300,7 +9288,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D58" s="6">
         <v>16.8</v>
@@ -9317,7 +9305,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D59" s="6">
         <v>56.5</v>
@@ -9328,13 +9316,13 @@
     </row>
     <row r="60" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D60" s="6">
         <v>35.5</v>
@@ -9351,7 +9339,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D61" s="6">
         <v>19.100000000000001</v>
@@ -9362,13 +9350,13 @@
     </row>
     <row r="62" spans="1:5" ht="15" thickBot="1">
       <c r="A62" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D62" s="6">
         <v>37.1</v>
@@ -9379,13 +9367,13 @@
     </row>
     <row r="63" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A63" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D63" s="6">
         <v>38.9</v>
@@ -9402,7 +9390,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D64" s="6">
         <v>16.600000000000001</v>
@@ -9419,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D65" s="6">
         <v>16.899999999999999</v>
@@ -9430,13 +9418,13 @@
     </row>
     <row r="66" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A66" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D66" s="6">
         <v>31.6</v>
@@ -9447,13 +9435,13 @@
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1">
       <c r="A67" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D67" s="6">
         <v>31.6</v>
@@ -9470,7 +9458,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D68" s="6">
         <v>30.5</v>
@@ -9487,7 +9475,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D69" s="6">
         <v>18.5</v>
@@ -9498,13 +9486,13 @@
     </row>
     <row r="70" spans="1:5" ht="15" thickBot="1">
       <c r="A70" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D70" s="6">
         <v>12.6</v>
@@ -9521,7 +9509,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D71" s="6">
         <v>25.4</v>
@@ -9538,7 +9526,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D72" s="6">
         <v>26</v>
@@ -9555,7 +9543,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D73" s="6">
         <v>17.8</v>
@@ -9572,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D74" s="6">
         <v>37.700000000000003</v>
@@ -9589,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D75" s="6">
         <v>14.9</v>
@@ -9600,13 +9588,13 @@
     </row>
     <row r="76" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A76" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D76" s="6">
         <v>24.1</v>
@@ -9617,13 +9605,13 @@
     </row>
     <row r="77" spans="1:5" ht="15" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D77" s="6">
         <v>19.5</v>
@@ -9640,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D78" s="6">
         <v>31.8</v>
@@ -9657,7 +9645,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D79" s="6">
         <v>17.7</v>
@@ -9674,7 +9662,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D80" s="6">
         <v>40.799999999999997</v>
@@ -9685,13 +9673,13 @@
     </row>
     <row r="81" spans="1:5" ht="15" thickBot="1">
       <c r="A81" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D81" s="6">
         <v>19.8</v>
@@ -9702,13 +9690,13 @@
     </row>
     <row r="82" spans="1:5" ht="15" thickBot="1">
       <c r="A82" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D82" s="6">
         <v>19</v>
@@ -9725,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D83" s="6">
         <v>18.600000000000001</v>
@@ -9736,13 +9724,13 @@
     </row>
     <row r="84" spans="1:5" ht="15" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D84" s="6">
         <v>29.7</v>
@@ -9759,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D85" s="6">
         <v>32.799999999999997</v>
@@ -9770,13 +9758,13 @@
     </row>
     <row r="86" spans="1:5" ht="15" thickBot="1">
       <c r="A86" s="2" t="s">
-        <v>202</v>
+        <v>602</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D86" s="6">
         <v>29</v>
@@ -9793,7 +9781,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D87" s="6">
         <v>31</v>
@@ -9810,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D88" s="6">
         <v>20.2</v>
@@ -9827,7 +9815,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D89" s="6">
         <v>17.399999999999999</v>
@@ -9844,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D90" s="6">
         <v>6.6</v>
@@ -9861,7 +9849,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D91" s="6">
         <v>27.1</v>
@@ -9878,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D92" s="6">
         <v>19.899999999999999</v>
@@ -9889,13 +9877,13 @@
     </row>
     <row r="93" spans="1:5" ht="15" thickBot="1">
       <c r="A93" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D93" s="6">
         <v>13.4</v>
@@ -9912,7 +9900,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D94" s="6">
         <v>27</v>
@@ -9923,13 +9911,13 @@
     </row>
     <row r="95" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A95" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D95" s="6">
         <v>20</v>
@@ -9946,7 +9934,7 @@
         <v>2</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D96" s="6">
         <v>16.100000000000001</v>
@@ -9963,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D97" s="6">
         <v>28.1</v>
@@ -9974,13 +9962,13 @@
     </row>
     <row r="98" spans="1:5" ht="15" thickBot="1">
       <c r="A98" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D98" s="6">
         <v>13.9</v>
@@ -9991,13 +9979,13 @@
     </row>
     <row r="99" spans="1:5" ht="15" thickBot="1">
       <c r="A99" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D99" s="6">
         <v>40.9</v>
@@ -10008,13 +9996,13 @@
     </row>
     <row r="100" spans="1:5" ht="15" thickBot="1">
       <c r="A100" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D100" s="6">
         <v>21.3</v>
@@ -10025,13 +10013,13 @@
     </row>
     <row r="101" spans="1:5" ht="15" thickBot="1">
       <c r="A101" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D101" s="6">
         <v>8.9</v>
@@ -10048,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D102" s="6">
         <v>16.899999999999999</v>
@@ -10065,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D103" s="6">
         <v>13.6</v>
@@ -10076,13 +10064,13 @@
     </row>
     <row r="104" spans="1:5" ht="15" thickBot="1">
       <c r="A104" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D104" s="6">
         <v>34.5</v>
@@ -10099,7 +10087,7 @@
         <v>2</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D105" s="6">
         <v>22.1</v>
@@ -10116,7 +10104,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D106" s="6">
         <v>17.600000000000001</v>
@@ -10127,13 +10115,13 @@
     </row>
     <row r="107" spans="1:5" ht="15" thickBot="1">
       <c r="A107" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D107" s="6">
         <v>12.7</v>
@@ -10150,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D108" s="6">
         <v>34.9</v>
@@ -10167,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D109" s="6">
         <v>16.899999999999999</v>
@@ -10178,13 +10166,13 @@
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1">
       <c r="A110" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D110" s="6">
         <v>13.2</v>
@@ -10195,13 +10183,13 @@
     </row>
     <row r="111" spans="1:5" ht="15" thickBot="1">
       <c r="A111" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D111" s="6">
         <v>27.2</v>
@@ -10212,13 +10200,13 @@
     </row>
     <row r="112" spans="1:5" ht="15" thickBot="1">
       <c r="A112" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D112" s="6">
         <v>10.1</v>
@@ -10229,13 +10217,13 @@
     </row>
     <row r="113" spans="1:5" ht="15" thickBot="1">
       <c r="A113" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D113" s="6">
         <v>14</v>
@@ -10252,7 +10240,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D114" s="6">
         <v>0</v>
@@ -10263,13 +10251,13 @@
     </row>
     <row r="115" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A115" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D115" s="6">
         <v>25.8</v>
@@ -10280,13 +10268,13 @@
     </row>
     <row r="116" spans="1:5" ht="15" thickBot="1">
       <c r="A116" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D116" s="6">
         <v>19.3</v>
@@ -10297,13 +10285,13 @@
     </row>
     <row r="117" spans="1:5" ht="15" thickBot="1">
       <c r="A117" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D117" s="6">
         <v>13.7</v>
@@ -10314,13 +10302,13 @@
     </row>
     <row r="118" spans="1:5" ht="15" thickBot="1">
       <c r="A118" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D118" s="6">
         <v>27.6</v>
@@ -10337,7 +10325,7 @@
         <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D119" s="6">
         <v>11</v>
@@ -10354,7 +10342,7 @@
         <v>2</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D120" s="6">
         <v>10.7</v>
@@ -10365,13 +10353,13 @@
     </row>
     <row r="121" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
       <c r="A121" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D121" s="6">
         <v>22.3</v>
@@ -10388,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D122" s="6">
         <v>16.899999999999999</v>
@@ -10399,13 +10387,13 @@
     </row>
     <row r="123" spans="1:5" ht="15" thickBot="1">
       <c r="A123" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D123" s="6">
         <v>23.9</v>
@@ -10422,7 +10410,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D124" s="6">
         <v>12.2</v>
@@ -10433,13 +10421,13 @@
     </row>
     <row r="125" spans="1:5" ht="15" thickBot="1">
       <c r="A125" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D125" s="6">
         <v>8.1</v>
@@ -10450,13 +10438,13 @@
     </row>
     <row r="126" spans="1:5" ht="15" thickBot="1">
       <c r="A126" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D126" s="6">
         <v>32.4</v>
@@ -10473,7 +10461,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D127" s="6">
         <v>12.4</v>
@@ -10484,13 +10472,13 @@
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1">
       <c r="A128" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D128" s="6">
         <v>14.8</v>
@@ -10501,13 +10489,13 @@
     </row>
     <row r="129" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A129" s="2" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D129" s="6">
         <v>25.4</v>
@@ -10518,13 +10506,13 @@
     </row>
     <row r="130" spans="1:5" ht="15" thickBot="1">
       <c r="A130" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D130" s="6">
         <v>36.5</v>
@@ -10541,7 +10529,7 @@
         <v>4</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D131" s="6">
         <v>37.299999999999997</v>
@@ -10552,13 +10540,13 @@
     </row>
     <row r="132" spans="1:5" ht="15" thickBot="1">
       <c r="A132" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D132" s="6">
         <v>8.9</v>
@@ -10569,13 +10557,13 @@
     </row>
     <row r="133" spans="1:5" ht="15" thickBot="1">
       <c r="A133" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D133" s="6">
         <v>5.6</v>
@@ -10592,7 +10580,7 @@
         <v>3</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D134" s="6">
         <v>7</v>
@@ -10603,13 +10591,13 @@
     </row>
     <row r="135" spans="1:5" ht="15" thickBot="1">
       <c r="A135" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D135" s="6">
         <v>44.4</v>
@@ -10626,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D136" s="6">
         <v>0</v>
@@ -10643,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D137" s="6">
         <v>1.4</v>
@@ -10660,7 +10648,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D138" s="6">
         <v>4.2</v>
@@ -10677,7 +10665,7 @@
         <v>4</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D139" s="6">
         <v>20.399999999999999</v>
@@ -10688,13 +10676,13 @@
     </row>
     <row r="140" spans="1:5" ht="15" thickBot="1">
       <c r="A140" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D140" s="6">
         <v>1</v>
@@ -10705,13 +10693,13 @@
     </row>
     <row r="141" spans="1:5" ht="15" thickBot="1">
       <c r="A141" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D141" s="6">
         <v>0</v>
@@ -10722,13 +10710,13 @@
     </row>
     <row r="142" spans="1:5" ht="15" thickBot="1">
       <c r="A142" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D142" s="6">
         <v>0</v>
@@ -10739,13 +10727,13 @@
     </row>
     <row r="143" spans="1:5" ht="15" thickBot="1">
       <c r="A143" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D143" s="6">
         <v>0</v>
@@ -10762,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D144" s="6">
         <v>31.5</v>
@@ -10779,7 +10767,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D145" s="6">
         <v>15.5</v>
@@ -10790,13 +10778,13 @@
     </row>
     <row r="146" spans="1:5" ht="15" thickBot="1">
       <c r="A146" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D146" s="6">
         <v>19.100000000000001</v>
@@ -10813,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D147" s="6">
         <v>17.2</v>
@@ -10830,7 +10818,7 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D148" s="6">
         <v>-2</v>
@@ -10841,13 +10829,13 @@
     </row>
     <row r="149" spans="1:5" ht="15" thickBot="1">
       <c r="A149" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D149" s="6">
         <v>3.8</v>
@@ -10864,7 +10852,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D150" s="6">
         <v>3.5</v>
@@ -10875,13 +10863,13 @@
     </row>
     <row r="151" spans="1:5" ht="15" thickBot="1">
       <c r="A151" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D151" s="6">
         <v>0</v>
@@ -10892,13 +10880,13 @@
     </row>
     <row r="152" spans="1:5" ht="15" thickBot="1">
       <c r="A152" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D152" s="6">
         <v>4.4000000000000004</v>
@@ -10909,13 +10897,13 @@
     </row>
     <row r="153" spans="1:5" ht="15" thickBot="1">
       <c r="A153" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D153" s="6">
         <v>0</v>
@@ -10932,7 +10920,7 @@
         <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D154" s="6">
         <v>15.6</v>
@@ -10949,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D155" s="6">
         <v>19.600000000000001</v>
@@ -10960,13 +10948,13 @@
     </row>
     <row r="156" spans="1:5" ht="15" thickBot="1">
       <c r="A156" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D156" s="6">
         <v>14.7</v>
@@ -10983,7 +10971,7 @@
         <v>4</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D157" s="6">
         <v>14</v>
@@ -11000,7 +10988,7 @@
         <v>2</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D158" s="6">
         <v>7.1</v>
@@ -11011,13 +10999,13 @@
     </row>
     <row r="159" spans="1:5" ht="15" thickBot="1">
       <c r="A159" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D159" s="6">
         <v>9.9</v>
@@ -11028,13 +11016,13 @@
     </row>
     <row r="160" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A160" s="2" t="s">
-        <v>547</v>
+        <v>155</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D160" s="6">
         <v>14.6</v>
@@ -11051,7 +11039,7 @@
         <v>3</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D161" s="6">
         <v>16.899999999999999</v>
@@ -11068,7 +11056,7 @@
         <v>3</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D162" s="6">
         <v>3.8</v>
@@ -11085,7 +11073,7 @@
         <v>3</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D163" s="6">
         <v>15.8</v>
@@ -11102,7 +11090,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D164" s="6">
         <v>10.199999999999999</v>
@@ -11119,7 +11107,7 @@
         <v>3</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D165" s="6">
         <v>21.1</v>
@@ -11136,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D166" s="6">
         <v>13.5</v>
@@ -11153,7 +11141,7 @@
         <v>4</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D167" s="6">
         <v>8.9</v>
@@ -11164,13 +11152,13 @@
     </row>
     <row r="168" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A168" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D168" s="6">
         <v>15</v>
@@ -11187,7 +11175,7 @@
         <v>2</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D169" s="6">
         <v>12.4</v>
@@ -11204,7 +11192,7 @@
         <v>1</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D170" s="6">
         <v>16.100000000000001</v>
@@ -11215,13 +11203,13 @@
     </row>
     <row r="171" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A171" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D171" s="6">
         <v>17.899999999999999</v>
@@ -11232,13 +11220,13 @@
     </row>
     <row r="172" spans="1:5" ht="15" thickBot="1">
       <c r="A172" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D172" s="6">
         <v>0</v>
@@ -11249,13 +11237,13 @@
     </row>
     <row r="173" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A173" s="2" t="s">
-        <v>550</v>
+        <v>604</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D173" s="6">
         <v>10.4</v>
@@ -11266,13 +11254,13 @@
     </row>
     <row r="174" spans="1:5" ht="15" thickBot="1">
       <c r="A174" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D174" s="6">
         <v>0</v>
@@ -11283,13 +11271,13 @@
     </row>
     <row r="175" spans="1:5" ht="15" thickBot="1">
       <c r="A175" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D175" s="6">
         <v>7.7</v>
@@ -11300,13 +11288,13 @@
     </row>
     <row r="176" spans="1:5" ht="15" thickBot="1">
       <c r="A176" s="1" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D176" s="6">
         <v>0</v>
@@ -11317,13 +11305,13 @@
     </row>
     <row r="177" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A177" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D177" s="6">
         <v>39.9</v>
@@ -11340,7 +11328,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D178" s="6">
         <v>5.3</v>
@@ -11357,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D179" s="6">
         <v>6.6</v>
@@ -11368,13 +11356,13 @@
     </row>
     <row r="180" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A180" s="2" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D180" s="6">
         <v>11.7</v>
@@ -11391,7 +11379,7 @@
         <v>3</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D181" s="6">
         <v>19.399999999999999</v>
@@ -11402,13 +11390,13 @@
     </row>
     <row r="182" spans="1:5" ht="15" thickBot="1">
       <c r="A182" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D182" s="6">
         <v>16.3</v>
@@ -11419,13 +11407,13 @@
     </row>
     <row r="183" spans="1:5" ht="15" thickBot="1">
       <c r="A183" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D183" s="6">
         <v>0</v>
@@ -11436,13 +11424,13 @@
     </row>
     <row r="184" spans="1:5" ht="15" thickBot="1">
       <c r="A184" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D184" s="6">
         <v>0</v>
@@ -11459,7 +11447,7 @@
         <v>4</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D185" s="6">
         <v>27</v>
@@ -11470,13 +11458,13 @@
     </row>
     <row r="186" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A186" s="2" t="s">
-        <v>557</v>
+        <v>163</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D186" s="6">
         <v>21.4</v>
@@ -11493,7 +11481,7 @@
         <v>2</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D187" s="6">
         <v>13.9</v>
@@ -11504,13 +11492,13 @@
     </row>
     <row r="188" spans="1:5" ht="15" thickBot="1">
       <c r="A188" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D188" s="6">
         <v>13.6</v>
@@ -11527,7 +11515,7 @@
         <v>3</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D189" s="6">
         <v>31</v>
@@ -11544,7 +11532,7 @@
         <v>4</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D190" s="6">
         <v>4.3</v>
@@ -11561,7 +11549,7 @@
         <v>2</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D191" s="6">
         <v>3.9</v>
@@ -11578,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D192" s="6">
         <v>12</v>
@@ -11589,13 +11577,13 @@
     </row>
     <row r="193" spans="1:5" ht="15" thickBot="1">
       <c r="A193" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D193" s="6">
         <v>0</v>
@@ -11606,13 +11594,13 @@
     </row>
     <row r="194" spans="1:5" ht="15" thickBot="1">
       <c r="A194" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D194" s="6">
         <v>9</v>
@@ -11629,7 +11617,7 @@
         <v>3</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D195" s="6">
         <v>12.1</v>
@@ -11646,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D196" s="6">
         <v>2.7</v>
@@ -11663,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D197" s="6">
         <v>7.4</v>
@@ -11674,13 +11662,13 @@
     </row>
     <row r="198" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A198" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D198" s="6">
         <v>43.2</v>
@@ -11691,13 +11679,13 @@
     </row>
     <row r="199" spans="1:5" ht="15" thickBot="1">
       <c r="A199" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D199" s="6">
         <v>6.4</v>
@@ -11708,13 +11696,13 @@
     </row>
     <row r="200" spans="1:5" ht="15" thickBot="1">
       <c r="A200" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D200" s="6">
         <v>0</v>
@@ -11725,13 +11713,13 @@
     </row>
     <row r="201" spans="1:5" ht="15" thickBot="1">
       <c r="A201" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D201" s="6">
         <v>19.3</v>
@@ -11742,13 +11730,13 @@
     </row>
     <row r="202" spans="1:5" ht="15" thickBot="1">
       <c r="A202" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D202" s="6">
         <v>9</v>
@@ -11759,13 +11747,13 @@
     </row>
     <row r="203" spans="1:5" ht="15" thickBot="1">
       <c r="A203" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D203" s="6">
         <v>0</v>
@@ -11776,13 +11764,13 @@
     </row>
     <row r="204" spans="1:5" ht="15" thickBot="1">
       <c r="A204" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D204" s="6">
         <v>0</v>
@@ -11799,7 +11787,7 @@
         <v>3</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D205" s="6">
         <v>16</v>
@@ -11816,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D206" s="6">
         <v>27.1</v>
@@ -11833,7 +11821,7 @@
         <v>4</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D207" s="6">
         <v>17.7</v>
@@ -11850,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D208" s="6">
         <v>0</v>
@@ -11861,13 +11849,13 @@
     </row>
     <row r="209" spans="1:5" ht="15" thickBot="1">
       <c r="A209" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D209" s="6">
         <v>2.8</v>
@@ -11878,13 +11866,13 @@
     </row>
     <row r="210" spans="1:5" ht="15" thickBot="1">
       <c r="A210" s="2" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D210" s="6">
         <v>27.2</v>
@@ -11901,7 +11889,7 @@
         <v>2</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D211" s="6">
         <v>5.0999999999999996</v>
@@ -11912,13 +11900,13 @@
     </row>
     <row r="212" spans="1:5" ht="15" thickBot="1">
       <c r="A212" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D212" s="6">
         <v>9.5</v>
@@ -11935,7 +11923,7 @@
         <v>3</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D213" s="6">
         <v>6.2</v>
@@ -11946,13 +11934,13 @@
     </row>
     <row r="214" spans="1:5" ht="15" thickBot="1">
       <c r="A214" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D214" s="6">
         <v>0</v>
@@ -11969,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D215" s="6">
         <v>4.7</v>
@@ -11980,13 +11968,13 @@
     </row>
     <row r="216" spans="1:5" ht="15" thickBot="1">
       <c r="A216" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D216" s="6">
         <v>11.4</v>
@@ -12003,7 +11991,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D217" s="6">
         <v>4.5999999999999996</v>
@@ -12014,13 +12002,13 @@
     </row>
     <row r="218" spans="1:5" ht="15" thickBot="1">
       <c r="A218" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B218" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D218" s="6">
         <v>27.5</v>
@@ -12031,13 +12019,13 @@
     </row>
     <row r="219" spans="1:5" ht="15" thickBot="1">
       <c r="A219" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D219" s="6">
         <v>0</v>
@@ -12054,7 +12042,7 @@
         <v>2</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D220" s="6">
         <v>23.2</v>
@@ -12071,7 +12059,7 @@
         <v>3</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D221" s="6">
         <v>5.5</v>
@@ -12088,7 +12076,7 @@
         <v>4</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D222" s="6">
         <v>4.8</v>
@@ -12105,7 +12093,7 @@
         <v>4</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D223" s="6">
         <v>1.7</v>
@@ -12116,13 +12104,13 @@
     </row>
     <row r="224" spans="1:5" ht="15" thickBot="1">
       <c r="A224" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D224" s="6">
         <v>0</v>
@@ -12133,13 +12121,13 @@
     </row>
     <row r="225" spans="1:5" ht="15" thickBot="1">
       <c r="A225" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D225" s="6">
         <v>0</v>
@@ -12150,13 +12138,13 @@
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1">
       <c r="A226" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D226" s="6">
         <v>0</v>
@@ -12167,13 +12155,13 @@
     </row>
     <row r="227" spans="1:5" ht="15" thickBot="1">
       <c r="A227" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D227" s="6">
         <v>0</v>
@@ -12184,13 +12172,13 @@
     </row>
     <row r="228" spans="1:5" ht="15" thickBot="1">
       <c r="A228" s="2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D228" s="6">
         <v>12.9</v>
@@ -12201,13 +12189,13 @@
     </row>
     <row r="229" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A229" s="2" t="s">
-        <v>572</v>
+        <v>51</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D229" s="6">
         <v>14</v>
@@ -12224,7 +12212,7 @@
         <v>2</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D230" s="6">
         <v>9.6</v>
@@ -12235,13 +12223,13 @@
     </row>
     <row r="231" spans="1:5" ht="15" thickBot="1">
       <c r="A231" s="1" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D231" s="6">
         <v>0</v>
@@ -12258,7 +12246,7 @@
         <v>2</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D232" s="6">
         <v>14</v>
@@ -12275,7 +12263,7 @@
         <v>4</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D233" s="6">
         <v>9.1</v>
@@ -12286,13 +12274,13 @@
     </row>
     <row r="234" spans="1:5" ht="15" thickBot="1">
       <c r="A234" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D234" s="6">
         <v>0</v>
@@ -12309,7 +12297,7 @@
         <v>4</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D235" s="6">
         <v>12.5</v>
@@ -12326,7 +12314,7 @@
         <v>2</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D236" s="6">
         <v>12</v>
@@ -12343,7 +12331,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D237" s="6">
         <v>0</v>
@@ -12360,7 +12348,7 @@
         <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D238" s="6">
         <v>0</v>
@@ -12371,13 +12359,13 @@
     </row>
     <row r="239" spans="1:5" ht="15" thickBot="1">
       <c r="A239" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D239" s="6">
         <v>29.8</v>
@@ -12388,13 +12376,13 @@
     </row>
     <row r="240" spans="1:5" ht="15" thickBot="1">
       <c r="A240" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D240" s="6">
         <v>34.700000000000003</v>
@@ -12405,13 +12393,13 @@
     </row>
     <row r="241" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A241" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D241" s="6">
         <v>7.2</v>
@@ -12422,13 +12410,13 @@
     </row>
     <row r="242" spans="1:5" ht="15" thickBot="1">
       <c r="A242" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D242" s="6">
         <v>14.2</v>
@@ -12439,13 +12427,13 @@
     </row>
     <row r="243" spans="1:5" ht="15" thickBot="1">
       <c r="A243" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D243" s="6">
         <v>34.9</v>
@@ -12456,13 +12444,13 @@
     </row>
     <row r="244" spans="1:5" ht="15" thickBot="1">
       <c r="A244" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D244" s="6">
         <v>5.5</v>
@@ -12473,13 +12461,13 @@
     </row>
     <row r="245" spans="1:5" ht="15" thickBot="1">
       <c r="A245" s="1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D245" s="6">
         <v>3</v>
@@ -12490,13 +12478,13 @@
     </row>
     <row r="246" spans="1:5" ht="15" thickBot="1">
       <c r="A246" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D246" s="6">
         <v>0</v>
@@ -12507,13 +12495,13 @@
     </row>
     <row r="247" spans="1:5" ht="15" thickBot="1">
       <c r="A247" s="1" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D247" s="6">
         <v>6.7</v>
@@ -12524,13 +12512,13 @@
     </row>
     <row r="248" spans="1:5" ht="15" thickBot="1">
       <c r="A248" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D248" s="6">
         <v>1</v>
@@ -12541,13 +12529,13 @@
     </row>
     <row r="249" spans="1:5" ht="15" thickBot="1">
       <c r="A249" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D249" s="6">
         <v>5.4</v>
@@ -12558,13 +12546,13 @@
     </row>
     <row r="250" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A250" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D250" s="6">
         <v>35.9</v>
@@ -12575,13 +12563,13 @@
     </row>
     <row r="251" spans="1:5" ht="15" thickBot="1">
       <c r="A251" s="1" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D251" s="6">
         <v>0</v>
@@ -12592,13 +12580,13 @@
     </row>
     <row r="252" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A252" s="2" t="s">
-        <v>579</v>
+        <v>121</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D252" s="6">
         <v>4.5999999999999996</v>
@@ -12609,13 +12597,13 @@
     </row>
     <row r="253" spans="1:5" ht="15" thickBot="1">
       <c r="A253" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D253" s="6">
         <v>19.5</v>
@@ -12632,7 +12620,7 @@
         <v>3</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D254" s="6">
         <v>4</v>
@@ -12649,7 +12637,7 @@
         <v>3</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D255" s="6">
         <v>5.9</v>
@@ -12666,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D256" s="6">
         <v>4.5999999999999996</v>
@@ -12677,13 +12665,13 @@
     </row>
     <row r="257" spans="1:5" ht="15" thickBot="1">
       <c r="A257" s="1" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D257" s="6">
         <v>0</v>
@@ -12694,13 +12682,13 @@
     </row>
     <row r="258" spans="1:5" ht="15" thickBot="1">
       <c r="A258" s="2" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D258" s="6">
         <v>5</v>
@@ -12711,13 +12699,13 @@
     </row>
     <row r="259" spans="1:5" ht="15" thickBot="1">
       <c r="A259" s="2" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D259" s="6">
         <v>9.4</v>
@@ -12734,7 +12722,7 @@
         <v>2</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D260" s="6">
         <v>22.1</v>
@@ -12745,13 +12733,13 @@
     </row>
     <row r="261" spans="1:5" ht="15" thickBot="1">
       <c r="A261" s="2" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D261" s="6">
         <v>21.1</v>
@@ -12768,7 +12756,7 @@
         <v>4</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D262" s="6">
         <v>15.3</v>
@@ -12779,13 +12767,13 @@
     </row>
     <row r="263" spans="1:5" ht="15" thickBot="1">
       <c r="A263" s="2" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D263" s="6">
         <v>9.6999999999999993</v>
@@ -12796,13 +12784,13 @@
     </row>
     <row r="264" spans="1:5" ht="15" thickBot="1">
       <c r="A264" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D264" s="6">
         <v>24.1</v>
@@ -12813,13 +12801,13 @@
     </row>
     <row r="265" spans="1:5" ht="15" thickBot="1">
       <c r="A265" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D265" s="6">
         <v>0</v>
@@ -12830,13 +12818,13 @@
     </row>
     <row r="266" spans="1:5" ht="15" thickBot="1">
       <c r="A266" s="1" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D266" s="6">
         <v>0</v>
@@ -12847,13 +12835,13 @@
     </row>
     <row r="267" spans="1:5" ht="15" thickBot="1">
       <c r="A267" s="1" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D267" s="6">
         <v>0</v>
@@ -12870,7 +12858,7 @@
         <v>3</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D268" s="6">
         <v>3</v>
@@ -12887,7 +12875,7 @@
         <v>2</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D269" s="6">
         <v>10.9</v>
@@ -12904,7 +12892,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D270" s="6">
         <v>23.6</v>
@@ -12921,7 +12909,7 @@
         <v>4</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D271" s="6">
         <v>26.4</v>
@@ -12938,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D272" s="6">
         <v>0.6</v>
@@ -12955,7 +12943,7 @@
         <v>2</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D273" s="6">
         <v>28.9</v>
@@ -12966,13 +12954,13 @@
     </row>
     <row r="274" spans="1:5" ht="15" thickBot="1">
       <c r="A274" s="2" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D274" s="6">
         <v>3.4</v>
@@ -12983,13 +12971,13 @@
     </row>
     <row r="275" spans="1:5" ht="15" thickBot="1">
       <c r="A275" s="2" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D275" s="6">
         <v>6.5</v>
@@ -13000,13 +12988,13 @@
     </row>
     <row r="276" spans="1:5" ht="15" thickBot="1">
       <c r="A276" s="1" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D276" s="6">
         <v>0</v>
@@ -13017,13 +13005,13 @@
     </row>
     <row r="277" spans="1:5" ht="15" thickBot="1">
       <c r="A277" s="1" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D277" s="6">
         <v>0</v>
@@ -13040,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D278" s="6">
         <v>13.3</v>
@@ -13051,13 +13039,13 @@
     </row>
     <row r="279" spans="1:5" ht="15" thickBot="1">
       <c r="A279" s="1" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D279" s="6">
         <v>0</v>
@@ -13074,7 +13062,7 @@
         <v>4</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D280" s="6">
         <v>18.3</v>
@@ -13091,7 +13079,7 @@
         <v>4</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D281" s="6">
         <v>16.399999999999999</v>
@@ -13108,7 +13096,7 @@
         <v>2</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D282" s="6">
         <v>7.5</v>
@@ -13125,7 +13113,7 @@
         <v>1</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D283" s="6">
         <v>7.6</v>
@@ -13136,13 +13124,13 @@
     </row>
     <row r="284" spans="1:5" ht="15" thickBot="1">
       <c r="A284" s="2" t="s">
-        <v>278</v>
+        <v>608</v>
       </c>
       <c r="B284" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D284" s="6">
         <v>20.399999999999999</v>
@@ -13159,7 +13147,7 @@
         <v>4</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D285" s="6">
         <v>15.7</v>
@@ -13170,13 +13158,13 @@
     </row>
     <row r="286" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A286" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D286" s="6">
         <v>9.1</v>
@@ -13187,13 +13175,13 @@
     </row>
     <row r="287" spans="1:5" ht="15" thickBot="1">
       <c r="A287" s="1" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D287" s="6">
         <v>1.2</v>
@@ -13204,13 +13192,13 @@
     </row>
     <row r="288" spans="1:5" ht="15" thickBot="1">
       <c r="A288" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B288" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D288" s="6">
         <v>18.600000000000001</v>
@@ -13221,13 +13209,13 @@
     </row>
     <row r="289" spans="1:5" ht="15" thickBot="1">
       <c r="A289" s="1" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D289" s="6">
         <v>15.5</v>
@@ -13238,13 +13226,13 @@
     </row>
     <row r="290" spans="1:5" ht="15" thickBot="1">
       <c r="A290" s="1" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D290" s="6">
         <v>12.4</v>
@@ -13255,13 +13243,13 @@
     </row>
     <row r="291" spans="1:5" ht="15" thickBot="1">
       <c r="A291" s="1" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D291" s="6">
         <v>0</v>
@@ -13278,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D292" s="6">
         <v>5</v>
@@ -13289,13 +13277,13 @@
     </row>
     <row r="293" spans="1:5" ht="15" thickBot="1">
       <c r="A293" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B293" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D293" s="6">
         <v>36.700000000000003</v>
@@ -13312,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D294" s="6">
         <v>18.100000000000001</v>
@@ -13329,7 +13317,7 @@
         <v>2</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D295" s="6">
         <v>19.8</v>
@@ -13346,7 +13334,7 @@
         <v>3</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D296" s="6">
         <v>16</v>
@@ -13357,13 +13345,13 @@
     </row>
     <row r="297" spans="1:5" ht="15" thickBot="1">
       <c r="A297" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B297" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D297" s="6">
         <v>6</v>
@@ -13374,13 +13362,13 @@
     </row>
     <row r="298" spans="1:5" ht="15" thickBot="1">
       <c r="A298" s="1" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D298" s="6">
         <v>16.899999999999999</v>
@@ -13391,13 +13379,13 @@
     </row>
     <row r="299" spans="1:5" ht="15" thickBot="1">
       <c r="A299" s="1" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D299" s="6">
         <v>12.7</v>
@@ -13408,13 +13396,13 @@
     </row>
     <row r="300" spans="1:5" ht="15" thickBot="1">
       <c r="A300" s="1" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D300" s="6">
         <v>0</v>
@@ -13425,13 +13413,13 @@
     </row>
     <row r="301" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A301" s="2" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D301" s="6">
         <v>8.8000000000000007</v>
@@ -13442,13 +13430,13 @@
     </row>
     <row r="302" spans="1:5" ht="15" thickBot="1">
       <c r="A302" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D302" s="6">
         <v>22.4</v>
@@ -13465,7 +13453,7 @@
         <v>4</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D303" s="6">
         <v>26</v>
@@ -13482,7 +13470,7 @@
         <v>3</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D304" s="6">
         <v>8.1</v>
@@ -13499,7 +13487,7 @@
         <v>1</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D305" s="6">
         <v>0</v>
@@ -13510,13 +13498,13 @@
     </row>
     <row r="306" spans="1:5" ht="15" thickBot="1">
       <c r="A306" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B306" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D306" s="6">
         <v>2.8</v>
@@ -13533,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D307" s="6">
         <v>2</v>
@@ -13550,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D308" s="6">
         <v>6.8</v>
@@ -13561,13 +13549,13 @@
     </row>
     <row r="309" spans="1:5" ht="15" thickBot="1">
       <c r="A309" s="1" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D309" s="6">
         <v>1.7</v>
@@ -13578,13 +13566,13 @@
     </row>
     <row r="310" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A310" s="2" t="s">
-        <v>602</v>
+        <v>268</v>
       </c>
       <c r="B310" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D310" s="6">
         <v>14.4</v>
@@ -13601,7 +13589,7 @@
         <v>4</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D311" s="6">
         <v>15.1</v>
@@ -13612,13 +13600,13 @@
     </row>
     <row r="312" spans="1:5" ht="15" thickBot="1">
       <c r="A312" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B312" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D312" s="6">
         <v>11.9</v>
@@ -13629,13 +13617,13 @@
     </row>
     <row r="313" spans="1:5" ht="15" thickBot="1">
       <c r="A313" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D313" s="6">
         <v>13.2</v>
@@ -13652,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D314" s="6">
         <v>12.5</v>
@@ -13663,13 +13651,13 @@
     </row>
     <row r="315" spans="1:5" ht="15" thickBot="1">
       <c r="A315" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B315" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D315" s="6">
         <v>17.5</v>
@@ -13686,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D316" s="6">
         <v>3.9</v>
@@ -13703,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D317" s="6">
         <v>5.6</v>
@@ -13714,13 +13702,13 @@
     </row>
     <row r="318" spans="1:5" ht="15" thickBot="1">
       <c r="A318" s="1" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D318" s="6">
         <v>0</v>
@@ -13731,13 +13719,13 @@
     </row>
     <row r="319" spans="1:5" ht="15" thickBot="1">
       <c r="A319" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B319" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D319" s="6">
         <v>1.2</v>
@@ -13748,13 +13736,13 @@
     </row>
     <row r="320" spans="1:5" ht="15" thickBot="1">
       <c r="A320" s="2" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B320" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D320" s="6">
         <v>18.399999999999999</v>
@@ -13765,13 +13753,13 @@
     </row>
     <row r="321" spans="1:5" ht="15" thickBot="1">
       <c r="A321" s="2" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="B321" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D321" s="6">
         <v>22</v>
@@ -13788,7 +13776,7 @@
         <v>2</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D322" s="6">
         <v>7.2</v>
@@ -13805,7 +13793,7 @@
         <v>3</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D323" s="6">
         <v>22</v>
@@ -13822,7 +13810,7 @@
         <v>1</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D324" s="6">
         <v>5.5</v>
@@ -13833,13 +13821,13 @@
     </row>
     <row r="325" spans="1:5" ht="15" thickBot="1">
       <c r="A325" s="1" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D325" s="6">
         <v>0</v>
@@ -13850,13 +13838,13 @@
     </row>
     <row r="326" spans="1:5" ht="15" thickBot="1">
       <c r="A326" s="1" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D326" s="6">
         <v>0</v>
@@ -13867,13 +13855,13 @@
     </row>
     <row r="327" spans="1:5" ht="15" thickBot="1">
       <c r="A327" s="1" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D327" s="6">
         <v>2.2000000000000002</v>
@@ -13890,7 +13878,7 @@
         <v>4</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D328" s="6">
         <v>5.6</v>
@@ -13901,13 +13889,13 @@
     </row>
     <row r="329" spans="1:5" ht="15" thickBot="1">
       <c r="A329" s="2" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="B329" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D329" s="6">
         <v>9.6</v>
@@ -13918,13 +13906,13 @@
     </row>
     <row r="330" spans="1:5" ht="15" thickBot="1">
       <c r="A330" s="2" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="B330" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D330" s="6">
         <v>17.3</v>
@@ -13941,7 +13929,7 @@
         <v>0</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D331" s="6">
         <v>25.8</v>
@@ -13958,7 +13946,7 @@
         <v>2</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D332" s="6">
         <v>0</v>
@@ -13975,7 +13963,7 @@
         <v>3</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D333" s="6">
         <v>14.7</v>
@@ -13992,7 +13980,7 @@
         <v>2</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D334" s="6">
         <v>9.1</v>
@@ -14003,13 +13991,13 @@
     </row>
     <row r="335" spans="1:5" ht="15" thickBot="1">
       <c r="A335" s="1" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D335" s="6">
         <v>28.8</v>
@@ -14020,13 +14008,13 @@
     </row>
     <row r="336" spans="1:5" ht="15" thickBot="1">
       <c r="A336" s="1" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D336" s="6">
         <v>0</v>
@@ -14037,13 +14025,13 @@
     </row>
     <row r="337" spans="1:5" ht="14.4" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B337" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D337" s="4">
         <v>7.7</v>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1116004-4F81-43B9-9C4D-F135E0AAE08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5744B666-5B24-4E2E-B4CC-CAEECA7E7DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="144" windowWidth="15576" windowHeight="12216" activeTab="1" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
     <sheet name="10-22" sheetId="14" r:id="rId2"/>
+    <sheet name="10-29" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$338</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="652">
   <si>
     <t>PG</t>
   </si>
@@ -1866,6 +1868,135 @@
   </si>
   <si>
     <t>Ty JeromeO</t>
+  </si>
+  <si>
+    <t>IND @ BKN, Today, 7:30 PM</t>
+  </si>
+  <si>
+    <t>DAL @ DEN, Today, 10:00 PM</t>
+  </si>
+  <si>
+    <t>CLE @ LAL, Today, 10:30 PM</t>
+  </si>
+  <si>
+    <t>LAC @ POR, Today, 10:00 PM</t>
+  </si>
+  <si>
+    <t>Jimmy Butler</t>
+  </si>
+  <si>
+    <t>CHA @ MIA, Today, 7:30 PM</t>
+  </si>
+  <si>
+    <t>SAC @ NO, Today, 8:00 PM</t>
+  </si>
+  <si>
+    <t>Malcolm BrogdonO</t>
+  </si>
+  <si>
+    <t>Kristaps PorzingisO</t>
+  </si>
+  <si>
+    <t>Terry RozierINJ</t>
+  </si>
+  <si>
+    <t>Terance Mann</t>
+  </si>
+  <si>
+    <t>Larry Nance Jr.</t>
+  </si>
+  <si>
+    <t>Isaac OkoroO</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.O</t>
+  </si>
+  <si>
+    <t>Serge IbakaINJ</t>
+  </si>
+  <si>
+    <t>Cody Zeller</t>
+  </si>
+  <si>
+    <t>Kelan MartinINJ</t>
+  </si>
+  <si>
+    <t>Isaiah JacksonINJ</t>
+  </si>
+  <si>
+    <t>David Duke Jr.</t>
+  </si>
+  <si>
+    <t>Reggie Bullock</t>
+  </si>
+  <si>
+    <t>Frank Ntilikina</t>
+  </si>
+  <si>
+    <t>Sterling BrownO</t>
+  </si>
+  <si>
+    <t>Maxi Kleber</t>
+  </si>
+  <si>
+    <t>Eugene Omoruyi</t>
+  </si>
+  <si>
+    <t>JaQuori McLaughlin</t>
+  </si>
+  <si>
+    <t>Vlatko CancarINJ</t>
+  </si>
+  <si>
+    <t>Dylan Windler</t>
+  </si>
+  <si>
+    <t>Kevin PangosO</t>
+  </si>
+  <si>
+    <t>Caleb Martin</t>
+  </si>
+  <si>
+    <t>Omer Yurtseven</t>
+  </si>
+  <si>
+    <t>Marcus Garrett</t>
+  </si>
+  <si>
+    <t>Kawhi LeonardINJ</t>
+  </si>
+  <si>
+    <t>Justise Winslow</t>
+  </si>
+  <si>
+    <t>Isaiah Hartenstein</t>
+  </si>
+  <si>
+    <t>Amir Coffey</t>
+  </si>
+  <si>
+    <t>Keon JohnsonINJ</t>
+  </si>
+  <si>
+    <t>Jason PrestonINJ</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.</t>
+  </si>
+  <si>
+    <t>Tony SnellINJ</t>
+  </si>
+  <si>
+    <t>Dennis Smith Jr.</t>
+  </si>
+  <si>
+    <t>Greg Brown</t>
+  </si>
+  <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
+    <t>Kyle Lowry</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +2035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1914,6 +2045,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF7F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,7 +2076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1990,6 +2127,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8302,8 +8445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C0FC0C-9C64-4E9F-A831-E4C62061EEA5}">
   <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14148,4 +14291,3575 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}">
+  <dimension ref="A1:E232"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D2" s="6">
+        <v>52.9</v>
+      </c>
+      <c r="E2" s="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="6">
+        <v>46</v>
+      </c>
+      <c r="E3" s="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D4" s="6">
+        <v>52.4</v>
+      </c>
+      <c r="E4" s="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D5" s="6">
+        <v>53.4</v>
+      </c>
+      <c r="E5" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D7" s="6">
+        <v>39</v>
+      </c>
+      <c r="E7" s="18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43.8</v>
+      </c>
+      <c r="E8" s="18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D9" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="E9" s="18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45.6</v>
+      </c>
+      <c r="E10" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D11" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="E11" s="18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D12" s="6">
+        <v>32.9</v>
+      </c>
+      <c r="E12" s="18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D13" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="E13" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43.1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D15" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="E15" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D16" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E16" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D17" s="6">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E17" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44.2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D19" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="E19" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44.5</v>
+      </c>
+      <c r="E20" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D21" s="6">
+        <v>43.9</v>
+      </c>
+      <c r="E21" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D22" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="E22" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D23" s="6">
+        <v>31</v>
+      </c>
+      <c r="E23" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D24" s="6">
+        <v>27.2</v>
+      </c>
+      <c r="E24" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D25" s="6">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E25" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D26" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E26" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D27" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D28" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="E28" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D29" s="6">
+        <v>26.7</v>
+      </c>
+      <c r="E29" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D30" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="E30" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D31" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="E31" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D32" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="E32" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D33" s="6">
+        <v>23.4</v>
+      </c>
+      <c r="E33" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D34" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E34" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D35" s="6">
+        <v>28</v>
+      </c>
+      <c r="E35" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D36" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="E36" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D37" s="6">
+        <v>31.4</v>
+      </c>
+      <c r="E37" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D38" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="E38" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D39" s="6">
+        <v>33</v>
+      </c>
+      <c r="E39" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D40" s="6">
+        <v>18</v>
+      </c>
+      <c r="E40" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D41" s="6">
+        <v>29.7</v>
+      </c>
+      <c r="E41" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D42" s="6">
+        <v>27.1</v>
+      </c>
+      <c r="E42" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D43" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="E43" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D44" s="6">
+        <v>28</v>
+      </c>
+      <c r="E44" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D45" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="E45" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D46" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="E46" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D47" s="6">
+        <v>22.9</v>
+      </c>
+      <c r="E47" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D48" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="E48" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D49" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="E49" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D50" s="6">
+        <v>24</v>
+      </c>
+      <c r="E50" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D51" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E51" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D52" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E52" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D53" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="E53" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D54" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="E54" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D55" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="E55" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D56" s="6">
+        <v>22.9</v>
+      </c>
+      <c r="E56" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D57" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="E57" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D58" s="6">
+        <v>25</v>
+      </c>
+      <c r="E58" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D59" s="6">
+        <v>23.3</v>
+      </c>
+      <c r="E59" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D60" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="E60" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D61" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="E61" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D62" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="E62" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D63" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="E63" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D64" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="E64" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D65" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="E65" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D66" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="E66" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D67" s="6">
+        <v>20</v>
+      </c>
+      <c r="E67" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D68" s="6">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E68" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D69" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E69" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D70" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="E70" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D71" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="E71" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D72" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E72" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D73" s="6">
+        <v>19.8</v>
+      </c>
+      <c r="E73" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D74" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="E74" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D75" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="E75" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D76" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="E76" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D77" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="E77" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D78" s="6">
+        <v>22.7</v>
+      </c>
+      <c r="E78" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D79" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="E79" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D80" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="E80" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D81" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="E81" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D82" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="E82" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D83" s="6">
+        <v>19.3</v>
+      </c>
+      <c r="E83" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D84" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="E84" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D85" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="E85" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D86" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E86" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D87" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="E87" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D88" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="E88" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D89" s="6">
+        <v>22.1</v>
+      </c>
+      <c r="E89" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D90" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="E90" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D91" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="E91" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D92" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E92" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D93" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="E93" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1">
+      <c r="A94" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D94" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E94" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" thickBot="1">
+      <c r="A95" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0</v>
+      </c>
+      <c r="E95" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" thickBot="1">
+      <c r="A96" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0</v>
+      </c>
+      <c r="E96" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D97" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="E97" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D98" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E98" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D99" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="E99" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D100" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E100" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D101" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E101" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D102" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="E102" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D103" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E103" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D104" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E104" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" thickBot="1">
+      <c r="A105" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D105" s="6">
+        <v>0</v>
+      </c>
+      <c r="E105" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1">
+      <c r="A106" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0</v>
+      </c>
+      <c r="E106" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D107" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E107" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D108" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="E108" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D109" s="6">
+        <v>18</v>
+      </c>
+      <c r="E109" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D110" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="E110" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D111" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="E111" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D112" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E112" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D113" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E113" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D114" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="E114" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D115" s="6">
+        <v>9</v>
+      </c>
+      <c r="E115" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1</v>
+      </c>
+      <c r="E116" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" thickBot="1">
+      <c r="A117" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0</v>
+      </c>
+      <c r="E117" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" thickBot="1">
+      <c r="A118" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0</v>
+      </c>
+      <c r="E118" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D119" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E119" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D120" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E120" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D121" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E121" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D122" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="E122" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" thickBot="1">
+      <c r="A123" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D123" s="6">
+        <v>0</v>
+      </c>
+      <c r="E123" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D124" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E124" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D125" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E125" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D126" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="E126" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D127" s="6">
+        <v>3</v>
+      </c>
+      <c r="E127" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D128" s="6">
+        <v>2</v>
+      </c>
+      <c r="E128" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1">
+      <c r="A129" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D129" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="E129" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D130" s="6">
+        <v>0</v>
+      </c>
+      <c r="E130" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D131" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="E131" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1</v>
+      </c>
+      <c r="E132" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D133" s="6">
+        <v>0</v>
+      </c>
+      <c r="E133" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D134" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="E134" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E135" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D136" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E136" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D137" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="E137" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1">
+      <c r="A138" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D138" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E138" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D139" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E139" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D140" s="6">
+        <v>21.1</v>
+      </c>
+      <c r="E140" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D141" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="E141" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D142" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="E142" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D143" s="6">
+        <v>15</v>
+      </c>
+      <c r="E143" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D144" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E144" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D145" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="E145" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D146" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="E146" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D147" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E147" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D148" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E148" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1">
+      <c r="A149" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0</v>
+      </c>
+      <c r="E149" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1">
+      <c r="A150" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0</v>
+      </c>
+      <c r="E150" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D151" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E151" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D152" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E152" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" thickBot="1">
+      <c r="A153" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D153" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E153" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" thickBot="1">
+      <c r="A154" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D154" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E154" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" thickBot="1">
+      <c r="A155" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D155" s="6">
+        <v>0</v>
+      </c>
+      <c r="E155" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" thickBot="1">
+      <c r="A156" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0</v>
+      </c>
+      <c r="E156" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" thickBot="1">
+      <c r="A157" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D157" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="E157" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D158" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="E158" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D159" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="E159" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D160" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="E160" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D161" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="E161" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E162" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D163" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E163" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D164" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E164" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D165" s="6">
+        <v>5</v>
+      </c>
+      <c r="E165" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D166" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E166" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1">
+      <c r="A167" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D167" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E167" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D168" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="E168" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D169" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E169" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D170" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="E170" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D171" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E171" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D172" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E172" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D173" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E173" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D174" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="E174" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D175" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E175" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D176" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E176" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" thickBot="1">
+      <c r="A177" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D177" s="6">
+        <v>0</v>
+      </c>
+      <c r="E177" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D178" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="E178" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D179" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="E179" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D180" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="E180" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D181" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E181" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D182" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="E182" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" thickBot="1">
+      <c r="A183" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D183" s="6">
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D184" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E184" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D185" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="E185" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D186" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E186" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" thickBot="1">
+      <c r="A187" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D187" s="6">
+        <v>0</v>
+      </c>
+      <c r="E187" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D188" s="6">
+        <v>45.7</v>
+      </c>
+      <c r="E188" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" thickBot="1">
+      <c r="A189" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D189" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="E189" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D190" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="E190" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D191" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E191" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D192" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E192" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1">
+      <c r="A193" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D193" s="6">
+        <v>0</v>
+      </c>
+      <c r="E193" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1">
+      <c r="A194" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D194" s="6">
+        <v>0</v>
+      </c>
+      <c r="E194" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" thickBot="1">
+      <c r="A195" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D195" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E195" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D196" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E196" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D197" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E197" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D198" s="6">
+        <v>18</v>
+      </c>
+      <c r="E198" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D199" s="6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E199" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D200" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E200" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D201" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E201" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D202" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E202" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D203" s="6">
+        <v>0</v>
+      </c>
+      <c r="E203" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="14"/>
+      <c r="B217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="14"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="14"/>
+      <c r="B218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="14"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="14"/>
+      <c r="B219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="14"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="14"/>
+      <c r="B220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="14"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="14"/>
+      <c r="B221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="14"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="14"/>
+      <c r="B222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="14"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="14"/>
+      <c r="B223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="14"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="14"/>
+      <c r="B224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="14"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="14"/>
+      <c r="B225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="14"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="14"/>
+      <c r="B226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="14"/>
+      <c r="B227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="14"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="14"/>
+      <c r="B228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="14"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="14"/>
+      <c r="B229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="14"/>
+      <c r="B230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="14"/>
+      <c r="B231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="14"/>
+      <c r="B232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E338" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5744B666-5B24-4E2E-B4CC-CAEECA7E7DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6063F4-473D-45C0-B0BA-2CFAFAEA3258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="655">
   <si>
     <t>PG</t>
   </si>
@@ -1997,6 +1997,15 @@
   </si>
   <si>
     <t>Kyle Lowry</t>
+  </si>
+  <si>
+    <t>Russell WestbrookNo</t>
+  </si>
+  <si>
+    <t>noChris Duarte</t>
+  </si>
+  <si>
+    <t>Louis Kingno</t>
   </si>
 </sst>
 </file>
@@ -14298,7 +14307,7 @@
   <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14431,7 +14440,7 @@
     </row>
     <row r="8" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>652</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>0</v>
@@ -15043,7 +15052,7 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>529</v>
+        <v>653</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>1</v>
@@ -17253,7 +17262,7 @@
     </row>
     <row r="174" spans="1:5" ht="15" thickBot="1">
       <c r="A174" s="2" t="s">
-        <v>448</v>
+        <v>654</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>2</v>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6063F4-473D-45C0-B0BA-2CFAFAEA3258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E2F0C-A967-4C3E-880D-B62C7CC73244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -14307,7 +14307,7 @@
   <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861E2F0C-A967-4C3E-880D-B62C7CC73244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E48A21-6652-4148-ACDD-C81CBBACC1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$338</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$336</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="653">
   <si>
     <t>PG</t>
   </si>
@@ -1999,13 +1999,7 @@
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Russell WestbrookNo</t>
-  </si>
-  <si>
     <t>noChris Duarte</t>
-  </si>
-  <si>
-    <t>Louis Kingno</t>
   </si>
 </sst>
 </file>
@@ -14304,10 +14298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}">
-  <dimension ref="A1:E232"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14438,69 +14432,69 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>652</v>
+        <v>172</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D8" s="6">
-        <v>43.8</v>
+        <v>48.6</v>
       </c>
       <c r="E8" s="18">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D9" s="6">
-        <v>48.6</v>
+        <v>45.6</v>
       </c>
       <c r="E9" s="18">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>290</v>
+        <v>613</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D10" s="6">
-        <v>45.6</v>
+        <v>47.5</v>
       </c>
       <c r="E10" s="18">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D11" s="6">
-        <v>47.5</v>
+        <v>32.9</v>
       </c>
       <c r="E11" s="18">
         <v>41</v>
@@ -14508,220 +14502,220 @@
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D12" s="6">
-        <v>32.9</v>
+        <v>34.5</v>
       </c>
       <c r="E12" s="18">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>616</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D13" s="6">
-        <v>34.5</v>
+        <v>43.1</v>
       </c>
       <c r="E13" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D14" s="6">
-        <v>43.1</v>
+        <v>39.1</v>
       </c>
       <c r="E14" s="18">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D15" s="6">
-        <v>39.1</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="E15" s="18">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="15" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D16" s="6">
-        <v>37.299999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E16" s="18">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
+    <row r="17" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D17" s="6">
-        <v>40.799999999999997</v>
+        <v>44.2</v>
       </c>
       <c r="E17" s="18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D18" s="6">
-        <v>44.2</v>
+        <v>37.4</v>
       </c>
       <c r="E18" s="18">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D19" s="6">
-        <v>37.4</v>
+        <v>44.5</v>
       </c>
       <c r="E19" s="18">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="20" spans="1:5" ht="15" thickBot="1">
       <c r="A20" s="2" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D20" s="6">
-        <v>44.5</v>
+        <v>43.9</v>
       </c>
       <c r="E20" s="18">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D21" s="6">
-        <v>43.9</v>
+        <v>42.6</v>
       </c>
       <c r="E21" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
+        <v>369</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D22" s="6">
-        <v>42.6</v>
+        <v>31</v>
       </c>
       <c r="E22" s="18">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1">
+    <row r="23" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>369</v>
+        <v>617</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D23" s="6">
-        <v>31</v>
+        <v>27.2</v>
       </c>
       <c r="E23" s="18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>617</v>
+        <v>517</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D24" s="6">
-        <v>27.2</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E24" s="18">
         <v>28</v>
@@ -14729,50 +14723,50 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>517</v>
+        <v>618</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D25" s="6">
-        <v>34.799999999999997</v>
+        <v>11.4</v>
       </c>
       <c r="E25" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>618</v>
+        <v>199</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D26" s="6">
-        <v>11.4</v>
+        <v>28.1</v>
       </c>
       <c r="E26" s="18">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D27" s="6">
-        <v>28.1</v>
+        <v>25.3</v>
       </c>
       <c r="E27" s="18">
         <v>26</v>
@@ -14780,16 +14774,16 @@
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>122</v>
+        <v>600</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D28" s="6">
-        <v>25.3</v>
+        <v>26.7</v>
       </c>
       <c r="E28" s="18">
         <v>26</v>
@@ -14797,16 +14791,16 @@
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>600</v>
+        <v>198</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D29" s="6">
-        <v>26.7</v>
+        <v>30.8</v>
       </c>
       <c r="E29" s="18">
         <v>26</v>
@@ -14814,67 +14808,67 @@
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D30" s="6">
-        <v>30.8</v>
+        <v>31.5</v>
       </c>
       <c r="E30" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D31" s="6">
-        <v>31.5</v>
+        <v>27.6</v>
       </c>
       <c r="E31" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1">
+    <row r="32" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>159</v>
+        <v>651</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D32" s="6">
-        <v>27.6</v>
+        <v>23.4</v>
       </c>
       <c r="E32" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="33" spans="1:5" ht="15" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D33" s="6">
-        <v>23.4</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E33" s="18">
         <v>25</v>
@@ -14882,24 +14876,24 @@
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1">
       <c r="A34" s="2" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D34" s="6">
-        <v>36.700000000000003</v>
+        <v>28</v>
       </c>
       <c r="E34" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1">
+    <row r="35" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>1</v>
@@ -14908,7 +14902,7 @@
         <v>615</v>
       </c>
       <c r="D35" s="6">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="E35" s="18">
         <v>25</v>
@@ -14916,7 +14910,7 @@
     </row>
     <row r="36" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>1</v>
@@ -14925,75 +14919,75 @@
         <v>615</v>
       </c>
       <c r="D36" s="6">
-        <v>28.5</v>
+        <v>31.4</v>
       </c>
       <c r="E36" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1">
       <c r="A37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D37" s="6">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="E37" s="18">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>292</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D38" s="6">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="E38" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1">
+    <row r="39" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A39" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D39" s="6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E39" s="18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D40" s="6">
-        <v>18</v>
+        <v>29.7</v>
       </c>
       <c r="E40" s="18">
         <v>20</v>
@@ -15001,67 +14995,67 @@
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1">
       <c r="A41" s="2" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D41" s="6">
-        <v>29.7</v>
+        <v>27.1</v>
       </c>
       <c r="E41" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1">
+    <row r="42" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D42" s="6">
-        <v>27.1</v>
+        <v>18.7</v>
       </c>
       <c r="E42" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="43" spans="1:5" ht="15" thickBot="1">
       <c r="A43" s="2" t="s">
-        <v>183</v>
+        <v>652</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D43" s="6">
-        <v>18.7</v>
+        <v>28</v>
       </c>
       <c r="E43" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B44" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D44" s="6">
-        <v>28</v>
+        <v>31.3</v>
       </c>
       <c r="E44" s="18">
         <v>19</v>
@@ -15069,16 +15063,16 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D45" s="6">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="E45" s="18">
         <v>19</v>
@@ -15086,16 +15080,16 @@
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D46" s="6">
-        <v>30.9</v>
+        <v>22.9</v>
       </c>
       <c r="E46" s="18">
         <v>19</v>
@@ -15103,135 +15097,135 @@
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D47" s="6">
-        <v>22.9</v>
+        <v>31.5</v>
       </c>
       <c r="E47" s="18">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1">
+    <row r="48" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D48" s="6">
-        <v>31.5</v>
+        <v>23.5</v>
       </c>
       <c r="E48" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>411</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D49" s="6">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E49" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1">
+    <row r="50" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D50" s="6">
-        <v>24</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E50" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="51" spans="1:5" ht="15" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D51" s="6">
-        <v>17.899999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="E51" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D52" s="6">
-        <v>5.8</v>
+        <v>17.3</v>
       </c>
       <c r="E52" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D53" s="6">
-        <v>17.3</v>
+        <v>27.5</v>
       </c>
       <c r="E53" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="54" spans="1:5" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D54" s="6">
-        <v>27.5</v>
+        <v>8.9</v>
       </c>
       <c r="E54" s="18">
         <v>16</v>
@@ -15239,33 +15233,33 @@
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>385</v>
+        <v>27</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D55" s="6">
-        <v>8.9</v>
+        <v>22.9</v>
       </c>
       <c r="E55" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1">
+    <row r="56" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D56" s="6">
-        <v>22.9</v>
+        <v>15.4</v>
       </c>
       <c r="E56" s="18">
         <v>16</v>
@@ -15273,33 +15267,33 @@
     </row>
     <row r="57" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D57" s="6">
+        <v>25</v>
+      </c>
+      <c r="E57" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D57" s="6">
-        <v>15.4</v>
-      </c>
-      <c r="E57" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A58" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D58" s="6">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="E58" s="18">
         <v>15</v>
@@ -15307,16 +15301,16 @@
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D59" s="6">
-        <v>23.3</v>
+        <v>18.5</v>
       </c>
       <c r="E59" s="18">
         <v>15</v>
@@ -15324,16 +15318,16 @@
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>527</v>
+        <v>619</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D60" s="6">
-        <v>18.5</v>
+        <v>25.2</v>
       </c>
       <c r="E60" s="18">
         <v>15</v>
@@ -15341,16 +15335,16 @@
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1">
       <c r="A61" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D61" s="6">
-        <v>25.2</v>
+        <v>12.8</v>
       </c>
       <c r="E61" s="18">
         <v>15</v>
@@ -15358,152 +15352,152 @@
     </row>
     <row r="62" spans="1:5" ht="15" thickBot="1">
       <c r="A62" s="2" t="s">
-        <v>620</v>
+        <v>356</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D62" s="6">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="E62" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1">
       <c r="A63" s="2" t="s">
-        <v>356</v>
+        <v>621</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D63" s="6">
-        <v>13.6</v>
+        <v>16.2</v>
       </c>
       <c r="E63" s="18">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1">
+    <row r="64" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A64" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D64" s="6">
-        <v>16.2</v>
+        <v>14.9</v>
       </c>
       <c r="E64" s="18">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="65" spans="1:5" ht="15" thickBot="1">
       <c r="A65" s="2" t="s">
-        <v>622</v>
+        <v>528</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D65" s="6">
-        <v>14.9</v>
+        <v>23.9</v>
       </c>
       <c r="E65" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A66" s="2" t="s">
-        <v>528</v>
+        <v>308</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D66" s="6">
-        <v>23.9</v>
+        <v>20</v>
       </c>
       <c r="E66" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="67" spans="1:5" ht="15" thickBot="1">
       <c r="A67" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D67" s="6">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E67" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" thickBot="1">
       <c r="A68" s="2" t="s">
-        <v>315</v>
+        <v>107</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D68" s="6">
-        <v>20.100000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E68" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" thickBot="1">
+    <row r="69" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D69" s="6">
-        <v>18.600000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="E69" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="70" spans="1:5" ht="15" thickBot="1">
       <c r="A70" s="2" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D70" s="6">
-        <v>14.8</v>
+        <v>22.5</v>
       </c>
       <c r="E70" s="18">
         <v>12</v>
@@ -15511,16 +15505,16 @@
     </row>
     <row r="71" spans="1:5" ht="15" thickBot="1">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D71" s="6">
-        <v>22.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E71" s="18">
         <v>12</v>
@@ -15528,16 +15522,16 @@
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1">
       <c r="A72" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D72" s="6">
-        <v>18.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="E72" s="18">
         <v>12</v>
@@ -15545,16 +15539,16 @@
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1">
       <c r="A73" s="2" t="s">
-        <v>229</v>
+        <v>623</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D73" s="6">
-        <v>19.8</v>
+        <v>24.4</v>
       </c>
       <c r="E73" s="18">
         <v>12</v>
@@ -15562,33 +15556,33 @@
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>623</v>
+        <v>312</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D74" s="6">
-        <v>24.4</v>
+        <v>21.5</v>
       </c>
       <c r="E74" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" thickBot="1">
       <c r="A75" s="2" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D75" s="6">
-        <v>21.5</v>
+        <v>18.2</v>
       </c>
       <c r="E75" s="18">
         <v>11</v>
@@ -15596,16 +15590,16 @@
     </row>
     <row r="76" spans="1:5" ht="15" thickBot="1">
       <c r="A76" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D76" s="6">
-        <v>18.2</v>
+        <v>28.4</v>
       </c>
       <c r="E76" s="18">
         <v>11</v>
@@ -15613,16 +15607,16 @@
     </row>
     <row r="77" spans="1:5" ht="15" thickBot="1">
       <c r="A77" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D77" s="6">
-        <v>28.4</v>
+        <v>22.7</v>
       </c>
       <c r="E77" s="18">
         <v>11</v>
@@ -15630,50 +15624,50 @@
     </row>
     <row r="78" spans="1:5" ht="15" thickBot="1">
       <c r="A78" s="2" t="s">
-        <v>381</v>
+        <v>248</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D78" s="6">
-        <v>22.7</v>
+        <v>23.5</v>
       </c>
       <c r="E78" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" thickBot="1">
+    <row r="79" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A79" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D79" s="6">
-        <v>23.5</v>
+        <v>13.6</v>
       </c>
       <c r="E79" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="80" spans="1:5" ht="15" thickBot="1">
       <c r="A80" s="2" t="s">
-        <v>249</v>
+        <v>551</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D80" s="6">
-        <v>13.6</v>
+        <v>10.4</v>
       </c>
       <c r="E80" s="18">
         <v>11</v>
@@ -15681,16 +15675,16 @@
     </row>
     <row r="81" spans="1:5" ht="15" thickBot="1">
       <c r="A81" s="2" t="s">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D81" s="6">
-        <v>10.4</v>
+        <v>20.5</v>
       </c>
       <c r="E81" s="18">
         <v>11</v>
@@ -15698,16 +15692,16 @@
     </row>
     <row r="82" spans="1:5" ht="15" thickBot="1">
       <c r="A82" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D82" s="6">
-        <v>20.5</v>
+        <v>19.3</v>
       </c>
       <c r="E82" s="18">
         <v>11</v>
@@ -15715,16 +15709,16 @@
     </row>
     <row r="83" spans="1:5" ht="15" thickBot="1">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>624</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D83" s="6">
-        <v>19.3</v>
+        <v>15.6</v>
       </c>
       <c r="E83" s="18">
         <v>11</v>
@@ -15732,50 +15726,50 @@
     </row>
     <row r="84" spans="1:5" ht="15" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>624</v>
+        <v>87</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D84" s="6">
-        <v>15.6</v>
+        <v>21.6</v>
       </c>
       <c r="E84" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" thickBot="1">
+    <row r="85" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D85" s="6">
-        <v>21.6</v>
+        <v>9.6</v>
       </c>
       <c r="E85" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>605</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D86" s="6">
-        <v>9.6</v>
+        <v>15.2</v>
       </c>
       <c r="E86" s="18">
         <v>10</v>
@@ -15783,24 +15777,24 @@
     </row>
     <row r="87" spans="1:5" ht="15" thickBot="1">
       <c r="A87" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D87" s="6">
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
       <c r="E87" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" thickBot="1">
+    <row r="88" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A88" s="2" t="s">
-        <v>603</v>
+        <v>232</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>2</v>
@@ -15809,24 +15803,24 @@
         <v>609</v>
       </c>
       <c r="D88" s="6">
-        <v>16.7</v>
+        <v>22.1</v>
       </c>
       <c r="E88" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="89" spans="1:5" ht="15" thickBot="1">
       <c r="A89" s="2" t="s">
-        <v>232</v>
+        <v>606</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D89" s="6">
-        <v>22.1</v>
+        <v>9.1</v>
       </c>
       <c r="E89" s="18">
         <v>10</v>
@@ -15834,16 +15828,16 @@
     </row>
     <row r="90" spans="1:5" ht="15" thickBot="1">
       <c r="A90" s="2" t="s">
-        <v>606</v>
+        <v>235</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D90" s="6">
-        <v>9.1</v>
+        <v>13.9</v>
       </c>
       <c r="E90" s="18">
         <v>10</v>
@@ -15851,16 +15845,16 @@
     </row>
     <row r="91" spans="1:5" ht="15" thickBot="1">
       <c r="A91" s="2" t="s">
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D91" s="6">
-        <v>13.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E91" s="18">
         <v>10</v>
@@ -15868,50 +15862,50 @@
     </row>
     <row r="92" spans="1:5" ht="15" thickBot="1">
       <c r="A92" s="2" t="s">
-        <v>625</v>
+        <v>382</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D92" s="6">
-        <v>9.6999999999999993</v>
+        <v>12.3</v>
       </c>
       <c r="E92" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" thickBot="1">
-      <c r="A93" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B93" s="8" t="s">
+      <c r="A93" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D93" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="E93" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="E93" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" thickBot="1">
       <c r="A94" s="1" t="s">
-        <v>626</v>
+        <v>572</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D94" s="6">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="E94" s="17">
         <v>10</v>
@@ -15919,10 +15913,10 @@
     </row>
     <row r="95" spans="1:5" ht="15" thickBot="1">
       <c r="A95" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>609</v>
@@ -15935,34 +15929,34 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" thickBot="1">
-      <c r="A96" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="A96" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D96" s="6">
-        <v>0</v>
-      </c>
-      <c r="E96" s="17">
+        <v>11.8</v>
+      </c>
+      <c r="E96" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15" thickBot="1">
       <c r="A97" s="2" t="s">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D97" s="6">
-        <v>11.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E97" s="18">
         <v>10</v>
@@ -15970,16 +15964,16 @@
     </row>
     <row r="98" spans="1:5" ht="15" thickBot="1">
       <c r="A98" s="2" t="s">
-        <v>53</v>
+        <v>530</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D98" s="6">
-        <v>4.4000000000000004</v>
+        <v>44.4</v>
       </c>
       <c r="E98" s="18">
         <v>10</v>
@@ -15987,16 +15981,16 @@
     </row>
     <row r="99" spans="1:5" ht="15" thickBot="1">
       <c r="A99" s="2" t="s">
-        <v>530</v>
+        <v>147</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D99" s="6">
-        <v>44.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E99" s="18">
         <v>10</v>
@@ -16004,50 +15998,50 @@
     </row>
     <row r="100" spans="1:5" ht="15" thickBot="1">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D100" s="6">
-        <v>8.6999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="E100" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" thickBot="1">
+    <row r="101" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A101" s="2" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D101" s="6">
-        <v>7.1</v>
+        <v>16.5</v>
       </c>
       <c r="E101" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="102" spans="1:5" ht="15" thickBot="1">
       <c r="A102" s="2" t="s">
-        <v>44</v>
+        <v>531</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D102" s="6">
-        <v>16.5</v>
+        <v>0.6</v>
       </c>
       <c r="E102" s="18">
         <v>10</v>
@@ -16055,44 +16049,44 @@
     </row>
     <row r="103" spans="1:5" ht="15" thickBot="1">
       <c r="A103" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D103" s="6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E103" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" thickBot="1">
-      <c r="A104" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="2" t="s">
+      <c r="A104" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D104" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E104" s="18">
+        <v>0</v>
+      </c>
+      <c r="E104" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" thickBot="1">
       <c r="A105" s="1" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>609</v>
@@ -16105,34 +16099,34 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" thickBot="1">
-      <c r="A106" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>609</v>
+      <c r="A106" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="D106" s="6">
-        <v>0</v>
-      </c>
-      <c r="E106" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E106" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" thickBot="1">
       <c r="A107" s="2" t="s">
-        <v>84</v>
+        <v>628</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D107" s="6">
-        <v>4.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="E107" s="18">
         <v>10</v>
@@ -16140,24 +16134,24 @@
     </row>
     <row r="108" spans="1:5" ht="15" thickBot="1">
       <c r="A108" s="2" t="s">
-        <v>628</v>
+        <v>17</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D108" s="6">
-        <v>9.9</v>
+        <v>18</v>
       </c>
       <c r="E108" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" thickBot="1">
+    <row r="109" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A109" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>4</v>
@@ -16166,7 +16160,7 @@
         <v>610</v>
       </c>
       <c r="D109" s="6">
-        <v>18</v>
+        <v>6.4</v>
       </c>
       <c r="E109" s="18">
         <v>10</v>
@@ -16174,7 +16168,7 @@
     </row>
     <row r="110" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A110" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>4</v>
@@ -16183,24 +16177,24 @@
         <v>610</v>
       </c>
       <c r="D110" s="6">
-        <v>6.4</v>
+        <v>17.3</v>
       </c>
       <c r="E110" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="111" spans="1:5" ht="15" thickBot="1">
       <c r="A111" s="2" t="s">
-        <v>19</v>
+        <v>629</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D111" s="6">
-        <v>17.3</v>
+        <v>6.3</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
@@ -16208,16 +16202,16 @@
     </row>
     <row r="112" spans="1:5" ht="15" thickBot="1">
       <c r="A112" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D112" s="6">
-        <v>6.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E112" s="18">
         <v>10</v>
@@ -16225,16 +16219,16 @@
     </row>
     <row r="113" spans="1:5" ht="15" thickBot="1">
       <c r="A113" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D113" s="6">
-        <v>4.0999999999999996</v>
+        <v>21.5</v>
       </c>
       <c r="E113" s="18">
         <v>10</v>
@@ -16242,16 +16236,16 @@
     </row>
     <row r="114" spans="1:5" ht="15" thickBot="1">
       <c r="A114" s="2" t="s">
-        <v>631</v>
+        <v>278</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D114" s="6">
-        <v>21.5</v>
+        <v>9</v>
       </c>
       <c r="E114" s="18">
         <v>10</v>
@@ -16259,41 +16253,41 @@
     </row>
     <row r="115" spans="1:5" ht="15" thickBot="1">
       <c r="A115" s="2" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D115" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E115" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" thickBot="1">
-      <c r="A116" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="A116" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D116" s="6">
-        <v>1</v>
-      </c>
-      <c r="E116" s="18">
+        <v>0</v>
+      </c>
+      <c r="E116" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" thickBot="1">
       <c r="A117" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>1</v>
@@ -16309,34 +16303,34 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" thickBot="1">
-      <c r="A118" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="A118" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D118" s="6">
-        <v>0</v>
-      </c>
-      <c r="E118" s="17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E118" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" thickBot="1">
       <c r="A119" s="2" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D119" s="6">
-        <v>9.8000000000000007</v>
+        <v>3.4</v>
       </c>
       <c r="E119" s="18">
         <v>10</v>
@@ -16344,75 +16338,75 @@
     </row>
     <row r="120" spans="1:5" ht="15" thickBot="1">
       <c r="A120" s="2" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D120" s="6">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="E120" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15" thickBot="1">
+    <row r="121" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A121" s="2" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D121" s="6">
-        <v>9.6</v>
+        <v>35.9</v>
       </c>
       <c r="E121" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A122" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="2" t="s">
+    <row r="122" spans="1:5" ht="15" thickBot="1">
+      <c r="A122" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D122" s="6">
-        <v>35.9</v>
-      </c>
-      <c r="E122" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15" thickBot="1">
-      <c r="A123" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D123" s="6">
-        <v>0</v>
-      </c>
-      <c r="E123" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E123" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1">
       <c r="A124" s="2" t="s">
-        <v>634</v>
+        <v>310</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>2</v>
@@ -16421,7 +16415,7 @@
         <v>610</v>
       </c>
       <c r="D124" s="6">
-        <v>4.5999999999999996</v>
+        <v>11.1</v>
       </c>
       <c r="E124" s="18">
         <v>10</v>
@@ -16429,16 +16423,16 @@
     </row>
     <row r="125" spans="1:5" ht="15" thickBot="1">
       <c r="A125" s="2" t="s">
-        <v>310</v>
+        <v>57</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D125" s="6">
-        <v>11.1</v>
+        <v>3.2</v>
       </c>
       <c r="E125" s="18">
         <v>10</v>
@@ -16446,7 +16440,7 @@
     </row>
     <row r="126" spans="1:5" ht="15" thickBot="1">
       <c r="A126" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>3</v>
@@ -16455,7 +16449,7 @@
         <v>610</v>
       </c>
       <c r="D126" s="6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E126" s="18">
         <v>10</v>
@@ -16463,67 +16457,67 @@
     </row>
     <row r="127" spans="1:5" ht="15" thickBot="1">
       <c r="A127" s="2" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D127" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1">
-      <c r="A128" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="2" t="s">
+      <c r="A128" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D128" s="6">
-        <v>2</v>
-      </c>
-      <c r="E128" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="E128" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" thickBot="1">
-      <c r="A129" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>610</v>
+      <c r="A129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="D129" s="6">
-        <v>15.4</v>
-      </c>
-      <c r="E129" s="17">
+        <v>0</v>
+      </c>
+      <c r="E129" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" thickBot="1">
       <c r="A130" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D130" s="6">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="E130" s="18">
         <v>10</v>
@@ -16531,16 +16525,16 @@
     </row>
     <row r="131" spans="1:5" ht="15" thickBot="1">
       <c r="A131" s="2" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D131" s="6">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="E131" s="18">
         <v>10</v>
@@ -16548,16 +16542,16 @@
     </row>
     <row r="132" spans="1:5" ht="15" thickBot="1">
       <c r="A132" s="2" t="s">
-        <v>231</v>
+        <v>635</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D132" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" s="18">
         <v>10</v>
@@ -16565,16 +16559,16 @@
     </row>
     <row r="133" spans="1:5" ht="15" thickBot="1">
       <c r="A133" s="2" t="s">
-        <v>635</v>
+        <v>51</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D133" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E133" s="18">
         <v>10</v>
@@ -16582,16 +16576,16 @@
     </row>
     <row r="134" spans="1:5" ht="15" thickBot="1">
       <c r="A134" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D134" s="6">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="E134" s="18">
         <v>10</v>
@@ -16599,16 +16593,16 @@
     </row>
     <row r="135" spans="1:5" ht="15" thickBot="1">
       <c r="A135" s="2" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D135" s="6">
-        <v>1.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E135" s="18">
         <v>10</v>
@@ -16616,126 +16610,126 @@
     </row>
     <row r="136" spans="1:5" ht="15" thickBot="1">
       <c r="A136" s="2" t="s">
-        <v>110</v>
+        <v>636</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D136" s="6">
-        <v>4.0999999999999996</v>
+        <v>-0.3</v>
       </c>
       <c r="E136" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" thickBot="1">
-      <c r="A137" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C137" s="2" t="s">
+      <c r="A137" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D137" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="E137" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="E137" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" thickBot="1">
-      <c r="A138" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="A138" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D138" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="E138" s="17">
+        <v>13.3</v>
+      </c>
+      <c r="E138" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15" thickBot="1">
       <c r="A139" s="2" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D139" s="6">
-        <v>13.3</v>
+        <v>21.1</v>
       </c>
       <c r="E139" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" thickBot="1">
+    <row r="140" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A140" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D140" s="6">
-        <v>21.1</v>
+        <v>15.2</v>
       </c>
       <c r="E140" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="141" spans="1:5" ht="15" thickBot="1">
       <c r="A141" s="2" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D141" s="6">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="E141" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" thickBot="1">
+    <row r="142" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A142" s="2" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D142" s="6">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="E142" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="143" spans="1:5" ht="15" thickBot="1">
       <c r="A143" s="2" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>1</v>
@@ -16744,24 +16738,24 @@
         <v>611</v>
       </c>
       <c r="D143" s="6">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="E143" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15" thickBot="1">
+    <row r="144" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A144" s="2" t="s">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D144" s="6">
-        <v>5.5</v>
+        <v>14.8</v>
       </c>
       <c r="E144" s="18">
         <v>10</v>
@@ -16769,16 +16763,16 @@
     </row>
     <row r="145" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>604</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D145" s="6">
-        <v>14.8</v>
+        <v>10.4</v>
       </c>
       <c r="E145" s="18">
         <v>10</v>
@@ -16786,92 +16780,92 @@
     </row>
     <row r="146" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A146" s="2" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D146" s="6">
-        <v>10.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E146" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="147" spans="1:5" ht="15" thickBot="1">
       <c r="A147" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D147" s="6">
-        <v>17.899999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E147" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" thickBot="1">
-      <c r="A148" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="2" t="s">
+      <c r="A148" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D148" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E148" s="18">
+        <v>0</v>
+      </c>
+      <c r="E148" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" thickBot="1">
       <c r="A149" s="1" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0</v>
+      </c>
+      <c r="E149" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D149" s="6">
-        <v>0</v>
-      </c>
-      <c r="E149" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15" thickBot="1">
-      <c r="A150" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D150" s="6">
-        <v>0</v>
-      </c>
-      <c r="E150" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="E150" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" thickBot="1">
       <c r="A151" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>4</v>
@@ -16880,41 +16874,41 @@
         <v>614</v>
       </c>
       <c r="D151" s="6">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="E151" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" thickBot="1">
-      <c r="A152" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="2" t="s">
+      <c r="A152" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D152" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="E152" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="E152" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15" thickBot="1">
       <c r="A153" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D153" s="6">
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="E153" s="17">
         <v>10</v>
@@ -16922,16 +16916,16 @@
     </row>
     <row r="154" spans="1:5" ht="15" thickBot="1">
       <c r="A154" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D154" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E154" s="17">
         <v>10</v>
@@ -16939,10 +16933,10 @@
     </row>
     <row r="155" spans="1:5" ht="15" thickBot="1">
       <c r="A155" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>614</v>
@@ -16956,41 +16950,41 @@
     </row>
     <row r="156" spans="1:5" ht="15" thickBot="1">
       <c r="A156" s="1" t="s">
-        <v>560</v>
+        <v>265</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D156" s="6">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="E156" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" thickBot="1">
-      <c r="A157" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B157" s="5" t="s">
+      <c r="A157" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D157" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="E157" s="17">
+        <v>14.8</v>
+      </c>
+      <c r="E157" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" thickBot="1">
       <c r="A158" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>3</v>
@@ -16999,41 +16993,41 @@
         <v>614</v>
       </c>
       <c r="D158" s="6">
-        <v>14.8</v>
+        <v>12.7</v>
       </c>
       <c r="E158" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" thickBot="1">
+    <row r="159" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A159" s="2" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D159" s="6">
-        <v>12.7</v>
+        <v>35.5</v>
       </c>
       <c r="E159" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="160" spans="1:5" ht="15" thickBot="1">
       <c r="A160" s="2" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D160" s="6">
-        <v>35.5</v>
+        <v>18.5</v>
       </c>
       <c r="E160" s="18">
         <v>10</v>
@@ -17041,16 +17035,16 @@
     </row>
     <row r="161" spans="1:5" ht="15" thickBot="1">
       <c r="A161" s="2" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D161" s="6">
-        <v>18.5</v>
+        <v>1.8</v>
       </c>
       <c r="E161" s="18">
         <v>10</v>
@@ -17058,7 +17052,7 @@
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1">
       <c r="A162" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>2</v>
@@ -17067,7 +17061,7 @@
         <v>614</v>
       </c>
       <c r="D162" s="6">
-        <v>1.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E162" s="18">
         <v>10</v>
@@ -17075,16 +17069,16 @@
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1">
       <c r="A163" s="2" t="s">
-        <v>271</v>
+        <v>637</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D163" s="6">
-        <v>9.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="E163" s="18">
         <v>10</v>
@@ -17092,16 +17086,16 @@
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1">
       <c r="A164" s="2" t="s">
-        <v>637</v>
+        <v>295</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D164" s="6">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="E164" s="18">
         <v>10</v>
@@ -17109,67 +17103,67 @@
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1">
       <c r="A165" s="2" t="s">
-        <v>295</v>
+        <v>638</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D165" s="6">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="E165" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" thickBot="1">
-      <c r="A166" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B166" s="8" t="s">
+      <c r="A166" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D166" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E166" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D166" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="E166" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="15" thickBot="1">
-      <c r="A167" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>614</v>
+      <c r="C167" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="D167" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E167" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>8.9</v>
+      </c>
+      <c r="E167" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" thickBot="1">
       <c r="A168" s="2" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D168" s="6">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="E168" s="18">
         <v>10</v>
@@ -17177,16 +17171,16 @@
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1">
       <c r="A169" s="2" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D169" s="6">
-        <v>11.9</v>
+        <v>17.5</v>
       </c>
       <c r="E169" s="18">
         <v>10</v>
@@ -17194,7 +17188,7 @@
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1">
       <c r="A170" s="2" t="s">
-        <v>23</v>
+        <v>424</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>4</v>
@@ -17203,7 +17197,7 @@
         <v>615</v>
       </c>
       <c r="D170" s="6">
-        <v>17.5</v>
+        <v>11.9</v>
       </c>
       <c r="E170" s="18">
         <v>10</v>
@@ -17211,16 +17205,16 @@
     </row>
     <row r="171" spans="1:5" ht="15" thickBot="1">
       <c r="A171" s="2" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D171" s="6">
-        <v>11.9</v>
+        <v>13.2</v>
       </c>
       <c r="E171" s="18">
         <v>10</v>
@@ -17228,24 +17222,24 @@
     </row>
     <row r="172" spans="1:5" ht="15" thickBot="1">
       <c r="A172" s="2" t="s">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D172" s="6">
-        <v>13.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E172" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" thickBot="1">
+    <row r="173" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A173" s="2" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>1</v>
@@ -17254,7 +17248,7 @@
         <v>615</v>
       </c>
       <c r="D173" s="6">
-        <v>8.8000000000000007</v>
+        <v>3.9</v>
       </c>
       <c r="E173" s="18">
         <v>10</v>
@@ -17262,41 +17256,41 @@
     </row>
     <row r="174" spans="1:5" ht="15" thickBot="1">
       <c r="A174" s="2" t="s">
-        <v>654</v>
+        <v>153</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D174" s="6">
-        <v>17.5</v>
+        <v>5.6</v>
       </c>
       <c r="E174" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A175" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C175" s="2" t="s">
+    <row r="175" spans="1:5" ht="15" thickBot="1">
+      <c r="A175" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D175" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="E175" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="15" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="E175" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A176" s="2" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>1</v>
@@ -17305,134 +17299,134 @@
         <v>615</v>
       </c>
       <c r="D176" s="6">
-        <v>5.6</v>
+        <v>9.9</v>
       </c>
       <c r="E176" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" thickBot="1">
-      <c r="A177" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="1" t="s">
+    <row r="177" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D177" s="6">
-        <v>0</v>
-      </c>
-      <c r="E177" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="E177" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A178" s="2" t="s">
-        <v>227</v>
+        <v>430</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D178" s="6">
-        <v>9.9</v>
+        <v>43.2</v>
       </c>
       <c r="E178" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="179" spans="1:5" ht="15" thickBot="1">
       <c r="A179" s="2" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D179" s="6">
-        <v>3.2</v>
+        <v>12.2</v>
       </c>
       <c r="E179" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="180" spans="1:5" ht="15" thickBot="1">
       <c r="A180" s="2" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D180" s="6">
-        <v>43.2</v>
+        <v>6.4</v>
       </c>
       <c r="E180" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" thickBot="1">
-      <c r="A181" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="2" t="s">
+      <c r="A181" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D181" s="6">
-        <v>12.2</v>
-      </c>
-      <c r="E181" s="18">
+        <v>0</v>
+      </c>
+      <c r="E181" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" thickBot="1">
       <c r="A182" s="2" t="s">
-        <v>490</v>
+        <v>302</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D182" s="6">
-        <v>6.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E182" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" thickBot="1">
-      <c r="A183" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C183" s="1" t="s">
+      <c r="A183" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D183" s="6">
-        <v>0</v>
-      </c>
-      <c r="E183" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15" thickBot="1">
+        <v>9.9</v>
+      </c>
+      <c r="E183" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A184" s="2" t="s">
-        <v>302</v>
+        <v>550</v>
       </c>
       <c r="B184" s="8" t="s">
         <v>1</v>
@@ -17441,75 +17435,75 @@
         <v>615</v>
       </c>
       <c r="D184" s="6">
-        <v>9.1999999999999993</v>
+        <v>10.6</v>
       </c>
       <c r="E184" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15" thickBot="1">
-      <c r="A185" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="2" t="s">
+      <c r="A185" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D185" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="E185" s="18">
+        <v>0</v>
+      </c>
+      <c r="E185" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A186" s="2" t="s">
-        <v>550</v>
+        <v>640</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D186" s="6">
-        <v>10.6</v>
+        <v>45.7</v>
       </c>
       <c r="E186" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15" thickBot="1">
-      <c r="A187" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>615</v>
+      <c r="A187" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="D187" s="6">
-        <v>0</v>
-      </c>
-      <c r="E187" s="17">
+        <v>14.3</v>
+      </c>
+      <c r="E187" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A188" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D188" s="6">
-        <v>45.7</v>
+        <v>20.5</v>
       </c>
       <c r="E188" s="18">
         <v>10</v>
@@ -17517,135 +17511,135 @@
     </row>
     <row r="189" spans="1:5" ht="15" thickBot="1">
       <c r="A189" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D189" s="6">
-        <v>14.3</v>
+        <v>5.7</v>
       </c>
       <c r="E189" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="190" spans="1:5" ht="15" thickBot="1">
       <c r="A190" s="2" t="s">
-        <v>642</v>
+        <v>442</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D190" s="6">
-        <v>20.5</v>
+        <v>7.2</v>
       </c>
       <c r="E190" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" thickBot="1">
-      <c r="A191" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C191" s="2" t="s">
+      <c r="A191" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D191" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="E191" s="18">
+        <v>0</v>
+      </c>
+      <c r="E191" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15" thickBot="1">
-      <c r="A192" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="2" t="s">
+      <c r="A192" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D192" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="E192" s="18">
+        <v>0</v>
+      </c>
+      <c r="E192" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15" thickBot="1">
       <c r="A193" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D193" s="6">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E193" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" thickBot="1">
-      <c r="A194" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" s="1" t="s">
+    <row r="194" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D194" s="6">
-        <v>0</v>
-      </c>
-      <c r="E194" s="17">
+        <v>5.3</v>
+      </c>
+      <c r="E194" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15" thickBot="1">
-      <c r="A195" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C195" s="1" t="s">
+      <c r="A195" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D195" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="E195" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E195" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" thickBot="1">
       <c r="A196" s="2" t="s">
-        <v>283</v>
+        <v>648</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D196" s="6">
-        <v>5.3</v>
+        <v>18</v>
       </c>
       <c r="E196" s="18">
         <v>10</v>
@@ -17653,24 +17647,24 @@
     </row>
     <row r="197" spans="1:5" ht="15" thickBot="1">
       <c r="A197" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B197" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B197" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D197" s="6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E197" s="18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E197" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" thickBot="1">
       <c r="A198" s="2" t="s">
-        <v>648</v>
+        <v>88</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>0</v>
@@ -17679,7 +17673,7 @@
         <v>612</v>
       </c>
       <c r="D198" s="6">
-        <v>18</v>
+        <v>1.7</v>
       </c>
       <c r="E198" s="18">
         <v>10</v>
@@ -17687,88 +17681,66 @@
     </row>
     <row r="199" spans="1:5" ht="15" thickBot="1">
       <c r="A199" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B199" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B199" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D199" s="6">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E199" s="21">
+        <v>2.9</v>
+      </c>
+      <c r="E199" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15" thickBot="1">
       <c r="A200" s="2" t="s">
-        <v>88</v>
+        <v>649</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D200" s="6">
-        <v>1.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E200" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15" thickBot="1">
-      <c r="A201" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C201" s="2" t="s">
+    <row r="201" spans="1:5">
+      <c r="A201" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D201" s="6">
-        <v>2.9</v>
-      </c>
-      <c r="E201" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="15" thickBot="1">
-      <c r="A202" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D202" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E202" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D203" s="6">
-        <v>0</v>
-      </c>
-      <c r="E203" s="17">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E201" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="14"/>
+      <c r="B215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="14"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="14"/>
+      <c r="B216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="14"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="14"/>
@@ -17854,20 +17826,8 @@
       <c r="D230" s="14"/>
       <c r="E230" s="14"/>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="14"/>
-      <c r="B231" s="14"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="14"/>
-      <c r="B232" s="14"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E338" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}"/>
+  <autoFilter ref="A1:E336" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E48A21-6652-4148-ACDD-C81CBBACC1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC158CE-6460-4BBC-BD67-D40E1B0002A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$335</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="653">
   <si>
     <t>PG</t>
   </si>
@@ -14298,10 +14298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14449,35 +14449,35 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="9" spans="1:5" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>290</v>
+        <v>613</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D9" s="6">
-        <v>45.6</v>
+        <v>47.5</v>
       </c>
       <c r="E9" s="18">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D10" s="6">
-        <v>47.5</v>
+        <v>32.9</v>
       </c>
       <c r="E10" s="18">
         <v>41</v>
@@ -14485,220 +14485,220 @@
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D11" s="6">
-        <v>32.9</v>
+        <v>34.5</v>
       </c>
       <c r="E11" s="18">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>616</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D12" s="6">
-        <v>34.5</v>
+        <v>43.1</v>
       </c>
       <c r="E12" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B13" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D13" s="6">
-        <v>43.1</v>
+        <v>39.1</v>
       </c>
       <c r="E13" s="18">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D14" s="6">
-        <v>39.1</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="E14" s="18">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="15" spans="1:5" ht="15" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D15" s="6">
-        <v>37.299999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E15" s="18">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
+    <row r="16" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D16" s="6">
-        <v>40.799999999999997</v>
+        <v>44.2</v>
       </c>
       <c r="E16" s="18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D17" s="6">
-        <v>44.2</v>
+        <v>37.4</v>
       </c>
       <c r="E17" s="18">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D18" s="6">
-        <v>37.4</v>
+        <v>44.5</v>
       </c>
       <c r="E18" s="18">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="19" spans="1:5" ht="15" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D19" s="6">
-        <v>44.5</v>
+        <v>43.9</v>
       </c>
       <c r="E19" s="18">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1">
       <c r="A20" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D20" s="6">
-        <v>43.9</v>
+        <v>42.6</v>
       </c>
       <c r="E20" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>2</v>
+        <v>369</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D21" s="6">
-        <v>42.6</v>
+        <v>31</v>
       </c>
       <c r="E21" s="18">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1">
+    <row r="22" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>369</v>
+        <v>617</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D22" s="6">
-        <v>31</v>
+        <v>27.2</v>
       </c>
       <c r="E22" s="18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>617</v>
+        <v>517</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D23" s="6">
-        <v>27.2</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E23" s="18">
         <v>28</v>
@@ -14706,50 +14706,50 @@
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>517</v>
+        <v>618</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D24" s="6">
-        <v>34.799999999999997</v>
+        <v>11.4</v>
       </c>
       <c r="E24" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>618</v>
+        <v>199</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D25" s="6">
-        <v>11.4</v>
+        <v>28.1</v>
       </c>
       <c r="E25" s="18">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D26" s="6">
-        <v>28.1</v>
+        <v>25.3</v>
       </c>
       <c r="E26" s="18">
         <v>26</v>
@@ -14757,16 +14757,16 @@
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>122</v>
+        <v>600</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D27" s="6">
-        <v>25.3</v>
+        <v>26.7</v>
       </c>
       <c r="E27" s="18">
         <v>26</v>
@@ -14774,16 +14774,16 @@
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>600</v>
+        <v>198</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D28" s="6">
-        <v>26.7</v>
+        <v>30.8</v>
       </c>
       <c r="E28" s="18">
         <v>26</v>
@@ -14791,67 +14791,67 @@
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D29" s="6">
-        <v>30.8</v>
+        <v>31.5</v>
       </c>
       <c r="E29" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D30" s="6">
-        <v>31.5</v>
+        <v>27.6</v>
       </c>
       <c r="E30" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>159</v>
+        <v>651</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D31" s="6">
-        <v>27.6</v>
+        <v>23.4</v>
       </c>
       <c r="E31" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="32" spans="1:5" ht="15" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D32" s="6">
-        <v>23.4</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E32" s="18">
         <v>25</v>
@@ -14859,24 +14859,24 @@
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D33" s="6">
-        <v>36.700000000000003</v>
+        <v>28</v>
       </c>
       <c r="E33" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1">
+    <row r="34" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A34" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>1</v>
@@ -14885,7 +14885,7 @@
         <v>615</v>
       </c>
       <c r="D34" s="6">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="E34" s="18">
         <v>25</v>
@@ -14893,7 +14893,7 @@
     </row>
     <row r="35" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>1</v>
@@ -14902,75 +14902,75 @@
         <v>615</v>
       </c>
       <c r="D35" s="6">
-        <v>28.5</v>
+        <v>31.4</v>
       </c>
       <c r="E35" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D36" s="6">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="E36" s="18">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1">
       <c r="A37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
+        <v>292</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D37" s="6">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="E37" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1">
+    <row r="38" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D38" s="6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E38" s="18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1">
       <c r="A39" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D39" s="6">
-        <v>18</v>
+        <v>29.7</v>
       </c>
       <c r="E39" s="18">
         <v>20</v>
@@ -14978,67 +14978,67 @@
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D40" s="6">
-        <v>29.7</v>
+        <v>27.1</v>
       </c>
       <c r="E40" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1">
+    <row r="41" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D41" s="6">
-        <v>27.1</v>
+        <v>18.7</v>
       </c>
       <c r="E41" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="42" spans="1:5" ht="15" thickBot="1">
       <c r="A42" s="2" t="s">
-        <v>183</v>
+        <v>652</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D42" s="6">
-        <v>18.7</v>
+        <v>28</v>
       </c>
       <c r="E42" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1">
       <c r="A43" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B43" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D43" s="6">
-        <v>28</v>
+        <v>31.3</v>
       </c>
       <c r="E43" s="18">
         <v>19</v>
@@ -15046,16 +15046,16 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D44" s="6">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="E44" s="18">
         <v>19</v>
@@ -15063,16 +15063,16 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D45" s="6">
-        <v>30.9</v>
+        <v>22.9</v>
       </c>
       <c r="E45" s="18">
         <v>19</v>
@@ -15080,135 +15080,135 @@
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D46" s="6">
-        <v>22.9</v>
+        <v>31.5</v>
       </c>
       <c r="E46" s="18">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1">
+    <row r="47" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D47" s="6">
-        <v>31.5</v>
+        <v>23.5</v>
       </c>
       <c r="E47" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>411</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D48" s="6">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E48" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1">
+    <row r="49" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D49" s="6">
-        <v>24</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E49" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="50" spans="1:5" ht="15" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D50" s="6">
-        <v>17.899999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="E50" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D51" s="6">
-        <v>5.8</v>
+        <v>17.3</v>
       </c>
       <c r="E51" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D52" s="6">
-        <v>17.3</v>
+        <v>27.5</v>
       </c>
       <c r="E52" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="53" spans="1:5" ht="15" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B53" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D53" s="6">
-        <v>27.5</v>
+        <v>8.9</v>
       </c>
       <c r="E53" s="18">
         <v>16</v>
@@ -15216,33 +15216,33 @@
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>385</v>
+        <v>27</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D54" s="6">
-        <v>8.9</v>
+        <v>22.9</v>
       </c>
       <c r="E54" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1">
+    <row r="55" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D55" s="6">
-        <v>22.9</v>
+        <v>15.4</v>
       </c>
       <c r="E55" s="18">
         <v>16</v>
@@ -15250,33 +15250,33 @@
     </row>
     <row r="56" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D56" s="6">
+        <v>25</v>
+      </c>
+      <c r="E56" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D56" s="6">
-        <v>15.4</v>
-      </c>
-      <c r="E56" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D57" s="6">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="E57" s="18">
         <v>15</v>
@@ -15284,16 +15284,16 @@
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1">
       <c r="A58" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D58" s="6">
-        <v>23.3</v>
+        <v>18.5</v>
       </c>
       <c r="E58" s="18">
         <v>15</v>
@@ -15301,16 +15301,16 @@
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>527</v>
+        <v>619</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D59" s="6">
-        <v>18.5</v>
+        <v>25.2</v>
       </c>
       <c r="E59" s="18">
         <v>15</v>
@@ -15318,16 +15318,16 @@
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D60" s="6">
-        <v>25.2</v>
+        <v>12.8</v>
       </c>
       <c r="E60" s="18">
         <v>15</v>
@@ -15335,152 +15335,152 @@
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1">
       <c r="A61" s="2" t="s">
-        <v>620</v>
+        <v>356</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D61" s="6">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="E61" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" thickBot="1">
       <c r="A62" s="2" t="s">
-        <v>356</v>
+        <v>621</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D62" s="6">
-        <v>13.6</v>
+        <v>16.2</v>
       </c>
       <c r="E62" s="18">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1">
+    <row r="63" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A63" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D63" s="6">
-        <v>16.2</v>
+        <v>14.9</v>
       </c>
       <c r="E63" s="18">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="64" spans="1:5" ht="15" thickBot="1">
       <c r="A64" s="2" t="s">
-        <v>622</v>
+        <v>528</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D64" s="6">
-        <v>14.9</v>
+        <v>23.9</v>
       </c>
       <c r="E64" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A65" s="2" t="s">
-        <v>528</v>
+        <v>308</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D65" s="6">
-        <v>23.9</v>
+        <v>20</v>
       </c>
       <c r="E65" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="66" spans="1:5" ht="15" thickBot="1">
       <c r="A66" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D66" s="6">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E66" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1">
       <c r="A67" s="2" t="s">
-        <v>315</v>
+        <v>107</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D67" s="6">
-        <v>20.100000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E67" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" thickBot="1">
+    <row r="68" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D68" s="6">
-        <v>18.600000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="E68" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="69" spans="1:5" ht="15" thickBot="1">
       <c r="A69" s="2" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D69" s="6">
-        <v>14.8</v>
+        <v>22.5</v>
       </c>
       <c r="E69" s="18">
         <v>12</v>
@@ -15488,16 +15488,16 @@
     </row>
     <row r="70" spans="1:5" ht="15" thickBot="1">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D70" s="6">
-        <v>22.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E70" s="18">
         <v>12</v>
@@ -15505,16 +15505,16 @@
     </row>
     <row r="71" spans="1:5" ht="15" thickBot="1">
       <c r="A71" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D71" s="6">
-        <v>18.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="E71" s="18">
         <v>12</v>
@@ -15522,16 +15522,16 @@
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1">
       <c r="A72" s="2" t="s">
-        <v>229</v>
+        <v>623</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D72" s="6">
-        <v>19.8</v>
+        <v>24.4</v>
       </c>
       <c r="E72" s="18">
         <v>12</v>
@@ -15539,33 +15539,33 @@
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1">
       <c r="A73" s="2" t="s">
-        <v>623</v>
+        <v>312</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D73" s="6">
-        <v>24.4</v>
+        <v>21.5</v>
       </c>
       <c r="E73" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D74" s="6">
-        <v>21.5</v>
+        <v>18.2</v>
       </c>
       <c r="E74" s="18">
         <v>11</v>
@@ -15573,16 +15573,16 @@
     </row>
     <row r="75" spans="1:5" ht="15" thickBot="1">
       <c r="A75" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D75" s="6">
-        <v>18.2</v>
+        <v>28.4</v>
       </c>
       <c r="E75" s="18">
         <v>11</v>
@@ -15590,16 +15590,16 @@
     </row>
     <row r="76" spans="1:5" ht="15" thickBot="1">
       <c r="A76" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D76" s="6">
-        <v>28.4</v>
+        <v>22.7</v>
       </c>
       <c r="E76" s="18">
         <v>11</v>
@@ -15607,50 +15607,50 @@
     </row>
     <row r="77" spans="1:5" ht="15" thickBot="1">
       <c r="A77" s="2" t="s">
-        <v>381</v>
+        <v>248</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D77" s="6">
-        <v>22.7</v>
+        <v>23.5</v>
       </c>
       <c r="E77" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" thickBot="1">
+    <row r="78" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A78" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D78" s="6">
-        <v>23.5</v>
+        <v>13.6</v>
       </c>
       <c r="E78" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="79" spans="1:5" ht="15" thickBot="1">
       <c r="A79" s="2" t="s">
-        <v>249</v>
+        <v>551</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D79" s="6">
-        <v>13.6</v>
+        <v>10.4</v>
       </c>
       <c r="E79" s="18">
         <v>11</v>
@@ -15658,16 +15658,16 @@
     </row>
     <row r="80" spans="1:5" ht="15" thickBot="1">
       <c r="A80" s="2" t="s">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D80" s="6">
-        <v>10.4</v>
+        <v>20.5</v>
       </c>
       <c r="E80" s="18">
         <v>11</v>
@@ -15675,16 +15675,16 @@
     </row>
     <row r="81" spans="1:5" ht="15" thickBot="1">
       <c r="A81" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D81" s="6">
-        <v>20.5</v>
+        <v>19.3</v>
       </c>
       <c r="E81" s="18">
         <v>11</v>
@@ -15692,16 +15692,16 @@
     </row>
     <row r="82" spans="1:5" ht="15" thickBot="1">
       <c r="A82" s="2" t="s">
-        <v>127</v>
+        <v>624</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D82" s="6">
-        <v>19.3</v>
+        <v>15.6</v>
       </c>
       <c r="E82" s="18">
         <v>11</v>
@@ -15709,50 +15709,50 @@
     </row>
     <row r="83" spans="1:5" ht="15" thickBot="1">
       <c r="A83" s="2" t="s">
-        <v>624</v>
+        <v>87</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D83" s="6">
-        <v>15.6</v>
+        <v>21.6</v>
       </c>
       <c r="E83" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" thickBot="1">
+    <row r="84" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D84" s="6">
-        <v>21.6</v>
+        <v>9.6</v>
       </c>
       <c r="E84" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>605</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D85" s="6">
-        <v>9.6</v>
+        <v>15.2</v>
       </c>
       <c r="E85" s="18">
         <v>10</v>
@@ -15760,24 +15760,24 @@
     </row>
     <row r="86" spans="1:5" ht="15" thickBot="1">
       <c r="A86" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D86" s="6">
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
       <c r="E86" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" thickBot="1">
+    <row r="87" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A87" s="2" t="s">
-        <v>603</v>
+        <v>232</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>2</v>
@@ -15786,24 +15786,24 @@
         <v>609</v>
       </c>
       <c r="D87" s="6">
-        <v>16.7</v>
+        <v>22.1</v>
       </c>
       <c r="E87" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="88" spans="1:5" ht="15" thickBot="1">
       <c r="A88" s="2" t="s">
-        <v>232</v>
+        <v>606</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D88" s="6">
-        <v>22.1</v>
+        <v>9.1</v>
       </c>
       <c r="E88" s="18">
         <v>10</v>
@@ -15811,16 +15811,16 @@
     </row>
     <row r="89" spans="1:5" ht="15" thickBot="1">
       <c r="A89" s="2" t="s">
-        <v>606</v>
+        <v>235</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D89" s="6">
-        <v>9.1</v>
+        <v>13.9</v>
       </c>
       <c r="E89" s="18">
         <v>10</v>
@@ -15828,16 +15828,16 @@
     </row>
     <row r="90" spans="1:5" ht="15" thickBot="1">
       <c r="A90" s="2" t="s">
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D90" s="6">
-        <v>13.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E90" s="18">
         <v>10</v>
@@ -15845,50 +15845,50 @@
     </row>
     <row r="91" spans="1:5" ht="15" thickBot="1">
       <c r="A91" s="2" t="s">
-        <v>625</v>
+        <v>382</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D91" s="6">
-        <v>9.6999999999999993</v>
+        <v>12.3</v>
       </c>
       <c r="E91" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" thickBot="1">
-      <c r="A92" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B92" s="8" t="s">
+      <c r="A92" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D92" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="E92" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="E92" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" thickBot="1">
       <c r="A93" s="1" t="s">
-        <v>626</v>
+        <v>572</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D93" s="6">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="E93" s="17">
         <v>10</v>
@@ -15896,10 +15896,10 @@
     </row>
     <row r="94" spans="1:5" ht="15" thickBot="1">
       <c r="A94" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>609</v>
@@ -15912,34 +15912,34 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" thickBot="1">
-      <c r="A95" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="A95" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D95" s="6">
-        <v>0</v>
-      </c>
-      <c r="E95" s="17">
+        <v>11.8</v>
+      </c>
+      <c r="E95" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15" thickBot="1">
       <c r="A96" s="2" t="s">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D96" s="6">
-        <v>11.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E96" s="18">
         <v>10</v>
@@ -15947,16 +15947,16 @@
     </row>
     <row r="97" spans="1:5" ht="15" thickBot="1">
       <c r="A97" s="2" t="s">
-        <v>53</v>
+        <v>530</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D97" s="6">
-        <v>4.4000000000000004</v>
+        <v>44.4</v>
       </c>
       <c r="E97" s="18">
         <v>10</v>
@@ -15964,16 +15964,16 @@
     </row>
     <row r="98" spans="1:5" ht="15" thickBot="1">
       <c r="A98" s="2" t="s">
-        <v>530</v>
+        <v>147</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D98" s="6">
-        <v>44.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E98" s="18">
         <v>10</v>
@@ -15981,50 +15981,50 @@
     </row>
     <row r="99" spans="1:5" ht="15" thickBot="1">
       <c r="A99" s="2" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D99" s="6">
-        <v>8.6999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="E99" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" thickBot="1">
+    <row r="100" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A100" s="2" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D100" s="6">
-        <v>7.1</v>
+        <v>16.5</v>
       </c>
       <c r="E100" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="101" spans="1:5" ht="15" thickBot="1">
       <c r="A101" s="2" t="s">
-        <v>44</v>
+        <v>531</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D101" s="6">
-        <v>16.5</v>
+        <v>0.6</v>
       </c>
       <c r="E101" s="18">
         <v>10</v>
@@ -16032,44 +16032,44 @@
     </row>
     <row r="102" spans="1:5" ht="15" thickBot="1">
       <c r="A102" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D102" s="6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E102" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" thickBot="1">
-      <c r="A103" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="A103" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D103" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E103" s="18">
+        <v>0</v>
+      </c>
+      <c r="E103" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" thickBot="1">
       <c r="A104" s="1" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>609</v>
@@ -16082,34 +16082,34 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" thickBot="1">
-      <c r="A105" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>609</v>
+      <c r="A105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="D105" s="6">
-        <v>0</v>
-      </c>
-      <c r="E105" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E105" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" thickBot="1">
       <c r="A106" s="2" t="s">
-        <v>84</v>
+        <v>628</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D106" s="6">
-        <v>4.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="E106" s="18">
         <v>10</v>
@@ -16117,24 +16117,24 @@
     </row>
     <row r="107" spans="1:5" ht="15" thickBot="1">
       <c r="A107" s="2" t="s">
-        <v>628</v>
+        <v>17</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D107" s="6">
-        <v>9.9</v>
+        <v>18</v>
       </c>
       <c r="E107" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15" thickBot="1">
+    <row r="108" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A108" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>4</v>
@@ -16143,7 +16143,7 @@
         <v>610</v>
       </c>
       <c r="D108" s="6">
-        <v>18</v>
+        <v>6.4</v>
       </c>
       <c r="E108" s="18">
         <v>10</v>
@@ -16151,7 +16151,7 @@
     </row>
     <row r="109" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A109" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>4</v>
@@ -16160,24 +16160,24 @@
         <v>610</v>
       </c>
       <c r="D109" s="6">
-        <v>6.4</v>
+        <v>17.3</v>
       </c>
       <c r="E109" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="110" spans="1:5" ht="15" thickBot="1">
       <c r="A110" s="2" t="s">
-        <v>19</v>
+        <v>629</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D110" s="6">
-        <v>17.3</v>
+        <v>6.3</v>
       </c>
       <c r="E110" s="18">
         <v>10</v>
@@ -16185,16 +16185,16 @@
     </row>
     <row r="111" spans="1:5" ht="15" thickBot="1">
       <c r="A111" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D111" s="6">
-        <v>6.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
@@ -16202,16 +16202,16 @@
     </row>
     <row r="112" spans="1:5" ht="15" thickBot="1">
       <c r="A112" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D112" s="6">
-        <v>4.0999999999999996</v>
+        <v>21.5</v>
       </c>
       <c r="E112" s="18">
         <v>10</v>
@@ -16219,16 +16219,16 @@
     </row>
     <row r="113" spans="1:5" ht="15" thickBot="1">
       <c r="A113" s="2" t="s">
-        <v>631</v>
+        <v>278</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D113" s="6">
-        <v>21.5</v>
+        <v>9</v>
       </c>
       <c r="E113" s="18">
         <v>10</v>
@@ -16236,41 +16236,41 @@
     </row>
     <row r="114" spans="1:5" ht="15" thickBot="1">
       <c r="A114" s="2" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D114" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E114" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" thickBot="1">
-      <c r="A115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="A115" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D115" s="6">
-        <v>1</v>
-      </c>
-      <c r="E115" s="18">
+        <v>0</v>
+      </c>
+      <c r="E115" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" thickBot="1">
       <c r="A116" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>1</v>
@@ -16286,34 +16286,34 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" thickBot="1">
-      <c r="A117" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="A117" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D117" s="6">
-        <v>0</v>
-      </c>
-      <c r="E117" s="17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E117" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" thickBot="1">
       <c r="A118" s="2" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D118" s="6">
-        <v>9.8000000000000007</v>
+        <v>3.4</v>
       </c>
       <c r="E118" s="18">
         <v>10</v>
@@ -16321,75 +16321,75 @@
     </row>
     <row r="119" spans="1:5" ht="15" thickBot="1">
       <c r="A119" s="2" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D119" s="6">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="E119" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" thickBot="1">
+    <row r="120" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A120" s="2" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D120" s="6">
-        <v>9.6</v>
+        <v>35.9</v>
       </c>
       <c r="E120" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A121" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="2" t="s">
+    <row r="121" spans="1:5" ht="15" thickBot="1">
+      <c r="A121" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D121" s="6">
-        <v>35.9</v>
-      </c>
-      <c r="E121" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15" thickBot="1">
-      <c r="A122" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D122" s="6">
-        <v>0</v>
-      </c>
-      <c r="E122" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E122" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" thickBot="1">
       <c r="A123" s="2" t="s">
-        <v>634</v>
+        <v>310</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>2</v>
@@ -16398,7 +16398,7 @@
         <v>610</v>
       </c>
       <c r="D123" s="6">
-        <v>4.5999999999999996</v>
+        <v>11.1</v>
       </c>
       <c r="E123" s="18">
         <v>10</v>
@@ -16406,16 +16406,16 @@
     </row>
     <row r="124" spans="1:5" ht="15" thickBot="1">
       <c r="A124" s="2" t="s">
-        <v>310</v>
+        <v>57</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D124" s="6">
-        <v>11.1</v>
+        <v>3.2</v>
       </c>
       <c r="E124" s="18">
         <v>10</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="125" spans="1:5" ht="15" thickBot="1">
       <c r="A125" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>3</v>
@@ -16432,7 +16432,7 @@
         <v>610</v>
       </c>
       <c r="D125" s="6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E125" s="18">
         <v>10</v>
@@ -16440,67 +16440,67 @@
     </row>
     <row r="126" spans="1:5" ht="15" thickBot="1">
       <c r="A126" s="2" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D126" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" thickBot="1">
-      <c r="A127" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="2" t="s">
+      <c r="A127" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D127" s="6">
-        <v>2</v>
-      </c>
-      <c r="E127" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="E127" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1">
-      <c r="A128" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>610</v>
+      <c r="A128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="D128" s="6">
-        <v>15.4</v>
-      </c>
-      <c r="E128" s="17">
+        <v>0</v>
+      </c>
+      <c r="E128" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" thickBot="1">
       <c r="A129" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D129" s="6">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="E129" s="18">
         <v>10</v>
@@ -16508,16 +16508,16 @@
     </row>
     <row r="130" spans="1:5" ht="15" thickBot="1">
       <c r="A130" s="2" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D130" s="6">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="E130" s="18">
         <v>10</v>
@@ -16525,16 +16525,16 @@
     </row>
     <row r="131" spans="1:5" ht="15" thickBot="1">
       <c r="A131" s="2" t="s">
-        <v>231</v>
+        <v>635</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D131" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" s="18">
         <v>10</v>
@@ -16542,16 +16542,16 @@
     </row>
     <row r="132" spans="1:5" ht="15" thickBot="1">
       <c r="A132" s="2" t="s">
-        <v>635</v>
+        <v>51</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D132" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E132" s="18">
         <v>10</v>
@@ -16559,16 +16559,16 @@
     </row>
     <row r="133" spans="1:5" ht="15" thickBot="1">
       <c r="A133" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D133" s="6">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="E133" s="18">
         <v>10</v>
@@ -16576,16 +16576,16 @@
     </row>
     <row r="134" spans="1:5" ht="15" thickBot="1">
       <c r="A134" s="2" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D134" s="6">
-        <v>1.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E134" s="18">
         <v>10</v>
@@ -16593,126 +16593,126 @@
     </row>
     <row r="135" spans="1:5" ht="15" thickBot="1">
       <c r="A135" s="2" t="s">
-        <v>110</v>
+        <v>636</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D135" s="6">
-        <v>4.0999999999999996</v>
+        <v>-0.3</v>
       </c>
       <c r="E135" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" thickBot="1">
-      <c r="A136" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C136" s="2" t="s">
+      <c r="A136" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D136" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="E136" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="E136" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" thickBot="1">
-      <c r="A137" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="A137" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D137" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="E137" s="17">
+        <v>13.3</v>
+      </c>
+      <c r="E137" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15" thickBot="1">
       <c r="A138" s="2" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D138" s="6">
-        <v>13.3</v>
+        <v>21.1</v>
       </c>
       <c r="E138" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" thickBot="1">
+    <row r="139" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A139" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D139" s="6">
-        <v>21.1</v>
+        <v>15.2</v>
       </c>
       <c r="E139" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="140" spans="1:5" ht="15" thickBot="1">
       <c r="A140" s="2" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D140" s="6">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="E140" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" thickBot="1">
+    <row r="141" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A141" s="2" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D141" s="6">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="E141" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="142" spans="1:5" ht="15" thickBot="1">
       <c r="A142" s="2" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>1</v>
@@ -16721,24 +16721,24 @@
         <v>611</v>
       </c>
       <c r="D142" s="6">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="E142" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15" thickBot="1">
+    <row r="143" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A143" s="2" t="s">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D143" s="6">
-        <v>5.5</v>
+        <v>14.8</v>
       </c>
       <c r="E143" s="18">
         <v>10</v>
@@ -16746,16 +16746,16 @@
     </row>
     <row r="144" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>604</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D144" s="6">
-        <v>14.8</v>
+        <v>10.4</v>
       </c>
       <c r="E144" s="18">
         <v>10</v>
@@ -16763,92 +16763,92 @@
     </row>
     <row r="145" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A145" s="2" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D145" s="6">
-        <v>10.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E145" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="146" spans="1:5" ht="15" thickBot="1">
       <c r="A146" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D146" s="6">
-        <v>17.899999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E146" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" thickBot="1">
-      <c r="A147" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="2" t="s">
+      <c r="A147" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D147" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E147" s="18">
+        <v>0</v>
+      </c>
+      <c r="E147" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15" thickBot="1">
       <c r="A148" s="1" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D148" s="6">
+        <v>0</v>
+      </c>
+      <c r="E148" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D148" s="6">
-        <v>0</v>
-      </c>
-      <c r="E148" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="15" thickBot="1">
-      <c r="A149" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D149" s="6">
-        <v>0</v>
-      </c>
-      <c r="E149" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="E149" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" thickBot="1">
       <c r="A150" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>4</v>
@@ -16857,41 +16857,41 @@
         <v>614</v>
       </c>
       <c r="D150" s="6">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="E150" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" thickBot="1">
-      <c r="A151" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="2" t="s">
+      <c r="A151" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D151" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="E151" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="E151" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15" thickBot="1">
       <c r="A152" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D152" s="6">
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="E152" s="17">
         <v>10</v>
@@ -16899,16 +16899,16 @@
     </row>
     <row r="153" spans="1:5" ht="15" thickBot="1">
       <c r="A153" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D153" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E153" s="17">
         <v>10</v>
@@ -16916,10 +16916,10 @@
     </row>
     <row r="154" spans="1:5" ht="15" thickBot="1">
       <c r="A154" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>614</v>
@@ -16933,41 +16933,41 @@
     </row>
     <row r="155" spans="1:5" ht="15" thickBot="1">
       <c r="A155" s="1" t="s">
-        <v>560</v>
+        <v>265</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D155" s="6">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="E155" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" thickBot="1">
-      <c r="A156" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B156" s="5" t="s">
+      <c r="A156" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D156" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="E156" s="17">
+        <v>14.8</v>
+      </c>
+      <c r="E156" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" thickBot="1">
       <c r="A157" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>3</v>
@@ -16976,41 +16976,41 @@
         <v>614</v>
       </c>
       <c r="D157" s="6">
-        <v>14.8</v>
+        <v>12.7</v>
       </c>
       <c r="E157" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" thickBot="1">
+    <row r="158" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A158" s="2" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D158" s="6">
-        <v>12.7</v>
+        <v>35.5</v>
       </c>
       <c r="E158" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="159" spans="1:5" ht="15" thickBot="1">
       <c r="A159" s="2" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D159" s="6">
-        <v>35.5</v>
+        <v>18.5</v>
       </c>
       <c r="E159" s="18">
         <v>10</v>
@@ -17018,16 +17018,16 @@
     </row>
     <row r="160" spans="1:5" ht="15" thickBot="1">
       <c r="A160" s="2" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D160" s="6">
-        <v>18.5</v>
+        <v>1.8</v>
       </c>
       <c r="E160" s="18">
         <v>10</v>
@@ -17035,7 +17035,7 @@
     </row>
     <row r="161" spans="1:5" ht="15" thickBot="1">
       <c r="A161" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>2</v>
@@ -17044,7 +17044,7 @@
         <v>614</v>
       </c>
       <c r="D161" s="6">
-        <v>1.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E161" s="18">
         <v>10</v>
@@ -17052,16 +17052,16 @@
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1">
       <c r="A162" s="2" t="s">
-        <v>271</v>
+        <v>637</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D162" s="6">
-        <v>9.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="E162" s="18">
         <v>10</v>
@@ -17069,16 +17069,16 @@
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1">
       <c r="A163" s="2" t="s">
-        <v>637</v>
+        <v>295</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D163" s="6">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="E163" s="18">
         <v>10</v>
@@ -17086,67 +17086,67 @@
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1">
       <c r="A164" s="2" t="s">
-        <v>295</v>
+        <v>638</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D164" s="6">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="E164" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1">
-      <c r="A165" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B165" s="8" t="s">
+      <c r="A165" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E165" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D165" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="E165" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="15" thickBot="1">
-      <c r="A166" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>614</v>
+      <c r="C166" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="D166" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E166" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>8.9</v>
+      </c>
+      <c r="E166" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1">
       <c r="A167" s="2" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D167" s="6">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="E167" s="18">
         <v>10</v>
@@ -17154,16 +17154,16 @@
     </row>
     <row r="168" spans="1:5" ht="15" thickBot="1">
       <c r="A168" s="2" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D168" s="6">
-        <v>11.9</v>
+        <v>17.5</v>
       </c>
       <c r="E168" s="18">
         <v>10</v>
@@ -17171,7 +17171,7 @@
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1">
       <c r="A169" s="2" t="s">
-        <v>23</v>
+        <v>424</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>4</v>
@@ -17180,7 +17180,7 @@
         <v>615</v>
       </c>
       <c r="D169" s="6">
-        <v>17.5</v>
+        <v>11.9</v>
       </c>
       <c r="E169" s="18">
         <v>10</v>
@@ -17188,16 +17188,16 @@
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1">
       <c r="A170" s="2" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D170" s="6">
-        <v>11.9</v>
+        <v>13.2</v>
       </c>
       <c r="E170" s="18">
         <v>10</v>
@@ -17205,24 +17205,24 @@
     </row>
     <row r="171" spans="1:5" ht="15" thickBot="1">
       <c r="A171" s="2" t="s">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D171" s="6">
-        <v>13.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E171" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" thickBot="1">
+    <row r="172" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A172" s="2" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>1</v>
@@ -17231,15 +17231,15 @@
         <v>615</v>
       </c>
       <c r="D172" s="6">
-        <v>8.8000000000000007</v>
+        <v>3.9</v>
       </c>
       <c r="E172" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="173" spans="1:5" ht="15" thickBot="1">
       <c r="A173" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>1</v>
@@ -17248,58 +17248,58 @@
         <v>615</v>
       </c>
       <c r="D173" s="6">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="E173" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" thickBot="1">
-      <c r="A174" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="2" t="s">
+      <c r="A174" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D174" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="E174" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="15" thickBot="1">
-      <c r="A175" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D175" s="6">
-        <v>0</v>
-      </c>
-      <c r="E175" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E175" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A176" s="2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D176" s="6">
-        <v>9.9</v>
+        <v>3.2</v>
       </c>
       <c r="E176" s="18">
         <v>10</v>
@@ -17307,33 +17307,33 @@
     </row>
     <row r="177" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A177" s="2" t="s">
-        <v>242</v>
+        <v>430</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D177" s="6">
-        <v>3.2</v>
+        <v>43.2</v>
       </c>
       <c r="E177" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="178" spans="1:5" ht="15" thickBot="1">
       <c r="A178" s="2" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D178" s="6">
-        <v>43.2</v>
+        <v>12.2</v>
       </c>
       <c r="E178" s="18">
         <v>10</v>
@@ -17341,169 +17341,169 @@
     </row>
     <row r="179" spans="1:5" ht="15" thickBot="1">
       <c r="A179" s="2" t="s">
-        <v>305</v>
+        <v>490</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D179" s="6">
-        <v>12.2</v>
+        <v>6.4</v>
       </c>
       <c r="E179" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" thickBot="1">
-      <c r="A180" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180" s="2" t="s">
+      <c r="A180" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D180" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="E180" s="18">
+        <v>0</v>
+      </c>
+      <c r="E180" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" thickBot="1">
-      <c r="A181" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C181" s="1" t="s">
+      <c r="A181" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D181" s="6">
-        <v>0</v>
-      </c>
-      <c r="E181" s="17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E181" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" thickBot="1">
       <c r="A182" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D182" s="6">
-        <v>9.1999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="E182" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" thickBot="1">
+    <row r="183" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A183" s="2" t="s">
-        <v>301</v>
+        <v>550</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D183" s="6">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="E183" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A184" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" s="2" t="s">
+    <row r="184" spans="1:5" ht="15" thickBot="1">
+      <c r="A184" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D184" s="6">
-        <v>10.6</v>
-      </c>
-      <c r="E184" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15" thickBot="1">
-      <c r="A185" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>615</v>
+        <v>0</v>
+      </c>
+      <c r="E184" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="D185" s="6">
-        <v>0</v>
-      </c>
-      <c r="E185" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>45.7</v>
+      </c>
+      <c r="E185" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" thickBot="1">
       <c r="A186" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D186" s="6">
-        <v>45.7</v>
+        <v>14.3</v>
       </c>
       <c r="E186" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" thickBot="1">
+    <row r="187" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A187" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D187" s="6">
-        <v>14.3</v>
+        <v>20.5</v>
       </c>
       <c r="E187" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="188" spans="1:5" ht="15" thickBot="1">
       <c r="A188" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D188" s="6">
-        <v>20.5</v>
+        <v>5.7</v>
       </c>
       <c r="E188" s="18">
         <v>10</v>
@@ -17511,44 +17511,44 @@
     </row>
     <row r="189" spans="1:5" ht="15" thickBot="1">
       <c r="A189" s="2" t="s">
-        <v>643</v>
+        <v>442</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D189" s="6">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="E189" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" thickBot="1">
-      <c r="A190" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C190" s="2" t="s">
+      <c r="A190" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D190" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="E190" s="18">
+        <v>0</v>
+      </c>
+      <c r="E190" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15" thickBot="1">
       <c r="A191" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>612</v>
@@ -17562,50 +17562,50 @@
     </row>
     <row r="192" spans="1:5" ht="15" thickBot="1">
       <c r="A192" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D192" s="6">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E192" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" thickBot="1">
-      <c r="A193" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C193" s="1" t="s">
+    <row r="193" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D193" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="E193" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>5.3</v>
+      </c>
+      <c r="E193" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1">
       <c r="A194" s="2" t="s">
-        <v>283</v>
+        <v>647</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D194" s="6">
-        <v>5.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E194" s="18">
         <v>10</v>
@@ -17613,16 +17613,16 @@
     </row>
     <row r="195" spans="1:5" ht="15" thickBot="1">
       <c r="A195" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D195" s="6">
-        <v>9.6999999999999993</v>
+        <v>18</v>
       </c>
       <c r="E195" s="18">
         <v>10</v>
@@ -17630,50 +17630,50 @@
     </row>
     <row r="196" spans="1:5" ht="15" thickBot="1">
       <c r="A196" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B196" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D196" s="6">
-        <v>18</v>
-      </c>
-      <c r="E196" s="18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E196" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15" thickBot="1">
       <c r="A197" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D197" s="6">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E197" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="E197" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15" thickBot="1">
       <c r="A198" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D198" s="6">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="E198" s="18">
         <v>10</v>
@@ -17681,54 +17681,43 @@
     </row>
     <row r="199" spans="1:5" ht="15" thickBot="1">
       <c r="A199" s="2" t="s">
-        <v>119</v>
+        <v>649</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D199" s="6">
-        <v>2.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E199" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15" thickBot="1">
-      <c r="A200" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="2" t="s">
+    <row r="200" spans="1:5">
+      <c r="A200" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D200" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E200" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D201" s="6">
-        <v>0</v>
-      </c>
-      <c r="E201" s="17">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E200" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="14"/>
+      <c r="B214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="14"/>
@@ -17820,14 +17809,8 @@
       <c r="D229" s="14"/>
       <c r="E229" s="14"/>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="14"/>
-      <c r="B230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E336" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}"/>
+  <autoFilter ref="A1:E335" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC158CE-6460-4BBC-BD67-D40E1B0002A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131C107-CFB8-429A-A86B-DA2DFF8A70BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -14301,7 +14301,7 @@
   <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E131C107-CFB8-429A-A86B-DA2DFF8A70BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3E2FD3-5630-42FB-B762-22C15BC38F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$335</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$334</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="653">
   <si>
     <t>PG</t>
   </si>
@@ -14298,10 +14298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}">
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14383,50 +14383,50 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D5" s="6">
-        <v>53.4</v>
+        <v>43.2</v>
       </c>
       <c r="E5" s="18">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D6" s="6">
-        <v>43.2</v>
+        <v>39</v>
       </c>
       <c r="E6" s="18">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D7" s="6">
-        <v>39</v>
+        <v>48.6</v>
       </c>
       <c r="E7" s="18">
         <v>46</v>
@@ -14434,33 +14434,33 @@
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>613</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D8" s="6">
-        <v>48.6</v>
+        <v>47.5</v>
       </c>
       <c r="E8" s="18">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D9" s="6">
-        <v>47.5</v>
+        <v>32.9</v>
       </c>
       <c r="E9" s="18">
         <v>41</v>
@@ -14468,220 +14468,220 @@
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D10" s="6">
-        <v>32.9</v>
+        <v>34.5</v>
       </c>
       <c r="E10" s="18">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>616</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D11" s="6">
-        <v>34.5</v>
+        <v>43.1</v>
       </c>
       <c r="E11" s="18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D12" s="6">
-        <v>43.1</v>
+        <v>39.1</v>
       </c>
       <c r="E12" s="18">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D13" s="6">
-        <v>39.1</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="E13" s="18">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="14" spans="1:5" ht="15" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D14" s="6">
-        <v>37.299999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E14" s="18">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
+    <row r="15" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D15" s="6">
-        <v>40.799999999999997</v>
+        <v>44.2</v>
       </c>
       <c r="E15" s="18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D16" s="6">
-        <v>44.2</v>
+        <v>37.4</v>
       </c>
       <c r="E16" s="18">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D17" s="6">
-        <v>37.4</v>
+        <v>44.5</v>
       </c>
       <c r="E17" s="18">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="18" spans="1:5" ht="15" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D18" s="6">
-        <v>44.5</v>
+        <v>43.9</v>
       </c>
       <c r="E18" s="18">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D19" s="6">
-        <v>43.9</v>
+        <v>42.6</v>
       </c>
       <c r="E19" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1">
       <c r="A20" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>2</v>
+        <v>369</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D20" s="6">
-        <v>42.6</v>
+        <v>31</v>
       </c>
       <c r="E20" s="18">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1">
+    <row r="21" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>369</v>
+        <v>617</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D21" s="6">
-        <v>31</v>
+        <v>27.2</v>
       </c>
       <c r="E21" s="18">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>617</v>
+        <v>517</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D22" s="6">
-        <v>27.2</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E22" s="18">
         <v>28</v>
@@ -14689,50 +14689,50 @@
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>517</v>
+        <v>618</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D23" s="6">
-        <v>34.799999999999997</v>
+        <v>11.4</v>
       </c>
       <c r="E23" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>618</v>
+        <v>199</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D24" s="6">
-        <v>11.4</v>
+        <v>28.1</v>
       </c>
       <c r="E24" s="18">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D25" s="6">
-        <v>28.1</v>
+        <v>25.3</v>
       </c>
       <c r="E25" s="18">
         <v>26</v>
@@ -14740,16 +14740,16 @@
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>122</v>
+        <v>600</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D26" s="6">
-        <v>25.3</v>
+        <v>26.7</v>
       </c>
       <c r="E26" s="18">
         <v>26</v>
@@ -14757,16 +14757,16 @@
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>600</v>
+        <v>198</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D27" s="6">
-        <v>26.7</v>
+        <v>30.8</v>
       </c>
       <c r="E27" s="18">
         <v>26</v>
@@ -14774,67 +14774,67 @@
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D28" s="6">
-        <v>30.8</v>
+        <v>31.5</v>
       </c>
       <c r="E28" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D29" s="6">
-        <v>31.5</v>
+        <v>27.6</v>
       </c>
       <c r="E29" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1">
+    <row r="30" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>159</v>
+        <v>651</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D30" s="6">
-        <v>27.6</v>
+        <v>23.4</v>
       </c>
       <c r="E30" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D31" s="6">
-        <v>23.4</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E31" s="18">
         <v>25</v>
@@ -14842,24 +14842,24 @@
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D32" s="6">
-        <v>36.700000000000003</v>
+        <v>28</v>
       </c>
       <c r="E32" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1">
+    <row r="33" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>615</v>
       </c>
       <c r="D33" s="6">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="E33" s="18">
         <v>25</v>
@@ -14876,7 +14876,7 @@
     </row>
     <row r="34" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A34" s="2" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>1</v>
@@ -14885,75 +14885,75 @@
         <v>615</v>
       </c>
       <c r="D34" s="6">
-        <v>28.5</v>
+        <v>31.4</v>
       </c>
       <c r="E34" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D35" s="6">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="E35" s="18">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
+        <v>292</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D36" s="6">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="E36" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1">
+    <row r="37" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A37" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D37" s="6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E37" s="18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D38" s="6">
-        <v>18</v>
+        <v>29.7</v>
       </c>
       <c r="E38" s="18">
         <v>20</v>
@@ -14961,67 +14961,67 @@
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1">
       <c r="A39" s="2" t="s">
-        <v>317</v>
+        <v>93</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D39" s="6">
-        <v>29.7</v>
+        <v>27.1</v>
       </c>
       <c r="E39" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1">
+    <row r="40" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D40" s="6">
-        <v>27.1</v>
+        <v>18.7</v>
       </c>
       <c r="E40" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="41" spans="1:5" ht="15" thickBot="1">
       <c r="A41" s="2" t="s">
-        <v>183</v>
+        <v>652</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D41" s="6">
-        <v>18.7</v>
+        <v>28</v>
       </c>
       <c r="E41" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1">
       <c r="A42" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B42" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D42" s="6">
-        <v>28</v>
+        <v>31.3</v>
       </c>
       <c r="E42" s="18">
         <v>19</v>
@@ -15029,16 +15029,16 @@
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1">
       <c r="A43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D43" s="6">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="E43" s="18">
         <v>19</v>
@@ -15046,16 +15046,16 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D44" s="6">
-        <v>30.9</v>
+        <v>22.9</v>
       </c>
       <c r="E44" s="18">
         <v>19</v>
@@ -15063,135 +15063,135 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D45" s="6">
-        <v>22.9</v>
+        <v>31.5</v>
       </c>
       <c r="E45" s="18">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1">
+    <row r="46" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D46" s="6">
-        <v>31.5</v>
+        <v>23.5</v>
       </c>
       <c r="E46" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>113</v>
+        <v>411</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D47" s="6">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E47" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1">
+    <row r="48" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>411</v>
+        <v>212</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D48" s="6">
-        <v>24</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E48" s="18">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="49" spans="1:5" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D49" s="6">
-        <v>17.899999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="E49" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D50" s="6">
-        <v>5.8</v>
+        <v>17.3</v>
       </c>
       <c r="E50" s="18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>0</v>
+        <v>340</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D51" s="6">
-        <v>17.3</v>
+        <v>27.5</v>
       </c>
       <c r="E51" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="52" spans="1:5" ht="15" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B52" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D52" s="6">
-        <v>27.5</v>
+        <v>8.9</v>
       </c>
       <c r="E52" s="18">
         <v>16</v>
@@ -15199,33 +15199,33 @@
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>385</v>
+        <v>27</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D53" s="6">
-        <v>8.9</v>
+        <v>22.9</v>
       </c>
       <c r="E53" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1">
+    <row r="54" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D54" s="6">
-        <v>22.9</v>
+        <v>15.4</v>
       </c>
       <c r="E54" s="18">
         <v>16</v>
@@ -15233,33 +15233,33 @@
     </row>
     <row r="55" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D55" s="6">
+        <v>25</v>
+      </c>
+      <c r="E55" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D55" s="6">
-        <v>15.4</v>
-      </c>
-      <c r="E55" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D56" s="6">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="E56" s="18">
         <v>15</v>
@@ -15267,16 +15267,16 @@
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>338</v>
+        <v>527</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D57" s="6">
-        <v>23.3</v>
+        <v>18.5</v>
       </c>
       <c r="E57" s="18">
         <v>15</v>
@@ -15284,16 +15284,16 @@
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1">
       <c r="A58" s="2" t="s">
-        <v>527</v>
+        <v>619</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D58" s="6">
-        <v>18.5</v>
+        <v>25.2</v>
       </c>
       <c r="E58" s="18">
         <v>15</v>
@@ -15301,16 +15301,16 @@
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D59" s="6">
-        <v>25.2</v>
+        <v>12.8</v>
       </c>
       <c r="E59" s="18">
         <v>15</v>
@@ -15318,152 +15318,152 @@
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>620</v>
+        <v>356</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D60" s="6">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="E60" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1">
       <c r="A61" s="2" t="s">
-        <v>356</v>
+        <v>621</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D61" s="6">
-        <v>13.6</v>
+        <v>16.2</v>
       </c>
       <c r="E61" s="18">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1">
+    <row r="62" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A62" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D62" s="6">
-        <v>16.2</v>
+        <v>14.9</v>
       </c>
       <c r="E62" s="18">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="63" spans="1:5" ht="15" thickBot="1">
       <c r="A63" s="2" t="s">
-        <v>622</v>
+        <v>528</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D63" s="6">
-        <v>14.9</v>
+        <v>23.9</v>
       </c>
       <c r="E63" s="18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A64" s="2" t="s">
-        <v>528</v>
+        <v>308</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D64" s="6">
-        <v>23.9</v>
+        <v>20</v>
       </c>
       <c r="E64" s="18">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="65" spans="1:5" ht="15" thickBot="1">
       <c r="A65" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D65" s="6">
-        <v>20</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="E65" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" thickBot="1">
       <c r="A66" s="2" t="s">
-        <v>315</v>
+        <v>107</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D66" s="6">
-        <v>20.100000000000001</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E66" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1">
+    <row r="67" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D67" s="6">
-        <v>18.600000000000001</v>
+        <v>14.8</v>
       </c>
       <c r="E67" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="68" spans="1:5" ht="15" thickBot="1">
       <c r="A68" s="2" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D68" s="6">
-        <v>14.8</v>
+        <v>22.5</v>
       </c>
       <c r="E68" s="18">
         <v>12</v>
@@ -15471,16 +15471,16 @@
     </row>
     <row r="69" spans="1:5" ht="15" thickBot="1">
       <c r="A69" s="2" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D69" s="6">
-        <v>22.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E69" s="18">
         <v>12</v>
@@ -15488,16 +15488,16 @@
     </row>
     <row r="70" spans="1:5" ht="15" thickBot="1">
       <c r="A70" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D70" s="6">
-        <v>18.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="E70" s="18">
         <v>12</v>
@@ -15505,16 +15505,16 @@
     </row>
     <row r="71" spans="1:5" ht="15" thickBot="1">
       <c r="A71" s="2" t="s">
-        <v>229</v>
+        <v>623</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D71" s="6">
-        <v>19.8</v>
+        <v>24.4</v>
       </c>
       <c r="E71" s="18">
         <v>12</v>
@@ -15522,33 +15522,33 @@
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1">
       <c r="A72" s="2" t="s">
-        <v>623</v>
+        <v>312</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D72" s="6">
-        <v>24.4</v>
+        <v>21.5</v>
       </c>
       <c r="E72" s="18">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1">
       <c r="A73" s="2" t="s">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D73" s="6">
-        <v>21.5</v>
+        <v>18.2</v>
       </c>
       <c r="E73" s="18">
         <v>11</v>
@@ -15556,16 +15556,16 @@
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D74" s="6">
-        <v>18.2</v>
+        <v>28.4</v>
       </c>
       <c r="E74" s="18">
         <v>11</v>
@@ -15573,16 +15573,16 @@
     </row>
     <row r="75" spans="1:5" ht="15" thickBot="1">
       <c r="A75" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D75" s="6">
-        <v>28.4</v>
+        <v>22.7</v>
       </c>
       <c r="E75" s="18">
         <v>11</v>
@@ -15590,50 +15590,50 @@
     </row>
     <row r="76" spans="1:5" ht="15" thickBot="1">
       <c r="A76" s="2" t="s">
-        <v>381</v>
+        <v>248</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D76" s="6">
-        <v>22.7</v>
+        <v>23.5</v>
       </c>
       <c r="E76" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" thickBot="1">
+    <row r="77" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A77" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D77" s="6">
-        <v>23.5</v>
+        <v>13.6</v>
       </c>
       <c r="E77" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="78" spans="1:5" ht="15" thickBot="1">
       <c r="A78" s="2" t="s">
-        <v>249</v>
+        <v>551</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D78" s="6">
-        <v>13.6</v>
+        <v>10.4</v>
       </c>
       <c r="E78" s="18">
         <v>11</v>
@@ -15641,16 +15641,16 @@
     </row>
     <row r="79" spans="1:5" ht="15" thickBot="1">
       <c r="A79" s="2" t="s">
-        <v>551</v>
+        <v>60</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D79" s="6">
-        <v>10.4</v>
+        <v>20.5</v>
       </c>
       <c r="E79" s="18">
         <v>11</v>
@@ -15658,16 +15658,16 @@
     </row>
     <row r="80" spans="1:5" ht="15" thickBot="1">
       <c r="A80" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D80" s="6">
-        <v>20.5</v>
+        <v>19.3</v>
       </c>
       <c r="E80" s="18">
         <v>11</v>
@@ -15675,16 +15675,16 @@
     </row>
     <row r="81" spans="1:5" ht="15" thickBot="1">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>624</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D81" s="6">
-        <v>19.3</v>
+        <v>15.6</v>
       </c>
       <c r="E81" s="18">
         <v>11</v>
@@ -15692,50 +15692,50 @@
     </row>
     <row r="82" spans="1:5" ht="15" thickBot="1">
       <c r="A82" s="2" t="s">
-        <v>624</v>
+        <v>87</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D82" s="6">
-        <v>15.6</v>
+        <v>21.6</v>
       </c>
       <c r="E82" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" thickBot="1">
+    <row r="83" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D83" s="6">
-        <v>21.6</v>
+        <v>9.6</v>
       </c>
       <c r="E83" s="18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>605</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D84" s="6">
-        <v>9.6</v>
+        <v>15.2</v>
       </c>
       <c r="E84" s="18">
         <v>10</v>
@@ -15743,24 +15743,24 @@
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1">
       <c r="A85" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D85" s="6">
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
       <c r="E85" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" thickBot="1">
+    <row r="86" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A86" s="2" t="s">
-        <v>603</v>
+        <v>232</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>2</v>
@@ -15769,24 +15769,24 @@
         <v>609</v>
       </c>
       <c r="D86" s="6">
-        <v>16.7</v>
+        <v>22.1</v>
       </c>
       <c r="E86" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="87" spans="1:5" ht="15" thickBot="1">
       <c r="A87" s="2" t="s">
-        <v>232</v>
+        <v>606</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D87" s="6">
-        <v>22.1</v>
+        <v>9.1</v>
       </c>
       <c r="E87" s="18">
         <v>10</v>
@@ -15794,16 +15794,16 @@
     </row>
     <row r="88" spans="1:5" ht="15" thickBot="1">
       <c r="A88" s="2" t="s">
-        <v>606</v>
+        <v>235</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D88" s="6">
-        <v>9.1</v>
+        <v>13.9</v>
       </c>
       <c r="E88" s="18">
         <v>10</v>
@@ -15811,16 +15811,16 @@
     </row>
     <row r="89" spans="1:5" ht="15" thickBot="1">
       <c r="A89" s="2" t="s">
-        <v>235</v>
+        <v>625</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D89" s="6">
-        <v>13.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E89" s="18">
         <v>10</v>
@@ -15828,50 +15828,50 @@
     </row>
     <row r="90" spans="1:5" ht="15" thickBot="1">
       <c r="A90" s="2" t="s">
-        <v>625</v>
+        <v>382</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D90" s="6">
-        <v>9.6999999999999993</v>
+        <v>12.3</v>
       </c>
       <c r="E90" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15" thickBot="1">
-      <c r="A91" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B91" s="8" t="s">
+      <c r="A91" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D91" s="6">
-        <v>12.3</v>
-      </c>
-      <c r="E91" s="18">
+        <v>5.4</v>
+      </c>
+      <c r="E91" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15" thickBot="1">
       <c r="A92" s="1" t="s">
-        <v>626</v>
+        <v>572</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D92" s="6">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="E92" s="17">
         <v>10</v>
@@ -15879,10 +15879,10 @@
     </row>
     <row r="93" spans="1:5" ht="15" thickBot="1">
       <c r="A93" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>609</v>
@@ -15895,34 +15895,34 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="15" thickBot="1">
-      <c r="A94" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="A94" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D94" s="6">
-        <v>0</v>
-      </c>
-      <c r="E94" s="17">
+        <v>11.8</v>
+      </c>
+      <c r="E94" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" thickBot="1">
       <c r="A95" s="2" t="s">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D95" s="6">
-        <v>11.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E95" s="18">
         <v>10</v>
@@ -15930,16 +15930,16 @@
     </row>
     <row r="96" spans="1:5" ht="15" thickBot="1">
       <c r="A96" s="2" t="s">
-        <v>53</v>
+        <v>530</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D96" s="6">
-        <v>4.4000000000000004</v>
+        <v>44.4</v>
       </c>
       <c r="E96" s="18">
         <v>10</v>
@@ -15947,16 +15947,16 @@
     </row>
     <row r="97" spans="1:5" ht="15" thickBot="1">
       <c r="A97" s="2" t="s">
-        <v>530</v>
+        <v>147</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D97" s="6">
-        <v>44.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E97" s="18">
         <v>10</v>
@@ -15964,50 +15964,50 @@
     </row>
     <row r="98" spans="1:5" ht="15" thickBot="1">
       <c r="A98" s="2" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D98" s="6">
-        <v>8.6999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="E98" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" thickBot="1">
+    <row r="99" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A99" s="2" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D99" s="6">
-        <v>7.1</v>
+        <v>16.5</v>
       </c>
       <c r="E99" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="100" spans="1:5" ht="15" thickBot="1">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>531</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D100" s="6">
-        <v>16.5</v>
+        <v>0.6</v>
       </c>
       <c r="E100" s="18">
         <v>10</v>
@@ -16015,44 +16015,44 @@
     </row>
     <row r="101" spans="1:5" ht="15" thickBot="1">
       <c r="A101" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D101" s="6">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E101" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" thickBot="1">
-      <c r="A102" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="A102" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D102" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E102" s="18">
+        <v>0</v>
+      </c>
+      <c r="E102" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" thickBot="1">
       <c r="A103" s="1" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>609</v>
@@ -16065,34 +16065,34 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" thickBot="1">
-      <c r="A104" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>609</v>
+      <c r="A104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>610</v>
       </c>
       <c r="D104" s="6">
-        <v>0</v>
-      </c>
-      <c r="E104" s="17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E104" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" thickBot="1">
       <c r="A105" s="2" t="s">
-        <v>84</v>
+        <v>628</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D105" s="6">
-        <v>4.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="E105" s="18">
         <v>10</v>
@@ -16100,24 +16100,24 @@
     </row>
     <row r="106" spans="1:5" ht="15" thickBot="1">
       <c r="A106" s="2" t="s">
-        <v>628</v>
+        <v>17</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D106" s="6">
-        <v>9.9</v>
+        <v>18</v>
       </c>
       <c r="E106" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15" thickBot="1">
+    <row r="107" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A107" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>4</v>
@@ -16126,7 +16126,7 @@
         <v>610</v>
       </c>
       <c r="D107" s="6">
-        <v>18</v>
+        <v>6.4</v>
       </c>
       <c r="E107" s="18">
         <v>10</v>
@@ -16134,7 +16134,7 @@
     </row>
     <row r="108" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A108" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>4</v>
@@ -16143,24 +16143,24 @@
         <v>610</v>
       </c>
       <c r="D108" s="6">
-        <v>6.4</v>
+        <v>17.3</v>
       </c>
       <c r="E108" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="109" spans="1:5" ht="15" thickBot="1">
       <c r="A109" s="2" t="s">
-        <v>19</v>
+        <v>629</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D109" s="6">
-        <v>17.3</v>
+        <v>6.3</v>
       </c>
       <c r="E109" s="18">
         <v>10</v>
@@ -16168,16 +16168,16 @@
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1">
       <c r="A110" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D110" s="6">
-        <v>6.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E110" s="18">
         <v>10</v>
@@ -16185,16 +16185,16 @@
     </row>
     <row r="111" spans="1:5" ht="15" thickBot="1">
       <c r="A111" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D111" s="6">
-        <v>4.0999999999999996</v>
+        <v>21.5</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
@@ -16202,16 +16202,16 @@
     </row>
     <row r="112" spans="1:5" ht="15" thickBot="1">
       <c r="A112" s="2" t="s">
-        <v>631</v>
+        <v>278</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D112" s="6">
-        <v>21.5</v>
+        <v>9</v>
       </c>
       <c r="E112" s="18">
         <v>10</v>
@@ -16219,41 +16219,41 @@
     </row>
     <row r="113" spans="1:5" ht="15" thickBot="1">
       <c r="A113" s="2" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D113" s="6">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E113" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" thickBot="1">
-      <c r="A114" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="A114" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D114" s="6">
-        <v>1</v>
-      </c>
-      <c r="E114" s="18">
+        <v>0</v>
+      </c>
+      <c r="E114" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" thickBot="1">
       <c r="A115" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>1</v>
@@ -16269,34 +16269,34 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" thickBot="1">
-      <c r="A116" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="A116" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D116" s="6">
-        <v>0</v>
-      </c>
-      <c r="E116" s="17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E116" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" thickBot="1">
       <c r="A117" s="2" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D117" s="6">
-        <v>9.8000000000000007</v>
+        <v>3.4</v>
       </c>
       <c r="E117" s="18">
         <v>10</v>
@@ -16304,75 +16304,75 @@
     </row>
     <row r="118" spans="1:5" ht="15" thickBot="1">
       <c r="A118" s="2" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D118" s="6">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="E118" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15" thickBot="1">
+    <row r="119" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A119" s="2" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D119" s="6">
-        <v>9.6</v>
+        <v>35.9</v>
       </c>
       <c r="E119" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A120" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="2" t="s">
+    <row r="120" spans="1:5" ht="15" thickBot="1">
+      <c r="A120" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D120" s="6">
-        <v>35.9</v>
-      </c>
-      <c r="E120" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15" thickBot="1">
-      <c r="A121" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D121" s="6">
-        <v>0</v>
-      </c>
-      <c r="E121" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E121" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" thickBot="1">
       <c r="A122" s="2" t="s">
-        <v>634</v>
+        <v>310</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>2</v>
@@ -16381,7 +16381,7 @@
         <v>610</v>
       </c>
       <c r="D122" s="6">
-        <v>4.5999999999999996</v>
+        <v>11.1</v>
       </c>
       <c r="E122" s="18">
         <v>10</v>
@@ -16389,16 +16389,16 @@
     </row>
     <row r="123" spans="1:5" ht="15" thickBot="1">
       <c r="A123" s="2" t="s">
-        <v>310</v>
+        <v>57</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D123" s="6">
-        <v>11.1</v>
+        <v>3.2</v>
       </c>
       <c r="E123" s="18">
         <v>10</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="124" spans="1:5" ht="15" thickBot="1">
       <c r="A124" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>3</v>
@@ -16415,7 +16415,7 @@
         <v>610</v>
       </c>
       <c r="D124" s="6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E124" s="18">
         <v>10</v>
@@ -16423,67 +16423,67 @@
     </row>
     <row r="125" spans="1:5" ht="15" thickBot="1">
       <c r="A125" s="2" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>610</v>
       </c>
       <c r="D125" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E125" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" thickBot="1">
-      <c r="A126" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="A126" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D126" s="6">
-        <v>2</v>
-      </c>
-      <c r="E126" s="18">
+        <v>15.4</v>
+      </c>
+      <c r="E126" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" thickBot="1">
-      <c r="A127" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>610</v>
+      <c r="A127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="D127" s="6">
-        <v>15.4</v>
-      </c>
-      <c r="E127" s="17">
+        <v>0</v>
+      </c>
+      <c r="E127" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1">
       <c r="A128" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D128" s="6">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="E128" s="18">
         <v>10</v>
@@ -16491,16 +16491,16 @@
     </row>
     <row r="129" spans="1:5" ht="15" thickBot="1">
       <c r="A129" s="2" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D129" s="6">
-        <v>8.9</v>
+        <v>1</v>
       </c>
       <c r="E129" s="18">
         <v>10</v>
@@ -16508,16 +16508,16 @@
     </row>
     <row r="130" spans="1:5" ht="15" thickBot="1">
       <c r="A130" s="2" t="s">
-        <v>231</v>
+        <v>635</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D130" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" s="18">
         <v>10</v>
@@ -16525,16 +16525,16 @@
     </row>
     <row r="131" spans="1:5" ht="15" thickBot="1">
       <c r="A131" s="2" t="s">
-        <v>635</v>
+        <v>51</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D131" s="6">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E131" s="18">
         <v>10</v>
@@ -16542,16 +16542,16 @@
     </row>
     <row r="132" spans="1:5" ht="15" thickBot="1">
       <c r="A132" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D132" s="6">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="E132" s="18">
         <v>10</v>
@@ -16559,16 +16559,16 @@
     </row>
     <row r="133" spans="1:5" ht="15" thickBot="1">
       <c r="A133" s="2" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D133" s="6">
-        <v>1.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E133" s="18">
         <v>10</v>
@@ -16576,126 +16576,126 @@
     </row>
     <row r="134" spans="1:5" ht="15" thickBot="1">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>636</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D134" s="6">
-        <v>4.0999999999999996</v>
+        <v>-0.3</v>
       </c>
       <c r="E134" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" thickBot="1">
-      <c r="A135" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" s="2" t="s">
+      <c r="A135" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D135" s="6">
-        <v>-0.3</v>
-      </c>
-      <c r="E135" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="E135" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" thickBot="1">
-      <c r="A136" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="A136" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D136" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="E136" s="17">
+        <v>13.3</v>
+      </c>
+      <c r="E136" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" thickBot="1">
       <c r="A137" s="2" t="s">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D137" s="6">
-        <v>13.3</v>
+        <v>21.1</v>
       </c>
       <c r="E137" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15" thickBot="1">
+    <row r="138" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A138" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D138" s="6">
-        <v>21.1</v>
+        <v>15.2</v>
       </c>
       <c r="E138" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="139" spans="1:5" ht="15" thickBot="1">
       <c r="A139" s="2" t="s">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D139" s="6">
-        <v>15.2</v>
+        <v>16.5</v>
       </c>
       <c r="E139" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" thickBot="1">
+    <row r="140" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A140" s="2" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D140" s="6">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="E140" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="141" spans="1:5" ht="15" thickBot="1">
       <c r="A141" s="2" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>1</v>
@@ -16704,24 +16704,24 @@
         <v>611</v>
       </c>
       <c r="D141" s="6">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="E141" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15" thickBot="1">
+    <row r="142" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A142" s="2" t="s">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D142" s="6">
-        <v>5.5</v>
+        <v>14.8</v>
       </c>
       <c r="E142" s="18">
         <v>10</v>
@@ -16729,16 +16729,16 @@
     </row>
     <row r="143" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>604</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D143" s="6">
-        <v>14.8</v>
+        <v>10.4</v>
       </c>
       <c r="E143" s="18">
         <v>10</v>
@@ -16746,92 +16746,92 @@
     </row>
     <row r="144" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A144" s="2" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D144" s="6">
-        <v>10.4</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E144" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="145" spans="1:5" ht="15" thickBot="1">
       <c r="A145" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D145" s="6">
-        <v>17.899999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E145" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15" thickBot="1">
-      <c r="A146" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146" s="2" t="s">
+      <c r="A146" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D146" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E146" s="18">
+        <v>0</v>
+      </c>
+      <c r="E146" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15" thickBot="1">
       <c r="A147" s="1" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0</v>
+      </c>
+      <c r="E147" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D147" s="6">
-        <v>0</v>
-      </c>
-      <c r="E147" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15" thickBot="1">
-      <c r="A148" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D148" s="6">
-        <v>0</v>
-      </c>
-      <c r="E148" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="E148" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15" thickBot="1">
       <c r="A149" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>4</v>
@@ -16840,41 +16840,41 @@
         <v>614</v>
       </c>
       <c r="D149" s="6">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="E149" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15" thickBot="1">
-      <c r="A150" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="2" t="s">
+      <c r="A150" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D150" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="E150" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="E150" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15" thickBot="1">
       <c r="A151" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D151" s="6">
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="E151" s="17">
         <v>10</v>
@@ -16882,16 +16882,16 @@
     </row>
     <row r="152" spans="1:5" ht="15" thickBot="1">
       <c r="A152" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D152" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E152" s="17">
         <v>10</v>
@@ -16899,10 +16899,10 @@
     </row>
     <row r="153" spans="1:5" ht="15" thickBot="1">
       <c r="A153" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>614</v>
@@ -16916,41 +16916,41 @@
     </row>
     <row r="154" spans="1:5" ht="15" thickBot="1">
       <c r="A154" s="1" t="s">
-        <v>560</v>
+        <v>265</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D154" s="6">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="E154" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15" thickBot="1">
-      <c r="A155" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B155" s="5" t="s">
+      <c r="A155" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D155" s="6">
-        <v>5.2</v>
-      </c>
-      <c r="E155" s="17">
+        <v>14.8</v>
+      </c>
+      <c r="E155" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15" thickBot="1">
       <c r="A156" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>3</v>
@@ -16959,41 +16959,41 @@
         <v>614</v>
       </c>
       <c r="D156" s="6">
-        <v>14.8</v>
+        <v>12.7</v>
       </c>
       <c r="E156" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" thickBot="1">
+    <row r="157" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A157" s="2" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D157" s="6">
-        <v>12.7</v>
+        <v>35.5</v>
       </c>
       <c r="E157" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="158" spans="1:5" ht="15" thickBot="1">
       <c r="A158" s="2" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D158" s="6">
-        <v>35.5</v>
+        <v>18.5</v>
       </c>
       <c r="E158" s="18">
         <v>10</v>
@@ -17001,16 +17001,16 @@
     </row>
     <row r="159" spans="1:5" ht="15" thickBot="1">
       <c r="A159" s="2" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D159" s="6">
-        <v>18.5</v>
+        <v>1.8</v>
       </c>
       <c r="E159" s="18">
         <v>10</v>
@@ -17018,7 +17018,7 @@
     </row>
     <row r="160" spans="1:5" ht="15" thickBot="1">
       <c r="A160" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>2</v>
@@ -17027,7 +17027,7 @@
         <v>614</v>
       </c>
       <c r="D160" s="6">
-        <v>1.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E160" s="18">
         <v>10</v>
@@ -17035,16 +17035,16 @@
     </row>
     <row r="161" spans="1:5" ht="15" thickBot="1">
       <c r="A161" s="2" t="s">
-        <v>271</v>
+        <v>637</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D161" s="6">
-        <v>9.1999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="E161" s="18">
         <v>10</v>
@@ -17052,16 +17052,16 @@
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1">
       <c r="A162" s="2" t="s">
-        <v>637</v>
+        <v>295</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D162" s="6">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="E162" s="18">
         <v>10</v>
@@ -17069,67 +17069,67 @@
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1">
       <c r="A163" s="2" t="s">
-        <v>295</v>
+        <v>638</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D163" s="6">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="E163" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1">
-      <c r="A164" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B164" s="8" t="s">
+      <c r="A164" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D164" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E164" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D164" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="E164" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="15" thickBot="1">
-      <c r="A165" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>614</v>
+      <c r="C165" s="2" t="s">
+        <v>615</v>
       </c>
       <c r="D165" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="E165" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>8.9</v>
+      </c>
+      <c r="E165" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" thickBot="1">
       <c r="A166" s="2" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D166" s="6">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
       <c r="E166" s="18">
         <v>10</v>
@@ -17137,16 +17137,16 @@
     </row>
     <row r="167" spans="1:5" ht="15" thickBot="1">
       <c r="A167" s="2" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D167" s="6">
-        <v>11.9</v>
+        <v>17.5</v>
       </c>
       <c r="E167" s="18">
         <v>10</v>
@@ -17154,7 +17154,7 @@
     </row>
     <row r="168" spans="1:5" ht="15" thickBot="1">
       <c r="A168" s="2" t="s">
-        <v>23</v>
+        <v>424</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>4</v>
@@ -17163,7 +17163,7 @@
         <v>615</v>
       </c>
       <c r="D168" s="6">
-        <v>17.5</v>
+        <v>11.9</v>
       </c>
       <c r="E168" s="18">
         <v>10</v>
@@ -17171,16 +17171,16 @@
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1">
       <c r="A169" s="2" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D169" s="6">
-        <v>11.9</v>
+        <v>13.2</v>
       </c>
       <c r="E169" s="18">
         <v>10</v>
@@ -17188,24 +17188,24 @@
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1">
       <c r="A170" s="2" t="s">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D170" s="6">
-        <v>13.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E170" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" thickBot="1">
+    <row r="171" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A171" s="2" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>1</v>
@@ -17214,15 +17214,15 @@
         <v>615</v>
       </c>
       <c r="D171" s="6">
-        <v>8.8000000000000007</v>
+        <v>3.9</v>
       </c>
       <c r="E171" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="172" spans="1:5" ht="15" thickBot="1">
       <c r="A172" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>1</v>
@@ -17231,58 +17231,58 @@
         <v>615</v>
       </c>
       <c r="D172" s="6">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="E172" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" thickBot="1">
-      <c r="A173" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173" s="2" t="s">
+      <c r="A173" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D173" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="E173" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="15" thickBot="1">
-      <c r="A174" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D174" s="6">
-        <v>0</v>
-      </c>
-      <c r="E174" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E174" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A175" s="2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D175" s="6">
-        <v>9.9</v>
+        <v>3.2</v>
       </c>
       <c r="E175" s="18">
         <v>10</v>
@@ -17290,33 +17290,33 @@
     </row>
     <row r="176" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A176" s="2" t="s">
-        <v>242</v>
+        <v>430</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D176" s="6">
-        <v>3.2</v>
+        <v>43.2</v>
       </c>
       <c r="E176" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="177" spans="1:5" ht="15" thickBot="1">
       <c r="A177" s="2" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D177" s="6">
-        <v>43.2</v>
+        <v>12.2</v>
       </c>
       <c r="E177" s="18">
         <v>10</v>
@@ -17324,169 +17324,169 @@
     </row>
     <row r="178" spans="1:5" ht="15" thickBot="1">
       <c r="A178" s="2" t="s">
-        <v>305</v>
+        <v>490</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D178" s="6">
-        <v>12.2</v>
+        <v>6.4</v>
       </c>
       <c r="E178" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" thickBot="1">
-      <c r="A179" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C179" s="2" t="s">
+      <c r="A179" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D179" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="E179" s="18">
+        <v>0</v>
+      </c>
+      <c r="E179" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" thickBot="1">
-      <c r="A180" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180" s="1" t="s">
+      <c r="A180" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D180" s="6">
-        <v>0</v>
-      </c>
-      <c r="E180" s="17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E180" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" thickBot="1">
       <c r="A181" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D181" s="6">
-        <v>9.1999999999999993</v>
+        <v>9.9</v>
       </c>
       <c r="E181" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" thickBot="1">
+    <row r="182" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A182" s="2" t="s">
-        <v>301</v>
+        <v>550</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D182" s="6">
-        <v>9.9</v>
+        <v>10.6</v>
       </c>
       <c r="E182" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A183" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" s="2" t="s">
+    <row r="183" spans="1:5" ht="15" thickBot="1">
+      <c r="A183" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D183" s="6">
-        <v>10.6</v>
-      </c>
-      <c r="E183" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15" thickBot="1">
-      <c r="A184" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>615</v>
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="D184" s="6">
-        <v>0</v>
-      </c>
-      <c r="E184" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>45.7</v>
+      </c>
+      <c r="E184" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" thickBot="1">
       <c r="A185" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D185" s="6">
-        <v>45.7</v>
+        <v>14.3</v>
       </c>
       <c r="E185" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15" thickBot="1">
+    <row r="186" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A186" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D186" s="6">
-        <v>14.3</v>
+        <v>20.5</v>
       </c>
       <c r="E186" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="187" spans="1:5" ht="15" thickBot="1">
       <c r="A187" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D187" s="6">
-        <v>20.5</v>
+        <v>5.7</v>
       </c>
       <c r="E187" s="18">
         <v>10</v>
@@ -17494,44 +17494,44 @@
     </row>
     <row r="188" spans="1:5" ht="15" thickBot="1">
       <c r="A188" s="2" t="s">
-        <v>643</v>
+        <v>442</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D188" s="6">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="E188" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15" thickBot="1">
-      <c r="A189" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C189" s="2" t="s">
+      <c r="A189" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D189" s="6">
-        <v>7.2</v>
-      </c>
-      <c r="E189" s="18">
+        <v>0</v>
+      </c>
+      <c r="E189" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15" thickBot="1">
       <c r="A190" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>612</v>
@@ -17545,50 +17545,50 @@
     </row>
     <row r="191" spans="1:5" ht="15" thickBot="1">
       <c r="A191" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D191" s="6">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E191" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" thickBot="1">
-      <c r="A192" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="1" t="s">
+    <row r="192" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D192" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="E192" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+        <v>5.3</v>
+      </c>
+      <c r="E192" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1">
       <c r="A193" s="2" t="s">
-        <v>283</v>
+        <v>647</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D193" s="6">
-        <v>5.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E193" s="18">
         <v>10</v>
@@ -17596,16 +17596,16 @@
     </row>
     <row r="194" spans="1:5" ht="15" thickBot="1">
       <c r="A194" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D194" s="6">
-        <v>9.6999999999999993</v>
+        <v>18</v>
       </c>
       <c r="E194" s="18">
         <v>10</v>
@@ -17613,50 +17613,50 @@
     </row>
     <row r="195" spans="1:5" ht="15" thickBot="1">
       <c r="A195" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D195" s="6">
-        <v>18</v>
-      </c>
-      <c r="E195" s="18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E195" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15" thickBot="1">
       <c r="A196" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B196" s="20" t="s">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D196" s="6">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E196" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="E196" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15" thickBot="1">
       <c r="A197" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D197" s="6">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="E197" s="18">
         <v>10</v>
@@ -17664,54 +17664,43 @@
     </row>
     <row r="198" spans="1:5" ht="15" thickBot="1">
       <c r="A198" s="2" t="s">
-        <v>119</v>
+        <v>649</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D198" s="6">
-        <v>2.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E198" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15" thickBot="1">
-      <c r="A199" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="2" t="s">
+    <row r="199" spans="1:5">
+      <c r="A199" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>612</v>
       </c>
       <c r="D199" s="6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E199" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D200" s="6">
-        <v>0</v>
-      </c>
-      <c r="E200" s="17">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E199" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="14"/>
+      <c r="B213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="14"/>
@@ -17803,14 +17792,8 @@
       <c r="D228" s="14"/>
       <c r="E228" s="14"/>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="14"/>
-      <c r="B229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E335" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}"/>
+  <autoFilter ref="A1:E334" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3E2FD3-5630-42FB-B762-22C15BC38F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C08CE-5EC4-4CD7-A57C-609BC7612EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -14300,8 +14300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}">
   <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C08CE-5EC4-4CD7-A57C-609BC7612EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039A86B-520D-4D61-A6FC-1DBC5EDC2A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
     <sheet name="10-22" sheetId="14" r:id="rId2"/>
     <sheet name="10-29" sheetId="15" r:id="rId3"/>
+    <sheet name="11-05" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'11-05'!$A$1:$E$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="744">
   <si>
     <t>PG</t>
   </si>
@@ -2000,6 +2002,279 @@
   </si>
   <si>
     <t>noChris Duarte</t>
+  </si>
+  <si>
+    <t>NY @ MIL, Tomorrow, 7:30 PM</t>
+  </si>
+  <si>
+    <t>BKN @ DET, Tomorrow, 7:00 PM</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>NO @ GS, Tomorrow, 10:00 PM</t>
+  </si>
+  <si>
+    <t>LAC @ MIN, Tomorrow, 8:00 PM</t>
+  </si>
+  <si>
+    <t>IND @ POR, Tomorrow, 10:00 PM</t>
+  </si>
+  <si>
+    <t>Ja Morant</t>
+  </si>
+  <si>
+    <t>MEM @ WAS, Tomorrow, 7:00 PM</t>
+  </si>
+  <si>
+    <t>LaMelo BallGTD</t>
+  </si>
+  <si>
+    <t>CHA @ SAC, Tomorrow, 10:00 PM</t>
+  </si>
+  <si>
+    <t>SA @ ORL, Tomorrow, 7:00 PM</t>
+  </si>
+  <si>
+    <t>CLE @ TOR, Tomorrow, 7:30 PM</t>
+  </si>
+  <si>
+    <t>Khris MiddletonINJ</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Jrue HolidayINJ</t>
+  </si>
+  <si>
+    <t>Caris LeVert</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
+    <t>D'Angelo RussellO</t>
+  </si>
+  <si>
+    <t>Jakob PoeltlINJ</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Cade Cunningham</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Jordan Poole</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
+    <t>Steven Adams</t>
+  </si>
+  <si>
+    <t>Dillon BrooksINJ</t>
+  </si>
+  <si>
+    <t>Isaiah Stewart</t>
+  </si>
+  <si>
+    <t>Kyle Anderson</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>Brook LopezINJ</t>
+  </si>
+  <si>
+    <t>Lauri MarkkanenINJ</t>
+  </si>
+  <si>
+    <t>PJ WashingtonGTD</t>
+  </si>
+  <si>
+    <t>Kevin LoveINJ</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>Rui HachimuraINJ</t>
+  </si>
+  <si>
+    <t>Marcus Morris Sr.INJ</t>
+  </si>
+  <si>
+    <t>Malik Beasley</t>
+  </si>
+  <si>
+    <t>Isaac OkoroINJ</t>
+  </si>
+  <si>
+    <t>Grayson Allen</t>
+  </si>
+  <si>
+    <t>Chuma Okeke</t>
+  </si>
+  <si>
+    <t>Herbert JonesGTD</t>
+  </si>
+  <si>
+    <t>Gary Payton IIGTD</t>
+  </si>
+  <si>
+    <t>Nicolas ClaxtonINJ</t>
+  </si>
+  <si>
+    <t>Cory Joseph</t>
+  </si>
+  <si>
+    <t>Rodney McGruder</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Frank Jackson</t>
+  </si>
+  <si>
+    <t>Isaiah LiversINJ</t>
+  </si>
+  <si>
+    <t>Luka Garza</t>
+  </si>
+  <si>
+    <t>Chris SmithINJ</t>
+  </si>
+  <si>
+    <t>Jamorko Pickett</t>
+  </si>
+  <si>
+    <t>Daulton HommesINJ</t>
+  </si>
+  <si>
+    <t>Klay ThompsonINJ</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.</t>
+  </si>
+  <si>
+    <t>Kevon Looney</t>
+  </si>
+  <si>
+    <t>Damion Lee</t>
+  </si>
+  <si>
+    <t>Chris Chiozza</t>
+  </si>
+  <si>
+    <t>Juan Toscano-Anderson</t>
+  </si>
+  <si>
+    <t>James WisemanINJ</t>
+  </si>
+  <si>
+    <t>Jonathan Kuminga</t>
+  </si>
+  <si>
+    <t>Moses Moody</t>
+  </si>
+  <si>
+    <t>Jeff Dowtin</t>
+  </si>
+  <si>
+    <t>Tyus Jones</t>
+  </si>
+  <si>
+    <t>Jarrett Culver</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>John Konchar</t>
+  </si>
+  <si>
+    <t>Xavier Tillman</t>
+  </si>
+  <si>
+    <t>Killian Tillie</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
+    <t>Yves Pons</t>
+  </si>
+  <si>
+    <t>Davis BertansINJ</t>
+  </si>
+  <si>
+    <t>Cassius WinstonINJ</t>
+  </si>
+  <si>
+    <t>Anthony GillINJ</t>
+  </si>
+  <si>
+    <t>Taj Gibson</t>
+  </si>
+  <si>
+    <t>Nerlens Noel</t>
+  </si>
+  <si>
+    <t>Rodney Hood</t>
+  </si>
+  <si>
+    <t>Semi Ojeleye</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzoINJ</t>
+  </si>
+  <si>
+    <t>Sandro Mamukelashvili</t>
+  </si>
+  <si>
+    <t>Georgios Kalaitzakis</t>
+  </si>
+  <si>
+    <t>Keon Johnson</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Leandro Bolmaro</t>
+  </si>
+  <si>
+    <t>McKinley Wright IV</t>
+  </si>
+  <si>
+    <t>E'Twaun MooreINJ</t>
+  </si>
+  <si>
+    <t>Gary HarrisGTD</t>
+  </si>
+  <si>
+    <t>Mychal Mulder</t>
+  </si>
+  <si>
+    <t>Yuta WatanabeINJ</t>
+  </si>
+  <si>
+    <t>Jeremy LambO</t>
+  </si>
+  <si>
+    <t>Kelan Martin</t>
   </si>
 </sst>
 </file>
@@ -2079,7 +2354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2136,6 +2411,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14298,10 +14576,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}">
-  <dimension ref="A1:E228"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14330,7 +14609,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>388</v>
       </c>
@@ -14347,7 +14626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -14364,7 +14643,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
+    <row r="4" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -14381,7 +14660,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    <row r="5" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>187</v>
       </c>
@@ -14398,7 +14677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    <row r="6" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -14415,7 +14694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    <row r="7" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>172</v>
       </c>
@@ -14432,7 +14711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    <row r="8" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>613</v>
       </c>
@@ -14449,7 +14728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    <row r="9" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>86</v>
       </c>
@@ -14466,7 +14745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    <row r="10" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -14483,7 +14762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="11" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>616</v>
       </c>
@@ -14500,7 +14779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    <row r="12" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>189</v>
       </c>
@@ -14517,7 +14796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="13" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>291</v>
       </c>
@@ -14534,7 +14813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
+    <row r="14" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>322</v>
       </c>
@@ -14551,7 +14830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="15" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>197</v>
       </c>
@@ -14568,7 +14847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
+    <row r="16" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>233</v>
       </c>
@@ -14585,7 +14864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="17" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>337</v>
       </c>
@@ -14602,7 +14881,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1">
+    <row r="18" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>216</v>
       </c>
@@ -14619,7 +14898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1">
+    <row r="19" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>210</v>
       </c>
@@ -14636,7 +14915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1">
+    <row r="20" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>369</v>
       </c>
@@ -14653,7 +14932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="21" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>617</v>
       </c>
@@ -14670,7 +14949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1">
+    <row r="22" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>517</v>
       </c>
@@ -14687,7 +14966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1">
+    <row r="23" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>618</v>
       </c>
@@ -14704,7 +14983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1">
+    <row r="24" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>199</v>
       </c>
@@ -14721,7 +15000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1">
+    <row r="25" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>122</v>
       </c>
@@ -14738,7 +15017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1">
+    <row r="26" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>600</v>
       </c>
@@ -14755,7 +15034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1">
+    <row r="27" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>198</v>
       </c>
@@ -14772,7 +15051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1">
+    <row r="28" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -14789,7 +15068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1">
+    <row r="29" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>159</v>
       </c>
@@ -14806,7 +15085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="30" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>651</v>
       </c>
@@ -14823,7 +15102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -14840,7 +15119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1">
+    <row r="32" spans="1:5" ht="15" hidden="1" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>150</v>
       </c>
@@ -14857,7 +15136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="33" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>151</v>
       </c>
@@ -14874,7 +15153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="34" spans="1:5" ht="28.2" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>304</v>
       </c>
@@ -14891,7 +15170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
@@ -14908,7 +15187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" s="2" t="s">
         <v>292</v>
       </c>
@@ -14925,7 +15204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="37" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>206</v>
       </c>
@@ -14942,7 +15221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="2" t="s">
         <v>317</v>
       </c>
@@ -14959,7 +15238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
@@ -14976,7 +15255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="40" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>183</v>
       </c>
@@ -14993,7 +15272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" s="2" t="s">
         <v>652</v>
       </c>
@@ -15010,7 +15289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" s="2" t="s">
         <v>120</v>
       </c>
@@ -15027,7 +15306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -15044,7 +15323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="2" t="s">
         <v>134</v>
       </c>
@@ -15061,7 +15340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="2" t="s">
         <v>355</v>
       </c>
@@ -15078,7 +15357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="46" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A46" s="2" t="s">
         <v>113</v>
       </c>
@@ -15095,7 +15374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" s="2" t="s">
         <v>411</v>
       </c>
@@ -15112,7 +15391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="48" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="s">
         <v>212</v>
       </c>
@@ -15129,7 +15408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
@@ -15146,7 +15425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1">
+    <row r="50" spans="1:5" hidden="1">
       <c r="A50" s="2" t="s">
         <v>89</v>
       </c>
@@ -15163,7 +15442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="51" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>340</v>
       </c>
@@ -15180,7 +15459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" s="2" t="s">
         <v>385</v>
       </c>
@@ -15197,7 +15476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" s="2" t="s">
         <v>27</v>
       </c>
@@ -15214,7 +15493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="54" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -15231,7 +15510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="55" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A55" s="2" t="s">
         <v>114</v>
       </c>
@@ -15248,7 +15527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1">
+    <row r="56" spans="1:5" hidden="1">
       <c r="A56" s="2" t="s">
         <v>338</v>
       </c>
@@ -15265,7 +15544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" s="2" t="s">
         <v>527</v>
       </c>
@@ -15282,7 +15561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" thickBot="1">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" s="2" t="s">
         <v>619</v>
       </c>
@@ -15299,7 +15578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" s="2" t="s">
         <v>620</v>
       </c>
@@ -15316,7 +15595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1">
+    <row r="60" spans="1:5" hidden="1">
       <c r="A60" s="2" t="s">
         <v>356</v>
       </c>
@@ -15333,7 +15612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" thickBot="1">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" s="2" t="s">
         <v>621</v>
       </c>
@@ -15350,7 +15629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="62" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="2" t="s">
         <v>622</v>
       </c>
@@ -15367,7 +15646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" s="2" t="s">
         <v>528</v>
       </c>
@@ -15384,7 +15663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="64" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A64" s="2" t="s">
         <v>308</v>
       </c>
@@ -15401,7 +15680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1">
+    <row r="65" spans="1:5" hidden="1">
       <c r="A65" s="2" t="s">
         <v>315</v>
       </c>
@@ -15418,7 +15697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" s="2" t="s">
         <v>107</v>
       </c>
@@ -15435,7 +15714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="67" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="s">
         <v>169</v>
       </c>
@@ -15452,7 +15731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" thickBot="1">
+    <row r="68" spans="1:5" hidden="1">
       <c r="A68" s="2" t="s">
         <v>54</v>
       </c>
@@ -15469,7 +15748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" thickBot="1">
+    <row r="69" spans="1:5" hidden="1">
       <c r="A69" s="2" t="s">
         <v>228</v>
       </c>
@@ -15486,7 +15765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" thickBot="1">
+    <row r="70" spans="1:5" hidden="1">
       <c r="A70" s="2" t="s">
         <v>229</v>
       </c>
@@ -15503,7 +15782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" s="2" t="s">
         <v>623</v>
       </c>
@@ -15520,7 +15799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" thickBot="1">
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" s="2" t="s">
         <v>312</v>
       </c>
@@ -15537,7 +15816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" thickBot="1">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" s="2" t="s">
         <v>108</v>
       </c>
@@ -15554,7 +15833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" thickBot="1">
+    <row r="74" spans="1:5" hidden="1">
       <c r="A74" s="2" t="s">
         <v>164</v>
       </c>
@@ -15571,7 +15850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" thickBot="1">
+    <row r="75" spans="1:5" hidden="1">
       <c r="A75" s="2" t="s">
         <v>381</v>
       </c>
@@ -15588,7 +15867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" thickBot="1">
+    <row r="76" spans="1:5" hidden="1">
       <c r="A76" s="2" t="s">
         <v>248</v>
       </c>
@@ -15605,7 +15884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="77" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A77" s="2" t="s">
         <v>249</v>
       </c>
@@ -15622,7 +15901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" thickBot="1">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" s="2" t="s">
         <v>551</v>
       </c>
@@ -15639,7 +15918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" thickBot="1">
+    <row r="79" spans="1:5" hidden="1">
       <c r="A79" s="2" t="s">
         <v>60</v>
       </c>
@@ -15656,7 +15935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" thickBot="1">
+    <row r="80" spans="1:5" hidden="1">
       <c r="A80" s="2" t="s">
         <v>127</v>
       </c>
@@ -15673,7 +15952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" thickBot="1">
+    <row r="81" spans="1:5" hidden="1">
       <c r="A81" s="2" t="s">
         <v>624</v>
       </c>
@@ -15690,7 +15969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
@@ -15707,7 +15986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="83" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A83" s="2" t="s">
         <v>97</v>
       </c>
@@ -15724,7 +16003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" thickBot="1">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" s="2" t="s">
         <v>605</v>
       </c>
@@ -15741,7 +16020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" thickBot="1">
+    <row r="85" spans="1:5" hidden="1">
       <c r="A85" s="2" t="s">
         <v>603</v>
       </c>
@@ -15758,7 +16037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="86" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A86" s="2" t="s">
         <v>232</v>
       </c>
@@ -15775,7 +16054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" thickBot="1">
+    <row r="87" spans="1:5" hidden="1">
       <c r="A87" s="2" t="s">
         <v>606</v>
       </c>
@@ -15792,7 +16071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" thickBot="1">
+    <row r="88" spans="1:5" hidden="1">
       <c r="A88" s="2" t="s">
         <v>235</v>
       </c>
@@ -15809,7 +16088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" thickBot="1">
+    <row r="89" spans="1:5" hidden="1">
       <c r="A89" s="2" t="s">
         <v>625</v>
       </c>
@@ -15826,7 +16105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" thickBot="1">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" s="2" t="s">
         <v>382</v>
       </c>
@@ -15843,7 +16122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" thickBot="1">
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" s="1" t="s">
         <v>626</v>
       </c>
@@ -15860,7 +16139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" thickBot="1">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" s="1" t="s">
         <v>572</v>
       </c>
@@ -15877,7 +16156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" thickBot="1">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" s="1" t="s">
         <v>573</v>
       </c>
@@ -15894,7 +16173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" thickBot="1">
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94" s="2" t="s">
         <v>342</v>
       </c>
@@ -15911,7 +16190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" thickBot="1">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" s="2" t="s">
         <v>53</v>
       </c>
@@ -15928,7 +16207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" thickBot="1">
+    <row r="96" spans="1:5" hidden="1">
       <c r="A96" s="2" t="s">
         <v>530</v>
       </c>
@@ -15945,7 +16224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" thickBot="1">
+    <row r="97" spans="1:5" hidden="1">
       <c r="A97" s="2" t="s">
         <v>147</v>
       </c>
@@ -15962,7 +16241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" thickBot="1">
+    <row r="98" spans="1:5" hidden="1">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -15979,7 +16258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="99" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
@@ -15996,7 +16275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" thickBot="1">
+    <row r="100" spans="1:5" hidden="1">
       <c r="A100" s="2" t="s">
         <v>531</v>
       </c>
@@ -16013,7 +16292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15" thickBot="1">
+    <row r="101" spans="1:5" hidden="1">
       <c r="A101" s="2" t="s">
         <v>532</v>
       </c>
@@ -16030,7 +16309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15" thickBot="1">
+    <row r="102" spans="1:5" hidden="1">
       <c r="A102" s="1" t="s">
         <v>533</v>
       </c>
@@ -16047,7 +16326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15" thickBot="1">
+    <row r="103" spans="1:5" hidden="1">
       <c r="A103" s="1" t="s">
         <v>627</v>
       </c>
@@ -16064,7 +16343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15" thickBot="1">
+    <row r="104" spans="1:5" hidden="1">
       <c r="A104" s="2" t="s">
         <v>84</v>
       </c>
@@ -16081,7 +16360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15" thickBot="1">
+    <row r="105" spans="1:5" hidden="1">
       <c r="A105" s="2" t="s">
         <v>628</v>
       </c>
@@ -16098,7 +16377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15" thickBot="1">
+    <row r="106" spans="1:5" hidden="1">
       <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
@@ -16115,7 +16394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="107" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A107" s="2" t="s">
         <v>18</v>
       </c>
@@ -16132,7 +16411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="108" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A108" s="2" t="s">
         <v>19</v>
       </c>
@@ -16149,7 +16428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15" thickBot="1">
+    <row r="109" spans="1:5" hidden="1">
       <c r="A109" s="2" t="s">
         <v>629</v>
       </c>
@@ -16166,7 +16445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" thickBot="1">
+    <row r="110" spans="1:5" hidden="1">
       <c r="A110" s="2" t="s">
         <v>630</v>
       </c>
@@ -16183,7 +16462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15" thickBot="1">
+    <row r="111" spans="1:5" hidden="1">
       <c r="A111" s="2" t="s">
         <v>631</v>
       </c>
@@ -16200,7 +16479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15" thickBot="1">
+    <row r="112" spans="1:5" hidden="1">
       <c r="A112" s="2" t="s">
         <v>278</v>
       </c>
@@ -16217,7 +16496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15" thickBot="1">
+    <row r="113" spans="1:5" hidden="1">
       <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
@@ -16234,7 +16513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15" thickBot="1">
+    <row r="114" spans="1:5" hidden="1">
       <c r="A114" s="1" t="s">
         <v>632</v>
       </c>
@@ -16251,7 +16530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15" thickBot="1">
+    <row r="115" spans="1:5" hidden="1">
       <c r="A115" s="1" t="s">
         <v>633</v>
       </c>
@@ -16268,7 +16547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15" thickBot="1">
+    <row r="116" spans="1:5" hidden="1">
       <c r="A116" s="2" t="s">
         <v>334</v>
       </c>
@@ -16285,7 +16564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15" thickBot="1">
+    <row r="117" spans="1:5" hidden="1">
       <c r="A117" s="2" t="s">
         <v>296</v>
       </c>
@@ -16302,7 +16581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15" thickBot="1">
+    <row r="118" spans="1:5" hidden="1">
       <c r="A118" s="2" t="s">
         <v>349</v>
       </c>
@@ -16319,7 +16598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="119" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A119" s="2" t="s">
         <v>402</v>
       </c>
@@ -16336,7 +16615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15" thickBot="1">
+    <row r="120" spans="1:5" hidden="1">
       <c r="A120" s="1" t="s">
         <v>567</v>
       </c>
@@ -16353,7 +16632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="121" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A121" s="2" t="s">
         <v>634</v>
       </c>
@@ -16370,7 +16649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15" thickBot="1">
+    <row r="122" spans="1:5" hidden="1">
       <c r="A122" s="2" t="s">
         <v>310</v>
       </c>
@@ -16387,7 +16666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15" thickBot="1">
+    <row r="123" spans="1:5" hidden="1">
       <c r="A123" s="2" t="s">
         <v>57</v>
       </c>
@@ -16404,7 +16683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" thickBot="1">
+    <row r="124" spans="1:5" hidden="1">
       <c r="A124" s="2" t="s">
         <v>58</v>
       </c>
@@ -16421,7 +16700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15" thickBot="1">
+    <row r="125" spans="1:5" hidden="1">
       <c r="A125" s="2" t="s">
         <v>168</v>
       </c>
@@ -16438,7 +16717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" thickBot="1">
+    <row r="126" spans="1:5" hidden="1">
       <c r="A126" s="1" t="s">
         <v>568</v>
       </c>
@@ -16455,7 +16734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15" thickBot="1">
+    <row r="127" spans="1:5" hidden="1">
       <c r="A127" s="2" t="s">
         <v>29</v>
       </c>
@@ -16472,7 +16751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15" thickBot="1">
+    <row r="128" spans="1:5" hidden="1">
       <c r="A128" s="2" t="s">
         <v>49</v>
       </c>
@@ -16489,7 +16768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15" thickBot="1">
+    <row r="129" spans="1:5" hidden="1">
       <c r="A129" s="2" t="s">
         <v>231</v>
       </c>
@@ -16506,7 +16785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15" thickBot="1">
+    <row r="130" spans="1:5" hidden="1">
       <c r="A130" s="2" t="s">
         <v>635</v>
       </c>
@@ -16523,7 +16802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15" thickBot="1">
+    <row r="131" spans="1:5" hidden="1">
       <c r="A131" s="2" t="s">
         <v>51</v>
       </c>
@@ -16540,7 +16819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15" thickBot="1">
+    <row r="132" spans="1:5" hidden="1">
       <c r="A132" s="2" t="s">
         <v>16</v>
       </c>
@@ -16557,7 +16836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" thickBot="1">
+    <row r="133" spans="1:5" hidden="1">
       <c r="A133" s="2" t="s">
         <v>110</v>
       </c>
@@ -16574,7 +16853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15" thickBot="1">
+    <row r="134" spans="1:5" hidden="1">
       <c r="A134" s="2" t="s">
         <v>636</v>
       </c>
@@ -16591,7 +16870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15" thickBot="1">
+    <row r="135" spans="1:5" hidden="1">
       <c r="A135" s="1" t="s">
         <v>563</v>
       </c>
@@ -16608,7 +16887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" thickBot="1">
+    <row r="136" spans="1:5" hidden="1">
       <c r="A136" s="2" t="s">
         <v>38</v>
       </c>
@@ -16625,7 +16904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15" thickBot="1">
+    <row r="137" spans="1:5" hidden="1">
       <c r="A137" s="2" t="s">
         <v>274</v>
       </c>
@@ -16642,7 +16921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="138" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A138" s="2" t="s">
         <v>273</v>
       </c>
@@ -16659,7 +16938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15" thickBot="1">
+    <row r="139" spans="1:5" hidden="1">
       <c r="A139" s="2" t="s">
         <v>7</v>
       </c>
@@ -16676,7 +16955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="140" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A140" s="2" t="s">
         <v>345</v>
       </c>
@@ -16693,7 +16972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15" thickBot="1">
+    <row r="141" spans="1:5" hidden="1">
       <c r="A141" s="2" t="s">
         <v>370</v>
       </c>
@@ -16710,7 +16989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="142" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A142" s="2" t="s">
         <v>133</v>
       </c>
@@ -16727,7 +17006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="143" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A143" s="2" t="s">
         <v>604</v>
       </c>
@@ -16744,7 +17023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="144" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A144" s="2" t="s">
         <v>540</v>
       </c>
@@ -16761,7 +17040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15" thickBot="1">
+    <row r="145" spans="1:5" hidden="1">
       <c r="A145" s="2" t="s">
         <v>541</v>
       </c>
@@ -16778,7 +17057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15" thickBot="1">
+    <row r="146" spans="1:5" hidden="1">
       <c r="A146" s="1" t="s">
         <v>542</v>
       </c>
@@ -16795,7 +17074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15" thickBot="1">
+    <row r="147" spans="1:5" hidden="1">
       <c r="A147" s="1" t="s">
         <v>556</v>
       </c>
@@ -16812,7 +17091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15" thickBot="1">
+    <row r="148" spans="1:5" hidden="1">
       <c r="A148" s="2" t="s">
         <v>250</v>
       </c>
@@ -16829,7 +17108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15" thickBot="1">
+    <row r="149" spans="1:5" hidden="1">
       <c r="A149" s="2" t="s">
         <v>251</v>
       </c>
@@ -16846,7 +17125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15" thickBot="1">
+    <row r="150" spans="1:5" hidden="1">
       <c r="A150" s="1" t="s">
         <v>557</v>
       </c>
@@ -16863,7 +17142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" thickBot="1">
+    <row r="151" spans="1:5" hidden="1">
       <c r="A151" s="1" t="s">
         <v>558</v>
       </c>
@@ -16880,7 +17159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" thickBot="1">
+    <row r="152" spans="1:5" hidden="1">
       <c r="A152" s="1" t="s">
         <v>559</v>
       </c>
@@ -16897,7 +17176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" thickBot="1">
+    <row r="153" spans="1:5" hidden="1">
       <c r="A153" s="1" t="s">
         <v>560</v>
       </c>
@@ -16914,7 +17193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" thickBot="1">
+    <row r="154" spans="1:5" hidden="1">
       <c r="A154" s="1" t="s">
         <v>265</v>
       </c>
@@ -16931,7 +17210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" thickBot="1">
+    <row r="155" spans="1:5" hidden="1">
       <c r="A155" s="2" t="s">
         <v>282</v>
       </c>
@@ -16948,7 +17227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" thickBot="1">
+    <row r="156" spans="1:5" hidden="1">
       <c r="A156" s="2" t="s">
         <v>294</v>
       </c>
@@ -16965,7 +17244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="157" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A157" s="2" t="s">
         <v>389</v>
       </c>
@@ -16982,7 +17261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" thickBot="1">
+    <row r="158" spans="1:5" hidden="1">
       <c r="A158" s="2" t="s">
         <v>407</v>
       </c>
@@ -16999,7 +17278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15" thickBot="1">
+    <row r="159" spans="1:5" hidden="1">
       <c r="A159" s="2" t="s">
         <v>269</v>
       </c>
@@ -17016,7 +17295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15" thickBot="1">
+    <row r="160" spans="1:5" hidden="1">
       <c r="A160" s="2" t="s">
         <v>271</v>
       </c>
@@ -17033,7 +17312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15" thickBot="1">
+    <row r="161" spans="1:5" hidden="1">
       <c r="A161" s="2" t="s">
         <v>637</v>
       </c>
@@ -17050,7 +17329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" thickBot="1">
+    <row r="162" spans="1:5" hidden="1">
       <c r="A162" s="2" t="s">
         <v>295</v>
       </c>
@@ -17067,7 +17346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" thickBot="1">
+    <row r="163" spans="1:5" hidden="1">
       <c r="A163" s="2" t="s">
         <v>638</v>
       </c>
@@ -17084,7 +17363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15" thickBot="1">
+    <row r="164" spans="1:5" hidden="1">
       <c r="A164" s="1" t="s">
         <v>639</v>
       </c>
@@ -17101,7 +17380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="165" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A165" s="2" t="s">
         <v>13</v>
       </c>
@@ -17118,7 +17397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15" thickBot="1">
+    <row r="166" spans="1:5" hidden="1">
       <c r="A166" s="2" t="s">
         <v>268</v>
       </c>
@@ -17135,7 +17414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15" thickBot="1">
+    <row r="167" spans="1:5" hidden="1">
       <c r="A167" s="2" t="s">
         <v>23</v>
       </c>
@@ -17152,7 +17431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" thickBot="1">
+    <row r="168" spans="1:5" hidden="1">
       <c r="A168" s="2" t="s">
         <v>424</v>
       </c>
@@ -17169,7 +17448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" thickBot="1">
+    <row r="169" spans="1:5" hidden="1">
       <c r="A169" s="2" t="s">
         <v>372</v>
       </c>
@@ -17186,7 +17465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15" thickBot="1">
+    <row r="170" spans="1:5" hidden="1">
       <c r="A170" s="2" t="s">
         <v>104</v>
       </c>
@@ -17203,7 +17482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="171" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="2" t="s">
         <v>152</v>
       </c>
@@ -17220,7 +17499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" thickBot="1">
+    <row r="172" spans="1:5" hidden="1">
       <c r="A172" s="2" t="s">
         <v>153</v>
       </c>
@@ -17237,7 +17516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" thickBot="1">
+    <row r="173" spans="1:5" hidden="1">
       <c r="A173" s="1" t="s">
         <v>587</v>
       </c>
@@ -17254,7 +17533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="174" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="2" t="s">
         <v>227</v>
       </c>
@@ -17271,7 +17550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="175" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A175" s="2" t="s">
         <v>242</v>
       </c>
@@ -17288,7 +17567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="176" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A176" s="2" t="s">
         <v>430</v>
       </c>
@@ -17305,7 +17584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" thickBot="1">
+    <row r="177" spans="1:5" hidden="1">
       <c r="A177" s="2" t="s">
         <v>305</v>
       </c>
@@ -17322,7 +17601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15" thickBot="1">
+    <row r="178" spans="1:5" hidden="1">
       <c r="A178" s="2" t="s">
         <v>490</v>
       </c>
@@ -17339,7 +17618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15" thickBot="1">
+    <row r="179" spans="1:5" hidden="1">
       <c r="A179" s="1" t="s">
         <v>549</v>
       </c>
@@ -17356,7 +17635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15" thickBot="1">
+    <row r="180" spans="1:5" hidden="1">
       <c r="A180" s="2" t="s">
         <v>302</v>
       </c>
@@ -17373,7 +17652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15" thickBot="1">
+    <row r="181" spans="1:5" hidden="1">
       <c r="A181" s="2" t="s">
         <v>301</v>
       </c>
@@ -17390,7 +17669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="182" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A182" s="2" t="s">
         <v>550</v>
       </c>
@@ -17407,7 +17686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" thickBot="1">
+    <row r="183" spans="1:5" hidden="1">
       <c r="A183" s="1" t="s">
         <v>552</v>
       </c>
@@ -17424,7 +17703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="184" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A184" s="2" t="s">
         <v>640</v>
       </c>
@@ -17441,7 +17720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" thickBot="1">
+    <row r="185" spans="1:5" hidden="1">
       <c r="A185" s="2" t="s">
         <v>641</v>
       </c>
@@ -17458,7 +17737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="186" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A186" s="2" t="s">
         <v>642</v>
       </c>
@@ -17475,7 +17754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15" thickBot="1">
+    <row r="187" spans="1:5" hidden="1">
       <c r="A187" s="2" t="s">
         <v>643</v>
       </c>
@@ -17492,7 +17771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15" thickBot="1">
+    <row r="188" spans="1:5" hidden="1">
       <c r="A188" s="2" t="s">
         <v>442</v>
       </c>
@@ -17509,7 +17788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" thickBot="1">
+    <row r="189" spans="1:5" hidden="1">
       <c r="A189" s="1" t="s">
         <v>644</v>
       </c>
@@ -17526,7 +17805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" thickBot="1">
+    <row r="190" spans="1:5" hidden="1">
       <c r="A190" s="1" t="s">
         <v>645</v>
       </c>
@@ -17543,7 +17822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15" thickBot="1">
+    <row r="191" spans="1:5" hidden="1">
       <c r="A191" s="1" t="s">
         <v>646</v>
       </c>
@@ -17560,7 +17839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    <row r="192" spans="1:5" ht="28.2" hidden="1" customHeight="1" thickBot="1">
       <c r="A192" s="2" t="s">
         <v>283</v>
       </c>
@@ -17577,7 +17856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15" thickBot="1">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" s="2" t="s">
         <v>647</v>
       </c>
@@ -17594,7 +17873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15" thickBot="1">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" s="2" t="s">
         <v>648</v>
       </c>
@@ -17611,7 +17890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15" thickBot="1">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" s="2" t="s">
         <v>118</v>
       </c>
@@ -17628,7 +17907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" thickBot="1">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" s="2" t="s">
         <v>88</v>
       </c>
@@ -17645,7 +17924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15" thickBot="1">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" s="2" t="s">
         <v>119</v>
       </c>
@@ -17662,7 +17941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15" thickBot="1">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" s="2" t="s">
         <v>649</v>
       </c>
@@ -17679,7 +17958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" s="1" t="s">
         <v>650</v>
       </c>
@@ -17696,104 +17975,5421 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="200" spans="1:5" hidden="1"/>
+    <row r="201" spans="1:5" hidden="1"/>
+    <row r="202" spans="1:5" hidden="1"/>
+    <row r="203" spans="1:5" hidden="1"/>
+    <row r="204" spans="1:5" hidden="1"/>
+    <row r="205" spans="1:5" hidden="1"/>
+    <row r="206" spans="1:5" hidden="1"/>
+    <row r="207" spans="1:5" hidden="1"/>
+    <row r="208" spans="1:5" hidden="1"/>
+    <row r="209" spans="1:5" hidden="1"/>
+    <row r="210" spans="1:5" hidden="1"/>
+    <row r="211" spans="1:5" hidden="1"/>
+    <row r="212" spans="1:5" hidden="1"/>
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="D213" s="14"/>
       <c r="E213" s="14"/>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="D214" s="14"/>
       <c r="E214" s="14"/>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="D215" s="14"/>
       <c r="E215" s="14"/>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="D216" s="14"/>
       <c r="E216" s="14"/>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="D217" s="14"/>
       <c r="E217" s="14"/>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="D218" s="14"/>
       <c r="E218" s="14"/>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="D219" s="14"/>
       <c r="E219" s="14"/>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="D222" s="14"/>
       <c r="E222" s="14"/>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="D223" s="14"/>
       <c r="E223" s="14"/>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" hidden="1">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="D225" s="14"/>
       <c r="E225" s="14"/>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" hidden="1">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="D226" s="14"/>
       <c r="E226" s="14"/>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" hidden="1">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="D227" s="14"/>
       <c r="E227" s="14"/>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" hidden="1">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="D228" s="14"/>
       <c r="E228" s="14"/>
     </row>
+    <row r="229" spans="1:5" hidden="1"/>
+    <row r="230" spans="1:5" hidden="1"/>
+    <row r="231" spans="1:5" hidden="1"/>
+    <row r="232" spans="1:5" hidden="1"/>
+    <row r="233" spans="1:5" hidden="1"/>
+    <row r="234" spans="1:5" hidden="1"/>
+    <row r="235" spans="1:5" hidden="1"/>
+    <row r="236" spans="1:5" hidden="1"/>
+    <row r="237" spans="1:5" hidden="1"/>
+    <row r="238" spans="1:5" hidden="1"/>
+    <row r="239" spans="1:5" hidden="1"/>
+    <row r="240" spans="1:5" hidden="1"/>
+    <row r="241" hidden="1"/>
+    <row r="242" hidden="1"/>
+    <row r="243" hidden="1"/>
+    <row r="244" hidden="1"/>
+    <row r="245" hidden="1"/>
+    <row r="246" hidden="1"/>
+    <row r="247" hidden="1"/>
+    <row r="248" hidden="1"/>
+    <row r="249" hidden="1"/>
+    <row r="250" hidden="1"/>
+    <row r="251" hidden="1"/>
+    <row r="252" hidden="1"/>
+    <row r="253" hidden="1"/>
+    <row r="254" hidden="1"/>
+    <row r="255" hidden="1"/>
+    <row r="256" hidden="1"/>
+    <row r="257" hidden="1"/>
+    <row r="258" hidden="1"/>
+    <row r="259" hidden="1"/>
+    <row r="260" hidden="1"/>
+    <row r="261" hidden="1"/>
+    <row r="262" hidden="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
+    <row r="277" hidden="1"/>
+    <row r="278" hidden="1"/>
+    <row r="279" hidden="1"/>
+    <row r="280" hidden="1"/>
+    <row r="281" hidden="1"/>
+    <row r="282" hidden="1"/>
+    <row r="283" hidden="1"/>
+    <row r="284" hidden="1"/>
+    <row r="285" hidden="1"/>
+    <row r="286" hidden="1"/>
+    <row r="287" hidden="1"/>
+    <row r="288" hidden="1"/>
+    <row r="289" hidden="1"/>
+    <row r="290" hidden="1"/>
+    <row r="291" hidden="1"/>
+    <row r="292" hidden="1"/>
+    <row r="293" hidden="1"/>
+    <row r="294" hidden="1"/>
+    <row r="295" hidden="1"/>
+    <row r="296" hidden="1"/>
+    <row r="297" hidden="1"/>
+    <row r="298" hidden="1"/>
+    <row r="299" hidden="1"/>
+    <row r="300" hidden="1"/>
+    <row r="301" hidden="1"/>
+    <row r="302" hidden="1"/>
+    <row r="303" hidden="1"/>
+    <row r="304" hidden="1"/>
+    <row r="305" hidden="1"/>
+    <row r="306" hidden="1"/>
+    <row r="307" hidden="1"/>
+    <row r="308" hidden="1"/>
+    <row r="309" hidden="1"/>
+    <row r="310" hidden="1"/>
+    <row r="311" hidden="1"/>
+    <row r="312" hidden="1"/>
+    <row r="313" hidden="1"/>
+    <row r="314" hidden="1"/>
+    <row r="315" hidden="1"/>
+    <row r="316" hidden="1"/>
+    <row r="317" hidden="1"/>
+    <row r="318" hidden="1"/>
+    <row r="319" hidden="1"/>
+    <row r="320" hidden="1"/>
+    <row r="321" hidden="1"/>
+    <row r="322" hidden="1"/>
+    <row r="323" hidden="1"/>
+    <row r="324" hidden="1"/>
+    <row r="325" hidden="1"/>
+    <row r="326" hidden="1"/>
+    <row r="327" hidden="1"/>
+    <row r="328" hidden="1"/>
+    <row r="329" hidden="1"/>
+    <row r="330" hidden="1"/>
+    <row r="331" hidden="1"/>
+    <row r="332" hidden="1"/>
+    <row r="333" hidden="1"/>
+    <row r="334" hidden="1"/>
   </sheetData>
-  <autoFilter ref="A1:E334" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}"/>
+  <autoFilter ref="A1:E334" xr:uid="{4035D8FF-9B44-4359-B485-AD19C891547A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Nickeil Alexander-Walker"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167D3554-D162-4FE8-903A-D6A740A61C54}">
+  <dimension ref="A1:E304"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="6">
+        <v>55.1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D3" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="E3" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D4" s="6">
+        <v>47.7</v>
+      </c>
+      <c r="E4" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D5" s="6">
+        <v>51.6</v>
+      </c>
+      <c r="E5" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D6" s="6">
+        <v>41.7</v>
+      </c>
+      <c r="E6" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D7" s="6">
+        <v>46.6</v>
+      </c>
+      <c r="E7" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D8" s="6">
+        <v>41.8</v>
+      </c>
+      <c r="E8" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44.9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D10" s="6">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E10" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D11" s="6">
+        <v>46.6</v>
+      </c>
+      <c r="E11" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D12" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="E12" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D14" s="6">
+        <v>40.6</v>
+      </c>
+      <c r="E14" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D15" s="6">
+        <v>33.5</v>
+      </c>
+      <c r="E15" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45.2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D17" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D18" s="6">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E18" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D19" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="E19" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42.1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D21" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="E21" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45.1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D23" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="E23" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D24" s="6">
+        <v>36.6</v>
+      </c>
+      <c r="E24" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D25" s="6">
+        <v>39</v>
+      </c>
+      <c r="E25" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D26" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="E26" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D27" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="E27" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D28" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D29" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="E29" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D30" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D31" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D32" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="E32" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D33" s="6">
+        <v>30.7</v>
+      </c>
+      <c r="E33" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D34" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E34" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D35" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E35" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D36" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="E36" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D37" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="E37" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D38" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E38" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D39" s="6">
+        <v>34.6</v>
+      </c>
+      <c r="E39" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D40" s="6">
+        <v>27.3</v>
+      </c>
+      <c r="E40" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D41" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="E41" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D42" s="6">
+        <v>30.4</v>
+      </c>
+      <c r="E42" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D43" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="E43" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D44" s="6">
+        <v>29</v>
+      </c>
+      <c r="E44" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D45" s="6">
+        <v>28.7</v>
+      </c>
+      <c r="E45" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D46" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="E46" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D47" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E47" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D48" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D49" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="E49" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D50" s="6">
+        <v>29</v>
+      </c>
+      <c r="E50" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" s="6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E51" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D52" s="6">
+        <v>31.8</v>
+      </c>
+      <c r="E52" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D53" s="6">
+        <v>27.4</v>
+      </c>
+      <c r="E53" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D54" s="6">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E54" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D55" s="6">
+        <v>27.3</v>
+      </c>
+      <c r="E55" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D56" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="E56" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D57" s="6">
+        <v>21.7</v>
+      </c>
+      <c r="E57" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D58" s="6">
+        <v>27.3</v>
+      </c>
+      <c r="E58" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D59" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="E59" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D60" s="6">
+        <v>28.9</v>
+      </c>
+      <c r="E60" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D61" s="6">
+        <v>27.8</v>
+      </c>
+      <c r="E61" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D62" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="E62" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D63" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="E63" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D64" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="E64" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D65" s="6">
+        <v>29.3</v>
+      </c>
+      <c r="E65" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D66" s="6">
+        <v>27.3</v>
+      </c>
+      <c r="E66" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D67" s="6">
+        <v>28</v>
+      </c>
+      <c r="E67" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D68" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="E68" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D69" s="6">
+        <v>26.7</v>
+      </c>
+      <c r="E69" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D70" s="6">
+        <v>31.1</v>
+      </c>
+      <c r="E70" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D71" s="6">
+        <v>27.8</v>
+      </c>
+      <c r="E71" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D72" s="6">
+        <v>27.1</v>
+      </c>
+      <c r="E72" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D73" s="6">
+        <v>21.4</v>
+      </c>
+      <c r="E73" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D74" s="6">
+        <v>21.9</v>
+      </c>
+      <c r="E74" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D75" s="6">
+        <v>27.9</v>
+      </c>
+      <c r="E75" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D76" s="6">
+        <v>26</v>
+      </c>
+      <c r="E76" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D77" s="6">
+        <v>23.6</v>
+      </c>
+      <c r="E77" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D78" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="E78" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D79" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="E79" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D80" s="6">
+        <v>21.3</v>
+      </c>
+      <c r="E80" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D81" s="6">
+        <v>20.7</v>
+      </c>
+      <c r="E81" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D82" s="6">
+        <v>23.1</v>
+      </c>
+      <c r="E82" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D83" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="E83" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D84" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="E84" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D85" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="E85" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D86" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="E86" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D87" s="6">
+        <v>24.7</v>
+      </c>
+      <c r="E87" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D88" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="E88" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D89" s="6">
+        <v>16</v>
+      </c>
+      <c r="E89" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D90" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="E90" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D91" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="E91" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D92" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="E92" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D93" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E93" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D94" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E94" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D95" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="E95" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D96" s="6">
+        <v>20.2</v>
+      </c>
+      <c r="E96" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D97" s="6">
+        <v>19.2</v>
+      </c>
+      <c r="E97" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D98" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="E98" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D99" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="E99" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D100" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="E100" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D101" s="6">
+        <v>22.7</v>
+      </c>
+      <c r="E101" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D102" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="E102" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D103" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="E103" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D104" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E104" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D105" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="E105" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D106" s="6">
+        <v>26.4</v>
+      </c>
+      <c r="E106" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D107" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E107" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D108" s="6">
+        <v>19</v>
+      </c>
+      <c r="E108" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D109" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E109" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D110" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="E110" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D111" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="E111" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D112" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="E112" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D113" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="E113" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D114" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="E114" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D115" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="E115" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D116" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="E116" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D117" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="E117" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D118" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="E118" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D119" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="E119" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D120" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="E120" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D121" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E121" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D122" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="E122" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D123" s="6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E123" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D124" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="E124" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D125" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E125" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D126" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="E126" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D127" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="E127" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D128" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="E128" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D129" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E129" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D130" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E130" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D131" s="6">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E131" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D132" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="E132" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D133" s="6">
+        <v>12</v>
+      </c>
+      <c r="E133" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D134" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E134" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D135" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="E135" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D136" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E136" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D137" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E137" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1">
+      <c r="A138" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D138" s="6">
+        <v>0</v>
+      </c>
+      <c r="E138" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" thickBot="1">
+      <c r="A139" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D139" s="6">
+        <v>0</v>
+      </c>
+      <c r="E139" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D140" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="E140" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D141" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E141" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D142" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E142" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D143" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E143" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D144" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E144" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D145" s="6">
+        <v>17</v>
+      </c>
+      <c r="E145" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D146" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E146" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" thickBot="1">
+      <c r="A147" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0</v>
+      </c>
+      <c r="E147" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D148" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E148" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1">
+      <c r="A149" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0</v>
+      </c>
+      <c r="E149" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E150" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D151" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E151" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D152" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E152" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D153" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="E153" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D154" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E154" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D155" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E155" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" thickBot="1">
+      <c r="A156" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0</v>
+      </c>
+      <c r="E156" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D157" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="E157" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D158" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E158" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D159" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E159" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" thickBot="1">
+      <c r="A160" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D160" s="6">
+        <v>0</v>
+      </c>
+      <c r="E160" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D161" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E161" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D162" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="E162" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" thickBot="1">
+      <c r="A163" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D163" s="6">
+        <v>0</v>
+      </c>
+      <c r="E163" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D164" s="6">
+        <v>16</v>
+      </c>
+      <c r="E164" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D165" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E165" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D166" s="6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E166" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D167" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E167" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D168" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E168" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D169" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="E169" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1">
+      <c r="A170" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D170" s="6">
+        <v>2</v>
+      </c>
+      <c r="E170" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D171" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E171" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" thickBot="1">
+      <c r="A172" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D172" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E172" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D173" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="E173" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D174" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E174" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D175" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E175" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D176" s="6">
+        <v>9</v>
+      </c>
+      <c r="E176" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D177" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="E177" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D178" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E178" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D179" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="E179" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D180" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="E180" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" thickBot="1">
+      <c r="A181" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D181" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E181" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" thickBot="1">
+      <c r="A182" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D182" s="6">
+        <v>0</v>
+      </c>
+      <c r="E182" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D183" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="E183" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D184" s="6">
+        <v>20</v>
+      </c>
+      <c r="E184" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D185" s="6">
+        <v>26.4</v>
+      </c>
+      <c r="E185" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D186" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="E186" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D187" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E187" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D188" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E188" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" thickBot="1">
+      <c r="A189" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D189" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E189" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D190" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E190" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" thickBot="1">
+      <c r="A191" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D191" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E191" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15" thickBot="1">
+      <c r="A192" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D192" s="6">
+        <v>0</v>
+      </c>
+      <c r="E192" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D193" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="E193" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1">
+      <c r="A194" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D194" s="6">
+        <v>0</v>
+      </c>
+      <c r="E194" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D195" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E195" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D196" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E196" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D197" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E197" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D198" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E198" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" thickBot="1">
+      <c r="A199" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D199" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E199" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" thickBot="1">
+      <c r="A200" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D200" s="6">
+        <v>0</v>
+      </c>
+      <c r="E200" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" thickBot="1">
+      <c r="A201" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D201" s="6">
+        <v>0</v>
+      </c>
+      <c r="E201" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D202" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E202" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" thickBot="1">
+      <c r="A203" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D203" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E203" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D204" s="6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E204" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" thickBot="1">
+      <c r="A205" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D205" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E205" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" thickBot="1">
+      <c r="A206" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D206" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E206" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" thickBot="1">
+      <c r="A207" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D207" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="E207" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" thickBot="1">
+      <c r="A208" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D208" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="E208" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A209" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D209" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E209" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" thickBot="1">
+      <c r="A210" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D210" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E210" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" thickBot="1">
+      <c r="A211" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D211" s="6">
+        <v>0</v>
+      </c>
+      <c r="E211" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" thickBot="1">
+      <c r="A212" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D212" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="E212" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" thickBot="1">
+      <c r="A213" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D213" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="E213" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" thickBot="1">
+      <c r="A214" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D214" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="E214" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" thickBot="1">
+      <c r="A215" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D215" s="6">
+        <v>0</v>
+      </c>
+      <c r="E215" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" thickBot="1">
+      <c r="A216" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D216" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E216" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" thickBot="1">
+      <c r="A217" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D217" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="E217" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" thickBot="1">
+      <c r="A218" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D218" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="E218" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" thickBot="1">
+      <c r="A219" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D219" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E219" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" thickBot="1">
+      <c r="A220" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D220" s="6">
+        <v>3</v>
+      </c>
+      <c r="E220" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" thickBot="1">
+      <c r="A221" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D221" s="6">
+        <v>1</v>
+      </c>
+      <c r="E221" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" thickBot="1">
+      <c r="A222" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D222" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E222" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" thickBot="1">
+      <c r="A223" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D223" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="E223" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" thickBot="1">
+      <c r="A224" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D224" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E224" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" thickBot="1">
+      <c r="A225" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D225" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E225" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A226" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D226" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="E226" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15" thickBot="1">
+      <c r="A227" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D227" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E227" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" thickBot="1">
+      <c r="A228" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D228" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="E228" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A229" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D229" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E229" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A230" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D230" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E230" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A231" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D231" s="6">
+        <v>45.7</v>
+      </c>
+      <c r="E231" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" thickBot="1">
+      <c r="A232" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D232" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="E232" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A233" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D233" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E233" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15" thickBot="1">
+      <c r="A234" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D234" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E234" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" thickBot="1">
+      <c r="A235" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D235" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E235" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" thickBot="1">
+      <c r="A236" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D236" s="6">
+        <v>0</v>
+      </c>
+      <c r="E236" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15" thickBot="1">
+      <c r="A237" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D237" s="6">
+        <v>0</v>
+      </c>
+      <c r="E237" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15" thickBot="1">
+      <c r="A238" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D238" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E238" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" thickBot="1">
+      <c r="A239" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D239" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="E239" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15" thickBot="1">
+      <c r="A240" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D240" s="6">
+        <v>2</v>
+      </c>
+      <c r="E240" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" thickBot="1">
+      <c r="A241" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D241" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="E241" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A242" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D242" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E242" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15" thickBot="1">
+      <c r="A243" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D243" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E243" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15" thickBot="1">
+      <c r="A244" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D244" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E244" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15" thickBot="1">
+      <c r="A245" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D245" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E245" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A246" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D246" s="6">
+        <v>16</v>
+      </c>
+      <c r="E246" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15" thickBot="1">
+      <c r="A247" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D247" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E247" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15" thickBot="1">
+      <c r="A248" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D248" s="6">
+        <v>2</v>
+      </c>
+      <c r="E248" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A249" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D249" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="E249" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15" thickBot="1">
+      <c r="A250" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D250" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="E250" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15" thickBot="1">
+      <c r="A251" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D251" s="6">
+        <v>0</v>
+      </c>
+      <c r="E251" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A252" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D252" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="E252" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15" thickBot="1">
+      <c r="A253" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D253" s="6">
+        <v>14</v>
+      </c>
+      <c r="E253" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15" thickBot="1">
+      <c r="A254" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D254" s="6">
+        <v>5</v>
+      </c>
+      <c r="E254" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15" thickBot="1">
+      <c r="A255" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D255" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E255" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15" thickBot="1">
+      <c r="A256" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D256" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E256" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15" thickBot="1">
+      <c r="A257" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D257" s="6">
+        <v>0</v>
+      </c>
+      <c r="E257" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15" thickBot="1">
+      <c r="A258" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D258" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E258" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15" thickBot="1">
+      <c r="A259" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D259" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E259" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15" thickBot="1">
+      <c r="A260" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D260" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E260" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A261" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D261" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E261" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15" thickBot="1">
+      <c r="A262" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D262" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="E262" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15" thickBot="1">
+      <c r="A263" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D263" s="6">
+        <v>0</v>
+      </c>
+      <c r="E263" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15" thickBot="1">
+      <c r="A264" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D264" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E264" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15" thickBot="1">
+      <c r="A265" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D265" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="E265" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15" thickBot="1">
+      <c r="A266" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D266" s="6">
+        <v>3</v>
+      </c>
+      <c r="E266" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15" thickBot="1">
+      <c r="A267" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D267" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E267" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15" thickBot="1">
+      <c r="A268" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D268" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E268" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15" thickBot="1">
+      <c r="A269" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D269" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E269" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15" thickBot="1">
+      <c r="A270" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D270" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E270" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15" thickBot="1">
+      <c r="A271" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D271" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E271" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15" thickBot="1">
+      <c r="A272" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D272" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="E272" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15" thickBot="1">
+      <c r="A273" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D273" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E273" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15" thickBot="1">
+      <c r="A274" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D274" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E274" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15" thickBot="1">
+      <c r="A275" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D275" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="E275" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15" thickBot="1">
+      <c r="A276" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D276" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E276" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15" thickBot="1">
+      <c r="A277" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D277" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E277" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15" thickBot="1">
+      <c r="A278" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D278" s="6">
+        <v>0</v>
+      </c>
+      <c r="E278" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15" thickBot="1">
+      <c r="A279" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D279" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E279" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A280" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D280" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="E280" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15" thickBot="1">
+      <c r="A281" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D281" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E281" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15" thickBot="1">
+      <c r="A282" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D282" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="E282" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15" thickBot="1">
+      <c r="A283" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D283" s="6">
+        <v>0</v>
+      </c>
+      <c r="E283" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A284" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D284" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="E284" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A285" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D285" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="E285" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15" thickBot="1">
+      <c r="A286" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D286" s="6">
+        <v>16</v>
+      </c>
+      <c r="E286" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15" thickBot="1">
+      <c r="A287" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D287" s="6">
+        <v>16.3</v>
+      </c>
+      <c r="E287" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A288" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D288" s="6">
+        <v>22.1</v>
+      </c>
+      <c r="E288" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15" thickBot="1">
+      <c r="A289" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D289" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="E289" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15" thickBot="1">
+      <c r="A290" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D290" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E290" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15" thickBot="1">
+      <c r="A291" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D291" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="E291" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15" thickBot="1">
+      <c r="A292" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D292" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="E292" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15" thickBot="1">
+      <c r="A293" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D293" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E293" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15" thickBot="1">
+      <c r="A294" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D294" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E294" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15" thickBot="1">
+      <c r="A295" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D295" s="6">
+        <v>0</v>
+      </c>
+      <c r="E295" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15" thickBot="1">
+      <c r="A296" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D296" s="6">
+        <v>15</v>
+      </c>
+      <c r="E296" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A297" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D297" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E297" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15" thickBot="1">
+      <c r="A298" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D298" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E298" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="15" thickBot="1">
+      <c r="A299" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D299" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="E299" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15" thickBot="1">
+      <c r="A300" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D300" s="6">
+        <v>17</v>
+      </c>
+      <c r="E300" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="15" thickBot="1">
+      <c r="A301" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B301" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D301" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E301" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15" thickBot="1">
+      <c r="A302" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D302" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="E302" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15" thickBot="1">
+      <c r="A303" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D303" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E303" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D304" s="6">
+        <v>0</v>
+      </c>
+      <c r="E304" s="7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E440" xr:uid="{167D3554-D162-4FE8-903A-D6A740A61C54}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039A86B-520D-4D61-A6FC-1DBC5EDC2A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135ED7BD-610E-4598-93E8-FB7842F233AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="740">
   <si>
     <t>PG</t>
   </si>
@@ -2028,9 +2028,6 @@
     <t>MEM @ WAS, Tomorrow, 7:00 PM</t>
   </si>
   <si>
-    <t>LaMelo BallGTD</t>
-  </si>
-  <si>
     <t>CHA @ SAC, Tomorrow, 10:00 PM</t>
   </si>
   <si>
@@ -2097,9 +2094,6 @@
     <t>Lauri MarkkanenINJ</t>
   </si>
   <si>
-    <t>PJ WashingtonGTD</t>
-  </si>
-  <si>
     <t>Kevin LoveINJ</t>
   </si>
   <si>
@@ -2124,12 +2118,6 @@
     <t>Chuma Okeke</t>
   </si>
   <si>
-    <t>Herbert JonesGTD</t>
-  </si>
-  <si>
-    <t>Gary Payton IIGTD</t>
-  </si>
-  <si>
     <t>Nicolas ClaxtonINJ</t>
   </si>
   <si>
@@ -2262,9 +2250,6 @@
     <t>E'Twaun MooreINJ</t>
   </si>
   <si>
-    <t>Gary HarrisGTD</t>
-  </si>
-  <si>
     <t>Mychal Mulder</t>
   </si>
   <si>
@@ -2275,6 +2260,9 @@
   </si>
   <si>
     <t>Kelan Martin</t>
+  </si>
+  <si>
+    <t>Gary Payton II</t>
   </si>
 </sst>
 </file>
@@ -18208,7 +18196,7 @@
   <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18443,13 +18431,13 @@
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1">
       <c r="A14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="D14" s="6">
         <v>40.6</v>
@@ -18466,7 +18454,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D15" s="6">
         <v>33.5</v>
@@ -18483,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D16" s="6">
         <v>45.2</v>
@@ -18517,7 +18505,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D18" s="6">
         <v>38.700000000000003</v>
@@ -18528,7 +18516,7 @@
     </row>
     <row r="19" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>2</v>
@@ -18568,7 +18556,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D21" s="6">
         <v>39.9</v>
@@ -18585,7 +18573,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D22" s="6">
         <v>45.1</v>
@@ -18619,7 +18607,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D24" s="6">
         <v>36.6</v>
@@ -18647,7 +18635,7 @@
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>3</v>
@@ -18664,7 +18652,7 @@
     </row>
     <row r="27" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
@@ -18687,7 +18675,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D28" s="6">
         <v>39.1</v>
@@ -18704,7 +18692,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D29" s="6">
         <v>31.9</v>
@@ -18738,7 +18726,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D31" s="6">
         <v>32.1</v>
@@ -18766,7 +18754,7 @@
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>1</v>
@@ -18783,7 +18771,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" thickBot="1">
       <c r="A34" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>3</v>
@@ -18806,7 +18794,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D35" s="6">
         <v>32.700000000000003</v>
@@ -18823,7 +18811,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D36" s="6">
         <v>35.9</v>
@@ -18834,7 +18822,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1">
       <c r="A37" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>0</v>
@@ -18851,13 +18839,13 @@
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D38" s="6">
         <v>33.700000000000003</v>
@@ -18874,7 +18862,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D39" s="6">
         <v>34.6</v>
@@ -18885,7 +18873,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>1</v>
@@ -18908,7 +18896,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D41" s="6">
         <v>33.6</v>
@@ -18942,7 +18930,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D43" s="6">
         <v>30.8</v>
@@ -19027,7 +19015,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D48" s="6">
         <v>30.1</v>
@@ -19044,7 +19032,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D49" s="6">
         <v>24.3</v>
@@ -19061,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D50" s="6">
         <v>29</v>
@@ -19072,7 +19060,7 @@
     </row>
     <row r="51" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>1</v>
@@ -19112,7 +19100,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D53" s="6">
         <v>27.4</v>
@@ -19129,7 +19117,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D54" s="6">
         <v>33.200000000000003</v>
@@ -19140,7 +19128,7 @@
     </row>
     <row r="55" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>3</v>
@@ -19180,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D57" s="6">
         <v>21.7</v>
@@ -19208,7 +19196,7 @@
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>1</v>
@@ -19225,7 +19213,7 @@
     </row>
     <row r="60" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>1</v>
@@ -19316,7 +19304,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D65" s="6">
         <v>29.3</v>
@@ -19327,7 +19315,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" thickBot="1">
       <c r="A66" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>4</v>
@@ -19344,7 +19332,7 @@
     </row>
     <row r="67" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>1</v>
@@ -19367,7 +19355,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D68" s="6">
         <v>24.9</v>
@@ -19384,7 +19372,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D69" s="6">
         <v>26.7</v>
@@ -19401,7 +19389,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D70" s="6">
         <v>31.1</v>
@@ -19418,7 +19406,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D71" s="6">
         <v>27.8</v>
@@ -19446,7 +19434,7 @@
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1">
       <c r="A73" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>4</v>
@@ -19463,7 +19451,7 @@
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>2</v>
@@ -19480,7 +19468,7 @@
     </row>
     <row r="75" spans="1:5" ht="15" thickBot="1">
       <c r="A75" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>2</v>
@@ -19497,7 +19485,7 @@
     </row>
     <row r="76" spans="1:5" ht="15" thickBot="1">
       <c r="A76" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>4</v>
@@ -19537,7 +19525,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D78" s="6">
         <v>22.8</v>
@@ -19548,13 +19536,13 @@
     </row>
     <row r="79" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A79" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D79" s="6">
         <v>28.4</v>
@@ -19565,13 +19553,13 @@
     </row>
     <row r="80" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A80" s="2" t="s">
-        <v>684</v>
+        <v>212</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D80" s="6">
         <v>21.3</v>
@@ -19605,7 +19593,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D82" s="6">
         <v>23.1</v>
@@ -19633,13 +19621,13 @@
     </row>
     <row r="84" spans="1:5" ht="15" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D84" s="6">
         <v>22.5</v>
@@ -19650,7 +19638,7 @@
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1">
       <c r="A85" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>2</v>
@@ -19724,7 +19712,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D89" s="6">
         <v>16</v>
@@ -19741,7 +19729,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D90" s="6">
         <v>25.8</v>
@@ -19758,7 +19746,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D91" s="6">
         <v>22.2</v>
@@ -19769,7 +19757,7 @@
     </row>
     <row r="92" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A92" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>3</v>
@@ -19809,7 +19797,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D94" s="6">
         <v>19.5</v>
@@ -19820,7 +19808,7 @@
     </row>
     <row r="95" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A95" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>3</v>
@@ -19854,7 +19842,7 @@
     </row>
     <row r="97" spans="1:5" ht="15" thickBot="1">
       <c r="A97" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>1</v>
@@ -19877,7 +19865,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D98" s="6">
         <v>15.3</v>
@@ -19894,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D99" s="6">
         <v>22.3</v>
@@ -19905,13 +19893,13 @@
     </row>
     <row r="100" spans="1:5" ht="15" thickBot="1">
       <c r="A100" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D100" s="6">
         <v>16.2</v>
@@ -19979,7 +19967,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D104" s="6">
         <v>5.8</v>
@@ -19990,7 +19978,7 @@
     </row>
     <row r="105" spans="1:5" ht="15" thickBot="1">
       <c r="A105" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>1</v>
@@ -20132,7 +20120,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D113" s="6">
         <v>22.8</v>
@@ -20149,7 +20137,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D114" s="6">
         <v>24.4</v>
@@ -20160,13 +20148,13 @@
     </row>
     <row r="115" spans="1:5" ht="15" thickBot="1">
       <c r="A115" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D115" s="6">
         <v>12.4</v>
@@ -20183,7 +20171,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D116" s="6">
         <v>17.5</v>
@@ -20245,7 +20233,7 @@
     </row>
     <row r="120" spans="1:5" ht="15" thickBot="1">
       <c r="A120" s="2" t="s">
-        <v>693</v>
+        <v>551</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>2</v>
@@ -20262,7 +20250,7 @@
     </row>
     <row r="121" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A121" s="2" t="s">
-        <v>694</v>
+        <v>739</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>0</v>
@@ -20285,7 +20273,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D122" s="6">
         <v>22.2</v>
@@ -20353,7 +20341,7 @@
         <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D126" s="6">
         <v>15.4</v>
@@ -20370,7 +20358,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D127" s="6">
         <v>16.7</v>
@@ -20500,7 +20488,7 @@
     </row>
     <row r="135" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A135" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>4</v>
@@ -20585,7 +20573,7 @@
     </row>
     <row r="140" spans="1:5" ht="15" thickBot="1">
       <c r="A140" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>0</v>
@@ -20602,7 +20590,7 @@
     </row>
     <row r="141" spans="1:5" ht="15" thickBot="1">
       <c r="A141" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>2</v>
@@ -20619,7 +20607,7 @@
     </row>
     <row r="142" spans="1:5" ht="15" thickBot="1">
       <c r="A142" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>3</v>
@@ -20636,7 +20624,7 @@
     </row>
     <row r="143" spans="1:5" ht="15" thickBot="1">
       <c r="A143" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>0</v>
@@ -20704,7 +20692,7 @@
     </row>
     <row r="147" spans="1:5" ht="15" thickBot="1">
       <c r="A147" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>2</v>
@@ -20721,7 +20709,7 @@
     </row>
     <row r="148" spans="1:5" ht="15" thickBot="1">
       <c r="A148" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>4</v>
@@ -20738,7 +20726,7 @@
     </row>
     <row r="149" spans="1:5" ht="15" thickBot="1">
       <c r="A149" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>2</v>
@@ -20755,7 +20743,7 @@
     </row>
     <row r="150" spans="1:5" ht="15" thickBot="1">
       <c r="A150" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>2</v>
@@ -20857,7 +20845,7 @@
     </row>
     <row r="156" spans="1:5" ht="15" thickBot="1">
       <c r="A156" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>2</v>
@@ -20976,7 +20964,7 @@
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1">
       <c r="A163" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>1</v>
@@ -20993,7 +20981,7 @@
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1">
       <c r="A164" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>3</v>
@@ -21010,7 +20998,7 @@
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1">
       <c r="A165" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>4</v>
@@ -21027,7 +21015,7 @@
     </row>
     <row r="166" spans="1:5" ht="15" thickBot="1">
       <c r="A166" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>1</v>
@@ -21044,7 +21032,7 @@
     </row>
     <row r="167" spans="1:5" ht="15" thickBot="1">
       <c r="A167" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>0</v>
@@ -21061,7 +21049,7 @@
     </row>
     <row r="168" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A168" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>3</v>
@@ -21078,7 +21066,7 @@
     </row>
     <row r="169" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A169" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>4</v>
@@ -21095,7 +21083,7 @@
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1">
       <c r="A170" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>2</v>
@@ -21112,7 +21100,7 @@
     </row>
     <row r="171" spans="1:5" ht="15" thickBot="1">
       <c r="A171" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>2</v>
@@ -21129,7 +21117,7 @@
     </row>
     <row r="172" spans="1:5" ht="15" thickBot="1">
       <c r="A172" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>0</v>
@@ -21146,7 +21134,7 @@
     </row>
     <row r="173" spans="1:5" ht="15" thickBot="1">
       <c r="A173" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>0</v>
@@ -21163,7 +21151,7 @@
     </row>
     <row r="174" spans="1:5" ht="15" thickBot="1">
       <c r="A174" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>2</v>
@@ -21180,7 +21168,7 @@
     </row>
     <row r="175" spans="1:5" ht="15" thickBot="1">
       <c r="A175" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>3</v>
@@ -21197,7 +21185,7 @@
     </row>
     <row r="176" spans="1:5" ht="15" thickBot="1">
       <c r="A176" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>2</v>
@@ -21214,7 +21202,7 @@
     </row>
     <row r="177" spans="1:5" ht="15" thickBot="1">
       <c r="A177" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B177" s="8" t="s">
         <v>4</v>
@@ -21248,7 +21236,7 @@
     </row>
     <row r="179" spans="1:5" ht="15" thickBot="1">
       <c r="A179" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>4</v>
@@ -21265,7 +21253,7 @@
     </row>
     <row r="180" spans="1:5" ht="15" thickBot="1">
       <c r="A180" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>2</v>
@@ -21282,7 +21270,7 @@
     </row>
     <row r="181" spans="1:5" ht="15" thickBot="1">
       <c r="A181" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>3</v>
@@ -21299,7 +21287,7 @@
     </row>
     <row r="182" spans="1:5" ht="15" thickBot="1">
       <c r="A182" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>2</v>
@@ -21316,7 +21304,7 @@
     </row>
     <row r="183" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A183" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>3</v>
@@ -21401,7 +21389,7 @@
     </row>
     <row r="188" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A188" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>0</v>
@@ -21418,7 +21406,7 @@
     </row>
     <row r="189" spans="1:5" ht="15" thickBot="1">
       <c r="A189" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>2</v>
@@ -21492,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D193" s="6">
         <v>15.4</v>
@@ -21509,7 +21497,7 @@
         <v>2</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D194" s="6">
         <v>0</v>
@@ -21526,7 +21514,7 @@
         <v>3</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D195" s="6">
         <v>10.6</v>
@@ -21543,7 +21531,7 @@
         <v>4</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D196" s="6">
         <v>1.2</v>
@@ -21560,7 +21548,7 @@
         <v>4</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D197" s="6">
         <v>4.5</v>
@@ -21577,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D198" s="6">
         <v>0.4</v>
@@ -21594,7 +21582,7 @@
         <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D199" s="6">
         <v>-1</v>
@@ -21611,7 +21599,7 @@
         <v>3</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D200" s="6">
         <v>0</v>
@@ -21628,7 +21616,7 @@
         <v>1</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D201" s="6">
         <v>0</v>
@@ -21645,7 +21633,7 @@
         <v>4</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D202" s="6">
         <v>10.7</v>
@@ -21662,7 +21650,7 @@
         <v>2</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D203" s="6">
         <v>13.5</v>
@@ -21679,7 +21667,7 @@
         <v>4</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D204" s="6">
         <v>19.600000000000001</v>
@@ -21696,7 +21684,7 @@
         <v>4</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D205" s="6">
         <v>11.9</v>
@@ -21713,7 +21701,7 @@
         <v>3</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D206" s="6">
         <v>13.2</v>
@@ -21730,7 +21718,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D207" s="6">
         <v>6.8</v>
@@ -21747,7 +21735,7 @@
         <v>2</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D208" s="6">
         <v>17.5</v>
@@ -21764,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D209" s="6">
         <v>3.9</v>
@@ -21781,7 +21769,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D210" s="6">
         <v>5.6</v>
@@ -21798,7 +21786,7 @@
         <v>4</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D211" s="6">
         <v>0</v>
@@ -21809,7 +21797,7 @@
     </row>
     <row r="212" spans="1:5" ht="15" thickBot="1">
       <c r="A212" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>4</v>
@@ -21843,7 +21831,7 @@
     </row>
     <row r="214" spans="1:5" ht="15" thickBot="1">
       <c r="A214" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>4</v>
@@ -21996,7 +21984,7 @@
     </row>
     <row r="223" spans="1:5" ht="15" thickBot="1">
       <c r="A223" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B223" s="8" t="s">
         <v>2</v>
@@ -22030,7 +22018,7 @@
     </row>
     <row r="225" spans="1:5" ht="15" thickBot="1">
       <c r="A225" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>3</v>
@@ -22047,7 +22035,7 @@
     </row>
     <row r="226" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A226" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>1</v>
@@ -22098,7 +22086,7 @@
     </row>
     <row r="229" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A229" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>3</v>
@@ -22115,7 +22103,7 @@
     </row>
     <row r="230" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A230" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>2</v>
@@ -22217,7 +22205,7 @@
     </row>
     <row r="236" spans="1:5" ht="15" thickBot="1">
       <c r="A236" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>2</v>
@@ -22268,7 +22256,7 @@
     </row>
     <row r="239" spans="1:5" ht="15" thickBot="1">
       <c r="A239" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>2</v>
@@ -22370,7 +22358,7 @@
     </row>
     <row r="245" spans="1:5" ht="15" thickBot="1">
       <c r="A245" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>2</v>
@@ -22421,7 +22409,7 @@
     </row>
     <row r="248" spans="1:5" ht="15" thickBot="1">
       <c r="A248" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>0</v>
@@ -22444,7 +22432,7 @@
         <v>2</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D249" s="6">
         <v>12.8</v>
@@ -22461,7 +22449,7 @@
         <v>1</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D250" s="6">
         <v>6.9</v>
@@ -22478,7 +22466,7 @@
         <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D251" s="6">
         <v>0</v>
@@ -22495,7 +22483,7 @@
         <v>2</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D252" s="6">
         <v>10.3</v>
@@ -22512,7 +22500,7 @@
         <v>4</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D253" s="6">
         <v>14</v>
@@ -22529,7 +22517,7 @@
         <v>3</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D254" s="6">
         <v>5</v>
@@ -22546,7 +22534,7 @@
         <v>0</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D255" s="6">
         <v>5.6</v>
@@ -22563,7 +22551,7 @@
         <v>1</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D256" s="6">
         <v>3.1</v>
@@ -22580,7 +22568,7 @@
         <v>1</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D257" s="6">
         <v>0</v>
@@ -22597,7 +22585,7 @@
         <v>4</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D258" s="6">
         <v>4.5999999999999996</v>
@@ -22614,7 +22602,7 @@
         <v>4</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D259" s="6">
         <v>8.8000000000000007</v>
@@ -22625,13 +22613,13 @@
     </row>
     <row r="260" spans="1:5" ht="15" thickBot="1">
       <c r="A260" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D260" s="6">
         <v>9.6</v>
@@ -22642,13 +22630,13 @@
     </row>
     <row r="261" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A261" s="2" t="s">
-        <v>739</v>
+        <v>383</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D261" s="6">
         <v>8.6999999999999993</v>
@@ -22665,7 +22653,7 @@
         <v>0</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D262" s="6">
         <v>25.8</v>
@@ -22682,7 +22670,7 @@
         <v>2</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D263" s="6">
         <v>0</v>
@@ -22699,7 +22687,7 @@
         <v>3</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D264" s="6">
         <v>8.8000000000000007</v>
@@ -22716,7 +22704,7 @@
         <v>2</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D265" s="6">
         <v>3.7</v>
@@ -22727,13 +22715,13 @@
     </row>
     <row r="266" spans="1:5" ht="15" thickBot="1">
       <c r="A266" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D266" s="6">
         <v>3</v>
@@ -22750,7 +22738,7 @@
         <v>1</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D267" s="6">
         <v>12.2</v>
@@ -22767,7 +22755,7 @@
         <v>4</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D268" s="6">
         <v>0.6</v>
@@ -22784,7 +22772,7 @@
         <v>1</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D269" s="6">
         <v>13.3</v>
@@ -22801,7 +22789,7 @@
         <v>2</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D270" s="6">
         <v>1.4</v>
@@ -22818,7 +22806,7 @@
         <v>1</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D271" s="6">
         <v>7.6</v>
@@ -22835,7 +22823,7 @@
         <v>3</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D272" s="6">
         <v>7.7</v>
@@ -22852,7 +22840,7 @@
         <v>4</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D273" s="6">
         <v>1.4</v>
@@ -22869,7 +22857,7 @@
         <v>2</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D274" s="6">
         <v>5.0999999999999996</v>
@@ -22886,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D275" s="6">
         <v>-0.3</v>
@@ -22903,7 +22891,7 @@
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D276" s="6">
         <v>3.5</v>
@@ -22920,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D277" s="6">
         <v>13.3</v>
@@ -22937,7 +22925,7 @@
         <v>2</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D278" s="6">
         <v>0</v>
@@ -22954,7 +22942,7 @@
         <v>2</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D279" s="6">
         <v>3.5</v>
@@ -22965,13 +22953,13 @@
     </row>
     <row r="280" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A280" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B280" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D280" s="6">
         <v>11.7</v>
@@ -22988,7 +22976,7 @@
         <v>0</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D281" s="6">
         <v>3.1</v>
@@ -23005,7 +22993,7 @@
         <v>0</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D282" s="6">
         <v>11.7</v>
@@ -23022,7 +23010,7 @@
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D283" s="6">
         <v>0</v>
@@ -23039,7 +23027,7 @@
         <v>2</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D284" s="6">
         <v>2.7</v>
@@ -23067,7 +23055,7 @@
     </row>
     <row r="286" spans="1:5" ht="15" thickBot="1">
       <c r="A286" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B286" s="8" t="s">
         <v>1</v>
@@ -23152,7 +23140,7 @@
     </row>
     <row r="291" spans="1:5" ht="15" thickBot="1">
       <c r="A291" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B291" s="8" t="s">
         <v>1</v>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135ED7BD-610E-4598-93E8-FB7842F233AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7579E8-CD73-4EE8-9B6F-B7D016007CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
     <sheet name="10-22" sheetId="14" r:id="rId2"/>
     <sheet name="10-29" sheetId="15" r:id="rId3"/>
     <sheet name="11-05" sheetId="16" r:id="rId4"/>
+    <sheet name="11-12" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$334</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'11-05'!$A$1:$E$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'11-12'!$A$1:$E$471</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3572" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="780">
   <si>
     <t>PG</t>
   </si>
@@ -2263,6 +2265,126 @@
   </si>
   <si>
     <t>Gary Payton II</t>
+  </si>
+  <si>
+    <t>MIL @ BOS, Tomorrow, 7:30 PM</t>
+  </si>
+  <si>
+    <t>ATL @ DEN, Tomorrow, 9:00 PM</t>
+  </si>
+  <si>
+    <t>CHI @ GS, Tomorrow, 10:00 PM</t>
+  </si>
+  <si>
+    <t>MIN @ LAL, Tomorrow, 10:30 PM</t>
+  </si>
+  <si>
+    <t>BKN @ NO, Tomorrow, 8:00 PM</t>
+  </si>
+  <si>
+    <t>DAL @ SA, Tomorrow, 8:30 PM</t>
+  </si>
+  <si>
+    <t>LeBron JamesINJ</t>
+  </si>
+  <si>
+    <t>PHO @ MEM, Tomorrow, 8:00 PM</t>
+  </si>
+  <si>
+    <t>POR @ HOU, Tomorrow, 8:00 PM</t>
+  </si>
+  <si>
+    <t>SAC @ OKC, Tomorrow, 8:00 PM</t>
+  </si>
+  <si>
+    <t>Jaylen BrownINJ</t>
+  </si>
+  <si>
+    <t>Nikola VucevicINJ</t>
+  </si>
+  <si>
+    <t>DET @ CLE, Tomorrow, 7:30 PM</t>
+  </si>
+  <si>
+    <t>Deandre AytonINJ</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Michael Porter Jr.INJ</t>
+  </si>
+  <si>
+    <t>Dillon BrooksO</t>
+  </si>
+  <si>
+    <t>Clint Capela</t>
+  </si>
+  <si>
+    <t>Maxi KleberINJ</t>
+  </si>
+  <si>
+    <t>Kevin Huerter</t>
+  </si>
+  <si>
+    <t>Brodric ThomasO</t>
+  </si>
+  <si>
+    <t>Collin SextonINJ</t>
+  </si>
+  <si>
+    <t>Danilo Gallinari</t>
+  </si>
+  <si>
+    <t>Gorgui Dieng</t>
+  </si>
+  <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Onyeka OkongwuINJ</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Sharife Cooper</t>
+  </si>
+  <si>
+    <t>Patrick WilliamsINJ</t>
+  </si>
+  <si>
+    <t>Garrison Mathews</t>
+  </si>
+  <si>
+    <t>KJ Martin</t>
+  </si>
+  <si>
+    <t>Wayne Ellington</t>
+  </si>
+  <si>
+    <t>Austin ReavesINJ</t>
+  </si>
+  <si>
+    <t>Ish Wainright</t>
+  </si>
+  <si>
+    <t>Killian TillieO</t>
+  </si>
+  <si>
+    <t>Robert Woodard IIINJ</t>
+  </si>
+  <si>
+    <t>Ty Jerome</t>
+  </si>
+  <si>
+    <t>Sterling Brown</t>
+  </si>
+  <si>
+    <t>Jock LandaleINJ</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
   </si>
 </sst>
 </file>
@@ -18195,8 +18317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167D3554-D162-4FE8-903A-D6A740A61C54}">
   <dimension ref="A1:E304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23381,4 +23503,5753 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE75D3FA-A0EC-43D0-AC55-F87D4D238B57}">
+  <dimension ref="A1:E337"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2" s="6">
+        <v>55.3</v>
+      </c>
+      <c r="E2" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D3" s="6">
+        <v>54.8</v>
+      </c>
+      <c r="E3" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D4" s="6">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49</v>
+      </c>
+      <c r="E5" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D6" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45.6</v>
+      </c>
+      <c r="E7" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D9" s="6">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44.5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D11" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="E11" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42.1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D13" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="E13" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D14" s="6">
+        <v>46.3</v>
+      </c>
+      <c r="E14" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D15" s="6">
+        <v>43.6</v>
+      </c>
+      <c r="E15" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45.9</v>
+      </c>
+      <c r="E16" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D17" s="6">
+        <v>37</v>
+      </c>
+      <c r="E17" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D18" s="6">
+        <v>36.9</v>
+      </c>
+      <c r="E18" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D19" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="E19" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D20" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D21" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D22" s="6">
+        <v>40.1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D23" s="6">
+        <v>35.4</v>
+      </c>
+      <c r="E23" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D24" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D25" s="6">
+        <v>41.6</v>
+      </c>
+      <c r="E25" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D26" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D27" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D28" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D29" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="E29" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D30" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="E30" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D31" s="6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E31" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D32" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="E32" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D33" s="6">
+        <v>37</v>
+      </c>
+      <c r="E33" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D34" s="6">
+        <v>33</v>
+      </c>
+      <c r="E34" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D35" s="6">
+        <v>37.1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D36" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="E36" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D37" s="6">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E37" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D38" s="6">
+        <v>31</v>
+      </c>
+      <c r="E38" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D39" s="6">
+        <v>24.8</v>
+      </c>
+      <c r="E39" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D40" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="E40" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D41" s="6">
+        <v>28.8</v>
+      </c>
+      <c r="E41" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D42" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E42" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D43" s="6">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E43" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D44" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E44" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D45" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="E45" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D46" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="E46" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D47" s="6">
+        <v>30.5</v>
+      </c>
+      <c r="E47" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D48" s="6">
+        <v>29.6</v>
+      </c>
+      <c r="E48" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D49" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="E49" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D50" s="6">
+        <v>23.3</v>
+      </c>
+      <c r="E50" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D51" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E51" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D52" s="6">
+        <v>29.4</v>
+      </c>
+      <c r="E52" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D53" s="6">
+        <v>31.2</v>
+      </c>
+      <c r="E53" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D54" s="6">
+        <v>29</v>
+      </c>
+      <c r="E54" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D55" s="6">
+        <v>31</v>
+      </c>
+      <c r="E55" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D56" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="E56" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D57" s="6">
+        <v>29.1</v>
+      </c>
+      <c r="E57" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D58" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="E58" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D59" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="E59" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D60" s="6">
+        <v>29.1</v>
+      </c>
+      <c r="E60" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D61" s="6">
+        <v>29.3</v>
+      </c>
+      <c r="E61" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D62" s="6">
+        <v>30</v>
+      </c>
+      <c r="E62" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D63" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="E63" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D64" s="6">
+        <v>27</v>
+      </c>
+      <c r="E64" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D65" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="E65" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D66" s="6">
+        <v>27.9</v>
+      </c>
+      <c r="E66" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D67" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="E67" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D68" s="6">
+        <v>24</v>
+      </c>
+      <c r="E68" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D69" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="E69" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D70" s="6">
+        <v>28.2</v>
+      </c>
+      <c r="E70" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D71" s="6">
+        <v>22.4</v>
+      </c>
+      <c r="E71" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D72" s="6">
+        <v>28.8</v>
+      </c>
+      <c r="E72" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D73" s="6">
+        <v>29.8</v>
+      </c>
+      <c r="E73" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D74" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="E74" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D75" s="6">
+        <v>25</v>
+      </c>
+      <c r="E75" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D76" s="6">
+        <v>26</v>
+      </c>
+      <c r="E76" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D77" s="6">
+        <v>27.1</v>
+      </c>
+      <c r="E77" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D78" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="E78" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D79" s="6">
+        <v>25</v>
+      </c>
+      <c r="E79" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D80" s="6">
+        <v>23.2</v>
+      </c>
+      <c r="E80" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D81" s="6">
+        <v>27.4</v>
+      </c>
+      <c r="E81" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D82" s="6">
+        <v>25</v>
+      </c>
+      <c r="E82" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D83" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="E83" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D84" s="6">
+        <v>22.6</v>
+      </c>
+      <c r="E84" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D85" s="6">
+        <v>21.7</v>
+      </c>
+      <c r="E85" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D86" s="6">
+        <v>20.3</v>
+      </c>
+      <c r="E86" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D87" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="E87" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D88" s="6">
+        <v>23</v>
+      </c>
+      <c r="E88" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D89" s="6">
+        <v>23.2</v>
+      </c>
+      <c r="E89" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D90" s="6">
+        <v>25.7</v>
+      </c>
+      <c r="E90" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D91" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="E91" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D92" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="E92" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D93" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="E93" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D94" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="E94" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D95" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="E95" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D96" s="6">
+        <v>24</v>
+      </c>
+      <c r="E96" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D97" s="6">
+        <v>22</v>
+      </c>
+      <c r="E97" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D98" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="E98" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D99" s="6">
+        <v>20.7</v>
+      </c>
+      <c r="E99" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D100" s="6">
+        <v>22</v>
+      </c>
+      <c r="E100" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D101" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E101" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D102" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="E102" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D103" s="6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E103" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D104" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="E104" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D105" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="E105" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D106" s="6">
+        <v>16</v>
+      </c>
+      <c r="E106" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D107" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E107" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D108" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="E108" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D109" s="6">
+        <v>18</v>
+      </c>
+      <c r="E109" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D110" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="E110" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D111" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="E111" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D112" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="E112" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D113" s="6">
+        <v>15</v>
+      </c>
+      <c r="E113" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D114" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="E114" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D115" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="E115" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D116" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="E116" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D117" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="E117" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D118" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E118" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D119" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="E119" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D120" s="6">
+        <v>17</v>
+      </c>
+      <c r="E120" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D121" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E121" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D122" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E122" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D123" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E123" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D124" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E124" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D125" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="E125" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D126" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="E126" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D127" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="E127" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D128" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E128" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D129" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E129" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D130" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E130" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D131" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="E131" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D132" s="6">
+        <v>3</v>
+      </c>
+      <c r="E132" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D133" s="6">
+        <v>10</v>
+      </c>
+      <c r="E133" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D134" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E134" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E135" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D136" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E136" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D137" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="E137" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D138" s="6">
+        <v>9</v>
+      </c>
+      <c r="E138" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" thickBot="1">
+      <c r="A139" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D139" s="6">
+        <v>0</v>
+      </c>
+      <c r="E139" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D140" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="E140" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D141" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E141" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D142" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="E142" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D143" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E143" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D144" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E144" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D145" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E145" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D146" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E146" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" thickBot="1">
+      <c r="A147" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D147" s="6">
+        <v>0</v>
+      </c>
+      <c r="E147" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D148" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E148" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1">
+      <c r="A149" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0</v>
+      </c>
+      <c r="E149" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E150" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E151" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D152" s="6">
+        <v>15</v>
+      </c>
+      <c r="E152" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D153" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E153" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D154" s="6">
+        <v>22.9</v>
+      </c>
+      <c r="E154" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D155" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="E155" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D156" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="E156" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D157" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E157" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D158" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E158" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D159" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="E159" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" thickBot="1">
+      <c r="A160" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D160" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E160" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D161" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E161" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D162" s="6">
+        <v>12</v>
+      </c>
+      <c r="E162" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D163" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="E163" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D164" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E164" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D165" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E165" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D166" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E166" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D167" s="6">
+        <v>18</v>
+      </c>
+      <c r="E167" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D168" s="6">
+        <v>19</v>
+      </c>
+      <c r="E168" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D169" s="6">
+        <v>11</v>
+      </c>
+      <c r="E169" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D170" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E170" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D171" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E171" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" thickBot="1">
+      <c r="A172" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D172" s="6">
+        <v>1</v>
+      </c>
+      <c r="E172" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D173" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="E173" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D174" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E174" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D175" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="E175" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D176" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="E176" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" thickBot="1">
+      <c r="A177" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D177" s="6">
+        <v>0</v>
+      </c>
+      <c r="E177" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D178" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E178" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D179" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="E179" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D180" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E180" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D181" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E181" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D182" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E182" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D183" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E183" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D184" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="E184" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D185" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="E185" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D186" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="E186" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D187" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E187" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D188" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="E188" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" thickBot="1">
+      <c r="A189" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D189" s="6">
+        <v>27.2</v>
+      </c>
+      <c r="E189" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D190" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E190" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D191" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="E191" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D192" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="E192" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1">
+      <c r="A193" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D193" s="6">
+        <v>0</v>
+      </c>
+      <c r="E193" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D194" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E194" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D195" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E195" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D196" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E196" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D197" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E197" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" thickBot="1">
+      <c r="A198" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D198" s="6">
+        <v>0</v>
+      </c>
+      <c r="E198" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D199" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E199" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D200" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E200" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D201" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E201" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D202" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E202" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A203" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D203" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="E203" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D204" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="E204" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" thickBot="1">
+      <c r="A205" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D205" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E205" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" thickBot="1">
+      <c r="A206" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D206" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="E206" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" thickBot="1">
+      <c r="A207" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D207" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E207" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" thickBot="1">
+      <c r="A208" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D208" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="E208" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A209" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D209" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="E209" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" thickBot="1">
+      <c r="A210" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D210" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E210" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" thickBot="1">
+      <c r="A211" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D211" s="6">
+        <v>15.7</v>
+      </c>
+      <c r="E211" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" thickBot="1">
+      <c r="A212" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D212" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="E212" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" thickBot="1">
+      <c r="A213" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D213" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E213" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" thickBot="1">
+      <c r="A214" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D214" s="6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E214" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" thickBot="1">
+      <c r="A215" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D215" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E215" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" thickBot="1">
+      <c r="A216" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D216" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E216" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" thickBot="1">
+      <c r="A217" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D217" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="E217" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" thickBot="1">
+      <c r="A218" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D218" s="6">
+        <v>0</v>
+      </c>
+      <c r="E218" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" thickBot="1">
+      <c r="A219" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D219" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="E219" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" thickBot="1">
+      <c r="A220" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D220" s="6">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E220" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" thickBot="1">
+      <c r="A221" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D221" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E221" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" thickBot="1">
+      <c r="A222" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D222" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="E222" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" thickBot="1">
+      <c r="A223" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D223" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E223" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" thickBot="1">
+      <c r="A224" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D224" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="E224" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" thickBot="1">
+      <c r="A225" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D225" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E225" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" thickBot="1">
+      <c r="A226" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D226" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E226" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A227" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D227" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="E227" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" thickBot="1">
+      <c r="A228" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D228" s="6">
+        <v>0</v>
+      </c>
+      <c r="E228" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" thickBot="1">
+      <c r="A229" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D229" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E229" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" thickBot="1">
+      <c r="A230" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D230" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="E230" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" thickBot="1">
+      <c r="A231" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D231" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E231" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" thickBot="1">
+      <c r="A232" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D232" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E232" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A233" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D233" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E233" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A234" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D234" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="E234" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" thickBot="1">
+      <c r="A235" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D235" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E235" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" thickBot="1">
+      <c r="A236" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D236" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E236" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A237" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D237" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E237" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15" thickBot="1">
+      <c r="A238" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D238" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E238" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" thickBot="1">
+      <c r="A239" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D239" s="6">
+        <v>2</v>
+      </c>
+      <c r="E239" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15" thickBot="1">
+      <c r="A240" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D240" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="E240" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" thickBot="1">
+      <c r="A241" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D241" s="6">
+        <v>21.1</v>
+      </c>
+      <c r="E241" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A242" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D242" s="6">
+        <v>14</v>
+      </c>
+      <c r="E242" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15" thickBot="1">
+      <c r="A243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D243" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E243" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15" thickBot="1">
+      <c r="A244" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D244" s="6">
+        <v>11</v>
+      </c>
+      <c r="E244" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15" thickBot="1">
+      <c r="A245" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D245" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="E245" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A246" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D246" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="E246" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A247" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D247" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="E247" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A248" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D248" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E248" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A249" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D249" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E249" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15" thickBot="1">
+      <c r="A250" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D250" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E250" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15" thickBot="1">
+      <c r="A251" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D251" s="6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E251" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15" thickBot="1">
+      <c r="A252" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D252" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="E252" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15" thickBot="1">
+      <c r="A253" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D253" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="E253" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15" thickBot="1">
+      <c r="A254" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D254" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="E254" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15" thickBot="1">
+      <c r="A255" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D255" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E255" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A256" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D256" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E256" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15" thickBot="1">
+      <c r="A257" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D257" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="E257" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15" thickBot="1">
+      <c r="A258" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D258" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E258" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15" thickBot="1">
+      <c r="A259" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D259" s="6">
+        <v>0</v>
+      </c>
+      <c r="E259" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15" thickBot="1">
+      <c r="A260" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D260" s="6">
+        <v>15.7</v>
+      </c>
+      <c r="E260" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15" thickBot="1">
+      <c r="A261" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D261" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="E261" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15" thickBot="1">
+      <c r="A262" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D262" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E262" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15" thickBot="1">
+      <c r="A263" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D263" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="E263" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15" thickBot="1">
+      <c r="A264" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D264" s="6">
+        <v>6</v>
+      </c>
+      <c r="E264" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15" thickBot="1">
+      <c r="A265" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D265" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E265" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15" thickBot="1">
+      <c r="A266" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D266" s="6">
+        <v>11</v>
+      </c>
+      <c r="E266" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15" thickBot="1">
+      <c r="A267" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D267" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E267" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15" thickBot="1">
+      <c r="A268" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D268" s="6">
+        <v>0</v>
+      </c>
+      <c r="E268" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A269" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D269" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="E269" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15" thickBot="1">
+      <c r="A270" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D270" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="E270" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15" thickBot="1">
+      <c r="A271" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D271" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E271" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15" thickBot="1">
+      <c r="A272" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D272" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E272" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15" thickBot="1">
+      <c r="A273" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D273" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E273" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15" thickBot="1">
+      <c r="A274" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D274" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E274" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15" thickBot="1">
+      <c r="A275" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D275" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="E275" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15" thickBot="1">
+      <c r="A276" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D276" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="E276" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A277" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D277" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E277" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15" thickBot="1">
+      <c r="A278" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D278" s="6">
+        <v>5</v>
+      </c>
+      <c r="E278" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15" thickBot="1">
+      <c r="A279" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D279" s="6">
+        <v>0</v>
+      </c>
+      <c r="E279" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15" thickBot="1">
+      <c r="A280" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D280" s="6">
+        <v>16</v>
+      </c>
+      <c r="E280" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15" thickBot="1">
+      <c r="A281" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D281" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="E281" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15" thickBot="1">
+      <c r="A282" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D282" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="E282" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15" thickBot="1">
+      <c r="A283" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D283" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E283" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15" thickBot="1">
+      <c r="A284" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D284" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E284" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="15" thickBot="1">
+      <c r="A285" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D285" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="E285" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A286" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D286" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="E286" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15" thickBot="1">
+      <c r="A287" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D287" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E287" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15" thickBot="1">
+      <c r="A288" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D288" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E288" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15" thickBot="1">
+      <c r="A289" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D289" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E289" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15" thickBot="1">
+      <c r="A290" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D290" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E290" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A291" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D291" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="E291" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15" thickBot="1">
+      <c r="A292" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D292" s="6">
+        <v>0</v>
+      </c>
+      <c r="E292" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15" thickBot="1">
+      <c r="A293" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D293" s="6">
+        <v>10</v>
+      </c>
+      <c r="E293" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15" thickBot="1">
+      <c r="A294" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D294" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="E294" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15" thickBot="1">
+      <c r="A295" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D295" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E295" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15" thickBot="1">
+      <c r="A296" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D296" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E296" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="15" thickBot="1">
+      <c r="A297" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D297" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="E297" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15" thickBot="1">
+      <c r="A298" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D298" s="6">
+        <v>12</v>
+      </c>
+      <c r="E298" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="15" thickBot="1">
+      <c r="A299" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D299" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E299" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15" thickBot="1">
+      <c r="A300" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D300" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E300" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A301" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D301" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="E301" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15" thickBot="1">
+      <c r="A302" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D302" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E302" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15" thickBot="1">
+      <c r="A303" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D303" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E303" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15" thickBot="1">
+      <c r="A304" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D304" s="6">
+        <v>0</v>
+      </c>
+      <c r="E304" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15" thickBot="1">
+      <c r="A305" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D305" s="6">
+        <v>0</v>
+      </c>
+      <c r="E305" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A306" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D306" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="E306" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A307" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D307" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="E307" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A308" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D308" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="E308" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="15" thickBot="1">
+      <c r="A309" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D309" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E309" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15" thickBot="1">
+      <c r="A310" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D310" s="6">
+        <v>2</v>
+      </c>
+      <c r="E310" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15" thickBot="1">
+      <c r="A311" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D311" s="6">
+        <v>0</v>
+      </c>
+      <c r="E311" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15" thickBot="1">
+      <c r="A312" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D312" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E312" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A313" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D313" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E313" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A314" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D314" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="E314" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15" thickBot="1">
+      <c r="A315" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D315" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E315" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15" thickBot="1">
+      <c r="A316" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D316" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E316" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15" thickBot="1">
+      <c r="A317" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D317" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E317" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="15" thickBot="1">
+      <c r="A318" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D318" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E318" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="15" thickBot="1">
+      <c r="A319" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D319" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E319" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A320" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D320" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E320" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A321" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D321" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="E321" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15" thickBot="1">
+      <c r="A322" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D322" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="E322" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15" thickBot="1">
+      <c r="A323" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D323" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="E323" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15" thickBot="1">
+      <c r="A324" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D324" s="6">
+        <v>3</v>
+      </c>
+      <c r="E324" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15" thickBot="1">
+      <c r="A325" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D325" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E325" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15" thickBot="1">
+      <c r="A326" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D326" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="E326" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15" thickBot="1">
+      <c r="A327" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D327" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E327" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A328" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D328" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="E328" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15" thickBot="1">
+      <c r="A329" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D329" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E329" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15" thickBot="1">
+      <c r="A330" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D330" s="6">
+        <v>0</v>
+      </c>
+      <c r="E330" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15" thickBot="1">
+      <c r="A331" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D331" s="6">
+        <v>21.3</v>
+      </c>
+      <c r="E331" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A332" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D332" s="6">
+        <v>10</v>
+      </c>
+      <c r="E332" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="15" thickBot="1">
+      <c r="A333" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D333" s="6">
+        <v>5</v>
+      </c>
+      <c r="E333" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15" thickBot="1">
+      <c r="A334" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D334" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E334" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15" thickBot="1">
+      <c r="A335" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D335" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="E335" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15" thickBot="1">
+      <c r="A336" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D336" s="6">
+        <v>3</v>
+      </c>
+      <c r="E336" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="28.8" customHeight="1">
+      <c r="A337" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D337" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E337" s="10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E471" xr:uid="{FE75D3FA-A0EC-43D0-AC55-F87D4D238B57}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7579E8-CD73-4EE8-9B6F-B7D016007CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E3586-A7EE-48C4-94F7-74781CBE52F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="1920" yWindow="144" windowWidth="15576" windowHeight="12216" activeTab="4" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="781">
   <si>
     <t>PG</t>
   </si>
@@ -2385,6 +2385,9 @@
   </si>
   <si>
     <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Anthony DavisO</t>
   </si>
 </sst>
 </file>
@@ -23509,8 +23512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE75D3FA-A0EC-43D0-AC55-F87D4D238B57}">
   <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23588,7 +23591,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>510</v>
+        <v>780</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>4</v>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4E3586-A7EE-48C4-94F7-74781CBE52F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F2B620-CF02-4E23-95CD-508A882C7196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="144" windowWidth="15576" windowHeight="12216" activeTab="4" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -2387,7 +2387,7 @@
     <t>Bogdan Bogdanovic</t>
   </si>
   <si>
-    <t>Anthony DavisO</t>
+    <t>Anthony DavisOO</t>
   </si>
 </sst>
 </file>
@@ -23512,7 +23512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE75D3FA-A0EC-43D0-AC55-F87D4D238B57}">
   <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F2B620-CF02-4E23-95CD-508A882C7196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D715ACBA-F746-42CF-9753-CFE39B0AD8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="144" windowWidth="15576" windowHeight="12216" activeTab="4" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="10-29" sheetId="15" r:id="rId3"/>
     <sheet name="11-05" sheetId="16" r:id="rId4"/>
     <sheet name="11-12" sheetId="17" r:id="rId5"/>
+    <sheet name="11-19" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$334</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'11-05'!$A$1:$E$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'11-12'!$A$1:$E$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'11-19'!$A$1:$E$374</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5295" uniqueCount="802">
   <si>
     <t>PG</t>
   </si>
@@ -2388,6 +2390,69 @@
   </si>
   <si>
     <t>Anthony DavisOO</t>
+  </si>
+  <si>
+    <t>OKC @ MIL, Today, 8:00 PM</t>
+  </si>
+  <si>
+    <t>CHI @ DEN, Today, 9:00 PM</t>
+  </si>
+  <si>
+    <t>LAL @ BOS, Today, 7:30 PM</t>
+  </si>
+  <si>
+    <t>Kevin DurantO</t>
+  </si>
+  <si>
+    <t>ORL @ BKN, Today, 7:30 PM</t>
+  </si>
+  <si>
+    <t>Luka DoncicO</t>
+  </si>
+  <si>
+    <t>DAL @ PHO, Today, 10:00 PM</t>
+  </si>
+  <si>
+    <t>LAC @ NO, Today, 8:00 PM</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>TOR @ SAC, Today, 10:00 PM</t>
+  </si>
+  <si>
+    <t>Khris Middleton</t>
+  </si>
+  <si>
+    <t>OG AnunobyINJ</t>
+  </si>
+  <si>
+    <t>Precious AchiuwaINJ</t>
+  </si>
+  <si>
+    <t>Frank KaminskyO</t>
+  </si>
+  <si>
+    <t>Chaundee Brown Jr.</t>
+  </si>
+  <si>
+    <t>Paul MillsapINJ</t>
+  </si>
+  <si>
+    <t>Zeke NnajiINJ</t>
+  </si>
+  <si>
+    <t>Derrick FavorsO</t>
+  </si>
+  <si>
+    <t>Tre MannO</t>
+  </si>
+  <si>
+    <t>Justise WinslowINJ</t>
+  </si>
+  <si>
+    <t>Didi LouzadaO</t>
   </si>
 </sst>
 </file>
@@ -23512,8 +23577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE75D3FA-A0EC-43D0-AC55-F87D4D238B57}">
   <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29255,4 +29320,4136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDC5F2C-F5FD-41FC-B392-F2A2E9426974}">
+  <dimension ref="A1:E265"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D2" s="6">
+        <v>55.1</v>
+      </c>
+      <c r="E2" s="18">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D3" s="6">
+        <v>55.6</v>
+      </c>
+      <c r="E3" s="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D4" s="6">
+        <v>48.4</v>
+      </c>
+      <c r="E4" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45.2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D6" s="6">
+        <v>48.4</v>
+      </c>
+      <c r="E6" s="18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D7" s="6">
+        <v>47.4</v>
+      </c>
+      <c r="E7" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43.4</v>
+      </c>
+      <c r="E8" s="18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D9" s="6">
+        <v>42.1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D10" s="6">
+        <v>41.9</v>
+      </c>
+      <c r="E10" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D11" s="6">
+        <v>47.3</v>
+      </c>
+      <c r="E11" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D12" s="6">
+        <v>41.4</v>
+      </c>
+      <c r="E12" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D13" s="6">
+        <v>41</v>
+      </c>
+      <c r="E13" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D14" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D15" s="6">
+        <v>31.7</v>
+      </c>
+      <c r="E15" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D16" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="E16" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D17" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D18" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="E18" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D19" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E19" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D20" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D21" s="6">
+        <v>38</v>
+      </c>
+      <c r="E21" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D22" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E22" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D23" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="E23" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D24" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="E24" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D25" s="6">
+        <v>40</v>
+      </c>
+      <c r="E25" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D26" s="6">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E26" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D27" s="6">
+        <v>37.9</v>
+      </c>
+      <c r="E27" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D28" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="E28" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D29" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="E29" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D30" s="6">
+        <v>30</v>
+      </c>
+      <c r="E30" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D31" s="6">
+        <v>35.1</v>
+      </c>
+      <c r="E31" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D32" s="6">
+        <v>34</v>
+      </c>
+      <c r="E32" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D33" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="E33" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D34" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E34" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D35" s="6">
+        <v>31.2</v>
+      </c>
+      <c r="E35" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D36" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="E36" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D37" s="6">
+        <v>31.6</v>
+      </c>
+      <c r="E37" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D38" s="6">
+        <v>29.2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D39" s="6">
+        <v>30</v>
+      </c>
+      <c r="E39" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D40" s="6">
+        <v>31.3</v>
+      </c>
+      <c r="E40" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D41" s="6">
+        <v>23.3</v>
+      </c>
+      <c r="E41" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D42" s="6">
+        <v>29</v>
+      </c>
+      <c r="E42" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D43" s="6">
+        <v>30.6</v>
+      </c>
+      <c r="E43" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D44" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="E44" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D45" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="E45" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D46" s="6">
+        <v>39.1</v>
+      </c>
+      <c r="E46" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D47" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="E47" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D48" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="E48" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D49" s="6">
+        <v>29.1</v>
+      </c>
+      <c r="E49" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D50" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="E50" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D51" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="E51" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D52" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="E52" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D53" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="E53" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D54" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="E54" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D55" s="6">
+        <v>28.2</v>
+      </c>
+      <c r="E55" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D56" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="E56" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D57" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="E57" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D58" s="6">
+        <v>25.7</v>
+      </c>
+      <c r="E58" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D59" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="E59" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D60" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="E60" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D61" s="6">
+        <v>26</v>
+      </c>
+      <c r="E61" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D62" s="6">
+        <v>25.1</v>
+      </c>
+      <c r="E62" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D63" s="6">
+        <v>24.4</v>
+      </c>
+      <c r="E63" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D64" s="6">
+        <v>28</v>
+      </c>
+      <c r="E64" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D65" s="6">
+        <v>25.7</v>
+      </c>
+      <c r="E65" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D66" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="E66" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D67" s="6">
+        <v>22.1</v>
+      </c>
+      <c r="E67" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D68" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="E68" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D69" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="E69" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D70" s="6">
+        <v>21.3</v>
+      </c>
+      <c r="E70" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D71" s="6">
+        <v>23.3</v>
+      </c>
+      <c r="E71" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D72" s="6">
+        <v>19.2</v>
+      </c>
+      <c r="E72" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D73" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="E73" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D74" s="6">
+        <v>22.6</v>
+      </c>
+      <c r="E74" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D75" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="E75" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D76" s="6">
+        <v>23</v>
+      </c>
+      <c r="E76" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D77" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="E77" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D78" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="E78" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D79" s="6">
+        <v>18</v>
+      </c>
+      <c r="E79" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D80" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E80" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D81" s="6">
+        <v>20.3</v>
+      </c>
+      <c r="E81" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D82" s="6">
+        <v>21.3</v>
+      </c>
+      <c r="E82" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D83" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="E83" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D84" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E84" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D85" s="6">
+        <v>20.8</v>
+      </c>
+      <c r="E85" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D86" s="6">
+        <v>19.3</v>
+      </c>
+      <c r="E86" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D87" s="6">
+        <v>20.3</v>
+      </c>
+      <c r="E87" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D88" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E88" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D89" s="6">
+        <v>21.1</v>
+      </c>
+      <c r="E89" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D90" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="E90" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D91" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="E91" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D92" s="6">
+        <v>11</v>
+      </c>
+      <c r="E92" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D93" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E93" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D94" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E94" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D95" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="E95" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D96" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E96" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1">
+      <c r="A97" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D97" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E97" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D98" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E98" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D99" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="E99" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D100" s="6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E100" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D101" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E101" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D102" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E102" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D103" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="E103" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D104" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E104" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D105" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E105" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D106" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E106" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0</v>
+      </c>
+      <c r="E107" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1">
+      <c r="A108" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0</v>
+      </c>
+      <c r="E108" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1">
+      <c r="A109" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D109" s="6">
+        <v>0</v>
+      </c>
+      <c r="E109" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D110" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E110" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D111" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E111" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D112" s="6">
+        <v>17</v>
+      </c>
+      <c r="E112" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D113" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="E113" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D114" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E114" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D115" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="E115" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1">
+      <c r="A116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0</v>
+      </c>
+      <c r="E116" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D117" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="E117" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D118" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="E118" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D119" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E119" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E120" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D121" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="E121" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D122" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E122" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D123" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="E123" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D124" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="E124" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D125" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="E125" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D126" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="E126" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D127" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="E127" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D128" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="E128" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D129" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E129" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D130" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="E130" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1">
+      <c r="A131" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D131" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E131" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1">
+      <c r="A132" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0</v>
+      </c>
+      <c r="E132" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D133" s="6">
+        <v>16</v>
+      </c>
+      <c r="E133" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D134" s="6">
+        <v>11</v>
+      </c>
+      <c r="E134" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D135" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E135" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D136" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E136" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D137" s="6">
+        <v>2</v>
+      </c>
+      <c r="E137" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E138" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D139" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E139" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D140" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="E140" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D141" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="E141" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" thickBot="1">
+      <c r="A142" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D142" s="6">
+        <v>0</v>
+      </c>
+      <c r="E142" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D143" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E143" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D144" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E144" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D145" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="E145" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D146" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E146" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D147" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E147" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D148" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="E148" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1">
+      <c r="A149" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D149" s="6">
+        <v>2</v>
+      </c>
+      <c r="E149" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D150" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E150" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D151" s="6">
+        <v>14</v>
+      </c>
+      <c r="E151" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D152" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="E152" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D153" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="E153" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D154" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="E154" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D155" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="E155" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D156" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E156" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D157" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="E157" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D158" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E158" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D159" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E159" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D160" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="E160" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D161" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E161" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D162" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E162" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" thickBot="1">
+      <c r="A163" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D163" s="6">
+        <v>0</v>
+      </c>
+      <c r="E163" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D164" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E164" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D165" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E165" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D166" s="6">
+        <v>11</v>
+      </c>
+      <c r="E166" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D167" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E167" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D168" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="E168" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D169" s="6">
+        <v>9</v>
+      </c>
+      <c r="E169" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D170" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="E170" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D171" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="E171" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D172" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E172" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D173" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="E173" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1">
+      <c r="A174" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D174" s="6">
+        <v>0</v>
+      </c>
+      <c r="E174" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D175" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="E175" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D176" s="6">
+        <v>16</v>
+      </c>
+      <c r="E176" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D177" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="E177" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D178" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E178" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D179" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E179" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D180" s="6">
+        <v>9</v>
+      </c>
+      <c r="E180" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D181" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E181" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D182" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E182" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D183" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E183" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D184" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E184" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D185" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E185" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D186" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="E186" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D187" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E187" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D188" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E188" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" thickBot="1">
+      <c r="A189" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D189" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E189" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D190" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E190" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D191" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="E191" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D192" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="E192" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D193" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="E193" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D194" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="E194" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D195" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E195" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D196" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E196" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D197" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="E197" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D198" s="6">
+        <v>45.7</v>
+      </c>
+      <c r="E198" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D199" s="6">
+        <v>9</v>
+      </c>
+      <c r="E199" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D200" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E200" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D201" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E201" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" thickBot="1">
+      <c r="A202" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D202" s="6">
+        <v>0</v>
+      </c>
+      <c r="E202" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" thickBot="1">
+      <c r="A203" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D203" s="6">
+        <v>0</v>
+      </c>
+      <c r="E203" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D204" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="E204" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" thickBot="1">
+      <c r="A205" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D205" s="6">
+        <v>16.3</v>
+      </c>
+      <c r="E205" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A206" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D206" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E206" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A207" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D207" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="E207" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A208" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D208" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="E208" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" thickBot="1">
+      <c r="A209" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D209" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="E209" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" thickBot="1">
+      <c r="A210" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D210" s="6">
+        <v>2</v>
+      </c>
+      <c r="E210" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" thickBot="1">
+      <c r="A211" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D211" s="6">
+        <v>0</v>
+      </c>
+      <c r="E211" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" thickBot="1">
+      <c r="A212" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D212" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E212" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" thickBot="1">
+      <c r="A213" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D213" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E213" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A214" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D214" s="6">
+        <v>10</v>
+      </c>
+      <c r="E214" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" thickBot="1">
+      <c r="A215" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D215" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E215" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" thickBot="1">
+      <c r="A216" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D216" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E216" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" thickBot="1">
+      <c r="A217" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D217" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="E217" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" thickBot="1">
+      <c r="A218" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D218" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E218" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" thickBot="1">
+      <c r="A219" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D219" s="6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E219" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D220" s="6">
+        <v>5</v>
+      </c>
+      <c r="E220" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A221" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D221" s="6">
+        <v>7</v>
+      </c>
+      <c r="E221" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" thickBot="1">
+      <c r="A222" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D222" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E222" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" thickBot="1">
+      <c r="A223" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D223" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E223" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" thickBot="1">
+      <c r="A224" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D224" s="6">
+        <v>3</v>
+      </c>
+      <c r="E224" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" thickBot="1">
+      <c r="A225" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D225" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E225" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" thickBot="1">
+      <c r="A226" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D226" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="E226" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15" thickBot="1">
+      <c r="A227" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D227" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E227" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" thickBot="1">
+      <c r="A228" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D228" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="E228" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" thickBot="1">
+      <c r="A229" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D229" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="E229" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" thickBot="1">
+      <c r="A230" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D230" s="6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E230" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" thickBot="1">
+      <c r="A231" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D231" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="E231" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" thickBot="1">
+      <c r="A232" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D232" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E232" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15" thickBot="1">
+      <c r="A233" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D233" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="E233" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15" thickBot="1">
+      <c r="A234" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D234" s="6">
+        <v>15.7</v>
+      </c>
+      <c r="E234" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" thickBot="1">
+      <c r="A235" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D235" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E235" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D236" s="6">
+        <v>0</v>
+      </c>
+      <c r="E236" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="14"/>
+      <c r="B250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="14"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="14"/>
+      <c r="B251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="14"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="14"/>
+      <c r="B252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="14"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="14"/>
+      <c r="B253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="14"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="14"/>
+      <c r="B254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="14"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="14"/>
+      <c r="B255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="14"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="14"/>
+      <c r="B256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="14"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="14"/>
+      <c r="B257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="14"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="14"/>
+      <c r="B258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="14"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="14"/>
+      <c r="B259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="14"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="14"/>
+      <c r="B260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="14"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="14"/>
+      <c r="B261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="14"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="14"/>
+      <c r="B262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="14"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="14"/>
+      <c r="B264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="14"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="14"/>
+      <c r="B265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E374" xr:uid="{6DDC5F2C-F5FD-41FC-B392-F2A2E9426974}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D715ACBA-F746-42CF-9753-CFE39B0AD8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6B345F-AA92-4621-A4EC-8C636A343E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5295" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5295" uniqueCount="803">
   <si>
     <t>PG</t>
   </si>
@@ -2453,6 +2453,9 @@
   </si>
   <si>
     <t>Didi LouzadaO</t>
+  </si>
+  <si>
+    <t>Talen Horton-TuckerOO</t>
   </si>
 </sst>
 </file>
@@ -29326,8 +29329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDC5F2C-F5FD-41FC-B392-F2A2E9426974}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30106,7 +30109,7 @@
     </row>
     <row r="46" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>256</v>
+        <v>802</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>2</v>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6B345F-AA92-4621-A4EC-8C636A343E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A6A205-2FD0-4DDA-899B-5BB8995CB7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5295" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5295" uniqueCount="806">
   <si>
     <t>PG</t>
   </si>
@@ -2456,6 +2456,15 @@
   </si>
   <si>
     <t>Talen Horton-TuckerOO</t>
+  </si>
+  <si>
+    <t>Anthony DavisQQ</t>
+  </si>
+  <si>
+    <t>Nikola JokicQQ</t>
+  </si>
+  <si>
+    <t>Giannis AntetokounmpoQQ</t>
   </si>
 </sst>
 </file>
@@ -29329,8 +29338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDC5F2C-F5FD-41FC-B392-F2A2E9426974}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:E236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29361,7 +29370,7 @@
     </row>
     <row r="2" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>805</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
@@ -29378,7 +29387,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>804</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -29395,7 +29404,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>510</v>
+        <v>803</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>4</v>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A6A205-2FD0-4DDA-899B-5BB8995CB7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5851B4D-33F2-41FB-843D-47B4FA4E94C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="11-05" sheetId="16" r:id="rId4"/>
     <sheet name="11-12" sheetId="17" r:id="rId5"/>
     <sheet name="11-19" sheetId="18" r:id="rId6"/>
+    <sheet name="11-26" sheetId="19" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -26,6 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'11-05'!$A$1:$E$440</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'11-12'!$A$1:$E$471</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'11-19'!$A$1:$E$374</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'11-26'!$A$1:$E$449</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5295" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="850">
   <si>
     <t>PG</t>
   </si>
@@ -2465,6 +2467,138 @@
   </si>
   <si>
     <t>Giannis AntetokounmpoQQ</t>
+  </si>
+  <si>
+    <t>MIL @ DEN, Today, 9:00 PM</t>
+  </si>
+  <si>
+    <t>Nikola JokicINJ</t>
+  </si>
+  <si>
+    <t>POR @ GS, Today, 10:00 PM</t>
+  </si>
+  <si>
+    <t>SAC @ LAL, Today, 10:30 PM</t>
+  </si>
+  <si>
+    <t>BOS @ SA, Today, 8:30 PM</t>
+  </si>
+  <si>
+    <t>MIN @ CHA, Today, 7:00 PM</t>
+  </si>
+  <si>
+    <t>ATL @ MEM, Today, 8:00 PM</t>
+  </si>
+  <si>
+    <t>Trae YoungGTD</t>
+  </si>
+  <si>
+    <t>CHI @ ORL, Today, 7:00 PM</t>
+  </si>
+  <si>
+    <t>TOR @ IND, Today, 8:00 PM</t>
+  </si>
+  <si>
+    <t>NO @ UTA, Today, 9:00 PM</t>
+  </si>
+  <si>
+    <t>WAS @ OKC, Today, 8:00 PM</t>
+  </si>
+  <si>
+    <t>PHO @ NY, Today, 7:00 PM</t>
+  </si>
+  <si>
+    <t>Cole AnthonyINJ</t>
+  </si>
+  <si>
+    <t>Harrison BarnesO</t>
+  </si>
+  <si>
+    <t>Dillon Brooks</t>
+  </si>
+  <si>
+    <t>Robert WilliamsO</t>
+  </si>
+  <si>
+    <t>Patrick BeverleyINJ</t>
+  </si>
+  <si>
+    <t>Mason PlumleeGTD</t>
+  </si>
+  <si>
+    <t>Derrick RoseO</t>
+  </si>
+  <si>
+    <t>De'Anthony MeltonINJ</t>
+  </si>
+  <si>
+    <t>Frank KaminskyINJ</t>
+  </si>
+  <si>
+    <t>Bogdan BogdanovicGTD</t>
+  </si>
+  <si>
+    <t>Khem BirchO</t>
+  </si>
+  <si>
+    <t>Royce O'NealeGTD</t>
+  </si>
+  <si>
+    <t>Devin VassellO</t>
+  </si>
+  <si>
+    <t>Josh OkogieGTD</t>
+  </si>
+  <si>
+    <t>Rodney HoodGTD</t>
+  </si>
+  <si>
+    <t>Semi OjeleyeINJ</t>
+  </si>
+  <si>
+    <t>PJ DozierINJ</t>
+  </si>
+  <si>
+    <t>Bones HylandGTD</t>
+  </si>
+  <si>
+    <t>Cody ZellerGTD</t>
+  </si>
+  <si>
+    <t>Anfernee SimonsGTD</t>
+  </si>
+  <si>
+    <t>Andre IguodalaINJ</t>
+  </si>
+  <si>
+    <t>Damion LeeO</t>
+  </si>
+  <si>
+    <t>Yuta WatanabeGTD</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
+    <t>De'Andre HunterINJ</t>
+  </si>
+  <si>
+    <t>Sam MerrillINJ</t>
+  </si>
+  <si>
+    <t>Abdel NaderINJ</t>
+  </si>
+  <si>
+    <t>Taj GibsonINJ</t>
+  </si>
+  <si>
+    <t>Cassius Winston</t>
+  </si>
+  <si>
+    <t>Josh RichardsonINJ</t>
+  </si>
+  <si>
+    <t>Doug McDermottINJ</t>
   </si>
 </sst>
 </file>
@@ -29338,8 +29472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDC5F2C-F5FD-41FC-B392-F2A2E9426974}">
   <dimension ref="A1:E265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:E236"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33464,4 +33598,6294 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDCCA3B-2BAF-4D3D-B34A-7405F2EEA108}">
+  <dimension ref="A1:E369"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D2" s="6">
+        <v>56.4</v>
+      </c>
+      <c r="E2" s="18">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D3" s="6">
+        <v>55.6</v>
+      </c>
+      <c r="E3" s="18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D4" s="6">
+        <v>48.3</v>
+      </c>
+      <c r="E4" s="18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49.1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43.1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D7" s="6">
+        <v>42.7</v>
+      </c>
+      <c r="E7" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44.5</v>
+      </c>
+      <c r="E8" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44.2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="E10" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45.3</v>
+      </c>
+      <c r="E11" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45.7</v>
+      </c>
+      <c r="E12" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D13" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="E13" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42.9</v>
+      </c>
+      <c r="E14" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D15" s="6">
+        <v>40.4</v>
+      </c>
+      <c r="E15" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D16" s="6">
+        <v>38.6</v>
+      </c>
+      <c r="E16" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42.6</v>
+      </c>
+      <c r="E17" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D18" s="6">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E18" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D19" s="6">
+        <v>39</v>
+      </c>
+      <c r="E19" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D20" s="6">
+        <v>41.1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D21" s="6">
+        <v>40</v>
+      </c>
+      <c r="E21" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D22" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="E22" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D23" s="6">
+        <v>38.9</v>
+      </c>
+      <c r="E23" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D24" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="E24" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D25" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="E25" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D26" s="6">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E26" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D27" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="E27" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D28" s="6">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E28" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D29" s="6">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E29" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D30" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="E30" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D31" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E31" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D32" s="6">
+        <v>37.6</v>
+      </c>
+      <c r="E32" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D33" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="E33" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D34" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="E34" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D35" s="6">
+        <v>39.4</v>
+      </c>
+      <c r="E35" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D36" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="E36" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D37" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E37" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D38" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="E38" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D39" s="6">
+        <v>34.9</v>
+      </c>
+      <c r="E39" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D40" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="E40" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D41" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="E41" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D42" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="E42" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D43" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="E43" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D44" s="6">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E44" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D45" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="E45" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D46" s="6">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E46" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D47" s="6">
+        <v>29.9</v>
+      </c>
+      <c r="E47" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D48" s="6">
+        <v>32</v>
+      </c>
+      <c r="E48" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D49" s="6">
+        <v>30.2</v>
+      </c>
+      <c r="E49" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D50" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="E50" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D51" s="6">
+        <v>30.2</v>
+      </c>
+      <c r="E51" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D52" s="6">
+        <v>29.9</v>
+      </c>
+      <c r="E52" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D53" s="6">
+        <v>30.8</v>
+      </c>
+      <c r="E53" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D54" s="6">
+        <v>23.3</v>
+      </c>
+      <c r="E54" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D55" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="E55" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D56" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="E56" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D57" s="6">
+        <v>30.6</v>
+      </c>
+      <c r="E57" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D58" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="E58" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D59" s="6">
+        <v>29.4</v>
+      </c>
+      <c r="E59" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D60" s="6">
+        <v>31.6</v>
+      </c>
+      <c r="E60" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D61" s="6">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E61" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D62" s="6">
+        <v>28.9</v>
+      </c>
+      <c r="E62" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D63" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="E63" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D64" s="6">
+        <v>32.6</v>
+      </c>
+      <c r="E64" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D65" s="6">
+        <v>29.3</v>
+      </c>
+      <c r="E65" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D66" s="6">
+        <v>29.9</v>
+      </c>
+      <c r="E66" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D67" s="6">
+        <v>29.4</v>
+      </c>
+      <c r="E67" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D68" s="6">
+        <v>30.1</v>
+      </c>
+      <c r="E68" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D69" s="6">
+        <v>26.3</v>
+      </c>
+      <c r="E69" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D70" s="6">
+        <v>30.2</v>
+      </c>
+      <c r="E70" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D71" s="6">
+        <v>24.6</v>
+      </c>
+      <c r="E71" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D72" s="6">
+        <v>30.4</v>
+      </c>
+      <c r="E72" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D73" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="E73" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D74" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="E74" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D75" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="E75" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D76" s="6">
+        <v>27.7</v>
+      </c>
+      <c r="E76" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D77" s="6">
+        <v>27.1</v>
+      </c>
+      <c r="E77" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D78" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="E78" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D79" s="6">
+        <v>30.2</v>
+      </c>
+      <c r="E79" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D80" s="6">
+        <v>27.4</v>
+      </c>
+      <c r="E80" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D81" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="E81" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D82" s="6">
+        <v>24.7</v>
+      </c>
+      <c r="E82" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D83" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="E83" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D84" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="E84" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D85" s="6">
+        <v>26</v>
+      </c>
+      <c r="E85" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D86" s="6">
+        <v>23.2</v>
+      </c>
+      <c r="E86" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D87" s="6">
+        <v>21.9</v>
+      </c>
+      <c r="E87" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D88" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="E88" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D89" s="6">
+        <v>26.6</v>
+      </c>
+      <c r="E89" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D90" s="6">
+        <v>24.9</v>
+      </c>
+      <c r="E90" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D91" s="6">
+        <v>23.4</v>
+      </c>
+      <c r="E91" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D92" s="6">
+        <v>24</v>
+      </c>
+      <c r="E92" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D93" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="E93" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D94" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="E94" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D95" s="6">
+        <v>24</v>
+      </c>
+      <c r="E95" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D96" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E96" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D97" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="E97" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D98" s="6">
+        <v>25.7</v>
+      </c>
+      <c r="E98" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D99" s="6">
+        <v>27.1</v>
+      </c>
+      <c r="E99" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D100" s="6">
+        <v>22.4</v>
+      </c>
+      <c r="E100" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D101" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="E101" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D102" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="E102" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D103" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="E103" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D104" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="E104" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D105" s="6">
+        <v>23.1</v>
+      </c>
+      <c r="E105" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D106" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="E106" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D107" s="6">
+        <v>24</v>
+      </c>
+      <c r="E107" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D108" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="E108" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D109" s="6">
+        <v>21.8</v>
+      </c>
+      <c r="E109" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D110" s="6">
+        <v>23</v>
+      </c>
+      <c r="E110" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D111" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="E111" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D112" s="6">
+        <v>23.2</v>
+      </c>
+      <c r="E112" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D113" s="6">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E113" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D114" s="6">
+        <v>22.6</v>
+      </c>
+      <c r="E114" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D115" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E115" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D116" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="E116" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D117" s="6">
+        <v>21.3</v>
+      </c>
+      <c r="E117" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D118" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="E118" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D119" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E119" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D120" s="6">
+        <v>23.9</v>
+      </c>
+      <c r="E120" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D121" s="6">
+        <v>21.8</v>
+      </c>
+      <c r="E121" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D122" s="6">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E122" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D123" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="E123" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D124" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E124" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D125" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E125" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D126" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="E126" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D127" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E127" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D128" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="E128" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D129" s="6">
+        <v>16</v>
+      </c>
+      <c r="E129" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D130" s="6">
+        <v>22.1</v>
+      </c>
+      <c r="E130" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D131" s="6">
+        <v>20.3</v>
+      </c>
+      <c r="E131" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D132" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="E132" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D133" s="6">
+        <v>21.8</v>
+      </c>
+      <c r="E133" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D134" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E134" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D135" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="E135" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D136" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="E136" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D137" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E137" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D138" s="6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E138" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D139" s="6">
+        <v>20.6</v>
+      </c>
+      <c r="E139" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D140" s="6">
+        <v>22.6</v>
+      </c>
+      <c r="E140" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D141" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E141" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D142" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E142" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D143" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="E143" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D144" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="E144" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D145" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E145" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D146" s="6">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E146" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D147" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="E147" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D148" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="E148" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D149" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E149" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D150" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="E150" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D151" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E151" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D152" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E152" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D153" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="E153" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D154" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="E154" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D155" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="E155" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D156" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E156" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D157" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="E157" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D158" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="E158" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" thickBot="1">
+      <c r="A159" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D159" s="6">
+        <v>2</v>
+      </c>
+      <c r="E159" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D160" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E160" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" thickBot="1">
+      <c r="A161" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D161" s="6">
+        <v>0</v>
+      </c>
+      <c r="E161" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D162" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="E162" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D163" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E163" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D164" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E164" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D165" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E165" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D166" s="6">
+        <v>-0.6</v>
+      </c>
+      <c r="E166" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" thickBot="1">
+      <c r="A167" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D167" s="6">
+        <v>0</v>
+      </c>
+      <c r="E167" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" thickBot="1">
+      <c r="A168" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D168" s="6">
+        <v>0</v>
+      </c>
+      <c r="E168" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D169" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="E169" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D170" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="E170" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D171" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E171" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D172" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E172" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D173" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="E173" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D174" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="E174" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D175" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="E175" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D176" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="E176" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D177" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E177" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D178" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="E178" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D179" s="6">
+        <v>35.9</v>
+      </c>
+      <c r="E179" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D180" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E180" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D181" s="6">
+        <v>1</v>
+      </c>
+      <c r="E181" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D182" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="E182" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D183" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E183" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D184" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E184" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D185" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E185" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D186" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E186" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D187" s="6">
+        <v>14.1</v>
+      </c>
+      <c r="E187" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D188" s="6">
+        <v>12</v>
+      </c>
+      <c r="E188" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A189" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D189" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="E189" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D190" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E190" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D191" s="6">
+        <v>12</v>
+      </c>
+      <c r="E191" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D192" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="E192" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D193" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="E193" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D194" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E194" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D195" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E195" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" thickBot="1">
+      <c r="A196" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D196" s="6">
+        <v>5</v>
+      </c>
+      <c r="E196" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D197" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="E197" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D198" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="E198" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" thickBot="1">
+      <c r="A199" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D199" s="6">
+        <v>0</v>
+      </c>
+      <c r="E199" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D200" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="E200" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D201" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="E201" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D202" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E202" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A203" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D203" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="E203" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D204" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="E204" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" thickBot="1">
+      <c r="A205" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D205" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E205" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" thickBot="1">
+      <c r="A206" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D206" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E206" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" thickBot="1">
+      <c r="A207" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D207" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E207" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" thickBot="1">
+      <c r="A208" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D208" s="6">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E208" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" thickBot="1">
+      <c r="A209" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D209" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E209" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A210" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D210" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E210" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A211" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D211" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E211" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" thickBot="1">
+      <c r="A212" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D212" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="E212" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" thickBot="1">
+      <c r="A213" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D213" s="6">
+        <v>11</v>
+      </c>
+      <c r="E213" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" thickBot="1">
+      <c r="A214" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D214" s="6">
+        <v>0</v>
+      </c>
+      <c r="E214" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A215" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D215" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E215" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A216" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D216" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E216" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" thickBot="1">
+      <c r="A217" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D217" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="E217" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" thickBot="1">
+      <c r="A218" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D218" s="6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E218" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A219" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D219" s="6">
+        <v>22.1</v>
+      </c>
+      <c r="E219" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" thickBot="1">
+      <c r="A220" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D220" s="6">
+        <v>14</v>
+      </c>
+      <c r="E220" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" thickBot="1">
+      <c r="A221" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D221" s="6">
+        <v>10</v>
+      </c>
+      <c r="E221" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" thickBot="1">
+      <c r="A222" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D222" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="E222" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" thickBot="1">
+      <c r="A223" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D223" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E223" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" thickBot="1">
+      <c r="A224" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D224" s="6">
+        <v>5</v>
+      </c>
+      <c r="E224" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" thickBot="1">
+      <c r="A225" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D225" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="E225" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" thickBot="1">
+      <c r="A226" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D226" s="6">
+        <v>0</v>
+      </c>
+      <c r="E226" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D227" s="6">
+        <v>13</v>
+      </c>
+      <c r="E227" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" thickBot="1">
+      <c r="A228" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D228" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="E228" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" thickBot="1">
+      <c r="A229" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D229" s="6">
+        <v>17</v>
+      </c>
+      <c r="E229" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" thickBot="1">
+      <c r="A230" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D230" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E230" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" thickBot="1">
+      <c r="A231" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D231" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E231" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" thickBot="1">
+      <c r="A232" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D232" s="6">
+        <v>8</v>
+      </c>
+      <c r="E232" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15" thickBot="1">
+      <c r="A233" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D233" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="E233" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A234" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D234" s="6">
+        <v>0</v>
+      </c>
+      <c r="E234" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" thickBot="1">
+      <c r="A235" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D235" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="E235" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" thickBot="1">
+      <c r="A236" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D236" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="E236" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15" thickBot="1">
+      <c r="A237" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D237" s="6">
+        <v>0</v>
+      </c>
+      <c r="E237" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15" thickBot="1">
+      <c r="A238" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D238" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="E238" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" thickBot="1">
+      <c r="A239" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D239" s="6">
+        <v>21.1</v>
+      </c>
+      <c r="E239" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15" thickBot="1">
+      <c r="A240" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D240" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="E240" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" thickBot="1">
+      <c r="A241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D241" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="E241" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15" thickBot="1">
+      <c r="A242" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D242" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="E242" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A243" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D243" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="E243" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A244" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D244" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="E244" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15" thickBot="1">
+      <c r="A245" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D245" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E245" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15" thickBot="1">
+      <c r="A246" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D246" s="6">
+        <v>0</v>
+      </c>
+      <c r="E246" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15" thickBot="1">
+      <c r="A247" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D247" s="6">
+        <v>14</v>
+      </c>
+      <c r="E247" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A248" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D248" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E248" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A249" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D249" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="E249" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15" thickBot="1">
+      <c r="A250" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D250" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E250" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15" thickBot="1">
+      <c r="A251" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D251" s="6">
+        <v>2</v>
+      </c>
+      <c r="E251" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15" thickBot="1">
+      <c r="A252" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D252" s="6">
+        <v>0</v>
+      </c>
+      <c r="E252" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15" thickBot="1">
+      <c r="A253" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D253" s="6">
+        <v>11</v>
+      </c>
+      <c r="E253" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A254" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D254" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E254" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15" thickBot="1">
+      <c r="A255" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D255" s="6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E255" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15" thickBot="1">
+      <c r="A256" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D256" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="E256" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15" thickBot="1">
+      <c r="A257" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D257" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="E257" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15" thickBot="1">
+      <c r="A258" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D258" s="6">
+        <v>19.7</v>
+      </c>
+      <c r="E258" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15" thickBot="1">
+      <c r="A259" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D259" s="6">
+        <v>16.3</v>
+      </c>
+      <c r="E259" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15" thickBot="1">
+      <c r="A260" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D260" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="E260" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15" thickBot="1">
+      <c r="A261" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D261" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E261" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15" thickBot="1">
+      <c r="A262" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D262" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E262" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15" thickBot="1">
+      <c r="A263" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D263" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E263" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15" thickBot="1">
+      <c r="A264" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D264" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="E264" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15" thickBot="1">
+      <c r="A265" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D265" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E265" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15" thickBot="1">
+      <c r="A266" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D266" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="E266" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15" thickBot="1">
+      <c r="A267" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D267" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="E267" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15" thickBot="1">
+      <c r="A268" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D268" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="E268" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15" thickBot="1">
+      <c r="A269" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D269" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E269" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15" thickBot="1">
+      <c r="A270" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D270" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="E270" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A271" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D271" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="E271" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15" thickBot="1">
+      <c r="A272" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D272" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="E272" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A273" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D273" s="6">
+        <v>11</v>
+      </c>
+      <c r="E273" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15" thickBot="1">
+      <c r="A274" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D274" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E274" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15" thickBot="1">
+      <c r="A275" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D275" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E275" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15" thickBot="1">
+      <c r="A276" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D276" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E276" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15" thickBot="1">
+      <c r="A277" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D277" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="E277" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15" thickBot="1">
+      <c r="A278" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D278" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E278" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15" thickBot="1">
+      <c r="A279" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D279" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E279" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15" thickBot="1">
+      <c r="A280" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D280" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E280" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15" thickBot="1">
+      <c r="A281" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D281" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="E281" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15" thickBot="1">
+      <c r="A282" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D282" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="E282" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15" thickBot="1">
+      <c r="A283" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D283" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E283" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15" thickBot="1">
+      <c r="A284" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D284" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E284" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="15" thickBot="1">
+      <c r="A285" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D285" s="6">
+        <v>6</v>
+      </c>
+      <c r="E285" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15" thickBot="1">
+      <c r="A286" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D286" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E286" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15" thickBot="1">
+      <c r="A287" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D287" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="E287" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15" thickBot="1">
+      <c r="A288" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D288" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="E288" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15" thickBot="1">
+      <c r="A289" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D289" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="E289" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15" thickBot="1">
+      <c r="A290" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D290" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="E290" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15" thickBot="1">
+      <c r="A291" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D291" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E291" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15" thickBot="1">
+      <c r="A292" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D292" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="E292" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15" thickBot="1">
+      <c r="A293" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D293" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E293" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15" thickBot="1">
+      <c r="A294" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D294" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E294" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15" thickBot="1">
+      <c r="A295" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D295" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="E295" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15" thickBot="1">
+      <c r="A296" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D296" s="6">
+        <v>0</v>
+      </c>
+      <c r="E296" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="15" thickBot="1">
+      <c r="A297" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D297" s="6">
+        <v>1</v>
+      </c>
+      <c r="E297" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15" thickBot="1">
+      <c r="A298" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D298" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="E298" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="15" thickBot="1">
+      <c r="A299" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D299" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E299" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15" thickBot="1">
+      <c r="A300" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D300" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="E300" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="15" thickBot="1">
+      <c r="A301" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D301" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E301" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15" thickBot="1">
+      <c r="A302" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D302" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E302" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15" thickBot="1">
+      <c r="A303" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D303" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E303" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15" thickBot="1">
+      <c r="A304" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D304" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="E304" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15" thickBot="1">
+      <c r="A305" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D305" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="E305" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15" thickBot="1">
+      <c r="A306" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D306" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="E306" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="15" thickBot="1">
+      <c r="A307" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D307" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="E307" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15" thickBot="1">
+      <c r="A308" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D308" s="6">
+        <v>8</v>
+      </c>
+      <c r="E308" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="15" thickBot="1">
+      <c r="A309" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D309" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="E309" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15" thickBot="1">
+      <c r="A310" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D310" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="E310" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15" thickBot="1">
+      <c r="A311" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D311" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="E311" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A312" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D312" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="E312" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15" thickBot="1">
+      <c r="A313" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D313" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="E313" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15" thickBot="1">
+      <c r="A314" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D314" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E314" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15" thickBot="1">
+      <c r="A315" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D315" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="E315" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15" thickBot="1">
+      <c r="A316" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D316" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E316" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15" thickBot="1">
+      <c r="A317" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D317" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E317" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="15" thickBot="1">
+      <c r="A318" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D318" s="6">
+        <v>16.7</v>
+      </c>
+      <c r="E318" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A319" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D319" s="6">
+        <v>22.3</v>
+      </c>
+      <c r="E319" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15" thickBot="1">
+      <c r="A320" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D320" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="E320" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="15" thickBot="1">
+      <c r="A321" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D321" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="E321" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15" thickBot="1">
+      <c r="A322" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D322" s="6">
+        <v>0</v>
+      </c>
+      <c r="E322" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15" thickBot="1">
+      <c r="A323" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D323" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="E323" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15" thickBot="1">
+      <c r="A324" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D324" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E324" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15" thickBot="1">
+      <c r="A325" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D325" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E325" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15" thickBot="1">
+      <c r="A326" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D326" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E326" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15" thickBot="1">
+      <c r="A327" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D327" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="E327" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15" thickBot="1">
+      <c r="A328" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D328" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="E328" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15" thickBot="1">
+      <c r="A329" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D329" s="6">
+        <v>26.4</v>
+      </c>
+      <c r="E329" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15" thickBot="1">
+      <c r="A330" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D330" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E330" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A331" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D331" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="E331" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15" thickBot="1">
+      <c r="A332" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D332" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="E332" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="15" thickBot="1">
+      <c r="A333" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D333" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E333" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15" thickBot="1">
+      <c r="A334" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D334" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="E334" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15" thickBot="1">
+      <c r="A335" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D335" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E335" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15" thickBot="1">
+      <c r="A336" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D336" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E336" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="15" thickBot="1">
+      <c r="A337" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D337" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E337" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="15" thickBot="1">
+      <c r="A338" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D338" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="E338" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15" thickBot="1">
+      <c r="A339" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D339" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="E339" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="15" thickBot="1">
+      <c r="A340" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D340" s="6">
+        <v>15</v>
+      </c>
+      <c r="E340" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15" thickBot="1">
+      <c r="A341" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D341" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="E341" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="15" thickBot="1">
+      <c r="A342" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D342" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E342" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A343" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D343" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="E343" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="15" thickBot="1">
+      <c r="A344" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D344" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="E344" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="15" thickBot="1">
+      <c r="A345" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D345" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E345" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="15" thickBot="1">
+      <c r="A346" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D346" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="E346" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="15" thickBot="1">
+      <c r="A347" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D347" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E347" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="15" thickBot="1">
+      <c r="A348" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D348" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E348" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15" thickBot="1">
+      <c r="A349" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D349" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="E349" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15" thickBot="1">
+      <c r="A350" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D350" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E350" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A351" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D351" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="E351" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A352" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D352" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E352" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="15" thickBot="1">
+      <c r="A353" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D353" s="6">
+        <v>10</v>
+      </c>
+      <c r="E353" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15" thickBot="1">
+      <c r="A354" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D354" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E354" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15" thickBot="1">
+      <c r="A355" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D355" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="E355" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15" thickBot="1">
+      <c r="A356" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D356" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E356" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15" thickBot="1">
+      <c r="A357" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D357" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E357" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15" thickBot="1">
+      <c r="A358" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D358" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="E358" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A359" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D359" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="E359" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15" thickBot="1">
+      <c r="A360" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D360" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="E360" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15" thickBot="1">
+      <c r="A361" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D361" s="6">
+        <v>0</v>
+      </c>
+      <c r="E361" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15" thickBot="1">
+      <c r="A362" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D362" s="6">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E362" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A363" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D363" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E363" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15" thickBot="1">
+      <c r="A364" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D364" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="E364" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15" thickBot="1">
+      <c r="A365" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B365" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D365" s="6">
+        <v>5</v>
+      </c>
+      <c r="E365" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15" thickBot="1">
+      <c r="A366" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D366" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E366" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="15" thickBot="1">
+      <c r="A367" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D367" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="E367" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="15" thickBot="1">
+      <c r="A368" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D368" s="6">
+        <v>3</v>
+      </c>
+      <c r="E368" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A369" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D369" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E369" s="18">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E449" xr:uid="{0EDCCA3B-2BAF-4D3D-B34A-7405F2EEA108}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5851B4D-33F2-41FB-843D-47B4FA4E94C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBE75F2-2B96-40D2-84FE-A1988E894F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="11-12" sheetId="17" r:id="rId5"/>
     <sheet name="11-19" sheetId="18" r:id="rId6"/>
     <sheet name="11-26" sheetId="19" r:id="rId7"/>
+    <sheet name="12-3" sheetId="20" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -28,6 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'11-12'!$A$1:$E$471</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'11-19'!$A$1:$E$374</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'11-26'!$A$1:$E$449</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'12-3'!$A$1:$C$236</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6404" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6877" uniqueCount="864">
   <si>
     <t>PG</t>
   </si>
@@ -2599,6 +2601,48 @@
   </si>
   <si>
     <t>Doug McDermottINJ</t>
+  </si>
+  <si>
+    <t>Devin BookerINJ</t>
+  </si>
+  <si>
+    <t>Jaylen BrownO</t>
+  </si>
+  <si>
+    <t>Jalen GreenINJ</t>
+  </si>
+  <si>
+    <t>Nicolas BatumINJ</t>
+  </si>
+  <si>
+    <t>Bogdan BogdanovicINJ</t>
+  </si>
+  <si>
+    <t>Ben SimmonsINJ</t>
+  </si>
+  <si>
+    <t>Shake Milton</t>
+  </si>
+  <si>
+    <t>Jaden McDanielsO</t>
+  </si>
+  <si>
+    <t>Willie Cauley-SteinO</t>
+  </si>
+  <si>
+    <t>Frank NtilikinaINJ</t>
+  </si>
+  <si>
+    <t>Jalen SuggsINJ</t>
+  </si>
+  <si>
+    <t>Usman GarubaO</t>
+  </si>
+  <si>
+    <t>Enes Freedom</t>
+  </si>
+  <si>
+    <t>Udoka AzubuikeO</t>
   </si>
 </sst>
 </file>
@@ -33604,8 +33648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDCCA3B-2BAF-4D3D-B34A-7405F2EEA108}">
   <dimension ref="A1:E369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -39888,4 +39932,2620 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C28F93-40A9-4C13-9E1C-FA5B5196AC00}">
+  <dimension ref="A1:C236"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1">
+      <c r="A100" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1">
+      <c r="A102" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1">
+      <c r="A122" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1">
+      <c r="A131" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1">
+      <c r="A132" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1">
+      <c r="A138" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" thickBot="1">
+      <c r="A153" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" thickBot="1">
+      <c r="A165" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" thickBot="1">
+      <c r="A174" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1">
+      <c r="A181" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" thickBot="1">
+      <c r="A189" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" thickBot="1">
+      <c r="A198" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" thickBot="1">
+      <c r="A203" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" thickBot="1">
+      <c r="A205" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" thickBot="1">
+      <c r="A206" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" thickBot="1">
+      <c r="A207" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" thickBot="1">
+      <c r="A208" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" thickBot="1">
+      <c r="A209" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" thickBot="1">
+      <c r="A210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" thickBot="1">
+      <c r="A211" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A212" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A213" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C213" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" thickBot="1">
+      <c r="A214" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" thickBot="1">
+      <c r="A215" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" thickBot="1">
+      <c r="A216" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" thickBot="1">
+      <c r="A217" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" thickBot="1">
+      <c r="A218" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A219" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A220" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" thickBot="1">
+      <c r="A221" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15" thickBot="1">
+      <c r="A222" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15" thickBot="1">
+      <c r="A223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" thickBot="1">
+      <c r="A224" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15" thickBot="1">
+      <c r="A225" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" thickBot="1">
+      <c r="A226" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" thickBot="1">
+      <c r="A227" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" thickBot="1">
+      <c r="A228" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" thickBot="1">
+      <c r="A229" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" thickBot="1">
+      <c r="A230" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" thickBot="1">
+      <c r="A231" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A232" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" thickBot="1">
+      <c r="A233" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B233" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A234" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" thickBot="1">
+      <c r="A235" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.4" customHeight="1">
+      <c r="A236" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="18">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C236" xr:uid="{07C28F93-40A9-4C13-9E1C-FA5B5196AC00}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBE75F2-2B96-40D2-84FE-A1988E894F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8990F4CF-7A9A-47F4-90D1-F1DC5C4ABBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="11-12" sheetId="17" r:id="rId5"/>
     <sheet name="11-19" sheetId="18" r:id="rId6"/>
     <sheet name="11-26" sheetId="19" r:id="rId7"/>
-    <sheet name="12-3" sheetId="20" r:id="rId8"/>
+    <sheet name="12-03" sheetId="20" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'11-12'!$A$1:$E$471</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'11-19'!$A$1:$E$374</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'11-26'!$A$1:$E$449</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'12-3'!$A$1:$C$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'12-03'!$A$1:$C$236</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39939,7 +39939,7 @@
   <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8990F4CF-7A9A-47F4-90D1-F1DC5C4ABBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A511E1-C866-4331-8EC6-3862D403E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6877" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6877" uniqueCount="867">
   <si>
     <t>PG</t>
   </si>
@@ -2643,6 +2643,15 @@
   </si>
   <si>
     <t>Udoka AzubuikeO</t>
+  </si>
+  <si>
+    <t>LeBron JameSNO</t>
+  </si>
+  <si>
+    <t>Rudy GobertNO</t>
+  </si>
+  <si>
+    <t>Josh HartNO</t>
   </si>
 </sst>
 </file>
@@ -39938,8 +39947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C28F93-40A9-4C13-9E1C-FA5B5196AC00}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -40037,7 +40046,7 @@
     </row>
     <row r="9" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>290</v>
+        <v>864</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
@@ -40092,7 +40101,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>194</v>
+        <v>865</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>4</v>
@@ -40554,7 +40563,7 @@
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>684</v>
+        <v>866</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>2</v>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A511E1-C866-4331-8EC6-3862D403E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7DF18-8E0C-4EC8-9918-A2190800FC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="11-19" sheetId="18" r:id="rId6"/>
     <sheet name="11-26" sheetId="19" r:id="rId7"/>
     <sheet name="12-03" sheetId="20" r:id="rId8"/>
+    <sheet name="12-10" sheetId="21" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -30,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'11-19'!$A$1:$E$374</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'11-26'!$A$1:$E$449</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'12-03'!$A$1:$C$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'12-10'!$A$1:$C$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6877" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7352" uniqueCount="880">
   <si>
     <t>PG</t>
   </si>
@@ -2652,6 +2654,45 @@
   </si>
   <si>
     <t>Josh HartNO</t>
+  </si>
+  <si>
+    <t>Khem BirchINJ</t>
+  </si>
+  <si>
+    <t>Solomon HillINJ</t>
+  </si>
+  <si>
+    <t>George HillINJ</t>
+  </si>
+  <si>
+    <t>DeMarcus Cousins</t>
+  </si>
+  <si>
+    <t>Javonte Smart</t>
+  </si>
+  <si>
+    <t>Usman GarubaINJ</t>
+  </si>
+  <si>
+    <t>Rajon RondoO</t>
+  </si>
+  <si>
+    <t>Kelly OlynykINJ</t>
+  </si>
+  <si>
+    <t>Isaiah Livers</t>
+  </si>
+  <si>
+    <t>Kira Lewis Jr.INJ</t>
+  </si>
+  <si>
+    <t>Goran DragicINJ</t>
+  </si>
+  <si>
+    <t>Yuta Watanabe</t>
+  </si>
+  <si>
+    <t>Bruno FernandoO</t>
   </si>
 </sst>
 </file>
@@ -2731,7 +2772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2792,6 +2833,15 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -39947,7 +39997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C28F93-40A9-4C13-9E1C-FA5B5196AC00}">
   <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
@@ -42557,4 +42607,2631 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E699F271-B125-4180-BA2B-BFABBA056320}">
+  <dimension ref="A1:C237"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.4" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1">
+      <c r="A102" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1">
+      <c r="A103" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1">
+      <c r="A133" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1">
+      <c r="A143" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" thickBot="1">
+      <c r="A153" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" thickBot="1">
+      <c r="A162" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" thickBot="1">
+      <c r="A163" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" thickBot="1">
+      <c r="A185" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" thickBot="1">
+      <c r="A187" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" thickBot="1">
+      <c r="A189" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1">
+      <c r="A195" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" thickBot="1">
+      <c r="A203" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" thickBot="1">
+      <c r="A205" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" thickBot="1">
+      <c r="A206" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" thickBot="1">
+      <c r="A207" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" thickBot="1">
+      <c r="A208" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" thickBot="1">
+      <c r="A209" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" thickBot="1">
+      <c r="A210" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" thickBot="1">
+      <c r="A211" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" thickBot="1">
+      <c r="A212" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A213" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A214" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" thickBot="1">
+      <c r="A215" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" thickBot="1">
+      <c r="A216" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" thickBot="1">
+      <c r="A217" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A218" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" thickBot="1">
+      <c r="A219" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15" thickBot="1">
+      <c r="A220" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A221" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A222" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15" thickBot="1">
+      <c r="A223" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" thickBot="1">
+      <c r="A224" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A225" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" thickBot="1">
+      <c r="A226" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" thickBot="1">
+      <c r="A227" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" thickBot="1">
+      <c r="A228" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" thickBot="1">
+      <c r="A229" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" thickBot="1">
+      <c r="A230" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" thickBot="1">
+      <c r="A231" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15" thickBot="1">
+      <c r="A232" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" thickBot="1">
+      <c r="A233" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B233" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15" thickBot="1">
+      <c r="A234" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" thickBot="1">
+      <c r="A235" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15" thickBot="1">
+      <c r="A236" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.4" customHeight="1">
+      <c r="A237" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C237" xr:uid="{E699F271-B125-4180-BA2B-BFABBA056320}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7DF18-8E0C-4EC8-9918-A2190800FC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AD1FC-844D-446F-B3EB-BE9BFA83A142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7352" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7352" uniqueCount="885">
   <si>
     <t>PG</t>
   </si>
@@ -2693,6 +2693,21 @@
   </si>
   <si>
     <t>Bruno FernandoO</t>
+  </si>
+  <si>
+    <t>LeBron Jamesoo</t>
+  </si>
+  <si>
+    <t>Anthony Davisoo</t>
+  </si>
+  <si>
+    <t>D'Angelo Russelloo</t>
+  </si>
+  <si>
+    <t>Deandre Aytonoo</t>
+  </si>
+  <si>
+    <t>Precious Achiuwaoo</t>
   </si>
 </sst>
 </file>
@@ -42613,8 +42628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E699F271-B125-4180-BA2B-BFABBA056320}">
   <dimension ref="A1:C237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -42668,7 +42683,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>510</v>
+        <v>881</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
@@ -42690,7 +42705,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>290</v>
+        <v>880</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>2</v>
@@ -42811,7 +42826,7 @@
     </row>
     <row r="18" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>378</v>
+        <v>882</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>1</v>
@@ -42965,7 +42980,7 @@
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>200</v>
+        <v>883</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>4</v>
@@ -43460,7 +43475,7 @@
     </row>
     <row r="77" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A77" s="2" t="s">
-        <v>272</v>
+        <v>884</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>4</v>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AD1FC-844D-446F-B3EB-BE9BFA83A142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10966FFD-7C88-42CA-9B63-77DE1CFF8769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="11-26" sheetId="19" r:id="rId7"/>
     <sheet name="12-03" sheetId="20" r:id="rId8"/>
     <sheet name="12-10" sheetId="21" r:id="rId9"/>
+    <sheet name="12-16" sheetId="22" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -32,6 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'11-26'!$A$1:$E$449</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'12-03'!$A$1:$C$236</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'12-10'!$A$1:$C$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'12-16'!$A$1:$C$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7352" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7625" uniqueCount="902">
   <si>
     <t>PG</t>
   </si>
@@ -2708,6 +2710,57 @@
   </si>
   <si>
     <t>Precious Achiuwaoo</t>
+  </si>
+  <si>
+    <t>James HardenINJ</t>
+  </si>
+  <si>
+    <t>Christian WoodO</t>
+  </si>
+  <si>
+    <t>LaMarcus AldridgeINJ</t>
+  </si>
+  <si>
+    <t>RJ BarrettINJ</t>
+  </si>
+  <si>
+    <t>Eric GordonO</t>
+  </si>
+  <si>
+    <t>Quentin GrimesINJ</t>
+  </si>
+  <si>
+    <t>James JohnsonINJ</t>
+  </si>
+  <si>
+    <t>Obi ToppinINJ</t>
+  </si>
+  <si>
+    <t>Furkan KorkmazO</t>
+  </si>
+  <si>
+    <t>Georges NiangINJ</t>
+  </si>
+  <si>
+    <t>Jaden SpringerINJ</t>
+  </si>
+  <si>
+    <t>DeAndre' BembryINJ</t>
+  </si>
+  <si>
+    <t>Jevon CarterINJ</t>
+  </si>
+  <si>
+    <t>Bruce BrownINJ</t>
+  </si>
+  <si>
+    <t>Danuel House Jr.INJ</t>
+  </si>
+  <si>
+    <t>T.J. McConnellINJ</t>
+  </si>
+  <si>
+    <t>Torrey CraigO</t>
   </si>
 </sst>
 </file>
@@ -9164,6 +9217,1658 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E984F6-2202-4586-892B-56CC6FDC1729}">
+  <dimension ref="A1:E136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>14</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="10">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="10">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="10">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="10">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="10">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="10">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="10">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="10">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="10">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="10">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="10">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="10">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="10">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="10">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="10">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="10">
+        <v>10</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="10">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="10">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="10">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1">
+      <c r="A66" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1">
+      <c r="A67" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="7">
+        <v>10</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="10">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="10">
+        <v>10</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="10">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="10">
+        <v>10</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="10">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="10">
+        <v>10</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="10">
+        <v>10</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="10">
+        <v>10</v>
+      </c>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="10">
+        <v>10</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10">
+        <v>10</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="10">
+        <v>10</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1">
+      <c r="A79" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7">
+        <v>10</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="10">
+        <v>10</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="10">
+        <v>10</v>
+      </c>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="10">
+        <v>10</v>
+      </c>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="10">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="10">
+        <v>10</v>
+      </c>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="10">
+        <v>10</v>
+      </c>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="10">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="10">
+        <v>10</v>
+      </c>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="10">
+        <v>10</v>
+      </c>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" ht="15" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="10">
+        <v>10</v>
+      </c>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="10">
+        <v>10</v>
+      </c>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="10">
+        <v>10</v>
+      </c>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10">
+        <v>10</v>
+      </c>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1">
+      <c r="A93" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="7">
+        <v>10</v>
+      </c>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="10">
+        <v>10</v>
+      </c>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="10">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="10">
+        <v>10</v>
+      </c>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="10">
+        <v>10</v>
+      </c>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="10">
+        <v>10</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="10">
+        <v>10</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" ht="15" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="10">
+        <v>10</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="10">
+        <v>10</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="10">
+        <v>10</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1">
+      <c r="A103" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="7">
+        <v>10</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="10">
+        <v>10</v>
+      </c>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" thickBot="1">
+      <c r="A105" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="7">
+        <v>10</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="10">
+        <v>10</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="10">
+        <v>10</v>
+      </c>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="10">
+        <v>10</v>
+      </c>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="10">
+        <v>10</v>
+      </c>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="10">
+        <v>10</v>
+      </c>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="10">
+        <v>10</v>
+      </c>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="10">
+        <v>10</v>
+      </c>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="10">
+        <v>10</v>
+      </c>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" ht="15" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="10">
+        <v>10</v>
+      </c>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="10">
+        <v>10</v>
+      </c>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="10">
+        <v>10</v>
+      </c>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="10">
+        <v>10</v>
+      </c>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" ht="15" thickBot="1">
+      <c r="A118" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="7">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="10">
+        <v>10</v>
+      </c>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="10">
+        <v>10</v>
+      </c>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="10">
+        <v>10</v>
+      </c>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="10">
+        <v>10</v>
+      </c>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="10">
+        <v>10</v>
+      </c>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="10">
+        <v>10</v>
+      </c>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="10">
+        <v>10</v>
+      </c>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="10">
+        <v>10</v>
+      </c>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="10">
+        <v>10</v>
+      </c>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="10">
+        <v>10</v>
+      </c>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="10">
+        <v>10</v>
+      </c>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="10">
+        <v>10</v>
+      </c>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="10">
+        <v>10</v>
+      </c>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="10">
+        <v>10</v>
+      </c>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="10">
+        <v>10</v>
+      </c>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="10">
+        <v>10</v>
+      </c>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A136" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="10">
+        <v>10</v>
+      </c>
+      <c r="E136" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C136" xr:uid="{99E984F6-2202-4586-892B-56CC6FDC1729}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C0FC0C-9C64-4E9F-A831-E4C62061EEA5}">
   <dimension ref="A1:E367"/>
@@ -42628,8 +44333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E699F271-B125-4180-BA2B-BFABBA056320}">
   <dimension ref="A1:C237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10966FFD-7C88-42CA-9B63-77DE1CFF8769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78A5AF-488D-4A2D-AFD2-BCED9A6824B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7625" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="903">
   <si>
     <t>PG</t>
   </si>
@@ -2724,9 +2724,6 @@
     <t>RJ BarrettINJ</t>
   </si>
   <si>
-    <t>Eric GordonO</t>
-  </si>
-  <si>
     <t>Quentin GrimesINJ</t>
   </si>
   <si>
@@ -2760,7 +2757,13 @@
     <t>T.J. McConnellINJ</t>
   </si>
   <si>
-    <t>Torrey CraigO</t>
+    <t>Spencer DinwiddieO</t>
+  </si>
+  <si>
+    <t>Kevin Knox IIINJ</t>
+  </si>
+  <si>
+    <t>Luka SamanicGTD</t>
   </si>
 </sst>
 </file>
@@ -9219,10 +9222,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E984F6-2202-4586-892B-56CC6FDC1729}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9230,1637 +9233,1495 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.4" thickBot="1">
-      <c r="A1" s="24" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="18">
         <v>52</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>597</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="18">
         <v>49</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="4" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>885</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="18">
         <v>48</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18">
         <v>38</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="18">
         <v>36</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18">
         <v>35</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>598</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="18">
         <v>34</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>886</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="18">
         <v>32</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="10" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
+        <v>616</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
         <v>32</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="11" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>850</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="18">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="18">
         <v>28</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="13" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>672</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="18">
         <v>28</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="14" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="18">
         <v>27</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="18">
         <v>27</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="16" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="18">
         <v>25</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="18">
         <v>25</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="18">
         <v>23</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="18">
         <v>23</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18">
         <v>21</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="21" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>887</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="18">
         <v>20</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="22" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>888</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="18">
         <v>20</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18">
         <v>20</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="18">
         <v>19</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="25" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>518</v>
+        <v>900</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="18">
         <v>19</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>327</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="18">
         <v>18</v>
       </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="18">
         <v>18</v>
       </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
       <c r="A28" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="18">
         <v>18</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1">
       <c r="A29" s="2" t="s">
         <v>678</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="18">
         <v>17</v>
       </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="18">
         <v>17</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="18">
         <v>17</v>
       </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>852</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="18">
         <v>16</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="18">
         <v>15</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="34" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A34" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="18">
         <v>15</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
       <c r="A35" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="18">
         <v>14</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>889</v>
+        <v>208</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="18">
         <v>14</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1">
       <c r="A37" s="2" t="s">
         <v>529</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="18">
         <v>14</v>
       </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1">
       <c r="A38" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="18">
         <v>14</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="39" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>827</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="18">
         <v>14</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>627</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="18">
         <v>13</v>
       </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1">
       <c r="A41" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="18">
         <v>13</v>
       </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
       <c r="A42" s="2" t="s">
         <v>769</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="18">
         <v>13</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="18">
         <v>13</v>
       </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>856</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="18">
         <v>12</v>
       </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>538</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="18">
         <v>12</v>
       </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1">
       <c r="A46" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="18">
         <v>12</v>
       </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1">
       <c r="A47" s="2" t="s">
         <v>531</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="18">
         <v>12</v>
       </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="48" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="18">
         <v>12</v>
       </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>526</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="18">
         <v>12</v>
       </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="18">
         <v>12</v>
       </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="18">
         <v>12</v>
       </c>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="18">
         <v>11</v>
       </c>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+    </row>
+    <row r="53" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="18">
         <v>11</v>
       </c>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>533</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="18">
         <v>11</v>
       </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="18">
         <v>11</v>
       </c>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
       <c r="A56" s="2" t="s">
         <v>404</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="18">
         <v>11</v>
       </c>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="18">
         <v>11</v>
       </c>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" thickBot="1">
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
       <c r="A58" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="10">
-        <v>10</v>
-      </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C58" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A59" s="2" t="s">
         <v>855</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="10">
-        <v>10</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C59" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A60" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="10">
-        <v>10</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" thickBot="1">
-      <c r="A61" s="2" t="s">
-        <v>894</v>
-      </c>
       <c r="B61" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="10">
-        <v>10</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1">
+      <c r="C61" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1">
       <c r="A62" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="10">
-        <v>10</v>
-      </c>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1">
+      <c r="C62" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1">
       <c r="A63" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="10">
-        <v>10</v>
-      </c>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1">
+      <c r="C63" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1">
       <c r="A64" s="2" t="s">
         <v>536</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="10">
-        <v>10</v>
-      </c>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1">
+      <c r="C64" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1">
       <c r="A65" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="10">
-        <v>10</v>
-      </c>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1">
+      <c r="C65" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="7">
-        <v>10</v>
-      </c>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1">
+      <c r="C66" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1">
       <c r="A67" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="7">
-        <v>10</v>
-      </c>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C67" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A68" s="2" t="s">
         <v>796</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="10">
-        <v>10</v>
-      </c>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" ht="15" thickBot="1">
+      <c r="C68" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1">
       <c r="A69" s="2" t="s">
         <v>530</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="10">
-        <v>10</v>
-      </c>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C69" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A70" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="10">
-        <v>10</v>
-      </c>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="10">
-        <v>10</v>
-      </c>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" ht="15" thickBot="1">
-      <c r="A72" s="2" t="s">
-        <v>898</v>
-      </c>
       <c r="B72" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="10">
-        <v>10</v>
-      </c>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" ht="15" thickBot="1">
+      <c r="C72" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1">
       <c r="A73" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="10">
-        <v>10</v>
-      </c>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" ht="15" thickBot="1">
+      <c r="C73" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1">
       <c r="A74" s="2" t="s">
         <v>532</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="10">
-        <v>10</v>
-      </c>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" thickBot="1">
+      <c r="C74" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1">
       <c r="A75" s="2" t="s">
         <v>723</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="10">
-        <v>10</v>
-      </c>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" ht="15" thickBot="1">
+      <c r="C75" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1">
       <c r="A76" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="10">
-        <v>10</v>
-      </c>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" ht="15" thickBot="1">
+      <c r="B76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="10">
-        <v>10</v>
-      </c>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" ht="15" thickBot="1">
+      <c r="C77" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1">
       <c r="A78" s="2" t="s">
         <v>724</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="10">
-        <v>10</v>
-      </c>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" ht="15" thickBot="1">
+      <c r="C78" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1">
       <c r="A79" s="1" t="s">
         <v>596</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="7">
-        <v>10</v>
-      </c>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" ht="15" thickBot="1">
+      <c r="C79" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1">
       <c r="A80" s="2" t="s">
-        <v>136</v>
+        <v>901</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="10">
-        <v>10</v>
-      </c>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C80" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A81" s="2" t="s">
-        <v>298</v>
+        <v>902</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="10">
-        <v>10</v>
-      </c>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1">
+      <c r="C81" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1">
       <c r="A82" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="10">
-        <v>10</v>
-      </c>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" ht="15" thickBot="1">
+      <c r="C82" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1">
       <c r="A83" s="2" t="s">
         <v>591</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="10">
-        <v>10</v>
-      </c>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" thickBot="1">
+      <c r="C83" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1">
       <c r="A84" s="2" t="s">
         <v>592</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="10">
-        <v>10</v>
-      </c>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" ht="15" thickBot="1">
+      <c r="C84" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="10">
-        <v>10</v>
-      </c>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" ht="15" thickBot="1">
+      <c r="C85" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1">
       <c r="A86" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="10">
-        <v>10</v>
-      </c>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C86" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A87" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="10">
-        <v>10</v>
-      </c>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" ht="15" thickBot="1">
+      <c r="C87" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1">
       <c r="A88" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="10">
-        <v>10</v>
-      </c>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" ht="15" thickBot="1">
+      <c r="C88" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1">
       <c r="A89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="10">
-        <v>10</v>
-      </c>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" ht="15" thickBot="1">
+      <c r="C89" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1">
       <c r="A90" s="2" t="s">
         <v>770</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="10">
-        <v>10</v>
-      </c>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" ht="15" thickBot="1">
+      <c r="C90" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1">
       <c r="A91" s="2" t="s">
         <v>582</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="10">
-        <v>10</v>
-      </c>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C91" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A92" s="2" t="s">
         <v>583</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="10">
-        <v>10</v>
-      </c>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" ht="15" thickBot="1">
+      <c r="C92" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1">
       <c r="A93" s="1" t="s">
         <v>584</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="7">
-        <v>10</v>
-      </c>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" ht="15" thickBot="1">
+      <c r="C93" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1">
       <c r="A94" s="2" t="s">
         <v>692</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="10">
-        <v>10</v>
-      </c>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" ht="15" thickBot="1">
+      <c r="C94" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1">
       <c r="A95" s="2" t="s">
         <v>874</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="10">
-        <v>10</v>
-      </c>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" ht="15" thickBot="1">
+      <c r="C95" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1">
       <c r="A96" s="2" t="s">
         <v>693</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="10">
-        <v>10</v>
-      </c>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" ht="15" thickBot="1">
+      <c r="C96" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1">
       <c r="A97" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="10">
-        <v>10</v>
-      </c>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" ht="15" thickBot="1">
+      <c r="C97" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1">
       <c r="A98" s="2" t="s">
         <v>694</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C98" s="10">
-        <v>10</v>
-      </c>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" ht="15" thickBot="1">
+      <c r="C98" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1">
       <c r="A99" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="10">
-        <v>10</v>
-      </c>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" ht="15" thickBot="1">
+      <c r="C99" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1">
       <c r="A100" s="2" t="s">
         <v>695</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="10">
-        <v>10</v>
-      </c>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" ht="15" thickBot="1">
+      <c r="C100" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1">
       <c r="A101" s="2" t="s">
         <v>390</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="10">
-        <v>10</v>
-      </c>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C101" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1">
       <c r="A102" s="2" t="s">
         <v>399</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="10">
-        <v>10</v>
-      </c>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" ht="15" thickBot="1">
+      <c r="C102" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1">
       <c r="A103" s="1" t="s">
         <v>875</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="7">
-        <v>10</v>
-      </c>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" ht="15" thickBot="1">
+      <c r="C103" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1">
       <c r="A104" s="2" t="s">
         <v>697</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C104" s="10">
-        <v>10</v>
-      </c>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" ht="15" thickBot="1">
+      <c r="C104" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1">
       <c r="A105" s="1" t="s">
         <v>698</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="7">
-        <v>10</v>
-      </c>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" ht="15" thickBot="1">
+      <c r="C105" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1">
       <c r="A106" s="2" t="s">
         <v>699</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="10">
-        <v>10</v>
-      </c>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C106" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A107" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="10">
-        <v>10</v>
-      </c>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" ht="15" thickBot="1">
+      <c r="C107" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1">
       <c r="A108" s="2" t="s">
         <v>605</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C108" s="10">
-        <v>10</v>
-      </c>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" ht="15" thickBot="1">
+      <c r="C108" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1">
       <c r="A109" s="2" t="s">
         <v>603</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="10">
-        <v>10</v>
-      </c>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C109" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A110" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="10">
-        <v>10</v>
-      </c>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C110" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A111" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="10">
-        <v>10</v>
-      </c>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" ht="15" thickBot="1">
+      <c r="C111" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1">
       <c r="A112" s="2" t="s">
-        <v>901</v>
+        <v>606</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C112" s="10">
-        <v>10</v>
-      </c>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" ht="15" thickBot="1">
+      <c r="C112" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1">
       <c r="A113" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C113" s="10">
-        <v>10</v>
-      </c>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" ht="15" thickBot="1">
+      <c r="C113" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1">
       <c r="A114" s="2" t="s">
         <v>738</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="10">
-        <v>10</v>
-      </c>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" ht="15" thickBot="1">
+      <c r="C114" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" thickBot="1">
       <c r="A115" s="2" t="s">
         <v>382</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="10">
-        <v>10</v>
-      </c>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" ht="15" thickBot="1">
+      <c r="C115" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1">
       <c r="A116" s="2" t="s">
         <v>571</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="10">
-        <v>10</v>
-      </c>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C116" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A117" s="2" t="s">
         <v>572</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="10">
-        <v>10</v>
-      </c>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" ht="15" thickBot="1">
+      <c r="C117" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1">
       <c r="A118" s="1" t="s">
         <v>573</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="7">
-        <v>10</v>
-      </c>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" ht="15" thickBot="1">
+      <c r="C118" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1">
       <c r="A119" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C119" s="10">
-        <v>10</v>
-      </c>
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:5" ht="15" thickBot="1">
+      <c r="C119" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1">
       <c r="A120" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="10">
-        <v>10</v>
-      </c>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" ht="15" thickBot="1">
+      <c r="C120" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1">
       <c r="A121" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="10">
-        <v>10</v>
-      </c>
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C121" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A122" s="2" t="s">
         <v>685</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="10">
-        <v>10</v>
-      </c>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" ht="15" thickBot="1">
+      <c r="C122" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1">
       <c r="A123" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="10">
-        <v>10</v>
-      </c>
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" ht="15" thickBot="1">
+      <c r="C123" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1">
       <c r="A124" s="2" t="s">
         <v>847</v>
       </c>
       <c r="B124" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="10">
-        <v>10</v>
-      </c>
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" ht="15" thickBot="1">
+      <c r="C124" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1">
       <c r="A125" s="2" t="s">
         <v>607</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="10">
-        <v>10</v>
-      </c>
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" ht="15" thickBot="1">
+      <c r="C125" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1">
       <c r="A126" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" s="10">
-        <v>10</v>
-      </c>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" ht="15" thickBot="1">
+      <c r="B126" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1">
       <c r="A127" s="2" t="s">
         <v>576</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="10">
-        <v>10</v>
-      </c>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:5" ht="15" thickBot="1">
+      <c r="C127" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1">
       <c r="A128" s="2" t="s">
         <v>577</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="10">
-        <v>10</v>
-      </c>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:5" ht="15" thickBot="1">
+      <c r="C128" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1">
       <c r="A129" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C129" s="10">
-        <v>10</v>
-      </c>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:5" ht="15" thickBot="1">
+      <c r="C129" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1">
       <c r="A130" s="2" t="s">
         <v>429</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="10">
-        <v>10</v>
-      </c>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:5" ht="15" thickBot="1">
+      <c r="C130" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1">
       <c r="A131" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="10">
-        <v>10</v>
-      </c>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:5" ht="15" thickBot="1">
+      <c r="C131" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1">
       <c r="A132" s="2" t="s">
         <v>845</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="10">
-        <v>10</v>
-      </c>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="1:5" ht="15" thickBot="1">
+      <c r="C132" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1">
       <c r="A133" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="10">
-        <v>10</v>
-      </c>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" ht="15" thickBot="1">
+      <c r="C133" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1">
       <c r="A134" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C134" s="10">
-        <v>10</v>
-      </c>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="1:5" ht="15" thickBot="1">
+      <c r="C134" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1">
       <c r="A135" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C135" s="10">
-        <v>10</v>
-      </c>
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="1:5" ht="14.4" customHeight="1">
+      <c r="C135" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.4" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>773</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C136" s="10">
-        <v>10</v>
-      </c>
-      <c r="E136" s="1"/>
+      <c r="C136" s="18">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C136" xr:uid="{99E984F6-2202-4586-892B-56CC6FDC1729}"/>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E78A5AF-488D-4A2D-AFD2-BCED9A6824B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D85B78-797E-40A1-B503-3A8F1ADB8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7625" uniqueCount="903">
   <si>
     <t>PG</t>
   </si>
@@ -9225,7 +9225,7 @@
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9233,10 +9233,16 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
-      <c r="A1" s="24"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="25"/>
+    <row r="1" spans="1:3" ht="29.4" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D85B78-797E-40A1-B503-3A8F1ADB8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6870D0ED-451C-4D1D-9375-FE780AC19080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="12-03" sheetId="20" r:id="rId8"/>
     <sheet name="12-10" sheetId="21" r:id="rId9"/>
     <sheet name="12-16" sheetId="22" r:id="rId10"/>
+    <sheet name="12-17" sheetId="23" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -34,6 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'12-03'!$A$1:$C$236</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'12-10'!$A$1:$C$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'12-16'!$A$1:$C$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'12-17'!$A$1:$C$238</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7625" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8102" uniqueCount="940">
   <si>
     <t>PG</t>
   </si>
@@ -2764,6 +2766,117 @@
   </si>
   <si>
     <t>Luka SamanicGTD</t>
+  </si>
+  <si>
+    <t>Giannis AntetokounmpoINJ</t>
+  </si>
+  <si>
+    <t>LaMelo BallINJ</t>
+  </si>
+  <si>
+    <t>Ja MorantINJ</t>
+  </si>
+  <si>
+    <t>Anthony EdwardsINJ</t>
+  </si>
+  <si>
+    <t>CJ McCollumINJ</t>
+  </si>
+  <si>
+    <t>Bobby PortisINJ</t>
+  </si>
+  <si>
+    <t>Tyrese HaliburtonGTD</t>
+  </si>
+  <si>
+    <t>Jordan PooleINJ</t>
+  </si>
+  <si>
+    <t>Dennis SchroderO</t>
+  </si>
+  <si>
+    <t>Richaun HolmesINJ</t>
+  </si>
+  <si>
+    <t>Ish SmithINJ</t>
+  </si>
+  <si>
+    <t>Dennis Smith Jr.GTD</t>
+  </si>
+  <si>
+    <t>Chimezie MetuGTD</t>
+  </si>
+  <si>
+    <t>Terence DavisINJ</t>
+  </si>
+  <si>
+    <t>Jabari ParkerINJ</t>
+  </si>
+  <si>
+    <t>Juancho HernangómezINJ</t>
+  </si>
+  <si>
+    <t>Grant WilliamsINJ</t>
+  </si>
+  <si>
+    <t>Bruno FernandoINJ</t>
+  </si>
+  <si>
+    <t>Austin RiversINJ</t>
+  </si>
+  <si>
+    <t>JaMychal GreenINJ</t>
+  </si>
+  <si>
+    <t>Davon Reed</t>
+  </si>
+  <si>
+    <t>Bol BolINJ</t>
+  </si>
+  <si>
+    <t>Markus HowardINJ</t>
+  </si>
+  <si>
+    <t>Brandon ClarkeINJ</t>
+  </si>
+  <si>
+    <t>Ziaire WilliamsINJ</t>
+  </si>
+  <si>
+    <t>Santi AldamaGTD</t>
+  </si>
+  <si>
+    <t>Alex LenINJ</t>
+  </si>
+  <si>
+    <t>Louis KingINJ</t>
+  </si>
+  <si>
+    <t>Davion MitchellINJ</t>
+  </si>
+  <si>
+    <t>Udoka AzubuikeINJ</t>
+  </si>
+  <si>
+    <t>Jared ButlerGTD</t>
+  </si>
+  <si>
+    <t>Dwight HowardINJ</t>
+  </si>
+  <si>
+    <t>Malik MonkINJ</t>
+  </si>
+  <si>
+    <t>Wesley MatthewsINJ</t>
+  </si>
+  <si>
+    <t>Thanasis AntetokounmpoGTD</t>
+  </si>
+  <si>
+    <t>Cody ZellerINJ</t>
+  </si>
+  <si>
+    <t>Tony SnellO</t>
   </si>
 </sst>
 </file>
@@ -9224,7 +9337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E984F6-2202-4586-892B-56CC6FDC1729}">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -10731,6 +10844,2882 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C136" xr:uid="{99E984F6-2202-4586-892B-56CC6FDC1729}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A70F70-5D88-4DC1-BC90-29096ADA31C3}">
+  <dimension ref="A1:D238"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29.4" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10">
+        <v>26</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="10">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="10">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="10">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="10">
+        <v>21</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10">
+        <v>21</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="10">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10">
+        <v>20</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="10">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="10">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="10">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="10">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="10">
+        <v>19</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="10">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="10">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="10">
+        <v>19</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="10">
+        <v>19</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="10">
+        <v>19</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="10">
+        <v>18</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="10">
+        <v>18</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="10">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="10">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="10">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="10">
+        <v>16</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="10">
+        <v>16</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="10">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1">
+      <c r="A70" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="7">
+        <v>15</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="10">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="10">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="10">
+        <v>15</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="10">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="10">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="10">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="10">
+        <v>14</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="10">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="10">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="10">
+        <v>13</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10">
+        <v>13</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="10">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="10">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="10">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="10">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="10">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="10">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="10">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="10">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="10">
+        <v>11</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="10">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="10">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="10">
+        <v>10</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="10">
+        <v>10</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="10">
+        <v>10</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" ht="15" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="10">
+        <v>10</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="10">
+        <v>10</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="10">
+        <v>10</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="10">
+        <v>10</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="10">
+        <v>10</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="10">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="10">
+        <v>10</v>
+      </c>
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="10">
+        <v>10</v>
+      </c>
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" ht="15" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="10">
+        <v>10</v>
+      </c>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="10">
+        <v>10</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="10">
+        <v>10</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="10">
+        <v>10</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="10">
+        <v>10</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="10">
+        <v>10</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" ht="15" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="10">
+        <v>10</v>
+      </c>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="10">
+        <v>10</v>
+      </c>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="10">
+        <v>10</v>
+      </c>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" ht="15" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="10">
+        <v>10</v>
+      </c>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="10">
+        <v>10</v>
+      </c>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="10">
+        <v>10</v>
+      </c>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="10">
+        <v>10</v>
+      </c>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="10">
+        <v>10</v>
+      </c>
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="10">
+        <v>10</v>
+      </c>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="10">
+        <v>10</v>
+      </c>
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" ht="15" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="10">
+        <v>10</v>
+      </c>
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="10">
+        <v>10</v>
+      </c>
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="10">
+        <v>10</v>
+      </c>
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="10">
+        <v>10</v>
+      </c>
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="10">
+        <v>10</v>
+      </c>
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="10">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="10">
+        <v>10</v>
+      </c>
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="10">
+        <v>10</v>
+      </c>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="10">
+        <v>10</v>
+      </c>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="10">
+        <v>10</v>
+      </c>
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="10">
+        <v>10</v>
+      </c>
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="10">
+        <v>10</v>
+      </c>
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="10">
+        <v>10</v>
+      </c>
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="10">
+        <v>10</v>
+      </c>
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="10">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="10">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="10">
+        <v>10</v>
+      </c>
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" ht="15" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="10">
+        <v>10</v>
+      </c>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="10">
+        <v>10</v>
+      </c>
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="10">
+        <v>10</v>
+      </c>
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="10">
+        <v>10</v>
+      </c>
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="10">
+        <v>10</v>
+      </c>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="10">
+        <v>10</v>
+      </c>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="1:4" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="10">
+        <v>10</v>
+      </c>
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="10">
+        <v>10</v>
+      </c>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="10">
+        <v>10</v>
+      </c>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="10">
+        <v>10</v>
+      </c>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="10">
+        <v>10</v>
+      </c>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="10">
+        <v>10</v>
+      </c>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="10">
+        <v>10</v>
+      </c>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" ht="15" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="10">
+        <v>10</v>
+      </c>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" ht="15" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="10">
+        <v>10</v>
+      </c>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="10">
+        <v>10</v>
+      </c>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="10">
+        <v>10</v>
+      </c>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="10">
+        <v>10</v>
+      </c>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" thickBot="1">
+      <c r="A157" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="7">
+        <v>10</v>
+      </c>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="10">
+        <v>10</v>
+      </c>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="10">
+        <v>10</v>
+      </c>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" ht="15" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="10">
+        <v>10</v>
+      </c>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" ht="15" thickBot="1">
+      <c r="A161" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="7">
+        <v>10</v>
+      </c>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="10">
+        <v>10</v>
+      </c>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="10">
+        <v>10</v>
+      </c>
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="10">
+        <v>10</v>
+      </c>
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:4" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="10">
+        <v>10</v>
+      </c>
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:4" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" s="10">
+        <v>10</v>
+      </c>
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="10">
+        <v>10</v>
+      </c>
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="10">
+        <v>10</v>
+      </c>
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" ht="15" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="10">
+        <v>10</v>
+      </c>
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" ht="15" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="10">
+        <v>10</v>
+      </c>
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:4" ht="15" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="10">
+        <v>10</v>
+      </c>
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:4" ht="15" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="10">
+        <v>10</v>
+      </c>
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="1:4" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="10">
+        <v>10</v>
+      </c>
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" s="10">
+        <v>10</v>
+      </c>
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="10">
+        <v>10</v>
+      </c>
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="10">
+        <v>10</v>
+      </c>
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" ht="15" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="10">
+        <v>10</v>
+      </c>
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="10">
+        <v>10</v>
+      </c>
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="10">
+        <v>10</v>
+      </c>
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="1:4" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="10">
+        <v>10</v>
+      </c>
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" ht="15" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="10">
+        <v>10</v>
+      </c>
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4" ht="15" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="10">
+        <v>10</v>
+      </c>
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="1:4" ht="15" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" s="10">
+        <v>10</v>
+      </c>
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="10">
+        <v>10</v>
+      </c>
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="10">
+        <v>10</v>
+      </c>
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:4" ht="15" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="10">
+        <v>10</v>
+      </c>
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" ht="15" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="10">
+        <v>10</v>
+      </c>
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="10">
+        <v>10</v>
+      </c>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" ht="15" thickBot="1">
+      <c r="A189" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="7">
+        <v>10</v>
+      </c>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" ht="15" thickBot="1">
+      <c r="A190" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="7">
+        <v>10</v>
+      </c>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" ht="15" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="10">
+        <v>10</v>
+      </c>
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4" ht="15" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C192" s="10">
+        <v>10</v>
+      </c>
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="1:4" ht="15" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="10">
+        <v>10</v>
+      </c>
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="10">
+        <v>10</v>
+      </c>
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="1:4" ht="15" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="10">
+        <v>10</v>
+      </c>
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:4" ht="15" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="10">
+        <v>10</v>
+      </c>
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="1:4" ht="15" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="10">
+        <v>10</v>
+      </c>
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="10">
+        <v>10</v>
+      </c>
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="1:4" ht="15" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="10">
+        <v>10</v>
+      </c>
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="1:4" ht="15" thickBot="1">
+      <c r="A200" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="7">
+        <v>10</v>
+      </c>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="10">
+        <v>10</v>
+      </c>
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="1:4" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="10">
+        <v>10</v>
+      </c>
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A203" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="10">
+        <v>10</v>
+      </c>
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:4" ht="15" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="10">
+        <v>10</v>
+      </c>
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="1:4" ht="15" thickBot="1">
+      <c r="A205" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="10">
+        <v>10</v>
+      </c>
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="1:4" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A206" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="10">
+        <v>10</v>
+      </c>
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A207" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="10">
+        <v>10</v>
+      </c>
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A208" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="10">
+        <v>10</v>
+      </c>
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A209" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="10">
+        <v>10</v>
+      </c>
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="1:4" ht="15" thickBot="1">
+      <c r="A210" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" s="10">
+        <v>10</v>
+      </c>
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="1:4" ht="15" thickBot="1">
+      <c r="A211" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="10">
+        <v>10</v>
+      </c>
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A212" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="10">
+        <v>10</v>
+      </c>
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A213" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="10">
+        <v>10</v>
+      </c>
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="1:4" ht="15" thickBot="1">
+      <c r="A214" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="10">
+        <v>10</v>
+      </c>
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A215" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="10">
+        <v>10</v>
+      </c>
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="1:4" ht="15" thickBot="1">
+      <c r="A216" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="10">
+        <v>10</v>
+      </c>
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="1:4" ht="15" thickBot="1">
+      <c r="A217" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217" s="10">
+        <v>10</v>
+      </c>
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="1:4" ht="15" thickBot="1">
+      <c r="A218" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="7">
+        <v>10</v>
+      </c>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" ht="15" thickBot="1">
+      <c r="A219" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" s="10">
+        <v>10</v>
+      </c>
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="1:4" ht="15" thickBot="1">
+      <c r="A220" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="10">
+        <v>10</v>
+      </c>
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A221" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" s="10">
+        <v>10</v>
+      </c>
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="1:4" ht="15" thickBot="1">
+      <c r="A222" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" s="10">
+        <v>10</v>
+      </c>
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:4" ht="15" thickBot="1">
+      <c r="A223" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" s="7">
+        <v>10</v>
+      </c>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A224" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="10">
+        <v>10</v>
+      </c>
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="1:4" ht="15" thickBot="1">
+      <c r="A225" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="10">
+        <v>10</v>
+      </c>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="1:4" ht="15" thickBot="1">
+      <c r="A226" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="10">
+        <v>10</v>
+      </c>
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="1:4" ht="15" thickBot="1">
+      <c r="A227" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="10">
+        <v>10</v>
+      </c>
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:4" ht="15" thickBot="1">
+      <c r="A228" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="10">
+        <v>10</v>
+      </c>
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="1:4" ht="15" thickBot="1">
+      <c r="A229" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="10">
+        <v>10</v>
+      </c>
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="1:4" ht="15" thickBot="1">
+      <c r="A230" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="7">
+        <v>10</v>
+      </c>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" ht="15" thickBot="1">
+      <c r="A231" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="10">
+        <v>10</v>
+      </c>
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="1:4" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A232" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="10">
+        <v>10</v>
+      </c>
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="1:4" ht="15" thickBot="1">
+      <c r="A233" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="10">
+        <v>10</v>
+      </c>
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="1:4" ht="15" thickBot="1">
+      <c r="A234" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="10">
+        <v>10</v>
+      </c>
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="1:4" ht="15" thickBot="1">
+      <c r="A235" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="10">
+        <v>10</v>
+      </c>
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="1:4" ht="15" thickBot="1">
+      <c r="A236" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C236" s="10">
+        <v>10</v>
+      </c>
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="1:4" ht="15" thickBot="1">
+      <c r="A237" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="10">
+        <v>10</v>
+      </c>
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A238" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="10">
+        <v>10</v>
+      </c>
+      <c r="D238" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C238" xr:uid="{72A70F70-5D88-4DC1-BC90-29096ADA31C3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6870D0ED-451C-4D1D-9375-FE780AC19080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6307B022-8E8F-492F-8BD5-7F7951E81194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="12-10" sheetId="21" r:id="rId9"/>
     <sheet name="12-16" sheetId="22" r:id="rId10"/>
     <sheet name="12-17" sheetId="23" r:id="rId11"/>
+    <sheet name="12-18" sheetId="24" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -36,6 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'12-10'!$A$1:$C$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'12-16'!$A$1:$C$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'12-17'!$A$1:$C$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12-18'!$A$1:$C$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8102" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8511" uniqueCount="963">
   <si>
     <t>PG</t>
   </si>
@@ -2877,6 +2879,75 @@
   </si>
   <si>
     <t>Tony SnellO</t>
+  </si>
+  <si>
+    <t>Kevin DurantINJ</t>
+  </si>
+  <si>
+    <t>Stephen CurryO</t>
+  </si>
+  <si>
+    <t>Paul GeorgeINJ</t>
+  </si>
+  <si>
+    <t>Evan MobleyINJ</t>
+  </si>
+  <si>
+    <t>Cole AnthonyO</t>
+  </si>
+  <si>
+    <t>Draymond GreenO</t>
+  </si>
+  <si>
+    <t>Wendell Carter Jr.O</t>
+  </si>
+  <si>
+    <t>Mo BambaINJ</t>
+  </si>
+  <si>
+    <t>Andrew WigginsO</t>
+  </si>
+  <si>
+    <t>Mike ConleyO</t>
+  </si>
+  <si>
+    <t>Miles McBrideINJ</t>
+  </si>
+  <si>
+    <t>Nicolas ClaxtonO</t>
+  </si>
+  <si>
+    <t>Immanuel QuickleyINJ</t>
+  </si>
+  <si>
+    <t>Romeo LangfordO</t>
+  </si>
+  <si>
+    <t>Brodric ThomasINJ</t>
+  </si>
+  <si>
+    <t>Moritz WagnerINJ</t>
+  </si>
+  <si>
+    <t>Ignas BrazdeikisINJ</t>
+  </si>
+  <si>
+    <t>R.J. HamptonINJ</t>
+  </si>
+  <si>
+    <t>Langston Galloway</t>
+  </si>
+  <si>
+    <t>Malik FittsO</t>
+  </si>
+  <si>
+    <t>Andre IguodalaO</t>
+  </si>
+  <si>
+    <t>Otto Porter Jr.O</t>
+  </si>
+  <si>
+    <t>David JohnsonINJ</t>
   </si>
 </sst>
 </file>
@@ -10853,8 +10924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A70F70-5D88-4DC1-BC90-29096ADA31C3}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13720,6 +13791,2270 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C238" xr:uid="{72A70F70-5D88-4DC1-BC90-29096ADA31C3}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C421DA0E-EA4E-4A58-B797-800F1BD0683E}">
+  <dimension ref="A1:C204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.4" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1">
+      <c r="A87" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1">
+      <c r="A108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1">
+      <c r="A152" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" thickBot="1">
+      <c r="A170" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1">
+      <c r="A186" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" thickBot="1">
+      <c r="A189" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C200" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" thickBot="1">
+      <c r="A203" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="28.8" customHeight="1">
+      <c r="A204" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C204" xr:uid="{C421DA0E-EA4E-4A58-B797-800F1BD0683E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6307B022-8E8F-492F-8BD5-7F7951E81194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451DEB60-BC9D-4F6C-8053-2BCDC1B20FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8511" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8511" uniqueCount="964">
   <si>
     <t>PG</t>
   </si>
@@ -2948,6 +2948,9 @@
   </si>
   <si>
     <t>David JohnsonINJ</t>
+  </si>
+  <si>
+    <t>Isaiah HartensteinO</t>
   </si>
 </sst>
 </file>
@@ -13800,8 +13803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C421DA0E-EA4E-4A58-B797-800F1BD0683E}">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14603,7 +14606,7 @@
     </row>
     <row r="73" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A73" s="2" t="s">
-        <v>642</v>
+        <v>963</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>4</v>
@@ -14966,7 +14969,7 @@
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1">
       <c r="A106" s="2" t="s">
-        <v>383</v>
+        <v>594</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>1</v>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451DEB60-BC9D-4F6C-8053-2BCDC1B20FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F34968-5587-458B-9060-BEF1647E5AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="12-16" sheetId="22" r:id="rId10"/>
     <sheet name="12-17" sheetId="23" r:id="rId11"/>
     <sheet name="12-18" sheetId="24" r:id="rId12"/>
+    <sheet name="12-19" sheetId="25" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -38,6 +39,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'12-16'!$A$1:$C$136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'12-17'!$A$1:$C$238</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12-18'!$A$1:$C$204</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'12-19'!$A$1:$C$205</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8511" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8922" uniqueCount="986">
   <si>
     <t>PG</t>
   </si>
@@ -2951,6 +2953,72 @@
   </si>
   <si>
     <t>Isaiah HartensteinO</t>
+  </si>
+  <si>
+    <t>Luka DoncicINJ</t>
+  </si>
+  <si>
+    <t>Jimmy ButlerINJ</t>
+  </si>
+  <si>
+    <t>Anthony DavisINJ</t>
+  </si>
+  <si>
+    <t>Zach LaVineINJ</t>
+  </si>
+  <si>
+    <t>Tyler HerroGTD</t>
+  </si>
+  <si>
+    <t>Caleb MartinINJ</t>
+  </si>
+  <si>
+    <t>Derrick Jones Jr.INJ</t>
+  </si>
+  <si>
+    <t>Ayo DosunmuINJ</t>
+  </si>
+  <si>
+    <t>Kent BazemoreINJ</t>
+  </si>
+  <si>
+    <t>Stanley JohnsonINJ</t>
+  </si>
+  <si>
+    <t>Alfonzo McKinnie</t>
+  </si>
+  <si>
+    <t>Alize JohnsonINJ</t>
+  </si>
+  <si>
+    <t>Matt ThomasINJ</t>
+  </si>
+  <si>
+    <t>Markieff MorrisINJ</t>
+  </si>
+  <si>
+    <t>Bam AdebayoINJ</t>
+  </si>
+  <si>
+    <t>Doug McDermottO</t>
+  </si>
+  <si>
+    <t>Santi AldamaO</t>
+  </si>
+  <si>
+    <t>Reggie BullockINJ</t>
+  </si>
+  <si>
+    <t>Willie Cauley-SteinINJ</t>
+  </si>
+  <si>
+    <t>Frank NtilikinaO</t>
+  </si>
+  <si>
+    <t>Josh GreenO</t>
+  </si>
+  <si>
+    <t>Eugene OmoruyiO</t>
   </si>
 </sst>
 </file>
@@ -13803,8 +13871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C421DA0E-EA4E-4A58-B797-800F1BD0683E}">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16058,6 +16126,2283 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C204" xr:uid="{C421DA0E-EA4E-4A58-B797-800F1BD0683E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7C727B-0045-48BD-ADEC-9A5BB541132D}">
+  <dimension ref="A1:C205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.4" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1">
+      <c r="A98" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1">
+      <c r="A99" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1">
+      <c r="A127" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1">
+      <c r="A129" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1">
+      <c r="A134" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1">
+      <c r="A150" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" thickBot="1">
+      <c r="A179" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" thickBot="1">
+      <c r="A189" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" thickBot="1">
+      <c r="A190" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" thickBot="1">
+      <c r="A197" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" thickBot="1">
+      <c r="A203" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="14.4" customHeight="1">
+      <c r="A205" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C205" xr:uid="{EB7C727B-0045-48BD-ADEC-9A5BB541132D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F34968-5587-458B-9060-BEF1647E5AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8F4D8D-F574-4915-807E-70742750F30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="12-17" sheetId="23" r:id="rId11"/>
     <sheet name="12-18" sheetId="24" r:id="rId12"/>
     <sheet name="12-19" sheetId="25" r:id="rId13"/>
+    <sheet name="12-20" sheetId="26" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -40,6 +41,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'12-17'!$A$1:$C$238</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12-18'!$A$1:$C$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'12-19'!$A$1:$C$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12-20'!$A$1:$C$209</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8922" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9341" uniqueCount="995">
   <si>
     <t>PG</t>
   </si>
@@ -3019,6 +3021,33 @@
   </si>
   <si>
     <t>Eugene OmoruyiO</t>
+  </si>
+  <si>
+    <t>Andre DrummondINJ</t>
+  </si>
+  <si>
+    <t>Tyrese MaxeyO</t>
+  </si>
+  <si>
+    <t>Andrew WigginsINJ</t>
+  </si>
+  <si>
+    <t>Cody MartinINJ</t>
+  </si>
+  <si>
+    <t>Derrick Jones Jr.O</t>
+  </si>
+  <si>
+    <t>Furkan KorkmazINJ</t>
+  </si>
+  <si>
+    <t>Myles Powell</t>
+  </si>
+  <si>
+    <t>Trevelin Queen</t>
+  </si>
+  <si>
+    <t>Santi AldamaINJ</t>
   </si>
 </sst>
 </file>
@@ -16135,7 +16164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7C727B-0045-48BD-ADEC-9A5BB541132D}">
   <dimension ref="A1:C205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -16146,6 +16175,2281 @@
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1">
+      <c r="A98" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" thickBot="1">
+      <c r="A99" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1">
+      <c r="A127" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1">
+      <c r="A129" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A132" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1">
+      <c r="A134" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A147" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1">
+      <c r="A150" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" thickBot="1">
+      <c r="A179" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C181" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C188" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" thickBot="1">
+      <c r="A189" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" thickBot="1">
+      <c r="A190" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" thickBot="1">
+      <c r="A197" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C202" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" thickBot="1">
+      <c r="A203" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="14.4" customHeight="1">
+      <c r="A205" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C205" xr:uid="{EB7C727B-0045-48BD-ADEC-9A5BB541132D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A381F18C-F7D8-410D-85AD-4B46306C6A22}">
+  <dimension ref="A1:C209"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:3" ht="29.4" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>503</v>
@@ -16153,63 +18457,63 @@
       <c r="B1" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
+    <row r="2" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>964</v>
+        <v>597</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+    <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>459</v>
+        <v>111</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="18">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>655</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="18">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>965</v>
+        <v>189</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
         <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1">
@@ -16219,7 +18523,7 @@
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="18">
         <v>42</v>
       </c>
     </row>
@@ -16230,557 +18534,557 @@
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="18">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+    <row r="9" spans="1:3" ht="15" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>967</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <v>39</v>
+        <v>325</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="18">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1">
       <c r="A11" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10">
+        <v>194</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="18">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C14" s="18">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>906</v>
+        <v>192</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>335</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="18">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>216</v>
+        <v>415</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>907</v>
+        <v>665</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A20" s="2" t="s">
-        <v>651</v>
+        <v>986</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="C20" s="18">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>415</v>
+        <v>321</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="10">
-        <v>31</v>
+      <c r="C21" s="18">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>850</v>
+        <v>198</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="10">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="C22" s="18">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>378</v>
+        <v>134</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="C23" s="18">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>672</v>
+        <v>519</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="C24" s="18">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10">
-        <v>27</v>
+        <v>161</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>198</v>
+        <v>341</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="10">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="C26" s="18">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>599</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>200</v>
+        <v>673</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>968</v>
+        <v>410</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>151</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>673</v>
+        <v>521</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="10">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="C31" s="18">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>599</v>
+        <v>821</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>151</v>
+        <v>987</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C33" s="18">
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
       <c r="A34" s="2" t="s">
-        <v>821</v>
+        <v>209</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>164</v>
+        <v>988</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="10">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="18">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="10">
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1">
       <c r="A37" s="2" t="s">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C37" s="18">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1">
       <c r="A38" s="2" t="s">
-        <v>183</v>
+        <v>353</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="10">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="C38" s="18">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1">
       <c r="A39" s="2" t="s">
-        <v>210</v>
+        <v>601</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="10">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="C39" s="18">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="10">
+      <c r="B42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="10">
+    <row r="43" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A42" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="10">
+    <row r="44" spans="1:3" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="18">
         <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1">
-      <c r="A43" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A44" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="10">
-        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="10">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="C45" s="18">
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>676</v>
+        <v>327</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="C46" s="18">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="10">
+        <v>4</v>
+      </c>
+      <c r="C47" s="18">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1">
+    <row r="48" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>248</v>
+        <v>912</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="10">
+        <v>4</v>
+      </c>
+      <c r="C48" s="18">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+    <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="10">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="C49" s="18">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="10">
-        <v>18</v>
+        <v>316</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="18">
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>874</v>
+        <v>27</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="10">
-        <v>18</v>
+      <c r="C51" s="18">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>711</v>
+        <v>989</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>676</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+      <c r="C53" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" s="18">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>711</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>407</v>
+        <v>686</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="10">
+        <v>2</v>
+      </c>
+      <c r="C56" s="18">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>678</v>
+        <v>34</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="18">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1">
+    <row r="58" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A58" s="2" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="10">
+        <v>2</v>
+      </c>
+      <c r="C58" s="18">
         <v>17</v>
       </c>
     </row>
@@ -16791,183 +19095,183 @@
       <c r="B59" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="18">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>852</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="10">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C60" s="18">
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" thickBot="1">
       <c r="A61" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="10">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="C61" s="18">
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1">
       <c r="A62" s="2" t="s">
-        <v>295</v>
+        <v>679</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="10">
+        <v>3</v>
+      </c>
+      <c r="C62" s="18">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1">
       <c r="A63" s="2" t="s">
-        <v>679</v>
+        <v>526</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="10">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="C63" s="18">
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1">
       <c r="A64" s="2" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="10">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="C64" s="18">
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1">
       <c r="A65" s="2" t="s">
-        <v>687</v>
+        <v>372</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="10">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C65" s="18">
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1">
       <c r="A66" s="2" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="10">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C66" s="18">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1">
       <c r="A67" s="2" t="s">
-        <v>372</v>
+        <v>619</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="10">
+        <v>2</v>
+      </c>
+      <c r="C67" s="18">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A68" s="2" t="s">
-        <v>55</v>
+        <v>848</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="10">
+        <v>1</v>
+      </c>
+      <c r="C68" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1">
+      <c r="A69" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A69" s="2" t="s">
-        <v>914</v>
-      </c>
       <c r="B69" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="10">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="C69" s="18">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1">
       <c r="A70" s="2" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1">
       <c r="A71" s="2" t="s">
-        <v>827</v>
+        <v>381</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="10">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="C71" s="18">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15" thickBot="1">
       <c r="A72" s="2" t="s">
-        <v>969</v>
+        <v>222</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="10">
+        <v>3</v>
+      </c>
+      <c r="C72" s="18">
         <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1">
       <c r="A73" s="2" t="s">
-        <v>620</v>
+        <v>535</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="10">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C73" s="18">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>381</v>
+        <v>769</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="10">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="C74" s="18">
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A75" s="2" t="s">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="18">
         <v>12</v>
       </c>
     </row>
@@ -16978,40 +19282,40 @@
       <c r="B76" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" thickBot="1">
+    <row r="77" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A77" s="2" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="10">
+        <v>3</v>
+      </c>
+      <c r="C77" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" thickBot="1">
       <c r="A78" s="2" t="s">
-        <v>271</v>
+        <v>916</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>266</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="10">
+        <v>2</v>
+      </c>
+      <c r="C79" s="18">
         <v>12</v>
       </c>
     </row>
@@ -17022,7 +19326,7 @@
       <c r="B80" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C80" s="18">
         <v>12</v>
       </c>
     </row>
@@ -17033,1376 +19337,1420 @@
       <c r="B81" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A82" s="2" t="s">
-        <v>343</v>
+        <v>963</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="10">
+        <v>4</v>
+      </c>
+      <c r="C82" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" thickBot="1">
+    <row r="83" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A83" s="2" t="s">
-        <v>916</v>
+        <v>143</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C83" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="10">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C84" s="18">
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="10">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C85" s="18">
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1">
       <c r="A86" s="2" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" thickBot="1">
+      <c r="C86" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A87" s="2" t="s">
-        <v>204</v>
+        <v>855</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="10">
-        <v>11</v>
+      <c r="C87" s="18">
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A88" s="2" t="s">
-        <v>934</v>
+        <v>991</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="10">
+        <v>1</v>
+      </c>
+      <c r="C88" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1">
       <c r="A89" s="2" t="s">
-        <v>274</v>
+        <v>893</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1">
       <c r="A90" s="2" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="10">
+        <v>2</v>
+      </c>
+      <c r="C90" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1">
       <c r="A91" s="2" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="10">
+        <v>1</v>
+      </c>
+      <c r="C91" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" thickBot="1">
       <c r="A92" s="2" t="s">
-        <v>771</v>
+        <v>536</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1">
       <c r="A93" s="2" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A94" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="10">
+        <v>2</v>
+      </c>
+      <c r="C93" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" thickBot="1">
+      <c r="A94" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" thickBot="1">
       <c r="A95" s="2" t="s">
-        <v>935</v>
+        <v>538</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="10">
+        <v>4</v>
+      </c>
+      <c r="C95" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" thickBot="1">
-      <c r="A96" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A96" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1">
       <c r="A97" s="2" t="s">
-        <v>772</v>
+        <v>862</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="10">
+        <v>4</v>
+      </c>
+      <c r="C97" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15" thickBot="1">
-      <c r="A98" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" thickBot="1">
-      <c r="A99" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1">
       <c r="A100" s="2" t="s">
-        <v>973</v>
+        <v>371</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A101" s="2" t="s">
-        <v>39</v>
+        <v>919</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="10">
+        <v>3</v>
+      </c>
+      <c r="C101" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15" thickBot="1">
       <c r="A102" s="2" t="s">
-        <v>974</v>
+        <v>9</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+      <c r="C102" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1">
       <c r="A103" s="2" t="s">
-        <v>428</v>
+        <v>162</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C103" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C103" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1">
       <c r="A104" s="2" t="s">
-        <v>975</v>
+        <v>83</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="10">
+        <v>0</v>
+      </c>
+      <c r="C104" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A105" s="2" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" thickBot="1">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>548</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="10">
+        <v>3</v>
+      </c>
+      <c r="C106" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" thickBot="1">
       <c r="A107" s="2" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A108" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="C107" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1">
+      <c r="A108" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1">
       <c r="A109" s="2" t="s">
-        <v>554</v>
+        <v>96</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="10">
+        <v>0</v>
+      </c>
+      <c r="C109" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" thickBot="1">
       <c r="A110" s="2" t="s">
-        <v>247</v>
+        <v>376</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="10">
+        <v>0</v>
+      </c>
+      <c r="C110" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" thickBot="1">
       <c r="A111" s="2" t="s">
-        <v>386</v>
+        <v>217</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="C111" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A112" s="2" t="s">
-        <v>265</v>
+        <v>404</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="10">
+        <v>1</v>
+      </c>
+      <c r="C112" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1">
       <c r="A113" s="2" t="s">
-        <v>977</v>
+        <v>770</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C113" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" thickBot="1">
       <c r="A114" s="2" t="s">
-        <v>389</v>
+        <v>582</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="10">
+        <v>3</v>
+      </c>
+      <c r="C114" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A115" s="2" t="s">
-        <v>978</v>
+        <v>583</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="10">
+        <v>1</v>
+      </c>
+      <c r="C115" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1">
-      <c r="A116" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" thickBot="1">
+      <c r="A116" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A117" s="2" t="s">
-        <v>638</v>
+        <v>973</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="10">
+        <v>3</v>
+      </c>
+      <c r="C117" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1">
       <c r="A118" s="2" t="s">
-        <v>639</v>
+        <v>39</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="10">
+        <v>4</v>
+      </c>
+      <c r="C118" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1">
       <c r="A119" s="2" t="s">
-        <v>692</v>
+        <v>974</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C119" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A120" s="2" t="s">
-        <v>693</v>
+        <v>428</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15" thickBot="1">
+      <c r="C120" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A121" s="2" t="s">
-        <v>431</v>
+        <v>975</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15" thickBot="1">
+      <c r="C121" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A122" s="2" t="s">
-        <v>694</v>
+        <v>976</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="10">
+        <v>1</v>
+      </c>
+      <c r="C122" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1">
       <c r="A123" s="2" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="10">
+        <v>2</v>
+      </c>
+      <c r="C123" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1">
       <c r="A124" s="2" t="s">
-        <v>695</v>
+        <v>361</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C124" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A125" s="2" t="s">
-        <v>390</v>
+        <v>768</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C125" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A126" s="2" t="s">
-        <v>399</v>
+        <v>554</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="10">
+        <v>4</v>
+      </c>
+      <c r="C126" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15" thickBot="1">
-      <c r="A127" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C127" s="7">
+      <c r="A127" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" thickBot="1">
-      <c r="A128" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15" thickBot="1">
-      <c r="A129" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="7">
+      <c r="A128" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15" thickBot="1">
       <c r="A130" s="2" t="s">
-        <v>699</v>
+        <v>268</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="10">
+        <v>3</v>
+      </c>
+      <c r="C130" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15" thickBot="1">
       <c r="A131" s="2" t="s">
-        <v>202</v>
+        <v>929</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C131" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C131" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1">
       <c r="A132" s="2" t="s">
-        <v>979</v>
+        <v>424</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C132" s="10">
+        <v>4</v>
+      </c>
+      <c r="C132" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1">
       <c r="A133" s="2" t="s">
-        <v>174</v>
+        <v>930</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C133" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15" thickBot="1">
-      <c r="A134" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="C133" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1">
       <c r="A135" s="2" t="s">
-        <v>300</v>
+        <v>153</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A136" s="2" t="s">
-        <v>299</v>
+        <v>931</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="10">
+        <v>0</v>
+      </c>
+      <c r="C136" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1">
-      <c r="A137" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="10">
+      <c r="A137" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" thickBot="1">
       <c r="A138" s="2" t="s">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C138" s="10">
+        <v>3</v>
+      </c>
+      <c r="C138" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1">
-      <c r="A139" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C139" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A139" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1">
       <c r="A140" s="2" t="s">
-        <v>565</v>
+        <v>702</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="10">
+        <v>3</v>
+      </c>
+      <c r="C140" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15" thickBot="1">
       <c r="A141" s="2" t="s">
-        <v>566</v>
+        <v>703</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C141" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="C141" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1">
       <c r="A142" s="2" t="s">
-        <v>13</v>
+        <v>704</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="10">
+        <v>1</v>
+      </c>
+      <c r="C142" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1">
       <c r="A143" s="2" t="s">
-        <v>268</v>
+        <v>739</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C143" s="10">
+        <v>0</v>
+      </c>
+      <c r="C143" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1">
       <c r="A144" s="2" t="s">
-        <v>929</v>
+        <v>705</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C144" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="C144" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A145" s="2" t="s">
-        <v>424</v>
+        <v>706</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C145" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A146" s="2" t="s">
-        <v>930</v>
+        <v>707</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C146" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+      <c r="C146" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" thickBot="1">
       <c r="A147" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="10">
+        <v>708</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15" thickBot="1">
       <c r="A148" s="2" t="s">
-        <v>153</v>
+        <v>709</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="C148" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1">
       <c r="A149" s="2" t="s">
-        <v>931</v>
+        <v>710</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="10">
+      <c r="C149" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1">
-      <c r="A150" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="7">
+      <c r="A150" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1">
       <c r="A151" s="2" t="s">
-        <v>395</v>
+        <v>202</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C151" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" thickBot="1">
+        <v>4</v>
+      </c>
+      <c r="C151" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A152" s="2" t="s">
-        <v>938</v>
+        <v>230</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="10">
+        <v>2</v>
+      </c>
+      <c r="C152" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" thickBot="1">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C153" s="10">
+      <c r="C153" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1">
-      <c r="A154" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15" thickBot="1">
+      <c r="A154" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A155" s="2" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" s="10">
+        <v>3</v>
+      </c>
+      <c r="C155" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1">
       <c r="A156" s="2" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" s="10">
+        <v>4</v>
+      </c>
+      <c r="C156" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" thickBot="1">
       <c r="A157" s="2" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C157" s="10">
+        <v>3</v>
+      </c>
+      <c r="C157" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" thickBot="1">
       <c r="A158" s="2" t="s">
-        <v>649</v>
+        <v>297</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="10">
+        <v>0</v>
+      </c>
+      <c r="C158" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15" thickBot="1">
       <c r="A159" s="2" t="s">
-        <v>650</v>
+        <v>564</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C159" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15" thickBot="1">
+        <v>1</v>
+      </c>
+      <c r="C159" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A160" s="2" t="s">
-        <v>712</v>
+        <v>565</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="10">
+        <v>1</v>
+      </c>
+      <c r="C160" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" thickBot="1">
       <c r="A161" s="2" t="s">
-        <v>926</v>
+        <v>566</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1">
       <c r="A162" s="2" t="s">
-        <v>714</v>
+        <v>623</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" s="10">
+        <v>3</v>
+      </c>
+      <c r="C162" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1">
       <c r="A163" s="2" t="s">
-        <v>715</v>
+        <v>60</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="15" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C163" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A164" s="2" t="s">
-        <v>844</v>
+        <v>640</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C164" s="10">
+        <v>2</v>
+      </c>
+      <c r="C164" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" thickBot="1">
       <c r="A165" s="2" t="s">
-        <v>716</v>
+        <v>641</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>3</v>
+      </c>
+      <c r="C165" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" thickBot="1">
       <c r="A166" s="2" t="s">
-        <v>927</v>
+        <v>643</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C166" s="10">
+      <c r="C166" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15" thickBot="1">
       <c r="A167" s="2" t="s">
-        <v>980</v>
+        <v>442</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="10">
+        <v>1</v>
+      </c>
+      <c r="C167" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1">
       <c r="A168" s="2" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C168" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A169" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C169" s="10">
+      <c r="C168" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" thickBot="1">
+      <c r="A169" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15" thickBot="1">
       <c r="A170" s="2" t="s">
-        <v>17</v>
+        <v>646</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C170" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A171" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C171" s="10">
+        <v>1</v>
+      </c>
+      <c r="C170" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" thickBot="1">
+      <c r="A171" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A172" s="2" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C172" s="10">
+        <v>3</v>
+      </c>
+      <c r="C172" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15" thickBot="1">
       <c r="A173" s="2" t="s">
-        <v>983</v>
+        <v>250</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" s="10">
+        <v>4</v>
+      </c>
+      <c r="C173" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15" thickBot="1">
       <c r="A174" s="2" t="s">
-        <v>444</v>
+        <v>251</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C174" s="10">
+        <v>4</v>
+      </c>
+      <c r="C174" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15" thickBot="1">
       <c r="A175" s="2" t="s">
-        <v>631</v>
+        <v>557</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" s="10">
+        <v>1</v>
+      </c>
+      <c r="C175" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15" thickBot="1">
       <c r="A176" s="2" t="s">
-        <v>278</v>
+        <v>558</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C176" s="10">
+      <c r="C176" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15" thickBot="1">
       <c r="A177" s="2" t="s">
-        <v>984</v>
+        <v>559</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C177" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
-      <c r="A178" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C178" s="10">
+        <v>3</v>
+      </c>
+      <c r="C177" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" thickBot="1">
+      <c r="A178" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1">
-      <c r="A179" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C179" s="7">
+      <c r="A179" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1">
       <c r="A180" s="2" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C180" s="10">
+        <v>1</v>
+      </c>
+      <c r="C180" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1">
       <c r="A181" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C181" s="10">
+        <v>3</v>
+      </c>
+      <c r="C181" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1">
       <c r="A182" s="2" t="s">
-        <v>128</v>
+        <v>261</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C182" s="10">
+        <v>1</v>
+      </c>
+      <c r="C182" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A183" s="2" t="s">
-        <v>95</v>
+        <v>932</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="10">
+        <v>4</v>
+      </c>
+      <c r="C183" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" thickBot="1">
       <c r="A184" s="2" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="10">
+        <v>1</v>
+      </c>
+      <c r="C184" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1">
       <c r="A185" s="2" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C185" s="10">
+        <v>1</v>
+      </c>
+      <c r="C185" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15" thickBot="1">
       <c r="A186" s="2" t="s">
-        <v>732</v>
+        <v>959</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C186" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+        <v>2</v>
+      </c>
+      <c r="C186" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" thickBot="1">
       <c r="A187" s="2" t="s">
-        <v>131</v>
+        <v>586</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="10">
+        <v>0</v>
+      </c>
+      <c r="C187" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" thickBot="1">
       <c r="A188" s="2" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C188" s="10">
+      <c r="C188" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1">
-      <c r="A189" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="7">
+      <c r="A189" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15" thickBot="1">
-      <c r="A190" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C190" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" thickBot="1">
       <c r="A191" s="2" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="10">
+        <v>1</v>
+      </c>
+      <c r="C191" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15" thickBot="1">
       <c r="A192" s="2" t="s">
-        <v>250</v>
+        <v>776</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="10">
+        <v>1</v>
+      </c>
+      <c r="C192" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15" thickBot="1">
       <c r="A193" s="2" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C193" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15" thickBot="1">
+      <c r="C193" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A194" s="2" t="s">
-        <v>557</v>
+        <v>279</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C194" s="10">
+        <v>3</v>
+      </c>
+      <c r="C194" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1">
       <c r="A195" s="2" t="s">
-        <v>558</v>
+        <v>280</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C195" s="10">
+        <v>0</v>
+      </c>
+      <c r="C195" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1">
       <c r="A196" s="2" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="10">
+        <v>0</v>
+      </c>
+      <c r="C196" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" thickBot="1">
-      <c r="A197" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C197" s="7">
+      <c r="A197" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1">
       <c r="A198" s="2" t="s">
-        <v>98</v>
+        <v>579</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C198" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15" thickBot="1">
+      <c r="C198" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
       <c r="A199" s="2" t="s">
-        <v>429</v>
+        <v>580</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="10">
+        <v>4</v>
+      </c>
+      <c r="C199" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1">
       <c r="A200" s="2" t="s">
-        <v>237</v>
+        <v>581</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C200" s="10">
+        <v>1</v>
+      </c>
+      <c r="C200" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15" thickBot="1">
       <c r="A201" s="2" t="s">
-        <v>845</v>
+        <v>712</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C201" s="10">
+      <c r="C201" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15" thickBot="1">
       <c r="A202" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B202" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C202" s="22">
+        <v>926</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1">
       <c r="A203" s="2" t="s">
-        <v>155</v>
+        <v>714</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C203" s="10">
+      <c r="C203" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1">
       <c r="A204" s="2" t="s">
-        <v>241</v>
+        <v>715</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="14.4" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C204" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" thickBot="1">
       <c r="A205" s="2" t="s">
-        <v>773</v>
+        <v>844</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="10">
+      <c r="C205" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" thickBot="1">
+      <c r="A206" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A207" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A208" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B208" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="18">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C205" xr:uid="{EB7C727B-0045-48BD-ADEC-9A5BB541132D}"/>
+  <autoFilter ref="A1:C209" xr:uid="{A381F18C-F7D8-410D-85AD-4B46306C6A22}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8F4D8D-F574-4915-807E-70742750F30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0EC68-6D2C-4BA0-A366-F77466E1E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="14" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="12-18" sheetId="24" r:id="rId12"/>
     <sheet name="12-19" sheetId="25" r:id="rId13"/>
     <sheet name="12-20" sheetId="26" r:id="rId14"/>
+    <sheet name="12-29" sheetId="27" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -42,6 +43,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'12-18'!$A$1:$C$204</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'12-19'!$A$1:$C$205</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12-20'!$A$1:$C$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12-29'!$A$1:$C$314</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9341" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9970" uniqueCount="1088">
   <si>
     <t>PG</t>
   </si>
@@ -3048,6 +3050,285 @@
   </si>
   <si>
     <t>Santi AldamaINJ</t>
+  </si>
+  <si>
+    <t>Jusuf NurkicINJ</t>
+  </si>
+  <si>
+    <t>PJ WashingtonINJ</t>
+  </si>
+  <si>
+    <t>Isaiah StewartINJ</t>
+  </si>
+  <si>
+    <t>Trey LylesINJ</t>
+  </si>
+  <si>
+    <t>Enes FreedomINJ</t>
+  </si>
+  <si>
+    <t>Norvel Pelle</t>
+  </si>
+  <si>
+    <t>Gorgui DiengINJ</t>
+  </si>
+  <si>
+    <t>Tony BradleyINJ</t>
+  </si>
+  <si>
+    <t>Marko SimonovicINJ</t>
+  </si>
+  <si>
+    <t>Nerlens NoelINJ</t>
+  </si>
+  <si>
+    <t>Jericho SimsINJ</t>
+  </si>
+  <si>
+    <t>Boban MarjanovicINJ</t>
+  </si>
+  <si>
+    <t>Marquese Chriss</t>
+  </si>
+  <si>
+    <t>Neemias QuetaINJ</t>
+  </si>
+  <si>
+    <t>Jeremiah Robinson-EarlINJ</t>
+  </si>
+  <si>
+    <t>Emanuel Terry</t>
+  </si>
+  <si>
+    <t>Jayson TatumINJ</t>
+  </si>
+  <si>
+    <t>Donovan MitchellO</t>
+  </si>
+  <si>
+    <t>Miles BridgesINJ</t>
+  </si>
+  <si>
+    <t>John CollinsINJ</t>
+  </si>
+  <si>
+    <t>Cade CunninghamINJ</t>
+  </si>
+  <si>
+    <t>Josh GiddeyINJ</t>
+  </si>
+  <si>
+    <t>Tim Hardaway Jr.INJ</t>
+  </si>
+  <si>
+    <t>Reggie JacksonINJ</t>
+  </si>
+  <si>
+    <t>Dennis SchroderINJ</t>
+  </si>
+  <si>
+    <t>Darren Collison</t>
+  </si>
+  <si>
+    <t>Alex CarusoINJ</t>
+  </si>
+  <si>
+    <t>Delon WrightINJ</t>
+  </si>
+  <si>
+    <t>Robert CovingtonINJ</t>
+  </si>
+  <si>
+    <t>Danilo GallinariINJ</t>
+  </si>
+  <si>
+    <t>Kevin HuerterINJ</t>
+  </si>
+  <si>
+    <t>Darius BazleyINJ</t>
+  </si>
+  <si>
+    <t>John KoncharINJ</t>
+  </si>
+  <si>
+    <t>Jae CrowderINJ</t>
+  </si>
+  <si>
+    <t>Killian HayesINJ</t>
+  </si>
+  <si>
+    <t>Saben LeeINJ</t>
+  </si>
+  <si>
+    <t>Trey BurkeINJ</t>
+  </si>
+  <si>
+    <t>Brandon KnightINJ</t>
+  </si>
+  <si>
+    <t>Nicolas BatumO</t>
+  </si>
+  <si>
+    <t>Jay ScrubbINJ</t>
+  </si>
+  <si>
+    <t>Brandon Boston Jr.INJ</t>
+  </si>
+  <si>
+    <t>Moses WrightINJ</t>
+  </si>
+  <si>
+    <t>C.J. MilesINJ</t>
+  </si>
+  <si>
+    <t>Justin JacksonINJ</t>
+  </si>
+  <si>
+    <t>Aaron NesmithINJ</t>
+  </si>
+  <si>
+    <t>Joe Johnson</t>
+  </si>
+  <si>
+    <t>Xavier Moon</t>
+  </si>
+  <si>
+    <t>Lou WilliamsINJ</t>
+  </si>
+  <si>
+    <t>Timothé Luwawu-CabarrotINJ</t>
+  </si>
+  <si>
+    <t>Jalen JohnsonINJ</t>
+  </si>
+  <si>
+    <t>Sharife CooperINJ</t>
+  </si>
+  <si>
+    <t>Alfonzo McKinnieINJ</t>
+  </si>
+  <si>
+    <t>Lance Stephenson</t>
+  </si>
+  <si>
+    <t>Malcolm Hill</t>
+  </si>
+  <si>
+    <t>Ersan IlyasovaINJ</t>
+  </si>
+  <si>
+    <t>Mac McClung</t>
+  </si>
+  <si>
+    <t>Wes Iwundu</t>
+  </si>
+  <si>
+    <t>Cat Barber</t>
+  </si>
+  <si>
+    <t>Malik EllisonINJ</t>
+  </si>
+  <si>
+    <t>Derrick RoseINJ</t>
+  </si>
+  <si>
+    <t>Wayne Selden Jr.INJ</t>
+  </si>
+  <si>
+    <t>Luka SamanicINJ</t>
+  </si>
+  <si>
+    <t>Matt Mooney</t>
+  </si>
+  <si>
+    <t>Tyler Hall</t>
+  </si>
+  <si>
+    <t>Josh JacksonINJ</t>
+  </si>
+  <si>
+    <t>Cheick Diallo</t>
+  </si>
+  <si>
+    <t>Derrick Walton Jr.</t>
+  </si>
+  <si>
+    <t>Cassius Stanley</t>
+  </si>
+  <si>
+    <t>Deividas Sirvydis</t>
+  </si>
+  <si>
+    <t>Scottie LewisINJ</t>
+  </si>
+  <si>
+    <t>Terry Taylor</t>
+  </si>
+  <si>
+    <t>Keifer Sykes</t>
+  </si>
+  <si>
+    <t>Theo Pinson</t>
+  </si>
+  <si>
+    <t>JaQuori McLaughlinINJ</t>
+  </si>
+  <si>
+    <t>George King</t>
+  </si>
+  <si>
+    <t>Emmanuel Mudiay</t>
+  </si>
+  <si>
+    <t>Ade Murkey</t>
+  </si>
+  <si>
+    <t>Carlik Jones</t>
+  </si>
+  <si>
+    <t>Rajon RondoINJ</t>
+  </si>
+  <si>
+    <t>Jemerrio Jones</t>
+  </si>
+  <si>
+    <t>Yves PonsINJ</t>
+  </si>
+  <si>
+    <t>Stanley Johnson</t>
+  </si>
+  <si>
+    <t>Shaq Buchanan</t>
+  </si>
+  <si>
+    <t>Xavier Sneed</t>
+  </si>
+  <si>
+    <t>Aleksej PokusevskiINJ</t>
+  </si>
+  <si>
+    <t>Tre MannINJ</t>
+  </si>
+  <si>
+    <t>Malik FittsINJ</t>
+  </si>
+  <si>
+    <t>Ben McLemoreINJ</t>
+  </si>
+  <si>
+    <t>Keljin BlevinsINJ</t>
+  </si>
+  <si>
+    <t>Trendon WatfordINJ</t>
+  </si>
+  <si>
+    <t>Cameron McGriff</t>
+  </si>
+  <si>
+    <t>Brandon Williams</t>
+  </si>
+  <si>
+    <t>Jarron Cumberland</t>
   </si>
 </sst>
 </file>
@@ -18441,8 +18722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A381F18C-F7D8-410D-85AD-4B46306C6A22}">
   <dimension ref="A1:C209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20751,6 +21032,3482 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C209" xr:uid="{A381F18C-F7D8-410D-85AD-4B46306C6A22}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660BD309-B449-400C-B96C-2846C8353484}">
+  <dimension ref="A1:C314"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A38" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A43" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A48" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A55" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A60" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A61" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A65" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A66" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A68" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1">
+      <c r="A69" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A71" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A73" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A78" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A79" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A80" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A81" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A82" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A83" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A85" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A86" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A87" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A88" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A89" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A90" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A91" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A92" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A93" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A94" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A95" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A96" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A97" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A98" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A100" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A101" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A102" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A103" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A104" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A105" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A107" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A109" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A110" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A112" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A113" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A114" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A115" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A117" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A118" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A119" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A120" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1">
+      <c r="A122" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A124" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A125" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A126" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A127" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A128" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A129" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A130" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1">
+      <c r="A131" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A132" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1">
+      <c r="A133" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1">
+      <c r="A134" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A136" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A137" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A138" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A139" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A140" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A141" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A142" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" thickBot="1">
+      <c r="A143" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A144" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A145" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1">
+      <c r="A146" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A147" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A148" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A149" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A150" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A151" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A152" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A153" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A154" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A155" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A156" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A157" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A158" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A159" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A160" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A161" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A162" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A163" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A164" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A165" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A166" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" thickBot="1">
+      <c r="A167" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A168" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" thickBot="1">
+      <c r="A169" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A170" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" thickBot="1">
+      <c r="A171" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" thickBot="1">
+      <c r="A172" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A173" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A174" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A175" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A176" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A177" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A178" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A179" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A180" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1">
+      <c r="A181" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A182" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A183" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1">
+      <c r="A184" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A185" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C185" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A186" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A187" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A188" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A189" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A190" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" thickBot="1">
+      <c r="A191" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A192" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" thickBot="1">
+      <c r="A193" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A194" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A195" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1">
+      <c r="A196" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" thickBot="1">
+      <c r="A197" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A198" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A199" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" thickBot="1">
+      <c r="A200" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1">
+      <c r="A201" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A202" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A203" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A204" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A205" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" thickBot="1">
+      <c r="A206" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" thickBot="1">
+      <c r="A207" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" thickBot="1">
+      <c r="A208" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A209" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A210" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A211" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A212" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C212" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A213" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A214" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A215" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A216" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A217" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A218" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A219" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15" thickBot="1">
+      <c r="A220" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" thickBot="1">
+      <c r="A221" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A222" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A223" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A224" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A225" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A226" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A227" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A228" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A229" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A230" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C230" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A231" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A232" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A233" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A234" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A235" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A236" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A237" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A238" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A239" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A240" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A241" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A242" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15" thickBot="1">
+      <c r="A243" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A244" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15" thickBot="1">
+      <c r="A245" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15" thickBot="1">
+      <c r="A246" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A247" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C247" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15" thickBot="1">
+      <c r="A248" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A249" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A250" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A251" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A252" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A253" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A254" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A255" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A256" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A257" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C257" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A258" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15" thickBot="1">
+      <c r="A259" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A260" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A261" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15" thickBot="1">
+      <c r="A262" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A263" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A264" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A265" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A266" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A267" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A268" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A269" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C269" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A270" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A271" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C271" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A272" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A273" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15" thickBot="1">
+      <c r="A274" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15" thickBot="1">
+      <c r="A275" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A276" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A277" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A279" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A280" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A281" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A282" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A283" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A284" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A285" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C285" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A286" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A287" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C287" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A288" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A289" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A290" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C290" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A291" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C291" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A292" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A293" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A294" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15" thickBot="1">
+      <c r="A295" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15" thickBot="1">
+      <c r="A296" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C296" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A297" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15" thickBot="1">
+      <c r="A298" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A299" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C299" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A300" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C300" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A301" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C301" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A302" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C302" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A303" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A304" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A305" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A306" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A307" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A308" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15" thickBot="1">
+      <c r="A309" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C309" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A310" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B310" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C310" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A311" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C311" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15" thickBot="1">
+      <c r="A312" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C312" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15" thickBot="1">
+      <c r="A313" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C314" xr:uid="{660BD309-B449-400C-B96C-2846C8353484}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0EC68-6D2C-4BA0-A366-F77466E1E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE982097-B0A1-4DCA-A983-2CD3050BCAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="14" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="15" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="12-19" sheetId="25" r:id="rId13"/>
     <sheet name="12-20" sheetId="26" r:id="rId14"/>
     <sheet name="12-29" sheetId="27" r:id="rId15"/>
+    <sheet name="12-31" sheetId="28" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
@@ -44,6 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'12-19'!$A$1:$C$205</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12-20'!$A$1:$C$209</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12-29'!$A$1:$C$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'12-31'!$A$1:$C$281</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'5-16'!$B$1:$E$484</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9970" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10533" uniqueCount="1137">
   <si>
     <t>PG</t>
   </si>
@@ -3329,6 +3331,153 @@
   </si>
   <si>
     <t>Jarron Cumberland</t>
+  </si>
+  <si>
+    <t>Dejounte MurrayINJ</t>
+  </si>
+  <si>
+    <t>Karl-Anthony TownsINJ</t>
+  </si>
+  <si>
+    <t>Julius RandleINJ</t>
+  </si>
+  <si>
+    <t>Jarrett AllenINJ</t>
+  </si>
+  <si>
+    <t>D'Angelo RussellINJ</t>
+  </si>
+  <si>
+    <t>Darius GarlandINJ</t>
+  </si>
+  <si>
+    <t>Scottie BarnesINJ</t>
+  </si>
+  <si>
+    <t>Ivica ZubacINJ</t>
+  </si>
+  <si>
+    <t>Dewayne DedmonINJ</t>
+  </si>
+  <si>
+    <t>Max StrusINJ</t>
+  </si>
+  <si>
+    <t>Gabe VincentINJ</t>
+  </si>
+  <si>
+    <t>D.J. WilsonINJ</t>
+  </si>
+  <si>
+    <t>P.J. TuckerINJ</t>
+  </si>
+  <si>
+    <t>Cedi OsmanINJ</t>
+  </si>
+  <si>
+    <t>Duncan RobinsonINJ</t>
+  </si>
+  <si>
+    <t>Malcolm HillINJ</t>
+  </si>
+  <si>
+    <t>Ricky RubioINJ</t>
+  </si>
+  <si>
+    <t>Justin Anderson</t>
+  </si>
+  <si>
+    <t>Luke Kornet</t>
+  </si>
+  <si>
+    <t>Tre Scott</t>
+  </si>
+  <si>
+    <t>Justin Tillman</t>
+  </si>
+  <si>
+    <t>Malik Newman</t>
+  </si>
+  <si>
+    <t>Chris Clemons</t>
+  </si>
+  <si>
+    <t>Udonis HaslemINJ</t>
+  </si>
+  <si>
+    <t>KZ OkpalaO</t>
+  </si>
+  <si>
+    <t>Zylan CheathamINJ</t>
+  </si>
+  <si>
+    <t>D.J. AugustinINJ</t>
+  </si>
+  <si>
+    <t>Garrison MathewsINJ</t>
+  </si>
+  <si>
+    <t>KJ MartinINJ</t>
+  </si>
+  <si>
+    <t>DeJon JarreauINJ</t>
+  </si>
+  <si>
+    <t>Aric Holman</t>
+  </si>
+  <si>
+    <t>Haywood Highsmith</t>
+  </si>
+  <si>
+    <t>Anfernee SimonsINJ</t>
+  </si>
+  <si>
+    <t>Brandon WilliamsINJ</t>
+  </si>
+  <si>
+    <t>McKinley Wright IVINJ</t>
+  </si>
+  <si>
+    <t>Eric PaschallO</t>
+  </si>
+  <si>
+    <t>Greg Monroe</t>
+  </si>
+  <si>
+    <t>Devontae CacokINJ</t>
+  </si>
+  <si>
+    <t>Xavier TillmanINJ</t>
+  </si>
+  <si>
+    <t>Shaq BuchananINJ</t>
+  </si>
+  <si>
+    <t>Dakota Mathias</t>
+  </si>
+  <si>
+    <t>Matt MooneyO</t>
+  </si>
+  <si>
+    <t>Vit KrejciINJ</t>
+  </si>
+  <si>
+    <t>Scotty Hopson</t>
+  </si>
+  <si>
+    <t>Rob Edwards</t>
+  </si>
+  <si>
+    <t>Olivier Sarr</t>
+  </si>
+  <si>
+    <t>Isaac BongaINJ</t>
+  </si>
+  <si>
+    <t>Tremont Waters</t>
+  </si>
+  <si>
+    <t>James Ennis III</t>
   </si>
 </sst>
 </file>
@@ -3408,7 +3557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -3477,6 +3626,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21041,8 +21196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660BD309-B449-400C-B96C-2846C8353484}">
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24508,6 +24663,3119 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C314" xr:uid="{660BD309-B449-400C-B96C-2846C8353484}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16211028-E936-4730-B654-C1E4D1D609F6}">
+  <dimension ref="A1:C281"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A37" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A38" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A44" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A48" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A49" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A53" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A54" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A55" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A61" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A62" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A65" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A66" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A67" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A68" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A69" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A71" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A72" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A73" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A75" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A77" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A78" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A79" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A80" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A81" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A82" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A83" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A85" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A86" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A87" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A88" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A91" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A92" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A93" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A94" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A95" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A96" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A97" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A98" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A101" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A103" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A104" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1">
+      <c r="A105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A106" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A107" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A108" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A109" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A110" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A111" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A112" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A113" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A114" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A115" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A116" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A117" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A118" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A119" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A120" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" thickBot="1">
+      <c r="A121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A122" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A123" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A124" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A125" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A128" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A129" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1">
+      <c r="A130" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A131" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A132" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A133" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1">
+      <c r="A134" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A135" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1">
+      <c r="A136" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1">
+      <c r="A137" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A138" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1">
+      <c r="A139" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A140" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A141" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A142" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A143" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A144" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1">
+      <c r="A145" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A146" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A147" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A148" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A149" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A150" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A151" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A152" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A153" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A154" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A155" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" thickBot="1">
+      <c r="A156" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1">
+      <c r="A157" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1">
+      <c r="A158" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" thickBot="1">
+      <c r="A159" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1">
+      <c r="A160" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A161" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A162" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A163" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A164" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A165" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" thickBot="1">
+      <c r="A166" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A167" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A168" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A169" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A170" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A171" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A173" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A174" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A175" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A176" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A177" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" thickBot="1">
+      <c r="A178" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A179" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A180" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1">
+      <c r="A181" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A182" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A183" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1">
+      <c r="A184" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" thickBot="1">
+      <c r="A185" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1">
+      <c r="A186" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C187" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A188" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A189" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A190" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A191" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A192" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A193" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A194" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1">
+      <c r="A195" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1">
+      <c r="A196" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A197" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A198" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickBot="1">
+      <c r="A199" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A200" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A201" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A202" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A203" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A204" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" thickBot="1">
+      <c r="A205" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A206" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A207" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A208" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" thickBot="1">
+      <c r="A209" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A210" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A211" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A212" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A213" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" thickBot="1">
+      <c r="A214" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A215" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A216" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A217" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A218" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A219" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A220" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A221" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A222" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A223" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A224" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A225" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A226" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A227" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" thickBot="1">
+      <c r="A228" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" thickBot="1">
+      <c r="A229" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A230" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A231" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A232" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A233" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A234" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A235" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A236" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15" thickBot="1">
+      <c r="A237" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A238" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A239" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15" thickBot="1">
+      <c r="A240" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A241" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A242" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A243" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A244" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A245" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A246" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C246" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A247" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A248" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A249" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A250" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A251" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A252" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A253" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A254" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15" thickBot="1">
+      <c r="A255" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15" thickBot="1">
+      <c r="A256" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15" thickBot="1">
+      <c r="A257" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A258" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A259" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A260" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A261" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A262" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C262" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A263" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A264" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A265" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A266" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C266" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15" thickBot="1">
+      <c r="A267" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A268" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15" thickBot="1">
+      <c r="A269" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A270" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A271" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C271" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A272" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A273" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A274" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A275" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A276" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15" thickBot="1">
+      <c r="A277" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B277" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A278" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A279" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C279" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15" thickBot="1">
+      <c r="A280" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="14.4" customHeight="1">
+      <c r="A281" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C281" xr:uid="{16211028-E936-4730-B654-C1E4D1D609F6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Yahoo_DFS_Cost.xlsx
+++ b/Yahoo_DFS_Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE982097-B0A1-4DCA-A983-2CD3050BCAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D55999-D60B-4829-A52E-04DC88C502E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="15" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="16" xr2:uid="{016C015A-67D7-4F4E-837A-2D8D8D291DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="5-16" sheetId="13" r:id="rId1"/>
@@ -29,8 +29,10 @@
     <sheet name="12-20" sheetId="26" r:id="rId14"/>
     <sheet name="12-29" sheetId="27" r:id="rId15"/>
     <sheet name="12-31" sheetId="28" r:id="rId16"/>
+    <sheet name="01-07" sheetId="29" r:id="rId17"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'01-07'!$A$1:$C$296</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10-22'!$A$1:$E$485</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'10-29'!$A$1:$E$334</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'11-05'!$A$1:$E$440</definedName>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10533" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11126" uniqueCount="1163">
   <si>
     <t>PG</t>
   </si>
@@ -3478,6 +3480,84 @@
   </si>
   <si>
     <t>James Ennis III</t>
+  </si>
+  <si>
+    <t>Kristaps PorzingisINJ</t>
+  </si>
+  <si>
+    <t>Rudy GobertINJ</t>
+  </si>
+  <si>
+    <t>Damian LillardINJ</t>
+  </si>
+  <si>
+    <t>Bojan BogdanovicO</t>
+  </si>
+  <si>
+    <t>Montrezl HarrellINJ</t>
+  </si>
+  <si>
+    <t>Chimezie MetuINJ</t>
+  </si>
+  <si>
+    <t>Alperen SengunINJ</t>
+  </si>
+  <si>
+    <t>Hassan WhitesideINJ</t>
+  </si>
+  <si>
+    <t>Pat ConnaughtonINJ</t>
+  </si>
+  <si>
+    <t>Grayson AllenINJ</t>
+  </si>
+  <si>
+    <t>Brad WanamakerINJ</t>
+  </si>
+  <si>
+    <t>Jaime Echenique</t>
+  </si>
+  <si>
+    <t>Jordan Goodwin</t>
+  </si>
+  <si>
+    <t>Craig Sword</t>
+  </si>
+  <si>
+    <t>Jordan Bell</t>
+  </si>
+  <si>
+    <t>Javonte GreenINJ</t>
+  </si>
+  <si>
+    <t>Tyler CookINJ</t>
+  </si>
+  <si>
+    <t>Tremont WatersINJ</t>
+  </si>
+  <si>
+    <t>Jeff GreenINJ</t>
+  </si>
+  <si>
+    <t>Isaiah ThomasINJ</t>
+  </si>
+  <si>
+    <t>Armoni BrooksINJ</t>
+  </si>
+  <si>
+    <t>Cameron OliverINJ</t>
+  </si>
+  <si>
+    <t>Leandro BolmaroINJ</t>
+  </si>
+  <si>
+    <t>Isaiah RobyINJ</t>
+  </si>
+  <si>
+    <t>Joe InglesINJ</t>
+  </si>
+  <si>
+    <t>Brandon Goodwin</t>
   </si>
 </sst>
 </file>
@@ -3487,7 +3567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3511,6 +3591,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFE7252E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00D15E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3557,7 +3644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -3633,6 +3720,15 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24672,8 +24768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16211028-E936-4730-B654-C1E4D1D609F6}">
   <dimension ref="A1:C281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27776,6 +27872,3282 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C281" xr:uid="{16211028-E936-4730-B654-C1E4D1D609F6}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2F35C9-1E11-4E8F-8422-322FCDD15A16}">
+  <dimension ref="A1:C296"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.4" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="29">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="29">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1">
+      <c r="A29" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
+      <c r="A30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
+      <c r="A35" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1">
+      <c r="A37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1">
+      <c r="A38" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1">
+      <c r="A41" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1">
+      <c r="A62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1">
+      <c r="A65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1">
+      <c r="A66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1">
+      <c r="A68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A70" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A71" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1">
+      <c r="A72" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1">
+      <c r="A73" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1">
+      <c r="A74" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A75" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1">
+      <c r="A76" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" thickBot="1">
+      <c r="A77" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" thickBot="1">
+      <c r="A78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" thickBot="1">
+      <c r="A79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A80" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A81" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" thickBot="1">
+      <c r="A82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" thickBot="1">
+      <c r="A83" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" thickBot="1">
+      <c r="A85" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" thickBot="1">
+      <c r="A86" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" thickBot="1">
+      <c r="A87" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" thickBot="1">
+      <c r="A88" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" thickBot="1">
+      <c r="A90" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" thickBot="1">
+      <c r="A91" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A92" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" thickBot="1">
+      <c r="A93" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" thickBot="1">
+      <c r="A95" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A97" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" thickBot="1">
+      <c r="A98" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A99" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1">
+      <c r="A101" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" thickBot="1">
+      <c r="A102" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" thickBot="1">
+      <c r="A103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" thickBot="1">
+      <c r="A104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" thickBot="1">
+      <c r="A105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" thickBot="1">
+      <c r="A106" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" thickBot="1">
+      <c r="A107" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" thickBot="1">
+      <c r="A108" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" thickBot="1">
+      <c r="A109" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A110" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A111" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A112" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1">
+      <c r="A113" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" thickBot="1">
+      <c r="A115" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1">
+      <c r="A116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" thickBot="1">
+      <c r="A118" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A119" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A121" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" thickBot="1">
+      <c r="A122" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" thickBot="1">
+      <c r="A123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" thickBot="1">
+      <c r="A124" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" thickBot="1">
+      <c r="A125" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A126" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" thickBot="1">
+      <c r="A127" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" thickBot="1">
+      <c r="A128" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" thickBot="1">
+      <c r="A129" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" thickBot="1">
+      <c r="A131" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" thickBot="1">
+      <c r="A132" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" thickBot="1">
+      <c r="A133" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" thickBot="1">
+      <c r="A134" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" thickBot="1">
+      <c r="A135" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" thickBot="1">
+      <c r="A136" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" thickBot="1">
+      <c r="A137" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" thickBot="1">
+      <c r="A138" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" thickBot="1">
+      <c r="A139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" thickBot="1">
+      <c r="A140" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" thickBot="1">
+      <c r="A141" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" thickBot="1">
+      <c r="A142" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A143" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A144" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" thickBot="1">
+      <c r="A146" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" thickBot="1">
+      <c r="A147" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A148" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" thickBot="1">
+      <c r="A149" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" thickBot="1">
+      <c r="A150" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A152" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" thickBot="1">
+      <c r="A153" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A154" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" thickBot="1">
+      <c r="A155" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A156" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" thickBot="1">
+      <c r="A157" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" thickBot="1">
+      <c r="A158" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" thickBot="1">
+      <c r="A159" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" thickBot="1">
+      <c r="A160" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" thickBot="1">
+      <c r="A161" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" thickBot="1">
+      <c r="A162" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" thickBot="1">
+      <c r="A163" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" thickBot="1">
+      <c r="A164" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" thickBot="1">
+      <c r="A165" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" thickBot="1">
+      <c r="A166" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" thickBot="1">
+      <c r="A167" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" thickBot="1">
+      <c r="A168" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" thickBot="1">
+      <c r="A169" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A170" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" thickBot="1">
+      <c r="A171" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" thickBot="1">
+      <c r="A172" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" thickBot="1">
+      <c r="A173" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" thickBot="1">
+      <c r="A174" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A175" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" thickBot="1">
+      <c r="A176" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" thickBot="1">
+      <c r="A177" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" thickBot="1">
+      <c r="A178" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" thickBot="1">
+      <c r="A179" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" thickBot="1">
+      <c r="A180" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" thickBot="1">
+      <c r="A181" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A182" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" thickBot="1">
+      <c r="A183" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" thickBot="1">
+      <c r="A184" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A185" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" thickBot="1">
+      <c r="A186" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C186" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A187" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" thickBot="1">
+      <c r="A188" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" thickBot="1">
+      <c r="A189" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" thickBot="1">
+      <c r="A190" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A191" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A192" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" thickBot="1">
+      <c r="A193" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A194" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" thickBot="1">
+      <c r="A195" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" thickBot="1">
+      <c r="A196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A197" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A198" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" thickBot="1">
+      <c r="A199" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" thickBot="1">
+      <c r="A200" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" thickBot="1">
+      <c r="A201" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" thickBot="1">
+      <c r="A202" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" thickBot="1">
+      <c r="A203" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" thickBot="1">
+      <c r="A204" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" thickBot="1">
+      <c r="A205" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A206" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" thickBot="1">
+      <c r="A207" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" thickBot="1">
+      <c r="A208" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" thickBot="1">
+      <c r="A209" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" thickBot="1">
+      <c r="A210" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A211" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" thickBot="1">
+      <c r="A212" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A213" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A214" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" thickBot="1">
+      <c r="A215" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" thickBot="1">
+      <c r="A216" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" thickBot="1">
+      <c r="A217" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" thickBot="1">
+      <c r="A218" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" thickBot="1">
+      <c r="A219" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A220" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" thickBot="1">
+      <c r="A221" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15" thickBot="1">
+      <c r="A222" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15" thickBot="1">
+      <c r="A223" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" thickBot="1">
+      <c r="A224" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A225" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" thickBot="1">
+      <c r="A226" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" thickBot="1">
+      <c r="A227" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" thickBot="1">
+      <c r="A228" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" thickBot="1">
+      <c r="A229" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" thickBot="1">
+      <c r="A230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" thickBot="1">
+      <c r="A231" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15" thickBot="1">
+      <c r="A232" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" thickBot="1">
+      <c r="A233" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A234" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" thickBot="1">
+      <c r="A235" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15" thickBot="1">
+      <c r="A236" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15" thickBot="1">
+      <c r="A237" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="29">
+        <v>10</v>
+      </c>
+    </row>